--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n740789\Documents\sfdr_report_generator\excel_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84E2290-B391-47AA-8543-0EC2B8CC468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B2F092-7B03-4CFE-9D83-82FCB8A1924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17475" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
+    <workbookView xWindow="15855" yWindow="-16440" windowWidth="29040" windowHeight="16440" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
   <sheets>
     <sheet name="spanish" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5927" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5927" uniqueCount="241">
   <si>
     <t>macro_narrative</t>
   </si>
@@ -1227,16 +1227,6 @@
                 &lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el periodo de referencia, la Entidad contratada para la gestión de activos de la EPSV ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar un daño:&lt;/p&gt;
-                &lt;ul&gt;
-                    &lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
-                    &lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
-                    &lt;li&gt;Desempeño sostenible neutro: la Gestora ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
-                &lt;/ul&gt;
-                &lt;p&gt;Si alguna inversión directa del Fondo ha incumplido con alguna de estas salvaguardas, la Gestora ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
-                &lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;La Entidad contratada para la gestión de activos de la EPSV ha tenido en cuenta ha tenido en consideración los indicadores obligatorios de principales incidencias adversas en el análisis del principio de no causar daño significativo de los subyacentes de este Plan de Previsión.&lt;/p&gt;
 &lt;p&gt;Para ello, la Entidad contratada para la gestión de activos de la EPSV ha definido umbrales basados en criterios cuantitativos y cualitativos, siendo estos:&lt;/p&gt;
 &lt;ul&gt;
@@ -1391,6 +1381,197 @@
   </si>
   <si>
     <t>&lt;div class="sub-qtext"&gt;¿Cómo difiere el índice de referencia de un índice general de mercado?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt; Con respecto al periodo de referencia anterior, el rendimiento de los indicadores de sostenibilidad ha sido:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Indicador de exclusiones: Se ha mantenido en 0%. &lt;/li&gt;
+&lt;li&gt; Indicador de controversias: Se ha mantenido en 0%. &lt;/li&gt;
+&lt;li&gt;Calificación/Rating ASG mínimo medio del Fondo: En {{YEAR_PREV}} este indicador fue {{ESG_RATING_23}} y en {{YEAR}} ha sido {{ESG_RATING_24}}. &lt;/li&gt;
+&lt;li&gt; El porcentaje medio de activos subyacentes del Fondo alineados con las características medioambientales y sociales promovidas ha sido en ambos periodos de referencia de al menos el 51%&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Con respecto al periodo de referencia anterior, el rendimiento de los indicadores de sostenibilidad ha sido:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Indicador de exclusiones: Se ha mantenido en 0%. &lt;/li&gt;
+&lt;li&gt; Indicador de controversias: Se ha mantenido en 0%. &lt;/li&gt;
+&lt;li&gt;Calificación/Rating ASG mínimo medio del Fondo: En {{YEAR_PREV}} este indicador fue {{ESG_RATING_23}} y en {{YEAR}} ha sido {{ESG_RATING_24}}. &lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Las &lt;strong&gt;actividades facilitadoras&lt;/strong&gt;  permiten de forma directa que otras actividades contribuyan significativamente a un objetivo medioambiental.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;p&gt;El Plan de Previsión no tiene establecido un porcentaje mínimo de alineamiento de las inversiones de este Plan de Previsión a la Taxonomía de la UE. El porcentaje de inversiones alineadas con la Taxonomía de la UE en comparación con el período de referencia anterior ha {{ENCREASE_DECREASE_EUTAXO_ALIGNMENT}}.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;p&gt;El Fondos no tiene establecido un porcentaje mínimo de alineamiento de las inversiones de este Plan de Previsión a la Taxonomía de la UE. El porcentaje de inversiones alineadas con la Taxonomía de la UE en comparación con el período de referencia anterior ha {{ENCREASE_DECREASE_EUTAXO_ALIGNMENT}}.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿De qué manera las inversiones sostenibles que el producto financiero ha realizado en parte no causan un perjuicio significativo a ningún objetivo de inversión sostenible medioambiental o social?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el periodo de referencia, la Entidad contratada para la gestión de activos de la EPSV ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar un daño:&lt;/p&gt;                
+&lt;ul&gt;
+&lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
+&lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
+&lt;li&gt;Desempeño sostenible neutro: la Gestora ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Si alguna inversión directa del Fondo ha incumplido con alguna de estas salvaguardas, la Gestora ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
+&lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El Fondo ha tenido una proporción del {{OTHERS}}% del patrimonio del Fondo a lo largo del periodo de referencia a inversiones que no están alineadas con las características medioambientales y sociales promovidas por el Fondo. Este porcentaje ha sido calculado como el porcentaje medio del Fondo teniendo en cuenta las inversiones subyacentes del último día hábil de cada trimestre del período de referencia, tal como se define en la sección Inversiones principales.&lt;/p&gt;
+&lt;p style="margin-top: -10px;"&gt;                   
+Estas inversiones no alteraron el logro de las características medioambientales y sociales promovidas por el Fondo, y su propósito ha sido el de contribuir a la gestión eficiente de la cartera, proporcionar liquidez y un propósito de cobertura. &lt;/p&gt;
+&lt;p style="margin-top: -10px;"&gt; La Gestora ha establecido salvaguardias ambientales o sociales  mínimas para no causar un perjuicio significativo, como la consideración de los principales incidencias adversas, o la exclusión de actividades no alineadas con las características ambientales y/o sociales del Fondo. Los activos que podían considerarse eran los siguientes:&lt;/p&gt;
+&lt;ul&gt;
+                    &lt;li&gt;Activos de inversión directa de contado que no dispusieran de calificación / rating ASG por falta de datos del proveedor utilizado por la Gestora y que no puedan ser consideradas inversiones sostenibles. Estos activos cumplen los criterios de exclusión del Fondo, asegurando así unas salvaguardas mínimas.&lt;/li&gt;
+                    &lt;li&gt;IIC que no dispusieran de calificación / rating ASG por falta de datos y que no puedan ser clasificadas como IIC del art. 8 o 9 del Reglamento (UE) 2019/2088. Dentro de los procedimientos de selección de IIC se aplican unas salvaguardas mínimas siempre que esté de acuerdo con el procedimiento interno de la Gestora.&lt;/li&gt;
+                    &lt;li&gt;Otros activos de contado distintos de los señalados anteriormente (i.e.: ETC) que estén permitidos por la política del Fondo y para los que se aplican unas salvaguardas mínimas.&lt;/li&gt;
+                    &lt;li&gt;Liquidez en el depositario y resto de cuentas corrientes utilizadas para la operativa ordinaria del Fondo (i.e.: garantías de derivados, etc.).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Adicionalmente, para las inversiones en instrumentos financieros derivados no les resulta de aplicación los procedimientos descritos para la promoción de las características ASG.&lt;/p&gt;
+&lt;p style="margin-top: -10px;"&gt;En este caso la Gestora tiene establecido procedimientos para verificar que dichos instrumentos no alteran la consecución de las características ambientales o sociales promovidas por el Fondo, pudiendo utilizarse dichos instrumentos con la finalidad de cobertura y de gestión eficiente de la cartera del Fondo de inversión como elemento diversificador y de gestión.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt; Durante el período de referencia, se han adoptado las siguientes medidas para cumplir con las características medioambientales y sociales del Fondo : &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;La Gestora ha revisado periódicamente que el Fondo ha cumplido con las siguientes exclusiones.
+&lt;ul&gt;
+&lt;li&gt;Se han excluido emisores con exposición (medida en términos de volumen de negocios) relacionada con armas controvertidas, y/o con una exposición significativa a combustibles fósiles no convencionales y/o actividades la generación eléctrica a partir del carbón y/o la minería de carbón. &lt;/li&gt;
+&lt;li&gt;Se han excluido del universo de inversiones aquellos emisores en los que se han identificado controversias consideradas críticas en materia medioambiental, social o de gobernanza.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;li&gt;La Gestora ha supervisado periódicamente que la calificación / rating ASG mínima medio de los emisores de los activos de la cartera de inversión directa de contado e IIC con rating del Fondo ha sido de al menos A-, de acuerdo con la metodología propia de la Gestora en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Adicionalmente, la Gestora también consideró que los siguientes casos también cumplían con las características medioambientales y sociales promovidas por el Fondo, y se contabilizaban como tal:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Los casos de un emisor sin calificación ASG o que no cumpliera con los indicadores ASG establecidos en la estrategia de inversión, pero que tengan inversiones que puedan ser consideradas inversiones sostenibles, y en concreto emisiones de dicho emisor que puedan ser calificadas como bono verde, social o sostenible, estas emisiones podrían formar parte del universo de activos que promueven las características ASG del Fondo, tras la validación previa de la Gestora, de conformidad con su metodología de análisis propia. &lt;/li&gt;
+&lt;li&gt;Las IICs que, aunque no tengan asignado un rating ASG por la Gestora, sean IICs que promuevan características ASG. (IIC consideradas art. 8 Reglamento (UE) 2019/2088 y/o que tengan como objetivo inversiones sostenibles (art. 9 conforme con el Reglamento (UE) 2019/2088)).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Los criterios ASG anteriores, junto con el cumplimiento de los compromisos mínimos del Fondo se integraron en el proceso de inversión y fueron supervisados periódicamente por el equipo de Cumplimiento de la Gestora. En caso de incumplimiento, se tomaron las medidas correctivas necesarias (por ejemplo, comunicación con el equipo SRI, remisión al comité correspondiente, entre otros).&lt;/p&gt;
+&lt;p&gt;Además,el desempeño ASG de los emisores ha sido objeto de un seguimiento sistemático y continuo por parte del equipo SRI de la Gestora, incluido el seguimiento continuo de las posibles discrepancias detectadas por los gestores y los datos del modelo proporcionado por los proveedores.&lt;/p&gt;
+&lt;p&gt;Por último, la Gestora ha llevado a cabo actividades de engagement con emisores privados y actividades de voto en los casos en que el tipo de activo lo permite (acciones). Estas actividades estaban alineadas con las características sociales y medioambientales del Fondo y con las Políticas de Engagement y Voto de la Gestora disponibles en https://www.santanderassetmanagement.es/sostenibilidad/. Para ver más ejemplos de las actividades de engagement y voto realizadas, se puede consultar el informe de implicación y voto de la Gestora disponible en: https://www.santanderassetmanagement.es/sostenibilidad/&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;La &lt;strong&gt;taxonomía de la UE&lt;/strong&gt; es un sistema de clasificación previsto en el Reglamento (UE) 2020/852 por el que se establece una lista de &lt;strong&gt;actividades económicas medioambientalmente sostenibles.&lt;/strong&gt; Dicho Reglamento no incluye una lista de actividades económicas socialmente sostenibles. Las inversiones sostenibles con un objetivo medioambiental pueden ajustarse, o no, a la taxonomía. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El Fondo ha promovido características medioambientales y sociales evaluando sus inversiones subyacentes en función de criterios ambientales, sociales y de gobernanza (ASG) utilizando una metodología ASG propia e invirtiendo en emisores que exhiban prácticas ASG sólidas y cumplan con los factores de exclusión descritos en la estrategia de inversión recogida en el anexo de Sostenibilidad de la información precontractual de este Fondo.&lt;/p&gt;
+&lt;p&gt;En este sentido, se han utilizado elementos financieros, ambientales, sociales y de buen gobierno para obtener una visión más completa de los activos subyacentes en los que el Fondo invirtió durante el período de referencia, habiendo evaluado una combinación de factores ASG que incluyeron, pero no se limitaron a:&lt;/p&gt;
+    &lt;ul&gt;
+        &lt;li&gt;Factores ambientales mediante la evaluación del desempeño cuantitativo y cualitativo de los emisores en asuntos como las emisiones de gases de efecto invernadero, el agotamiento de recursos, la contaminación y la gestión del agua. Estos factores han sido aplicables tanto a emisores públicos como privados. Por la parte de deuda pública, se valoraron factores específicos como políticas y gastos en educación y salud, empleo, calidad social, compromiso con diferentes convenciones relativas a derechos humanos y laborales, entre otros. &lt;/li&gt;
+        &lt;li&gt;Factores sociales abarcando desde cuestiones relacionadas con el lugar de trabajo, el cumplimiento de los estándares laborales o la gestión del talento, hasta las relaciones con las comunidades locales, la privacidad y la seguridad de los datos y los derechos humanos. &lt;/li&gt;
+        &lt;li&gt;Factores de gobernanza incluyendo la calidad de la gestión de un emisor, su cultura y ética, la eficacia de los sistemas de gobernanza para minimizar el riesgo de mala gestión y la capacidad para anticipar los riesgos operativos y legales que podrían representar un incumplimiento. También se han considerado factores relacionados con la composición y estructura del consejo del emisor. Por la parte de deuda pública, se valoraron factores específicos como son calidad regulatoria y de las leyes de los Estados, control de la corrupción, gastos en I+D, entre otros. &lt;/li&gt;
+    &lt;/ul&gt;
+&lt;p&gt;La evaluación de estos factores para cada emisor se basó en la materialidad sectorial definida por la Gestora como parte de su metodología ASG. De manera adicional a estos factores, los casos de controversias también fueron evaluados considerando la gravedad de su impacto en la sociedad, el medioambiente y el impacto en los grupos de interés y, en consecuencia, se integraron dentro de la metodología ASG de la Gestora. &lt;/p&gt;
+&lt;p&gt;La Gestora también promovió características medioambientales y sociales mediante la aplicación de acciones de engagement, ya sea individualmente o mediante iniciativas colaborativas, para promover mejores prácticas ASG de acuerdo con su política de engagement.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿Cómo se han comportado los indicadores de sostenibilidad?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; A continuación, se describe el comportamiento de los indicadores de sostenibilidad del Fondo a lo largo del período de referencia:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt; &lt;strong&gt;Indicador de exclusiones:&lt;/strong&gt; El Fondo no ha realizado ninguna inversión en sectores no permitidos por la política de inversión del mismo de acuerdo con el procedimiento interno de la Gestora. Es decir, el Fondo no tuvo exposición a activos de inversión directa de contado de emisores, así como los instrumentos financieros derivados (futuros y opciones sobre acciones) utilizados por el Fondo para tomar como referencia el índice en los que el emisor del subyacente de dichos derivados mayoritariamente orientados a actividades relacionadas con el armamento controvertido, así como los combustibles fósiles no convencionales y la generación eléctrica a partir del carbón y minería de carbón. . Adicionalmente, para el caso de la renta fija pública, el Fondo no ha tenido exposición a países con un desempeño deficiente en términos de derechos políticos y libertades sociales. &lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Indicador de controversias:&lt;/strong&gt; El Fondo ha tenido una exposición del 0% a activos de inversión directa de contado de emisores, así como los instrumentos financieros derivados (futuros y opciones sobre acciones) utilizados por el Fondo para tomar como referencia el índice en los que el emisor del subyacente de dichos derivados haya estado involucrado en controversias consideradas críticas.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Calificación/Rating ASG mínimo medio del Fondo:&lt;/strong&gt; La calificación ASG promedio de los emisores de los activos con rating de la cartera de inversión directa de contado e IIC y emisores de los subyacentes de los futuros y opciones sobre acciones utilizados por el Fondo para tomar como referencia el índice con rating según la metodología interna de la Gestora fue {{ESG_RATING_24}} en una escala de 7 niveles (C-, C, C+, B, A-, a y A+, donde A+ refleja el mejor rendimiento ASG). Este valor se ha calculado como la calificación ASG media teniendo en cuenta los datos del último día hábil de cada trimestre del período de referencia.&lt;/li&gt;
+&lt;li&gt;El porcentaje medio de activos subyacentes del Fondo alineados con las características medioambientales y sociales promovidas fue del &lt;strong&gt;{{SFDR_LAST_REP_INV_WITH_ENV_SOC}}%&lt;/strong&gt; a lo largo del periodo de referencia. &lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt; ¿... y en comparación con periodos anteriores?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿Cuáles han sido los objetivos de las inversiones sostenibles que ha realizado en parte el producto financiero y de qué forma ha contribuido la inversión sostenible a dichos objetivos?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los objetivos de inversión sostenible de este Fondo se alcanzaron invirtiendo en emisores que contribuyeron al menos a uno de los objetivos definidos en el Anexo de Sostenibilidad de la información precontractual de este Fondo. En la práctica, los subyacentes que se han contabilizado como inversión sostenible son aquellos emisores que han cumplido al menos uno de los siguientes criterios:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Emisores cuyas actividades están alineadas con la trayectoria de descarbonización en virtud del Acuerdo de París o son actualmente Net Zero. Los emisores que han cumplido con este criterio contribuyeron a alcanzar objetivos medioambientalmente sostenibles, como la mitigación del cambio climático, ayudando a estabilizar las concentraciones de gases de efecto invernadero en la atmósfera y/o la adaptación al cambio climático invirtiendo en soluciones de adaptación que reduzcan o prevengan sustancialmente el riesgo efectos climáticos adversos. &lt;/li&gt;
+&lt;li&gt;Emisores cuyas prácticas están al menos en un 20% en términos de ingresos alineadas con los objetivos de mitigación y/o adaptación de la Taxonomía de la UE. A la fecha del presente documento, se consideró que los emisores que cumplen con este criterio contribuyeron a los objetivos medioambientales de mitigación y/o adaptación al cambio climático descritos anteriormente. &lt;/li&gt;
+&lt;li&gt;Emisores que generan al menos un 20% de ingresos derivados de productos y/o servicios que generan un impacto medioambiental medible (es decir, emisores que desarrollan prácticas agrícolas sostenibles, tecnologías de prevención de la contaminación o energías alternativas, entre otros). Se ha considerado que los emisores que cumplieron con este criterio contribuyeron a objetivos medioambientalmente sostenibles, como la prevención y el control de la contaminación, la protección y recuperación de la biodiversidad y los ecosistemas y el uso sostenible y la protección de los recursos hídricos y marinos. &lt;/li&gt;
+&lt;li&gt;Emisores que generan al menos un 20% de ingresos derivados de productos y/o servicios que generan un impacto social medible (es decir, emisores que desarrollan soluciones educativas, mejora de la conectividad o soluciones de tratamiento de enfermedades, entre otros). Los emisores que cumplieron con este criterio contribuyeron a alcanzar objetivos sociales sostenibles, como estándares de vida adecuados y bienestar de los consumidores, contribuyendo a la creación de productos y servicios que satisfagan las necesidades humanas. 
+&lt;li&gt;Emisores cuyas prácticas corporativas demuestran su intención de contribuir a los objetivos medioambientales y/o sociales sostenibles del Fondo a través de su desempeño líder en sostenibilidad basado en la puntuación ASG de la Gestora. &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Las inversiones en bonos verdes, bonos sociales, y bonos sostenibles también se consideraron contribuyentes a los objetivos de sostenibilidad medioambiental o social del Fondo mediante la financiación de proyectos verdes, sociales o sostenibles de acuerdo con estándares de referencia como los desarrollados por la Asociación Internacional del Mercado de Capitales (“ICMA”).&lt;/p&gt;
+&lt;p&gt; Cuando el Fondo ha invertido en IICs de terceras partes, la Gestora utilizó los datos y metodologías de inversión sostenible divulgados por las gestoras terceras.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el periodo de referencia, la Entidad contratada para la gestión de activos de la EPSV ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar un daño:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
+&lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
+&lt;li&gt;Desempeño sostenible neutro: la Gestora ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Si alguna inversión directa del Fondo ha incumplido con alguna de estas salvaguardas, la Gestora ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
+&lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el periodo de referencia, la Entidad contratada para la gestión de activos de la EPSV ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar un daño:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
+&lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
+&lt;li&gt;Desempeño sostenible neutro: la Gestora ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Si alguna inversión directa del Fondo ha incumplido con alguna de estas salvaguardas, la Gestora ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
+&lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Durante el período de referencia, se han adoptado las siguientes medidas para cumplir con las características medioambientales y sociales del Fondo : &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;La Gestora ha revisado periódicamente que el Fondo ha cumplido con las siguientes exclusiones para los activos de inversión directa de contado de emisores, así como los instrumentos financieros derivados (futuros y opciones sobre acciones) utilizados por el Fondo para tomar como referencia el índice en los que el emisor del subyacente de dichos derivados.
+&lt;ul&gt;
+&lt;li&gt;Se han excluido emisores con exposición (medida en términos de volumen de negocios) relacionada con armas controvertidas, y/o con una exposición significativa a combustibles fósiles no convencionales y/o actividades la generación eléctrica a partir del carbón y/o la minería de carbón. &lt;/li&gt;
+&lt;li&gt;Se han excluido del universo de inversiones aquellos emisores en los que se han identificado controversias consideradas críticas en materia medioambiental, social o de gobernanza.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;li&gt;La Gestora ha supervisado periódicamente que la calificación / rating ASG mínima medio de los emisores de los activos de la cartera de inversión directa de contado, IIC con rating y emisores de los subyacentes de los futuros y opciones sobre acciones utilizados por el Fondo para tomar como referencia el índice, con rating del Fondo ha sido de al menos A-, de acuerdo con la metodología propia de la Gestora en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Adicionalmente, la Gestora también consideró que los siguientes casos también cumplían con las características medioambientales y sociales promovidas por el Fondo, y se contabilizaban como tal:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Los casos de un emisor sin calificación ASG o que no cumpliera con los indicadores ASG establecidos en la estrategia de inversión, pero que tengan inversiones que puedan ser consideradas inversiones sostenibles, y en concreto emisiones de dicho emisor que puedan ser calificadas como bono verde, social o sostenible, estas emisiones podrían formar parte del universo de activos que promueven las características ASG del Fondo, tras la validación previa de la Gestora, de conformidad con su metodología de análisis propia.&lt;/li&gt;
+&lt;li&gt;Las IICs que, aunque no tengan asignado un rating ASG por la Gestora, sean IICs que promuevan características ASG. (IIC consideradas art. 8 Reglamento (UE) 2019/2088 y/o que tengan como objetivo inversiones sostenibles (art. 9 conforme con el Reglamento (UE) 2019/2088)).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Los criterios ASG anteriores, junto con el cumplimiento de los compromisos mínimos del Fondo se integraron en el proceso de inversión y fueron supervisados periódicamente por el equipo de Cumplimiento de la Gestora. En caso de incumplimiento, se tomaron las medidas correctivas necesarias (por ejemplo, comunicación con el equipo SRI, remisión al comité correspondiente, entre otros).&lt;/p&gt; 
+&lt;p&gt;Además,el desempeño ASG de los emisores ha sido objeto de un seguimiento sistemático y continuo por parte del equipo SRI de la Gestora, incluido el seguimiento continuo de las posibles discrepancias detectadas por los gestores y los datos del modelo proporcionado por los proveedores.&lt;/p&gt;
+&lt;p&gt;Por último, la Gestora ha llevado a cabo actividades de engagement con emisores privados y actividades de voto en los casos en que el tipo de activo lo permite (acciones). Estas actividades estaban alineadas con las características sociales y medioambientales del Fondo y con las Políticas de Engagement y Voto de la Gestora disponibles en https://www.santanderassetmanagement.es/sostenibilidad/. Para ver más ejemplos de las actividades de engagement y voto realizadas, se puede consultar el informe de implicación y voto de la Gestora disponible en: https://www.santanderassetmanagement.es/sostenibilidad/&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Durante el período de referencia, se han adoptado las siguientes medidas para cumplir con las características medioambientales y sociales del Fondo : &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;La Gestora ha revisado periódicamente que el Fondo ha cumplido con las siguientes exclusiones.
+&lt;ul&gt;
+&lt;li&gt;Se han excluido emisores con exposición (medida en términos de volumen de negocios) relacionada con armas controvertidas, y/o con una exposición significativa a combustibles fósiles no convencionales y/o actividades la generación eléctrica a partir del carbón y/o la minería de carbón. &lt;/li&gt;
+&lt;li&gt;Se han excluido del universo de inversiones aquellos emisores en los que se han identificado controversias consideradas críticas en materia medioambiental, social o de gobernanza.&lt;/li&gt;
+&lt;li&gt;Los emisores de renta fija pública fueron evaluados para excluir con aquellos con bajo desempeño en relación con los derechos políticos y libertades sociales. Para ello, la Gestora basó su análisis en cualquiera de los dos indicadores siguientes:&lt;/li&gt;
+&lt;ul&gt;
+&lt;li&gt;Democracy Index: Indicador que determina el rango de democracia de 167 países en base a mediciones tales como el proceso electoral y pluralismo, libertades civiles, funcionamiento del gobierno, participación política y cultura política. En una escala de 1 a 10 puntos, se excluyen los países que  están por debajo de 6 puntos y se corresponden con regímenes híbridos y autoritarios.&lt;/li&gt;
+&lt;li&gt; Estudio Freedom in the World: Indicador que mide el grado de democracia y libertad política en todos los países y en los territorios más importantes en disputa de todo el mundo en una escala de 3 niveles (“No libre”, “Parcialmente libre” y “libre”), se excluyen aquellos países calificados como “No libres”.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;La Gestora ha supervisado periódicamente que la calificación / rating ASG mínima medio de los emisores de los activos de la cartera de inversión directa de contado e IIC con rating del Fondo ha sido de al menos A-, de acuerdo con la metodología propia de la Gestora en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Adicionalmente, la Gestora también consideró que los siguientes casos también cumplían con las características medioambientales y sociales promovidas por el Fondo, y se contabilizaban como tal:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Los casos de un emisor sin calificación ASG o que no cumpliera con los indicadores ASG establecidos en la estrategia de inversión, pero que tengan inversiones que puedan ser consideradas inversiones sostenibles, y en concreto emisiones de dicho emisor que puedan ser calificadas como bono verde, social o sostenible, estas emisiones podrían formar parte del universo de activos que promueven las características ASG del Fondo, tras la validación previa de la Gestora, de conformidad con su metodología de análisis propia. &lt;/li&gt;
+&lt;li&gt;Las IICs que, aunque no tengan asignado un rating ASG por la Gestora, sean IICs que promuevan características ASG. (IIC consideradas art. 8 Reglamento (UE) 2019/2088 y/o que tengan como objetivo inversiones sostenibles (art. 9 conforme con el Reglamento (UE) 2019/2088)).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Los criter+BX4+BX7</t>
+  </si>
+  <si>
+    <t>¿Cómo se ha comportado este producto financiero en comparación con el índice de referencia designado?</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿Cómo se ha comportado este producto financiero con respecto a los indicadores de sostenibilidad para determinar la conformidad del índice de referencia con las características medioambientales o sociales que promueve?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿Cómo se ha comportado este producto financiero en comparación con el índice de referencia? &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿Cómo se ha comportado este producto financiero en comparación con el índice de referencia designado?&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -1438,12 +1619,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1473,7 +1660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1496,6 +1683,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1834,10 +2027,10 @@
   <dimension ref="A1:CI69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BZ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1869,7 +2062,7 @@
     <col min="32" max="33" width="26.7265625" customWidth="1"/>
     <col min="34" max="34" width="73.90625" customWidth="1"/>
     <col min="35" max="35" width="26.7265625" customWidth="1"/>
-    <col min="36" max="36" width="73.90625" customWidth="1"/>
+    <col min="36" max="36" width="16.7265625" customWidth="1"/>
     <col min="37" max="38" width="26.7265625" customWidth="1"/>
     <col min="39" max="39" width="73.90625" customWidth="1"/>
     <col min="40" max="41" width="26.7265625" customWidth="1"/>
@@ -2169,7 +2362,7 @@
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2179,7 +2372,7 @@
         <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>60</v>
@@ -2224,7 +2417,7 @@
         <v>92</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>94</v>
@@ -2233,10 +2426,10 @@
         <v>72</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>98</v>
@@ -2248,7 +2441,7 @@
         <v>100</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>103</v>
@@ -2332,7 +2525,7 @@
         <v>142</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="BE2" s="3" t="s">
         <v>140</v>
@@ -2359,13 +2552,13 @@
         <v>158</v>
       </c>
       <c r="BM2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="BN2" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="BO2" s="3" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="BP2" s="3" t="s">
         <v>162</v>
@@ -2374,25 +2567,25 @@
         <v>164</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BS2" s="3" t="s">
         <v>166</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="BX2" s="3" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="BY2" s="3" t="s">
         <v>172</v>
@@ -2401,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="CA2" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="CB2" s="3" t="s">
         <v>176</v>
@@ -2410,19 +2603,19 @@
         <v>56</v>
       </c>
       <c r="CD2" s="3" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="CE2" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="CG2" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="CI2" s="3" t="s">
         <v>56</v>
@@ -2432,7 +2625,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2442,7 +2635,7 @@
         <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>60</v>
@@ -2505,13 +2698,13 @@
         <v>98</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>100</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>103</v>
@@ -2520,7 +2713,7 @@
         <v>104</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>107</v>
@@ -2553,7 +2746,7 @@
         <v>118</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ3" s="3" t="s">
         <v>128</v>
@@ -2592,10 +2785,10 @@
         <v>143</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="BE3" s="3" t="s">
         <v>140</v>
@@ -2604,10 +2797,10 @@
         <v>139</v>
       </c>
       <c r="BG3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH3" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>155</v>
@@ -2625,13 +2818,13 @@
         <v>51</v>
       </c>
       <c r="BN3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="BP3" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="BQ3" s="3" t="s">
         <v>164</v>
@@ -2643,19 +2836,19 @@
         <v>166</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BW3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="BX3" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="BY3" s="3" t="s">
         <v>172</v>
@@ -2664,7 +2857,7 @@
         <v>55</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="CB3" s="3" t="s">
         <v>176</v>
@@ -2673,30 +2866,30 @@
         <v>56</v>
       </c>
       <c r="CD3" s="3" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="CE3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="CG3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH3" s="3" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="CI3" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:87" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:87" ht="312.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>211</v>
+      <c r="B4" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
@@ -2705,7 +2898,7 @@
         <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>60</v>
@@ -2732,7 +2925,7 @@
         <v>74</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>87</v>
@@ -2747,7 +2940,7 @@
         <v>185</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>186</v>
@@ -2759,7 +2952,7 @@
         <v>187</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>188</v>
@@ -2768,13 +2961,13 @@
         <v>98</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>100</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>103</v>
@@ -2783,7 +2976,7 @@
         <v>104</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>107</v>
@@ -2816,7 +3009,7 @@
         <v>118</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ4" s="3" t="s">
         <v>128</v>
@@ -2855,10 +3048,10 @@
         <v>143</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="BE4" s="3" t="s">
         <v>140</v>
@@ -2867,10 +3060,10 @@
         <v>139</v>
       </c>
       <c r="BG4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH4" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="BH4" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="BI4" s="3" t="s">
         <v>155</v>
@@ -2888,13 +3081,13 @@
         <v>51</v>
       </c>
       <c r="BN4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BP4" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="BP4" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="BQ4" s="3" t="s">
         <v>164</v>
@@ -2906,19 +3099,19 @@
         <v>166</v>
       </c>
       <c r="BT4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BW4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BX4" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="BX4" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="BY4" s="3" t="s">
         <v>172</v>
@@ -2927,38 +3120,38 @@
         <v>55</v>
       </c>
       <c r="CA4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="CB4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="CB4" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="CC4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="CE4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF4" s="3" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="CG4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="CI4" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:87" ht="191" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:87" ht="312.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2968,7 +3161,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>60</v>
@@ -2995,7 +3188,7 @@
         <v>74</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>87</v>
@@ -3010,10 +3203,10 @@
         <v>185</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>94</v>
@@ -3022,7 +3215,7 @@
         <v>187</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>188</v>
@@ -3031,13 +3224,13 @@
         <v>98</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>100</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>103</v>
@@ -3046,7 +3239,7 @@
         <v>104</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>107</v>
@@ -3079,7 +3272,7 @@
         <v>118</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ5" s="3" t="s">
         <v>128</v>
@@ -3118,10 +3311,10 @@
         <v>143</v>
       </c>
       <c r="BC5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="BE5" s="3" t="s">
         <v>140</v>
@@ -3130,10 +3323,10 @@
         <v>139</v>
       </c>
       <c r="BG5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH5" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="BH5" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="BI5" s="3" t="s">
         <v>155</v>
@@ -3151,13 +3344,13 @@
         <v>51</v>
       </c>
       <c r="BN5" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BO5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BP5" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="BP5" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="BQ5" s="3" t="s">
         <v>164</v>
@@ -3169,19 +3362,19 @@
         <v>166</v>
       </c>
       <c r="BT5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BU5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BV5" s="3" t="s">
+      <c r="BW5" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="BW5" s="3" t="s">
+      <c r="BX5" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="BX5" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="BY5" s="3" t="s">
         <v>172</v>
@@ -3190,38 +3383,38 @@
         <v>55</v>
       </c>
       <c r="CA5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="CB5" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="CB5" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="CC5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="CE5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF5" s="3" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="CG5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH5" s="3" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="CI5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:87" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:87" ht="276.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3231,7 +3424,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>60</v>
@@ -3246,7 +3439,7 @@
         <v>82</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>84</v>
@@ -3267,28 +3460,28 @@
         <v>88</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>71</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>98</v>
@@ -3300,7 +3493,7 @@
         <v>100</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>103</v>
@@ -3384,7 +3577,7 @@
         <v>142</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="BE6" s="3" t="s">
         <v>140</v>
@@ -3411,13 +3604,13 @@
         <v>158</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="BO6" s="3" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="BP6" s="3" t="s">
         <v>162</v>
@@ -3426,65 +3619,65 @@
         <v>164</v>
       </c>
       <c r="BR6" s="3" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="BS6" s="3" t="s">
         <v>166</v>
       </c>
       <c r="BT6" s="3" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="BU6" s="3" t="s">
         <v>168</v>
       </c>
       <c r="BV6" s="3" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="BW6" s="3" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="BY6" s="3" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="BZ6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="CB6" s="3" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="CC6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="CE6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF6" s="3" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="CG6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH6" s="3" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="CI6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:87" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:87" ht="276.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3494,7 +3687,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>60</v>
@@ -3509,7 +3702,7 @@
         <v>82</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>84</v>
@@ -3521,7 +3714,7 @@
         <v>74</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>87</v>
@@ -3530,28 +3723,28 @@
         <v>88</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>98</v>
@@ -3563,7 +3756,7 @@
         <v>100</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>103</v>
@@ -3647,7 +3840,7 @@
         <v>142</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="BE7" s="3" t="s">
         <v>140</v>
@@ -3674,13 +3867,13 @@
         <v>158</v>
       </c>
       <c r="BM7" s="3" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="BO7" s="3" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="BP7" s="3" t="s">
         <v>162</v>
@@ -3689,55 +3882,55 @@
         <v>164</v>
       </c>
       <c r="BR7" s="3" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="BS7" s="3" t="s">
         <v>166</v>
       </c>
       <c r="BT7" s="3" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="BU7" s="3" t="s">
         <v>168</v>
       </c>
       <c r="BV7" s="3" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="BW7" s="3" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="BY7" s="3" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="BZ7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="CA7" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="CB7" s="3" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="CC7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CD7" s="3" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="CE7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF7" s="3" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="CG7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH7" s="3" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="CI7" s="3" t="s">
         <v>56</v>

--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n740789\Documents\sfdr_report_generator\excel_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B2F092-7B03-4CFE-9D83-82FCB8A1924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445732F7-F610-497D-BDD5-E7225610B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15855" yWindow="-16440" windowWidth="29040" windowHeight="16440" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5927" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5927" uniqueCount="249">
   <si>
     <t>macro_narrative</t>
   </si>
@@ -1542,6 +1542,72 @@
 &lt;p&gt;Por último, la Gestora ha llevado a cabo actividades de engagement con emisores privados y actividades de voto en los casos en que el tipo de activo lo permite (acciones). Estas actividades estaban alineadas con las características sociales y medioambientales del Fondo y con las Políticas de Engagement y Voto de la Gestora disponibles en https://www.santanderassetmanagement.es/sostenibilidad/. Para ver más ejemplos de las actividades de engagement y voto realizadas, se puede consultar el informe de implicación y voto de la Gestora disponible en: https://www.santanderassetmanagement.es/sostenibilidad/&lt;/p&gt;</t>
   </si>
   <si>
+    <t>¿Cómo se ha comportado este producto financiero en comparación con el índice de referencia designado?</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿Cómo se ha comportado este producto financiero con respecto a los indicadores de sostenibilidad para determinar la conformidad del índice de referencia con las características medioambientales o sociales que promueve?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿Cómo se ha comportado este producto financiero en comparación con el índice de referencia? &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿Cómo se ha comportado este producto financiero en comparación con el índice de referencia designado?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El Fondo ha promovido características medioambientales y sociales evaluando sus inversiones subyacentes en función de criterios ambientales, sociales y de gobernanza (ASG) utilizando una metodología ASG propia e invirtiendo en emisores que exhiban prácticas ASG sólidas y cumplan con los factores de exclusión descritos en la estrategia de inversión recogida en el anexo de Sostenibilidad de la información precontractual de este Fondo.&lt;/p&gt;
+&lt;p&gt;En este sentido, se han utilizado elementos financieros, ambientales, sociales y de buen gobierno para obtener una visión más completa de los activos subyacentes en los que el Fondo invirtió durante el período de referencia, habiendo evaluado una combinación de factores ASG que incluyeron, pero no se limitaron a:&lt;/p&gt;
+    &lt;ul&gt;
+        &lt;li&gt;Factores ambientales mediante la evaluación del desempeño cuantitativo y cualitativo de los emisores en asuntos como las emisiones de gases de efecto invernadero, el agotamiento de recursos, la contaminación y la gestión del agua. Estos factores han sido aplicables tanto a emisores públicos como privados.&lt;/li&gt;
+        &lt;li&gt;Factores sociales abarcando desde cuestiones relacionadas con el lugar de trabajo, el cumplimiento de los estándares laborales o la gestión del talento, hasta las relaciones con las comunidades locales, la privacidad y la seguridad de los datos y los derechos humanos. Por la parte de deuda pública, se valoraron factores específicos como políticas y gastos en educación y salud, empleo, calidad social, compromiso con diferentes convenciones relativas a derechos humanos y laborales, entre otros. &lt;/li&gt;
+        &lt;li&gt;Factores de gobernanza incluyendo la calidad de la gestión de un emisor, su cultura y ética, la eficacia de los sistemas de gobernanza para minimizar el riesgo de mala gestión y la capacidad para anticipar los riesgos operativos y legales que podrían representar un incumplimiento. También se han considerado factores relacionados con la composición y estructura del consejo del emisor. Por la parte de deuda pública, se valoraron factores específicos como son calidad regulatoria y de las leyes de los Estados, control de la corrupción, gastos en I+D, entre otros.&lt;/li&gt;
+    &lt;/ul&gt;
+&lt;p&gt;La evaluación de estos factores para cada emisor se basó en la materialidad sectorial definida por la Gestora como parte de su metodología ASG. De manera adicional a estos factores, los casos de controversias también fueron evaluados considerando la gravedad de su impacto en la sociedad, el medioambiente y el impacto en los grupos de interés y, en consecuencia, se integraron dentro de la metodología ASG de la Gestora. &lt;/p&gt;
+&lt;p&gt;La Gestora también promovió características medioambientales y sociales mediante la aplicación de acciones de engagement, ya sea individualmente o mediante iniciativas colaborativas, para promover mejores prácticas ASG de acuerdo con su política de engagement.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; A continuación, se describe el comportamiento de los indicadores de sostenibilidad del Fondo a lo largo del período de referencia:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt; &lt;strong&gt;Indicador de exclusiones:&lt;/strong&gt; El Fondo no ha realizado ninguna inversión en sectores no permitidos por la política de inversión del mismo de acuerdo con el procedimiento interno de la Gestora. Es decir, el Fondo no tuvo exposición a activos de inversión directa de contado de emisores, así como los instrumentos financieros derivados (futuros y opciones sobre acciones) utilizados por el Fondo para tomar como referencia el índice en los que el emisor del subyacente de dichos derivados mayoritariamente orientados a actividades relacionadas con el armamento controvertido, así como los combustibles fósiles no convencionales y la generación eléctrica a partir del carbón y minería de carbón. Adicionalmente, para el caso de la renta fija pública, el Fondo no ha tenido exposición a países con un desempeño deficiente en términos de derechos políticos y libertades sociales. &lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Indicador de controversias:&lt;/strong&gt; El Fondo ha tenido una exposición del 0% a activos de inversión directa de contado de emisores, así como los instrumentos financieros derivados (futuros y opciones sobre acciones) utilizados por el Fondo para tomar como referencia el índice en los que el emisor del subyacente de dichos derivados haya estado involucrado en controversias consideradas críticas.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Calificación/Rating ASG mínimo medio del Fondo:&lt;/strong&gt; La calificación ASG promedio de los emisores de los activos con rating de la cartera de inversión directa de contado e IIC y emisores de los subyacentes de los futuros y opciones sobre acciones utilizados por el Fondo para tomar como referencia el índice con rating según la metodología interna de la Gestora fue {{ESG_RATING_24}} en una escala de 7 niveles (C-, C, C+, B, A-, a y A+, donde A+ refleja el mejor rendimiento ASG). Este valor se ha calculado como la calificación ASG media teniendo en cuenta los datos del último día hábil de cada trimestre del período de referencia.&lt;/li&gt;
+&lt;li&gt;El porcentaje medio de activos subyacentes del Fondo alineados con las características medioambientales y sociales promovidas fue del &lt;strong&gt;{{SFDR_LAST_REP_INV_WITH_ENV_SOC}}%&lt;/strong&gt; a lo largo del periodo de referencia. &lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El Fondo ha tenido en cuenta en cuenta las principales incidencias adversas sobre los factores de sostenibilidad a la hora de adoptar decisiones de inversión. Para ello, la Gestora ha realizado un seguimiento continuo del desempeño de los indicadores de la Tabla 1 y de dos indicadores opcionales de las Tablas 2 y 3 del Anexo I del RTS, para hacer una valoración de los efectos negativos que las inversiones realizadas por este Fondo pueden causar hacia el exterior.&lt;/p&gt;
+&lt;p&gt;Durante el período de referencia, la Gestora ha identificado estos impactos en dos niveles:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Con base en el desempeño relativo de cada emisor con el objetivo de identificar aquellos emisores con peor desempeño en cada indicador de PIAS. En este sentido, los emisores con peor desempeño con respecto a su sector para todos los indicadores obligatorios han sido evaluados y gestionados de acuerdo con la relevancia del impacto y su recurrencia, pudiendo haber derivado, por ejemplo, en acciones de engagement.&lt;/li&gt;
+&lt;li&gt; Con base en la comparación de los indicadores de PIAS del Fondo con los de un índice de referencia (benchmark). Cuando el desempeño del Fondo ha sido peor que el del benchmark, la Gestora ha analizado la gravedad del impacto, la recurrencia en el tiempo, la probabilidad de éxito a través de acciones de engagement, la exposición de la cartera y la tipología de indicado de PIAS para implementar acciones de mitigación. Durante el período de referencia, estas acciones de mitigación se han priorizado para los indicadores relacionados con las emisiones de gases de efecto invernadero y/o las violaciones del Pacto Mundial de las Naciones Unidas. Además, la Gestora también ha mitigado esos impactos adversos ajustando las posiciones que más contribuyen al indicador PIAS con peor desempeño frente a su benchmark, limitando el aumento de posición o en última instancia mediante desinversión.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Los datos necesarios para el cálculo de los indicadores de PIAS han sido proporcionados por proveedores de datos externos. Se ha realizado un análisis periódico, mediante la colaboración con emisores y proveedores de datos, de la cobertura y calidad del dato, para solventar las limitaciones en la disponibilidad y calidad de datos de los indicadores.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;La &lt;strong&gt;asignación de activos&lt;/strong&gt; describe el porcentaje de inversiones en activos específicos.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿Cuál ha sido la asignación de activos?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El Fondo ha cumplido con la asignación de activos prevista en la información precontractual a lo largo del período de referencia. Específicamente:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;El Fondo ha cumplido con el mínimo del 51% del patrimonio invertido en activos de contado, IIC y emisores de los subyacentes de los futuros y opciones sobre acciones utilizados por el Fondo para tomar como referencia el índice que cumplan con los criterios ASG previamente descritos. A lo largo del período de referencia, este porcentaje ha sido del {{SFDR_LAST_REP_INV_WITH_ENV_SOC}}%, calculado como el porcentaje medio de activos que promovieron las características del Fondo teniendo en cuenta los datos del último día hábil de cada trimestre del período de referencia.&lt;/li&gt;
+&lt;li&gt;El Fondo ha cumplido el compromiso mínimo del 10% de inversión sostenible. A lo largo del período de referencia, el porcentaje medio de inversión sostenible de este Fondo ha sido del {{SFDR_LAST_REP_INV_SUST_INV}}%, desglosado en:
+&lt;ul&gt;
+&lt;li&gt;{{SFDR_LAST_REP_INV_SUST_ENV}}% que se corresponden con inversiones ambientales distintas de Taxonomía.&lt;/li&gt;
+&lt;li&gt;{{SFDR_LAST_REP_SUST_INV_SOC}}% que se corresponden con inversiones socialmente sostenibles.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Estos porcentajes han sido calculados como los porcentajes medios de inversión sostenible teniendo en cuenta los datos del último día hábil de cada trimestre del período de referencia.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿En qué sectores económicos se han realizado las inversiones?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;¿Cuál ha sido la proporción de las inversiones realizadas en actividades de transición y facilitadoras?&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt; Durante el período de referencia, se han adoptado las siguientes medidas para cumplir con las características medioambientales y sociales del Fondo : &lt;/p&gt;
 &lt;ul&gt;
 &lt;li&gt;La Gestora ha revisado periódicamente que el Fondo ha cumplido con las siguientes exclusiones.
@@ -1559,19 +1625,9 @@
 &lt;li&gt;Los casos de un emisor sin calificación ASG o que no cumpliera con los indicadores ASG establecidos en la estrategia de inversión, pero que tengan inversiones que puedan ser consideradas inversiones sostenibles, y en concreto emisiones de dicho emisor que puedan ser calificadas como bono verde, social o sostenible, estas emisiones podrían formar parte del universo de activos que promueven las características ASG del Fondo, tras la validación previa de la Gestora, de conformidad con su metodología de análisis propia. &lt;/li&gt;
 &lt;li&gt;Las IICs que, aunque no tengan asignado un rating ASG por la Gestora, sean IICs que promuevan características ASG. (IIC consideradas art. 8 Reglamento (UE) 2019/2088 y/o que tengan como objetivo inversiones sostenibles (art. 9 conforme con el Reglamento (UE) 2019/2088)).&lt;/li&gt;
 &lt;/ul&gt;
-&lt;p&gt;Los criter+BX4+BX7</t>
-  </si>
-  <si>
-    <t>¿Cómo se ha comportado este producto financiero en comparación con el índice de referencia designado?</t>
-  </si>
-  <si>
-    <t>&lt;div class="sub-qtext"&gt;¿Cómo se ha comportado este producto financiero con respecto a los indicadores de sostenibilidad para determinar la conformidad del índice de referencia con las características medioambientales o sociales que promueve?&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="sub-qtext"&gt;¿Cómo se ha comportado este producto financiero en comparación con el índice de referencia? &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class="sub-qtext"&gt;¿Cómo se ha comportado este producto financiero en comparación con el índice de referencia designado?&lt;/div&gt;</t>
+&lt;p&gt;Los criterios ASG anteriores, junto con el cumplimiento de los compromisos mínimos del Fondo se integraron en el proceso de inversión y fueron supervisados periódicamente por el equipo de Cumplimiento de la Gestora. En caso de incumplimiento, se tomaron las medidas correctivas necesarias (por ejemplo, comunicación con el equipo SRI, remisión al comité correspondiente, entre otros).&lt;/p&gt;
+&lt;p&gt;Además,el desempeño ASG de los emisores ha sido objeto de un seguimiento sistemático y continuo por parte del equipo SRI de la Gestora, incluido el seguimiento continuo de las posibles discrepancias detectadas por los gestores y los datos del modelo proporcionado por los proveedores.&lt;/p&gt;
+&lt;p&gt;Por último, la Gestora ha llevado a cabo actividades de engagement con emisores privados y actividades de voto en los casos en que el tipo de activo lo permite (acciones). Estas actividades estaban alineadas con las características sociales y medioambientales del Fondo y con las Políticas de Engagement y Voto de la Gestora disponibles en https://www.santanderassetmanagement.es/sostenibilidad/. Para ver más ejemplos de las actividades de engagement y voto realizadas, se puede consultar el informe de implicación y voto de la Gestora disponible en: https://www.santanderassetmanagement.es/sostenibilidad/&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -2026,11 +2082,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2CF707-1372-4610-A1C4-0399A26E6B10}">
   <dimension ref="A1:CI69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2358,7 +2414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:87" s="3" customFormat="1" ht="290" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:87" s="3" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2477,10 +2533,10 @@
         <v>69</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AP2" s="3" t="s">
         <v>48</v>
@@ -2513,7 +2569,7 @@
         <v>135</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="BA2" s="3" t="s">
         <v>49</v>
@@ -2522,7 +2578,7 @@
         <v>143</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="BD2" s="3" t="s">
         <v>219</v>
@@ -2537,7 +2593,7 @@
         <v>50</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="BI2" s="3" t="s">
         <v>155</v>
@@ -2561,7 +2617,7 @@
         <v>221</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="BQ2" s="3" t="s">
         <v>164</v>
@@ -2603,25 +2659,25 @@
         <v>56</v>
       </c>
       <c r="CD2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CE2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CF2" s="3" t="s">
+      <c r="CG2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CH2" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="CG2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CH2" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="CI2" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:87" ht="261" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:87" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2740,10 +2796,10 @@
         <v>69</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>193</v>
@@ -2776,7 +2832,7 @@
         <v>135</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="BA3" s="3" t="s">
         <v>49</v>
@@ -2866,25 +2922,25 @@
         <v>56</v>
       </c>
       <c r="CD3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF3" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CE3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CH3" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="CG3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="CI3" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:87" ht="312.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:87" ht="312.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3003,10 +3059,10 @@
         <v>69</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AP4" s="3" t="s">
         <v>193</v>
@@ -3039,7 +3095,7 @@
         <v>135</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="BA4" s="3" t="s">
         <v>49</v>
@@ -3129,25 +3185,25 @@
         <v>56</v>
       </c>
       <c r="CD4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="CE4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF4" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CE4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CF4" s="3" t="s">
+      <c r="CG4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CH4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="CG4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CH4" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="CI4" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:87" ht="312.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:87" ht="312.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -3266,10 +3322,10 @@
         <v>69</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AP5" s="3" t="s">
         <v>193</v>
@@ -3302,7 +3358,7 @@
         <v>135</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="BA5" s="3" t="s">
         <v>49</v>
@@ -3392,25 +3448,25 @@
         <v>56</v>
       </c>
       <c r="CD5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="CE5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF5" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CE5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CF5" s="3" t="s">
+      <c r="CG5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CH5" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="CG5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CH5" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="CI5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:87" ht="276.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:87" ht="276.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -3529,10 +3585,10 @@
         <v>69</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>48</v>
@@ -3565,7 +3621,7 @@
         <v>135</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="BA6" s="3" t="s">
         <v>49</v>
@@ -3574,7 +3630,7 @@
         <v>143</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="BD6" s="3" t="s">
         <v>219</v>
@@ -3589,7 +3645,7 @@
         <v>50</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="BI6" s="3" t="s">
         <v>155</v>
@@ -3613,7 +3669,7 @@
         <v>221</v>
       </c>
       <c r="BP6" s="3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="BQ6" s="3" t="s">
         <v>164</v>
@@ -3640,7 +3696,7 @@
         <v>225</v>
       </c>
       <c r="BY6" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BZ6" s="3" t="s">
         <v>55</v>
@@ -3655,25 +3711,25 @@
         <v>56</v>
       </c>
       <c r="CD6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="CE6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF6" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CE6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CF6" s="3" t="s">
+      <c r="CG6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CH6" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="CG6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CH6" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="CI6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:87" ht="276.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:87" ht="276.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -3792,10 +3848,10 @@
         <v>69</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>48</v>
@@ -3828,7 +3884,7 @@
         <v>135</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="BA7" s="3" t="s">
         <v>49</v>
@@ -3837,7 +3893,7 @@
         <v>143</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="BD7" s="3" t="s">
         <v>219</v>
@@ -3852,7 +3908,7 @@
         <v>50</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="BI7" s="3" t="s">
         <v>155</v>
@@ -3876,7 +3932,7 @@
         <v>221</v>
       </c>
       <c r="BP7" s="3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="BQ7" s="3" t="s">
         <v>164</v>
@@ -3891,7 +3947,7 @@
         <v>202</v>
       </c>
       <c r="BU7" s="3" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="BV7" s="3" t="s">
         <v>224</v>
@@ -3900,10 +3956,10 @@
         <v>207</v>
       </c>
       <c r="BX7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BY7" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="BY7" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="BZ7" s="3" t="s">
         <v>55</v>
@@ -3918,29 +3974,29 @@
         <v>56</v>
       </c>
       <c r="CD7" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="CE7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF7" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="CE7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CF7" s="3" t="s">
+      <c r="CG7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CH7" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="CG7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CH7" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="CI7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:87" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:87" ht="235.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3950,7 +4006,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>60</v>
@@ -3965,7 +4021,7 @@
         <v>82</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>84</v>
@@ -3977,7 +4033,7 @@
         <v>74</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>87</v>
@@ -3986,28 +4042,28 @@
         <v>88</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>98</v>
@@ -4019,7 +4075,7 @@
         <v>100</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>103</v>
@@ -4055,10 +4111,10 @@
         <v>69</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>48</v>
@@ -4091,7 +4147,7 @@
         <v>135</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="BA8" s="3" t="s">
         <v>49</v>
@@ -4100,10 +4156,10 @@
         <v>143</v>
       </c>
       <c r="BC8" s="3" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="BE8" s="3" t="s">
         <v>140</v>
@@ -4115,7 +4171,7 @@
         <v>50</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="BI8" s="3" t="s">
         <v>155</v>
@@ -4130,80 +4186,80 @@
         <v>158</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="BN8" s="3" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="BO8" s="3" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="BP8" s="3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="BQ8" s="3" t="s">
         <v>164</v>
       </c>
       <c r="BR8" s="3" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="BS8" s="3" t="s">
         <v>166</v>
       </c>
       <c r="BT8" s="3" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="BU8" s="3" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="BV8" s="3" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="BW8" s="3" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="BX8" s="3" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="BY8" s="3" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="BZ8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="CA8" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="CB8" s="3" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="CC8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CD8" s="3" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="CE8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF8" s="3" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="CG8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH8" s="3" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="CI8" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:87" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:87" ht="131" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4213,7 +4269,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>60</v>
@@ -4228,7 +4284,7 @@
         <v>82</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>84</v>
@@ -4240,7 +4296,7 @@
         <v>74</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>87</v>
@@ -4249,28 +4305,28 @@
         <v>88</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>98</v>
@@ -4282,7 +4338,7 @@
         <v>100</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>103</v>
@@ -4291,7 +4347,7 @@
         <v>104</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>107</v>
@@ -4318,13 +4374,13 @@
         <v>69</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="AQ9" s="3" t="s">
         <v>128</v>
@@ -4354,7 +4410,7 @@
         <v>135</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="BA9" s="3" t="s">
         <v>49</v>
@@ -4363,10 +4419,10 @@
         <v>143</v>
       </c>
       <c r="BC9" s="3" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="BD9" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="BE9" s="3" t="s">
         <v>140</v>
@@ -4378,7 +4434,7 @@
         <v>50</v>
       </c>
       <c r="BH9" s="3" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="BI9" s="3" t="s">
         <v>155</v>
@@ -4390,83 +4446,83 @@
         <v>157</v>
       </c>
       <c r="BL9" s="3" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="BM9" s="3" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="BN9" s="3" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="BO9" s="3" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="BP9" s="3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="BQ9" s="3" t="s">
         <v>164</v>
       </c>
       <c r="BR9" s="3" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="BS9" s="3" t="s">
         <v>166</v>
       </c>
       <c r="BT9" s="3" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="BU9" s="3" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="BV9" s="3" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="BW9" s="3" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="BX9" s="3" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="BY9" s="3" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="BZ9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="CA9" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="CB9" s="3" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="CC9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CD9" s="3" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="CE9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF9" s="3" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="CG9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH9" s="3" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="CI9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:87" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:87" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -4476,7 +4532,7 @@
         <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>60</v>
@@ -4491,7 +4547,7 @@
         <v>82</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>84</v>
@@ -4503,7 +4559,7 @@
         <v>74</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>87</v>
@@ -4512,28 +4568,28 @@
         <v>88</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>98</v>
@@ -4545,7 +4601,7 @@
         <v>100</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>103</v>
@@ -4554,7 +4610,7 @@
         <v>104</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="AF10" s="3" t="s">
         <v>107</v>
@@ -4581,13 +4637,13 @@
         <v>69</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="AQ10" s="3" t="s">
         <v>128</v>
@@ -4617,7 +4673,7 @@
         <v>135</v>
       </c>
       <c r="AZ10" s="3" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="BA10" s="3" t="s">
         <v>49</v>
@@ -4626,10 +4682,10 @@
         <v>143</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="BD10" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="BE10" s="3" t="s">
         <v>140</v>
@@ -4641,7 +4697,7 @@
         <v>50</v>
       </c>
       <c r="BH10" s="3" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="BI10" s="3" t="s">
         <v>155</v>
@@ -4653,73 +4709,73 @@
         <v>157</v>
       </c>
       <c r="BL10" s="3" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="BO10" s="3" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="BP10" s="3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="BQ10" s="3" t="s">
         <v>164</v>
       </c>
       <c r="BR10" s="3" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="BS10" s="3" t="s">
         <v>166</v>
       </c>
       <c r="BT10" s="3" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="BU10" s="3" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="BV10" s="3" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="BW10" s="3" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="BX10" s="3" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="BY10" s="3" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="BZ10" s="3" t="s">
         <v>55</v>
       </c>
       <c r="CA10" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="CB10" s="3" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="CC10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CD10" s="3" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="CE10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF10" s="3" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="CG10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH10" s="3" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="CI10" s="3" t="s">
         <v>56</v>
@@ -4739,7 +4795,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>60</v>
@@ -4754,7 +4810,7 @@
         <v>82</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>84</v>
@@ -4766,7 +4822,7 @@
         <v>74</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>87</v>
@@ -4775,28 +4831,28 @@
         <v>88</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>98</v>
@@ -4808,7 +4864,7 @@
         <v>100</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>103</v>
@@ -4817,7 +4873,7 @@
         <v>104</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>107</v>
@@ -4844,13 +4900,13 @@
         <v>69</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="AQ11" s="3" t="s">
         <v>128</v>
@@ -4880,7 +4936,7 @@
         <v>135</v>
       </c>
       <c r="AZ11" s="3" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="BA11" s="3" t="s">
         <v>49</v>
@@ -4889,10 +4945,10 @@
         <v>143</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="BD11" s="3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="BE11" s="3" t="s">
         <v>140</v>
@@ -4904,7 +4960,7 @@
         <v>50</v>
       </c>
       <c r="BH11" s="3" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="BI11" s="3" t="s">
         <v>155</v>
@@ -4916,73 +4972,73 @@
         <v>157</v>
       </c>
       <c r="BL11" s="3" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="BM11" s="3" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="BO11" s="3" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="BP11" s="3" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="BQ11" s="3" t="s">
         <v>164</v>
       </c>
       <c r="BR11" s="3" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="BS11" s="3" t="s">
         <v>166</v>
       </c>
       <c r="BT11" s="3" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="BU11" s="3" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="BV11" s="3" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="BW11" s="3" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="BX11" s="3" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="BY11" s="3" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="BZ11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="CA11" s="3" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="CB11" s="3" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="CC11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CD11" s="3" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="CE11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF11" s="3" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="CG11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH11" s="3" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="CI11" s="3" t="s">
         <v>56</v>

--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n740789\Documents\sfdr_report_generator\excel_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445732F7-F610-497D-BDD5-E7225610B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13222D74-4942-437C-BCA4-59219BAF81F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="-16440" windowWidth="29040" windowHeight="16440" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="10800" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
   <sheets>
     <sheet name="spanish" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5927" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6101" uniqueCount="259">
   <si>
     <t>macro_narrative</t>
   </si>
@@ -1413,16 +1413,6 @@
     <t>&lt;div class="sub-qtext"&gt;¿De qué manera las inversiones sostenibles que el producto financiero ha realizado en parte no causan un perjuicio significativo a ningún objetivo de inversión sostenible medioambiental o social?&lt;/div&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el periodo de referencia, la Entidad contratada para la gestión de activos de la EPSV ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar un daño:&lt;/p&gt;                
-&lt;ul&gt;
-&lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
-&lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
-&lt;li&gt;Desempeño sostenible neutro: la Gestora ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Si alguna inversión directa del Fondo ha incumplido con alguna de estas salvaguardas, la Gestora ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
-&lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;El Fondo ha tenido una proporción del {{OTHERS}}% del patrimonio del Fondo a lo largo del periodo de referencia a inversiones que no están alineadas con las características medioambientales y sociales promovidas por el Fondo. Este porcentaje ha sido calculado como el porcentaje medio del Fondo teniendo en cuenta las inversiones subyacentes del último día hábil de cada trimestre del período de referencia, tal como se define en la sección Inversiones principales.&lt;/p&gt;
 &lt;p style="margin-top: -10px;"&gt;                   
 Estas inversiones no alteraron el logro de las características medioambientales y sociales promovidas por el Fondo, y su propósito ha sido el de contribuir a la gestión eficiente de la cartera, proporcionar liquidez y un propósito de cobertura. &lt;/p&gt;
@@ -1500,26 +1490,6 @@
 &lt;/ul&gt;
 &lt;p&gt;Las inversiones en bonos verdes, bonos sociales, y bonos sostenibles también se consideraron contribuyentes a los objetivos de sostenibilidad medioambiental o social del Fondo mediante la financiación de proyectos verdes, sociales o sostenibles de acuerdo con estándares de referencia como los desarrollados por la Asociación Internacional del Mercado de Capitales (“ICMA”).&lt;/p&gt;
 &lt;p&gt; Cuando el Fondo ha invertido en IICs de terceras partes, la Gestora utilizó los datos y metodologías de inversión sostenible divulgados por las gestoras terceras.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el periodo de referencia, la Entidad contratada para la gestión de activos de la EPSV ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar un daño:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
-&lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
-&lt;li&gt;Desempeño sostenible neutro: la Gestora ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Si alguna inversión directa del Fondo ha incumplido con alguna de estas salvaguardas, la Gestora ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
-&lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el periodo de referencia, la Entidad contratada para la gestión de activos de la EPSV ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar un daño:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
-&lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
-&lt;li&gt;Desempeño sostenible neutro: la Gestora ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Si alguna inversión directa del Fondo ha incumplido con alguna de estas salvaguardas, la Gestora ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
-&lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt; Durante el período de referencia, se han adoptado las siguientes medidas para cumplir con las características medioambientales y sociales del Fondo : &lt;/p&gt;
@@ -1628,6 +1598,139 @@
 &lt;p&gt;Los criterios ASG anteriores, junto con el cumplimiento de los compromisos mínimos del Fondo se integraron en el proceso de inversión y fueron supervisados periódicamente por el equipo de Cumplimiento de la Gestora. En caso de incumplimiento, se tomaron las medidas correctivas necesarias (por ejemplo, comunicación con el equipo SRI, remisión al comité correspondiente, entre otros).&lt;/p&gt;
 &lt;p&gt;Además,el desempeño ASG de los emisores ha sido objeto de un seguimiento sistemático y continuo por parte del equipo SRI de la Gestora, incluido el seguimiento continuo de las posibles discrepancias detectadas por los gestores y los datos del modelo proporcionado por los proveedores.&lt;/p&gt;
 &lt;p&gt;Por último, la Gestora ha llevado a cabo actividades de engagement con emisores privados y actividades de voto en los casos en que el tipo de activo lo permite (acciones). Estas actividades estaban alineadas con las características sociales y medioambientales del Fondo y con las Políticas de Engagement y Voto de la Gestora disponibles en https://www.santanderassetmanagement.es/sostenibilidad/. Para ver más ejemplos de las actividades de engagement y voto realizadas, se puede consultar el informe de implicación y voto de la Gestora disponible en: https://www.santanderassetmanagement.es/sostenibilidad/&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El Fondo de Pensiones ha promovido características medioambientales y sociales evaluando sus inversiones subyacentes en función de criterios ambientales, sociales y de gobernanza (ASG) utilizando una metodología ASG propia e invirtiendo en emisores que exhiban prácticas ASG sólidas y cumplan con los factores de exclusión descritos en la estrategia de inversión recogida en el anexo de Sostenibilidad de la información precontractual de este Fondo de Pensiones de Pensiones.&lt;/p&gt;
+&lt;p&gt;En este sentido, se han utilizado elementos financieros, ambientales, sociales y de buen gobierno para obtener una visión más completa de los activos subyacentes en los que el Fondo de Pensiones de Pensiones invirtió durante el período de referencia, habiendo evaluado una combinación de factores ASG que incluyeron, pero no se limitaron a:&lt;/p&gt;
+    &lt;ul&gt;
+        &lt;li&gt;Factores ambientales mediante la evaluación del desempeño cuantitativo y cualitativo de los emisores en asuntos como las emisiones de gases de efecto invernadero, el agotamiento de recursos, la contaminación y la gestión del agua. Estos factores han sido aplicables tanto a emisores públicos como privados.&lt;/li&gt;
+        &lt;li&gt;Factores sociales abarcando desde cuestiones relacionadas con el lugar de trabajo, el cumplimiento de los estándares laborales o la gestión del talento, hasta las relaciones con las comunidades locales, la privacidad y la seguridad de los datos y los derechos humanos. Por la parte de deuda pública, se valoraron factores específicos como políticas y gastos en educación y salud, empleo, calidad social, compromiso con diferentes convenciones relativas a derechos humanos y laborales, entre otros. &lt;/li&gt;
+        &lt;li&gt;Factores de gobernanza incluyendo la calidad de la gestión de un emisor, su cultura y ética, la eficacia de los sistemas de gobernanza para minimizar el riesgo de mala gestión y la capacidad para anticipar los riesgos operativos y legales que podrían representar un incumplimiento. También se han considerado factores relacionados con la composición y estructura del consejo del emisor. Por la parte de deuda pública, se valoraron factores específicos como son calidad regulatoria y de las leyes de los Estados, control de la corrupción, gastos en I+D, entre otros.&lt;/li&gt;
+    &lt;/ul&gt;
+&lt;p&gt;La evaluación de estos factores para cada emisor se basó en la materialidad sectorial definida por La Gestora de Pensiones como parte de su metodología ASG. De manera adicional a estos factores, los casos de controversias también fueron evaluados considerando la gravedad de su impacto en la sociedad, el medioambiente y el impacto en los grupos de interés y, en consecuencia, se integraron dentro de la metodología ASG de La Gestora de Pensiones. &lt;/p&gt;
+&lt;p&gt;La Gestora de Pensiones también promovió características medioambientales y sociales mediante la aplicación de acciones de engagement, ya sea individualmente o mediante iniciativas colaborativas, para promover mejores prácticas ASG de acuerdo con su política de engagement.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; A continuación, se describe el comportamiento de los indicadores de sostenibilidad del Fondo de Pensiones a lo largo del período de referencia:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt; &lt;strong&gt;Indicador de exclusiones:&lt;/strong&gt; El Fondo de Pensiones no ha realizado ninguna inversión en sectores no permitidos por la política de inversión del mismo de acuerdo con el procedimiento interno de La Gestora de Pensiones. Es decir, el Fondo de Pensiones no tuvo exposición a activos de inversión directa de contado de emisores, así como los instrumentos financieros derivados (futuros y opciones sobre acciones) utilizados por el Fondo de Pensiones para tomar como referencia el índice en los que el emisor del subyacente de dichos derivados mayoritariamente orientados a actividades relacionadas con el armamento controvertido, así como los combustibles fósiles no convencionales y la generación eléctrica a partir del carbón y minería de carbón. Adicionalmente, para el caso de la renta fija pública, el Fondo de Pensiones no ha tenido exposición a países con un desempeño deficiente en términos de derechos políticos y libertades sociales. &lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Indicador de controversias:&lt;/strong&gt; El Fondo de Pensiones ha tenido una exposición del 0% a activos de inversión directa de contado de emisores, así como los instrumentos financieros derivados (futuros y opciones sobre acciones) utilizados por el Fondo de Pensiones para tomar como referencia el índice en los que el emisor del subyacente de dichos derivados haya estado involucrado en controversias consideradas críticas.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Calificación/Rating ASG mínimo medio del Fondo de Pensiones:&lt;/strong&gt; La calificación ASG promedio de los emisores de los activos con rating de la cartera de inversión directa de contado e IIC y emisores de los subyacentes de los futuros y opciones sobre acciones utilizados por el Fondo de Pensiones para tomar como referencia el índice con rating según la metodología interna de La Gestora de Pensiones fue {{ESG_RATING_24}} en una escala de 7 niveles (C-, C, C+, B, A-, a y A+, donde A+ refleja el mejor rendimiento ASG). Este valor se ha calculado como la calificación ASG media teniendo en cuenta los datos del último día hábil de cada trimestre del período de referencia.&lt;/li&gt;
+&lt;li&gt;El porcentaje medio de activos subyacentes del Fondo de Pensiones alineados con las características medioambientales y sociales promovidas fue del &lt;strong&gt;{{SFDR_LAST_REP_INV_WITH_ENV_SOC}}%&lt;/strong&gt; a lo largo del periodo de referencia. &lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Los objetivos de inversión sostenible de este Fondo de Pensiones se alcanzaron invirtiendo en emisores que contribuyeron al menos a uno de los objetivos definidos en el Anexo de Sostenibilidad de la información precontractual de este Fondo de Pensiones. En la práctica, los subyacentes que se han contabilizado como inversión sostenible son aquellos emisores que han cumplido al menos uno de los siguientes criterios:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Emisores cuyas actividades están alineadas con la trayectoria de descarbonización en virtud del Acuerdo de París o son actualmente Net Zero. Los emisores que han cumplido con este criterio contribuyeron a alcanzar objetivos medioambientalmente sostenibles, como la mitigación del cambio climático, ayudando a estabilizar las concentraciones de gases de efecto invernadero en la atmósfera y/o la adaptación al cambio climático invirtiendo en soluciones de adaptación que reduzcan o prevengan sustancialmente el riesgo efectos climáticos adversos. &lt;/li&gt;
+&lt;li&gt;Emisores cuyas prácticas están al menos en un 20% en términos de ingresos alineadas con los objetivos de mitigación y/o adaptación de la Taxonomía de la UE. A la fecha del presente documento, se consideró que los emisores que cumplen con este criterio contribuyeron a los objetivos medioambientales de mitigación y/o adaptación al cambio climático descritos anteriormente. &lt;/li&gt;
+&lt;li&gt;Emisores que generan al menos un 20% de ingresos derivados de productos y/o servicios que generan un impacto medioambiental medible (es decir, emisores que desarrollan prácticas agrícolas sostenibles, tecnologías de prevención de la contaminación o energías alternativas, entre otros). Se ha considerado que los emisores que cumplieron con este criterio contribuyeron a objetivos medioambientalmente sostenibles, como la prevención y el control de la contaminación, la protección y recuperación de la biodiversidad y los ecosistemas y el uso sostenible y la protección de los recursos hídricos y marinos. &lt;/li&gt;
+&lt;li&gt;Emisores que generan al menos un 20% de ingresos derivados de productos y/o servicios que generan un impacto social medible (es decir, emisores que desarrollan soluciones educativas, mejora de la conectividad o soluciones de tratamiento de enfermedades, entre otros). Los emisores que cumplieron con este criterio contribuyeron a alcanzar objetivos sociales sostenibles, como estándares de vida adecuados y bienestar de los consumidores, contribuyendo a la creación de productos y servicios que satisfagan las necesidades humanas. 
+&lt;li&gt;Emisores cuyas prácticas corporativas demuestran su intención de contribuir a los objetivos medioambientales y/o sociales sostenibles del Fondo de Pensiones a través de su desempeño líder en sostenibilidad basado en la puntuación ASG de La Gestora de Pensiones. &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Las inversiones en bonos verdes, bonos sociales, y bonos sostenibles también se consideraron contribuyentes a los objetivos de sostenibilidad medioambiental o social del Fondo de Pensiones mediante la financiación de proyectos verdes, sociales o sostenibles de acuerdo con estándares de referencia como los desarrollados por la Asociación Internacional del Mercado de Capitales (“ICMA”).&lt;/p&gt;
+&lt;p&gt; Cuando el Fondo de Pensiones ha invertido en IICs de terceras partes, La Gestora de Pensiones utilizó los datos y metodologías de inversión sostenible divulgados por las gestoras terceras.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;La Gestora de Pensiones ha tenido en cuenta ha tenido en consideración los indicadores obligatorios de principales incidencias adversas en el análisis del principio de no causar daño significativo de los subyacentes de este Fondo.&lt;/p&gt;
+&lt;p&gt;Para ello, La Gestora de Pensiones ha definido umbrales basados en criterios cuantitativos y cualitativos, siendo estos:&lt;/p&gt;
+&lt;ul&gt;
+    &lt;li&gt;Umbrales absolutos: los emisores con una exposición significativa a los combustibles fósiles, actividades que afectan áreas sensibles a la biodiversidad, que violan los principios del Pacto Mundial de las Naciones Unidas y las Directrices de la Organización de Cooperación y Desarrollo Económicos (OCDE) para Empresas Multinacionales, que carecen de procesos y mecanismos de cumplimiento para supervisar el cumplimiento de dichas normas internacionales, y/o expuestos a armas controvertidas se consideraron incompatibles con el principio de no causar un daño significativo.&lt;/li&gt;
+    &lt;li&gt;Umbrales a nivel de la industria: los emisores que se encuentren dentro del umbral de peor rendimiento con respecto a su industria en términos de emisiones de gases de efecto invernadero, emisiones al agua, residuos peligrosos y/o asuntos sociales y de empleados no se consideraron conformes con el principio de no causar un daño significativo.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El respeto por los derechos humanos es una parte integral de los valores de La Gestora de Pensiones y un estándar mínimo de actuación para llevar a cabo sus actividades de una manera legítima.&lt;/p&gt;
+&lt;p&gt;En este sentido, las acciones de La Gestora de Pensiones se basan en los principios establecidos en las Directrices de la OCDE para Empresas Multinacionales y los diez principios del Pacto Mundial de las Naciones Unidas, entre otros. Este compromiso se refleja tanto en las políticas corporativas del Grupo Santander como en las políticas propias de La Gestora de Pensiones disponibles en las webs correspondientes y forma parte del procedimiento interno de integración de riesgos de sostenibilidad de La Gestora de Pensiones.&lt;/p&gt;
+&lt;p&gt;La Gestora de Pensiones ha monitorizado periódicamente si las inversiones directas de contado incumplen alguna de estas directrices internacionales y, en caso de incumplimiento, se ha evaluado y gestionado de acuerdo con la relevancia del mismo, pudiendo haber derivado, por ejemplo, entre otros, en acciones de engagement.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El Fondo ha tenido en cuenta en cuenta las principales incidencias adversas sobre los factores de sostenibilidad a la hora de adoptar decisiones de inversión. Para ello, La Gestora de Pensiones ha realizado un seguimiento continuo del desempeño de los indicadores de la Tabla 1 y de dos indicadores opcionales de las Tablas 2 y 3 del Anexo I del RTS, para hacer una valoración de los efectos negativos que las inversiones realizadas por este Fondo pueden causar hacia el exterior.&lt;/p&gt;
+&lt;p&gt;Durante el período de referencia, La Gestora de Pensiones ha identificado estos impactos en dos niveles:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Con base en el desempeño relativo de cada emisor con el objetivo de identificar aquellos emisores con peor desempeño en cada indicador de PIAS. En este sentido, los emisores con peor desempeño con respecto a su sector para todos los indicadores obligatorios han sido evaluados y gestionados de acuerdo con la relevancia del impacto y su recurrencia, pudiendo haber derivado, por ejemplo, en acciones de engagement.&lt;/li&gt;
+&lt;li&gt; Con base en la comparación de los indicadores de PIAS del Fondo con los de un índice de referencia (benchmark). Cuando el desempeño del Fondo ha sido peor que el del benchmark, La Gestora de Pensiones ha analizado la gravedad del impacto, la recurrencia en el tiempo, la probabilidad de éxito a través de acciones de engagement, la exposición de la cartera y la tipología de indicado de PIAS para implementar acciones de mitigación. Durante el período de referencia, estas acciones de mitigación se han priorizado para los indicadores relacionados con las emisiones de gases de efecto invernadero y/o las violaciones del Pacto Mundial de las Naciones Unidas. Además, La Gestora de Pensiones también ha mitigado esos impactos adversos ajustando las posiciones que más contribuyen al indicador PIAS con peor desempeño frente a su benchmark, limitando el aumento de posición o en última instancia mediante desinversión.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Los datos necesarios para el cálculo de los indicadores de PIAS han sido proporcionados por proveedores de datos externos. Se ha realizado un análisis periódico, mediante la colaboración con emisores y proveedores de datos, de la cobertura y calidad del dato, para solventar las limitaciones en la disponibilidad y calidad de datos de los indicadores.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;El Fondo ha tenido una proporción del {{OTHERS}}% del patrimonio del Fondo a lo largo del periodo de referencia a inversiones que no están alineadas con las características medioambientales y sociales promovidas por el Fondo. Este porcentaje ha sido calculado como el porcentaje medio del Fondo teniendo en cuenta las inversiones subyacentes del último día hábil de cada trimestre del período de referencia, tal como se define en la sección Inversiones principales.&lt;/p&gt;
+&lt;p style="margin-top: -10px;"&gt;                   
+Estas inversiones no alteraron el logro de las características medioambientales y sociales promovidas por el Fondo, y su propósito ha sido el de contribuir a la gestión eficiente de la cartera, proporcionar liquidez y un propósito de cobertura. &lt;/p&gt;
+&lt;p style="margin-top: -10px;"&gt; La Gestora de Pensiones ha establecido salvaguardias ambientales o sociales  mínimas para no causar un perjuicio significativo, como la consideración de los principales incidencias adversas, o la exclusión de actividades no alineadas con las características ambientales y/o sociales del Fondo. Los activos que podían considerarse eran los siguientes:&lt;/p&gt;
+&lt;ul&gt;
+                    &lt;li&gt;Activos de inversión directa de contado que no dispusieran de calificación / rating ASG por falta de datos del proveedor utilizado por La Gestora de Pensiones y que no puedan ser consideradas inversiones sostenibles. Estos activos cumplen los criterios de exclusión del Fondo, asegurando así unas salvaguardas mínimas.&lt;/li&gt;
+                    &lt;li&gt;IIC que no dispusieran de calificación / rating ASG por falta de datos y que no puedan ser clasificadas como IIC del art. 8 o 9 del Reglamento (UE) 2019/2088. Dentro de los procedimientos de selección de IIC se aplican unas salvaguardas mínimas siempre que esté de acuerdo con el procedimiento interno de La Gestora de Pensiones.&lt;/li&gt;
+                    &lt;li&gt;Otros activos de contado distintos de los señalados anteriormente (i.e.: ETC) que estén permitidos por la política del Fondo y para los que se aplican unas salvaguardas mínimas.&lt;/li&gt;
+                    &lt;li&gt;Liquidez en el depositario y resto de cuentas corrientes utilizadas para la operativa ordinaria del Fondo (i.e.: garantías de derivados, etc.).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Adicionalmente, para las inversiones en instrumentos financieros derivados no les resulta de aplicación los procedimientos descritos para la promoción de las características ASG.&lt;/p&gt;
+&lt;p style="margin-top: -10px;"&gt;En este caso La Gestora de Pensiones tiene establecido procedimientos para verificar que dichos instrumentos no alteran la consecución de las características ambientales o sociales promovidas por el Fondo, pudiendo utilizarse dichos instrumentos con la finalidad de cobertura y de gestión eficiente de la cartera del Fondo de inversión como elemento diversificador y de gestión.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Durante el período de referencia, se han adoptado las siguientes medidas para cumplir con las características medioambientales y sociales del Fondo : &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;La Gestora de Pensiones ha revisado periódicamente que el Fondo ha cumplido con las siguientes exclusiones.
+&lt;ul&gt;
+&lt;li&gt;Se han excluido emisores con exposición (medida en términos de volumen de negocios) relacionada con armas controvertidas, y/o con una exposición significativa a combustibles fósiles no convencionales y/o actividades la generación eléctrica a partir del carbón y/o la minería de carbón. &lt;/li&gt;
+&lt;li&gt;Se han excluido del universo de inversiones aquellos emisores en los que se han identificado controversias consideradas críticas en materia medioambiental, social o de gobernanza.&lt;/li&gt;
+&lt;li&gt;Los emisores de renta fija pública fueron evaluados para excluir con aquellos con bajo desempeño en relación con los derechos políticos y libertades sociales. Para ello, La Gestora de Pensiones basó su análisis en cualquiera de los dos indicadores siguientes:&lt;/li&gt;
+&lt;ul&gt;
+&lt;li&gt;Democracy Index: Indicador que determina el rango de democracia de 167 países en base a mediciones tales como el proceso electoral y pluralismo, libertades civiles, funcionamiento del gobierno, participación política y cultura política. En una escala de 1 a 10 puntos, se excluyen los países que  están por debajo de 6 puntos y se corresponden con regímenes híbridos y autoritarios.&lt;/li&gt;
+&lt;li&gt; Estudio Freedom in the World: Indicador que mide el grado de democracia y libertad política en todos los países y en los territorios más importantes en disputa de todo el mundo en una escala de 3 niveles (“No libre”, “Parcialmente libre” y “libre”), se excluyen aquellos países calificados como “No libres”.&lt;/li&gt;&lt;/ul&gt;&lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;La Gestora de Pensiones ha supervisado periódicamente que la calificación / rating ASG mínima medio de los emisores de los activos de la cartera de inversión directa de contado e IIC con rating del Fondo ha sido de al menos A-, de acuerdo con la metodología propia de La Gestora de Pensiones en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Adicionalmente, La Gestora de Pensiones también consideró que los siguientes casos también cumplían con las características medioambientales y sociales promovidas por el Fondo, y se contabilizaban como tal:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Los casos de un emisor sin calificación ASG o que no cumpliera con los indicadores ASG establecidos en la estrategia de inversión, pero que tengan inversiones que puedan ser consideradas inversiones sostenibles, y en concreto emisiones de dicho emisor que puedan ser calificadas como bono verde, social o sostenible, estas emisiones podrían formar parte del universo de activos que promueven las características ASG del Fondo, tras la validación previa de La Gestora de Pensiones, de conformidad con su metodología de análisis propia. &lt;/li&gt;
+&lt;li&gt;Las IICs que, aunque no tengan asignado un rating ASG por La Gestora de Pensiones, sean IICs que promuevan características ASG. (IIC consideradas art. 8 Reglamento (UE) 2019/2088 y/o que tengan como objetivo inversiones sostenibles (art. 9 conforme con el Reglamento (UE) 2019/2088)).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Los criterios ASG anteriores, junto con el cumplimiento de los compromisos mínimos del Fondo se integraron en el proceso de inversión y fueron supervisados periódicamente por el equipo de Cumplimiento de La Gestora de Pensiones. En caso de incumplimiento, se tomaron las medidas correctivas necesarias (por ejemplo, comunicación con el equipo SRI, remisión al comité correspondiente, entre otros).&lt;/p&gt;
+&lt;p&gt;Además,el desempeño ASG de los emisores ha sido objeto de un seguimiento sistemático y continuo por parte del equipo SRI de La Gestora de Pensiones, incluido el seguimiento continuo de las posibles discrepancias detectadas por los gestores y los datos del modelo proporcionado por los proveedores.&lt;/p&gt;
+&lt;p&gt;Por último, La Gestora de Pensiones ha llevado a cabo actividades de engagement con emisores privados y actividades de voto en los casos en que el tipo de activo lo permite (acciones). Estas actividades estaban alineadas con las características sociales y medioambientales del Fondo y con las Políticas de Engagement y Voto de La Gestora de Pensiones disponibles en https://www.santanderassetmanagement.es/sostenibilidad/. Para ver más ejemplos de las actividades de engagement y voto realizadas, se puede consultar el informe de implicación y voto de La Gestora de Pensiones disponible en: https://www.santanderassetmanagement.es/sostenibilidad/&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Inversión sostenible &lt;/strong&gt; significa una inversión en una actividad económica que contribuye a un objetivo  medioambiental o social, siempre que la inversión no cause un perjuicio significativo a ningún objetivo medioambiental o social y que las empresas en las que se invierte sigan prácticas de buena gobernanza.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el período de referencia, la Gestora ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar tal daño:&lt;/p&gt;                
+&lt;ul&gt;
+&lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
+&lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
+&lt;li&gt;Desempeño sostenible neutro: la Gestora ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Si alguna inversión directa del Fondo ha incumplido con alguna de estas salvaguardas, la Gestora ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
+&lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el período de referencia, la Gestora ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar tal daño::&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
+&lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
+&lt;li&gt;Desempeño sostenible neutro: la Gestora ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Si alguna inversión directa del Fondo ha incumplido con alguna de estas salvaguardas, la Gestora ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
+&lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el período de referencia, la Gestora ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar tal daño:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
+&lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
+&lt;li&gt;Desempeño sostenible neutro: la Gestora ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Si alguna inversión directa del Fondo ha incumplido con alguna de estas salvaguardas, la Gestora ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
+&lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, la Gestora utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Para garantizar que la contribución positiva a un objetivo de inversión sostenible medioambiental o social no ha causado un perjuicio significativo a otros objetivos sostenibles durante el período de referencia, la Gestora de Pensiones ha aplicado las siguientes salvaguardas basadas en su metodología interna con el fin de demostrar que existe la intención de no causar tal daño::&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Consideración de los indicadores obligatorios de incidencias adversas en materia de sostenibilidad (PIAS) recogidos en el anexo I del Reglamento Delegado (UE) 2022/1288/97, por el que se completa el Reglamento (UE) 2019/2088, tal cual como se describe en la siguiente pregunta.&lt;/li&gt;
+&lt;li&gt;Actividad en sectores controvertidos: mediante el análisis y exclusión de emisores con exposiciones significativas a actividades controvertidas en sectores como combustibles fósiles, armas controvertidas, tabaco, entre otros, así como controversias expuestas a controversias severas.&lt;/li&gt;
+&lt;li&gt;Desempeño sostenible neutro: La Gestora de Pensiones ha requerido una calificación ASG mínima de B en una escala de 7 niveles (C-, C, C+, B, A-, A y A+, donde A+ refleja el mejor desempeño ASG) de acuerdo con su metodología propia para garantizar que las prácticas de sostenibilidad de cada emisor cumplen con unos requisitos ASG mínimos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Si alguna inversión directa del Fondo de Pensiones ha incumplido con alguna de estas salvaguardas, La Gestora de Pensiones ha considerado que no es posible asegurar que haya existido un daño significativo y no se ha considerado como inversión sostenible&lt;/p&gt;
+&lt;p&gt;En el caso en el que el Plan de Previsión haya invertido en IICs de terceras partes, La Gestora de Pensiones utilizó la metodología de no causar daño significativo divulgada por las gestoras terceras.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1778,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1685,6 +1788,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,7 +1825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1744,6 +1853,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2082,21 +2194,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2CF707-1372-4610-A1C4-0399A26E6B10}">
   <dimension ref="A1:CI69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" style="4" customWidth="1"/>
     <col min="3" max="4" width="25.453125" customWidth="1"/>
     <col min="5" max="5" width="26.7265625" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" hidden="1" customWidth="1"/>
     <col min="8" max="11" width="26.7265625" customWidth="1"/>
     <col min="12" max="12" width="29.26953125" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
@@ -2414,7 +2526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:87" s="3" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:87" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2485,7 +2597,7 @@
         <v>222</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>98</v>
@@ -2533,10 +2645,10 @@
         <v>69</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AP2" s="3" t="s">
         <v>48</v>
@@ -2569,7 +2681,7 @@
         <v>135</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BA2" s="3" t="s">
         <v>49</v>
@@ -2641,7 +2753,7 @@
         <v>207</v>
       </c>
       <c r="BX2" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="BY2" s="3" t="s">
         <v>172</v>
@@ -2659,25 +2771,25 @@
         <v>56</v>
       </c>
       <c r="CD2" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CE2" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CG2" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="CI2" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:87" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:87" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2796,10 +2908,10 @@
         <v>69</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>193</v>
@@ -2832,7 +2944,7 @@
         <v>135</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BA3" s="3" t="s">
         <v>49</v>
@@ -2922,25 +3034,25 @@
         <v>56</v>
       </c>
       <c r="CD3" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CE3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CG3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH3" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="CI3" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:87" ht="312.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:87" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3059,10 +3171,10 @@
         <v>69</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AP4" s="3" t="s">
         <v>193</v>
@@ -3095,7 +3207,7 @@
         <v>135</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BA4" s="3" t="s">
         <v>49</v>
@@ -3185,25 +3297,25 @@
         <v>56</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CE4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF4" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CG4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="CI4" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:87" ht="312.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:87" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -3322,10 +3434,10 @@
         <v>69</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AP5" s="3" t="s">
         <v>193</v>
@@ -3358,7 +3470,7 @@
         <v>135</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BA5" s="3" t="s">
         <v>49</v>
@@ -3448,25 +3560,25 @@
         <v>56</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CE5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF5" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CG5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH5" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="CI5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:87" ht="276.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:87" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -3495,7 +3607,7 @@
         <v>82</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>84</v>
@@ -3516,19 +3628,19 @@
         <v>88</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>71</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>217</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>72</v>
@@ -3537,7 +3649,7 @@
         <v>222</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>98</v>
@@ -3585,10 +3697,10 @@
         <v>69</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>48</v>
@@ -3621,7 +3733,7 @@
         <v>135</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BA6" s="3" t="s">
         <v>49</v>
@@ -3687,16 +3799,16 @@
         <v>168</v>
       </c>
       <c r="BV6" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BW6" s="3" t="s">
         <v>207</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BY6" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BZ6" s="3" t="s">
         <v>55</v>
@@ -3711,25 +3823,25 @@
         <v>56</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CE6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF6" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CG6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH6" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="CI6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:87" ht="276.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:87" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -3758,7 +3870,7 @@
         <v>82</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>84</v>
@@ -3770,7 +3882,7 @@
         <v>74</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>87</v>
@@ -3779,28 +3891,28 @@
         <v>88</v>
       </c>
       <c r="Q7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>217</v>
       </c>
       <c r="U7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>222</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>98</v>
@@ -3848,10 +3960,10 @@
         <v>69</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>48</v>
@@ -3884,7 +3996,7 @@
         <v>135</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BA7" s="3" t="s">
         <v>49</v>
@@ -3950,16 +4062,16 @@
         <v>205</v>
       </c>
       <c r="BV7" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BW7" s="3" t="s">
         <v>207</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BY7" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BZ7" s="3" t="s">
         <v>55</v>
@@ -3974,25 +4086,25 @@
         <v>56</v>
       </c>
       <c r="CD7" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CE7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF7" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CG7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH7" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="CI7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:87" ht="235.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:87" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -4021,7 +4133,7 @@
         <v>82</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>84</v>
@@ -4033,7 +4145,7 @@
         <v>74</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>87</v>
@@ -4042,28 +4154,28 @@
         <v>88</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>217</v>
       </c>
       <c r="U8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>222</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>98</v>
@@ -4111,10 +4223,10 @@
         <v>69</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>48</v>
@@ -4147,7 +4259,7 @@
         <v>135</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BA8" s="3" t="s">
         <v>49</v>
@@ -4213,16 +4325,16 @@
         <v>205</v>
       </c>
       <c r="BV8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BW8" s="3" t="s">
         <v>207</v>
       </c>
       <c r="BX8" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BY8" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BZ8" s="3" t="s">
         <v>55</v>
@@ -4237,25 +4349,25 @@
         <v>56</v>
       </c>
       <c r="CD8" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CE8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF8" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CG8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH8" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="CI8" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:87" ht="131" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:87" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -4284,7 +4396,7 @@
         <v>82</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>84</v>
@@ -4296,7 +4408,7 @@
         <v>74</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>87</v>
@@ -4305,28 +4417,28 @@
         <v>88</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>186</v>
       </c>
       <c r="U9" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>222</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>98</v>
@@ -4347,7 +4459,7 @@
         <v>104</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>107</v>
@@ -4374,13 +4486,13 @@
         <v>69</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AQ9" s="3" t="s">
         <v>128</v>
@@ -4410,7 +4522,7 @@
         <v>135</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BA9" s="3" t="s">
         <v>49</v>
@@ -4446,7 +4558,7 @@
         <v>157</v>
       </c>
       <c r="BL9" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BM9" s="3" t="s">
         <v>197</v>
@@ -4476,16 +4588,16 @@
         <v>205</v>
       </c>
       <c r="BV9" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BW9" s="3" t="s">
         <v>207</v>
       </c>
       <c r="BX9" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BY9" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BZ9" s="3" t="s">
         <v>55</v>
@@ -4500,25 +4612,25 @@
         <v>56</v>
       </c>
       <c r="CD9" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CE9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF9" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CG9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH9" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="CI9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:87" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:87" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -4547,7 +4659,7 @@
         <v>82</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>84</v>
@@ -4559,7 +4671,7 @@
         <v>74</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>87</v>
@@ -4568,28 +4680,28 @@
         <v>88</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>217</v>
       </c>
       <c r="U10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>222</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>98</v>
@@ -4610,7 +4722,7 @@
         <v>104</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AF10" s="3" t="s">
         <v>107</v>
@@ -4637,13 +4749,13 @@
         <v>69</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AQ10" s="3" t="s">
         <v>128</v>
@@ -4673,7 +4785,7 @@
         <v>135</v>
       </c>
       <c r="AZ10" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BA10" s="3" t="s">
         <v>49</v>
@@ -4709,7 +4821,7 @@
         <v>157</v>
       </c>
       <c r="BL10" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BM10" s="3" t="s">
         <v>197</v>
@@ -4739,16 +4851,16 @@
         <v>205</v>
       </c>
       <c r="BV10" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BW10" s="3" t="s">
         <v>207</v>
       </c>
       <c r="BX10" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BY10" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BZ10" s="3" t="s">
         <v>55</v>
@@ -4763,19 +4875,19 @@
         <v>56</v>
       </c>
       <c r="CD10" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CE10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF10" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CG10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH10" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="CI10" s="3" t="s">
         <v>56</v>
@@ -4807,10 +4919,10 @@
         <v>81</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>84</v>
@@ -4822,7 +4934,7 @@
         <v>74</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>87</v>
@@ -4831,40 +4943,40 @@
         <v>88</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>186</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="X11" s="3" t="s">
-        <v>234</v>
+      <c r="X11" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>100</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>103</v>
@@ -4873,7 +4985,7 @@
         <v>104</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>107</v>
@@ -4900,13 +5012,13 @@
         <v>69</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AQ11" s="3" t="s">
         <v>128</v>
@@ -4936,7 +5048,7 @@
         <v>135</v>
       </c>
       <c r="AZ11" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="BA11" s="3" t="s">
         <v>49</v>
@@ -4972,7 +5084,7 @@
         <v>157</v>
       </c>
       <c r="BL11" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BM11" s="3" t="s">
         <v>197</v>
@@ -5002,16 +5114,16 @@
         <v>205</v>
       </c>
       <c r="BV11" s="3" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="BW11" s="3" t="s">
         <v>207</v>
       </c>
       <c r="BX11" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="BY11" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BZ11" s="3" t="s">
         <v>55</v>
@@ -5026,19 +5138,19 @@
         <v>56</v>
       </c>
       <c r="CD11" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="CE11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CF11" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="CG11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="CH11" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="CI11" s="3" t="s">
         <v>56</v>
@@ -20107,12 +20219,541 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A31A2F-C679-4858-851D-2A7327F5C41A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="CB1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" s="3" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n740789\Documents\sfdr_report_generator\excel_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E312057-3F80-4A0D-862D-E33DD2BC5F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C62F9-CB1C-4C49-9F4E-10BA26425BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
+    <workbookView xWindow="780" yWindow="-16230" windowWidth="14400" windowHeight="16200" activeTab="2" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
   <sheets>
-    <sheet name="spanish" sheetId="1" r:id="rId1"/>
-    <sheet name="english" sheetId="2" r:id="rId2"/>
-    <sheet name="polish" sheetId="4" r:id="rId3"/>
-    <sheet name="portuguese" sheetId="3" r:id="rId4"/>
+    <sheet name="es" sheetId="1" r:id="rId1"/>
+    <sheet name="en" sheetId="2" r:id="rId2"/>
+    <sheet name="pl" sheetId="4" r:id="rId3"/>
+    <sheet name="pt" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6052" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6223" uniqueCount="352">
   <si>
     <t>macro_narrative</t>
   </si>
@@ -1866,6 +1866,593 @@
                         La lista incluye las inversiones que constituyen &lt;strong&gt;la mayor parte de las inversiones&lt;/strong&gt;
                         del producto financiero durante el período de referencia, que es: {{ref_period}} 
                     &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Okresowe informacje o produktach finansowych zgodnie z artykułem 8, ustępy 1, 2 i 2 bis rozporządzenia (UE) 2019/2088 oraz artykułem 6, ustęp 1 rozporządzenia (UE) 2020/852</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Identyfikator podmiotu prawnego:&lt;/strong&gt; Kod LEI &lt;span id="lei_code"&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Charakterystyki środowiskowe lub społeczne&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Inwestycja zrównoważona&lt;/strong&gt; oznacza inwestycję w działalność gospodarczą, która przyczynia się do osiągnięcia celu środowiskowego lub społecznego, pod warunkiem że inwestycja nie wyrządza znaczącej szkody żadnemu celowi środowiskowemu lub społecznemu, a przedsiębiorstwa, w które inwestuje, stosują dobre praktyki w zakresie zarządzania.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Taksonomia UE&lt;/strong&gt; to system klasyfikacji przewidziany w rozporządzeniu (UE) 2020/852, który ustanawia listę &lt;strong&gt;działalności gospodarczych środowiskowo zrównoważonych&lt;/strong&gt;. Rozporządzenie to nie zawiera listy działalności gospodarczych społecznie zrównoważonych. Inwestycje zrównoważone mające na celu ochronę środowiska mogą być zgodne lub niezgodne z taksonomią.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- główny kontener pomarańczowego pola --&gt;
+&lt;div class="ob-header"&gt;
+&lt;h2&gt;Czy ten produkt finansowy miał na celu inwestycję zrównoważoną?&lt;/h2&gt;
+&lt;div class="ob-options"&gt;
+&lt;div class="ob-option"&gt;
+&lt;div class="ob-dots"&gt;
+&lt;div class="ob-dot green"&gt;&lt;/div&gt;
+&lt;div class="ob-dot green"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ob-checkbox"&gt;&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;Tak&lt;/span&gt;
+&lt;/div&gt;
+&lt;div class="ob-option"&gt;
+&lt;div class="ob-dots"&gt;
+&lt;div class="ob-dot green"&gt;&lt;/div&gt;
+&lt;div class="ob-dot white"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ob-checkbox"&gt;X&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;Nie&lt;/span&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="ob-body"&gt;
+&lt;div class="ob-columns"&gt;
+&lt;div&gt;
+&lt;div class="ob-item"&gt;
+&lt;div class="ob-checkbox"&gt;&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;&lt;strong&gt;Dokonał inwestycji zrównoważonych w celu środowiskowym:&lt;/strong&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div class="ob-item ob-sub-item"&gt;
+&lt;div class="ob-checkbox"&gt;&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;w działalności gospodarczej uważanej za środowiskowo zrównoważoną zgodnie z taksonomią UE&lt;/span&gt;
+&lt;/div&gt;
+&lt;div class="ob-item ob-sub-item"&gt;
+&lt;div class="ob-checkbox"&gt;&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;w działalności gospodarczej nieuważanej za środowiskowo zrównoważoną zgodnie z taksonomią UE&lt;/span&gt;
+&lt;/div&gt;
+&lt;div class="ob-item"&gt;
+&lt;div class="ob-checkbox"&gt;&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;&lt;strong&gt;Dokonał inwestycji zrównoważonych w celu społecznym:&lt;/strong&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;div class="ob-item"&gt;
+&lt;div class="ob-checkbox"&gt;X&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;&lt;strong&gt;Promował cechy środowiskowe lub społeczne&lt;/strong&gt;, choć nie miał na celu inwestycji zrównoważonej, osiągnął jednak &lt;span id="sfdr_last_rep_inv_sust_inv"&gt;4,12%&lt;/span&gt; udziału w inwestycjach zrównoważonych&lt;/span&gt;
+&lt;/div&gt;
+&lt;div class="ob-item ob-sub-item"&gt;
+&lt;div class="ob-checkbox"&gt;&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;z celem środowiskowym w działalności gospodarczej uważanej za środowiskowo zrównoważoną zgodnie z taksonomią UE&lt;/span&gt;
+&lt;/div&gt;
+&lt;div class="ob-item ob-sub-item"&gt;
+&lt;div class="ob-checkbox"&gt;X&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;z celem środowiskowym w działalności gospodarczej nieuważanej za środowiskowo zrównoważoną zgodnie z taksonomią UE&lt;/span&gt;
+&lt;/div&gt;
+&lt;div class="ob-item ob-sub-item"&gt;
+&lt;div class="ob-checkbox"&gt;X&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;z celem społecznym&lt;/span&gt;
+&lt;/div&gt;
+&lt;div class="ob-item"&gt;
+&lt;div class="ob-checkbox"&gt;&lt;/div&gt;
+&lt;span class="ob-item-text"&gt;&lt;strong&gt;Promował cechy środowiskowe lub społeczne&lt;/strong&gt;, ale nie dokonał żadnej inwestycji zrównoważonej&lt;/span&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>W jakim stopniu osiągnięto cechy środowiskowe lub społeczne promowane przez ten produkt finansowy?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Fundusz promował cechy środowiskowe i społeczne, oceniając swoje inwestycje na podstawie kryteriów środowiskowych, społecznych i ładu korporacyjnego (ESG) za pomocą własnej metodologii ESG oraz inwestując w emitentów, którzy wykazują solidne praktyki ESG i spełniają kryteria wykluczenia opisane w strategii inwestycyjnej zawartej w załączniku dotyczącym zrównoważonego rozwoju w informacji przedumownej tego funduszu.
+&lt;/p&gt;
+&lt;p&gt;
+W tym kontekście zastosowano elementy finansowe, środowiskowe, społeczne i dotyczące ładu korporacyjnego, aby uzyskać pełniejszy obraz aktywów bazowych, w które fundusz inwestował w okresie odniesienia, oceniając kombinację czynników ESG, które obejmowały, ale nie ograniczały się do:
+&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Czynniki środowiskowe, poprzez ocenę wyników ilościowych i jakościowych emitentów w zakresie takich zagadnień jak emisje gazów cieplarnianych, wyczerpywanie zasobów, zanieczyszczenia i zarządzanie wodą.
+&lt;/li&gt;
+&lt;li&gt;Czynniki społeczne, obejmujące zagadnienia związane z miejscem pracy, przestrzeganiem standardów pracy, zarządzaniem talentami, relacjami z lokalnymi społecznościami, prywatnością i bezpieczeństwem danych oraz prawami człowieka.
+&lt;/li&gt;
+&lt;li&gt;
+Czynniki dotyczące ładu korporacyjnego, takie jak jakość zarządzania emitenta, jego kultura i etyka, skuteczność systemów ładu korporacyjnego w minimalizowaniu ryzyka niewłaściwego zarządzania oraz zdolność do przewidywania ryzyk operacyjnych i prawnych mogących skutkować naruszeniem. Uwzględniono również czynniki związane ze składem i strukturą rady nadzorczej emitenta.
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+Ocena tych czynników dla każdego emitenta opierała się na sektorowej istotności zdefiniowanej przez zarządzającego jako część swojej metodologii ESG. Dodatkowo, przypadki kontrowersji były oceniane, uwzględniając ich wpływ na społeczeństwo, środowisko oraz interesariuszy, i były uwzględniane w metodologii ESG zarządzającego.
+&lt;/p&gt;
+&lt;p&gt;
+Zarządzający promował także cechy środowiskowe i społeczne poprzez działania angażujące, indywidualnie lub w ramach inicjatyw współpracy, mające na celu promowanie lepszych praktyk ESG zgodnie ze swoją polityką zaangażowania.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wskaźniki &lt;strong&gt;zrównoważonego rozwoju&lt;/strong&gt; mierzą, w jakim stopniu osiągane są cechy środowiskowe lub społeczne promowane przez produkt finansowy.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Główne niekorzystne skutki&lt;/strong&gt; to najistotniejsze negatywne skutki decyzji inwestycyjnych dla czynników zrównoważonego rozwoju związanych z kwestiami środowiskowymi, społecznymi, pracowniczymi, przestrzeganiem praw człowieka oraz walką z korupcją i łapownictwem.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;
+                    Jak zachowywały się wskaźniki zrównoważonego rozwoju?
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Poniżej opisano zachowanie wskaźników zrównoważonego rozwoju funduszu w okresie odniesienia:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;&lt;strong&gt;Wskaźnik wykluczeń:&lt;/strong&gt; Fundusz nie dokonał żadnych inwestycji w sektory niedozwolone przez politykę inwestycyjną, zgodnie z wewnętrznymi procedurami zarządzającego. To znaczy, że fundusz nie miał ekspozycji na aktywa inwestycyjne bezpośrednio gotówkowe emitentów ani instrumenty pochodne finansowe (futures i opcje na akcje) używane przez fundusz do odniesienia indeksu, w których emitent bazowy tych pochodnych był głównie zaangażowany w działalność związaną z kontrowersyjnym uzbrojeniem, niekonwencjonalnymi paliwami kopalnymi i wytwarzaniem energii elektrycznej z węgla oraz górnictwem węgla.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Wskaźnik kontrowersji:&lt;/strong&gt; Fundusz miał ekspozycję 0% na aktywa inwestycyjne bezpośrednio gotówkowe emitentów, jak również na instrumenty pochodne finansowe (futures i opcje na akcje) używane przez fundusz do odniesienia indeksu, w których emitent bazowy tych pochodnych był zaangażowany w kontrowersje uznawane za krytyczne.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Minimalna średnia ocena ESG funduszu:&lt;/strong&gt; Średnia ocena ESG emitentów aktywów w gotówkowej inwestycyjnej bezpośredniej oraz emitentów bazowych futures i opcji na akcje używanych przez fundusz do odniesienia indeksu według wewnętrznej metodologii zarządzającego wyniosła {{esg_score_2024}} w skali 7 poziomów (C-, C, C+, B, A-, A i A+, gdzie A+ odzwierciedla najlepszy wynik ESG). Wartość tę obliczono jako średnią ocenę ESG, biorąc pod uwagę dane z ostatniego dnia roboczego każdego kwartału w okresie odniesienia.&lt;/li&gt;
+&lt;li&gt;Średni procent aktywów bazowych funduszu zgodnych z cechami środowiskowymi i społecznymi promowanymi wyniósł &lt;strong&gt;{{es_aligned}}%&lt;/strong&gt; w okresie odniesienia.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;
+                    Jak wskaźniki te zachowywały się w porównaniu z wcześniejszymi okresami?
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; W porównaniu z poprzednim okresem odniesienia wyniki wskaźników zrównoważonego rozwoju były następujące:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Wskaźnik wykluczeń: Utrzymał się na poziomie 0%. &lt;/li&gt;
+&lt;li&gt;Wskaźnik kontrowersji: Utrzymał się na poziomie 0%. &lt;/li&gt;
+&lt;li&gt;Minimalna średnia ocena ESG funduszu: W {{YEAR_PREV}} wskaźnik wyniósł {{esg_score_2023}}, a w {{YEAR}} osiągnął {{esg_score_2024}}. &lt;/li&gt;
+&lt;li&gt;Średni procent aktywów bazowych funduszu zgodnych z cechami środowiskowymi i społecznymi promowanymi wyniósł co najmniej 51% w obu okresach odniesienia.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;
+                    Jakie były cele inwestycji zrównoważonych, które częściowo realizował produkt finansowy, i w jaki sposób te inwestycje przyczyniły się do osiągnięcia tych celów?
+                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Cele inwestycji zrównoważonych tego funduszu osiągnięto poprzez inwestowanie w emitentów, którzy przyczynili się przynajmniej do jednego z celów określonych w Załączniku do Zrównoważonego Rozwoju w informacji przedumownej tego funduszu. W praktyce aktywa bazowe uznane za inwestycje zrównoważone to te emitenci, którzy spełnili przynajmniej jeden z poniższych kryteriów:
+&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;
+Emitenci, których działalność jest zgodna z trajektorią dekarbonizacji wynikającą z Porozumienia Paryskiego lub jest obecnie neutralna pod względem emisji CO2. Emitenci spełniający to kryterium przyczynili się do osiągnięcia celów środowiskowo zrównoważonych, takich jak łagodzenie zmian klimatycznych, pomagając w stabilizacji koncentracji gazów cieplarnianych w atmosferze i/lub adaptacji do zmian klimatycznych poprzez inwestowanie w rozwiązania adaptacyjne, które znacznie zmniejszają ryzyko negatywnych skutków klimatycznych.
+&lt;/li&gt;
+&lt;li&gt;
+Emitenci, których działalność generuje co najmniej 20% przychodów zgodnych z celami łagodzenia i/lub adaptacji klimatycznej wynikającymi z Taksonomii UE. Na dzień sporządzenia niniejszego dokumentu emitenci spełniający to kryterium przyczynili się do celów środowiskowych związanych z łagodzeniem zmian klimatycznych i/lub adaptacją do tych zmian.
+&lt;/li&gt;
+&lt;li&gt;
+Emitenci generujący co najmniej 20% przychodów z produktów i/lub usług, które mają mierzalny wpływ środowiskowy (np. zrównoważone praktyki rolnicze, technologie zapobiegania zanieczyszczeniom, alternatywne źródła energii). Emitenci spełniający to kryterium przyczynili się do osiągnięcia celów środowiskowo zrównoważonych, takich jak zapobieganie i kontrola zanieczyszczeń, ochrona i odtwarzanie bioróżnorodności oraz ekosystemów, a także zrównoważone wykorzystanie i ochrona zasobów wodnych i morskich.
+&lt;/li&gt;
+&lt;li&gt;
+Emitenci generujący co najmniej 20% przychodów z produktów i/lub usług, które mają mierzalny wpływ społeczny (np. rozwiązania edukacyjne, poprawa łączności, rozwiązania w zakresie leczenia chorób). Emitenci spełniający to kryterium przyczynili się do osiągnięcia celów społecznie zrównoważonych, takich jak zapewnienie odpowiednich standardów życia i dobrostanu konsumentów, przyczyniając się do tworzenia produktów i usług zaspokajających ludzkie potrzeby.
+&lt;/li&gt; 
+&lt;li&gt;
+Emitenci, których praktyki korporacyjne demonstrują ich intencję przyczynienia się do celów środowiskowych i/lub społecznie zrównoważonych funduszu poprzez ich wiodącą ocenę wyników zrównoważoności opartą na metodologii ESG zarządzającego.
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Gdy fundusz inwestował w fundusze inwestycyjne stron trzecich, zarządzający wykorzystywał dane i metodologie zrównoważonych inwestycji ujawnione przez zarządzających stron trzecich.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;W jaki sposób inwestycje zrównoważone, które częściowo realizował produkt finansowy, nie powodowały znaczącej szkody dla żadnego celu zrównoważonego rozwoju środowiskowego lub społecznego?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aby zapewnić, że pozytywny wkład w cel zrównoważonego rozwoju środowiskowego lub społecznego nie spowodował znaczącej szkody dla innych celów zrównoważonych w okresie odniesienia, zarządzający zastosował następujące środki ochrony oparte na swojej wewnętrznej metodologii, aby wykazać, że istnieje zamiar nie wyrządzania takiej szkody:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Uwzględnienie obowiązkowych wskaźników głównych niekorzystnych skutków dla zrównoważonego rozwoju (PIAS) wymienionych w załączniku I rozporządzenia delegowanego (UE) 2022/1288/97, które uzupełnia rozporządzenie (UE) 2019/2088, jak opisano w kolejnym pytaniu.&lt;/li&gt;
+&lt;li&gt;Działalność w kontrowersyjnych sektorach: poprzez analizę i wykluczenie emitentów z istotnym udziałem w działalności kontrowersyjnej w sektorach takich jak paliwa kopalne, broń kontrowersyjna, tytoń oraz emitentów narażonych na poważne kontrowersje.&lt;/li&gt;
+&lt;li&gt;Neutralny wynik zrównoważoności: zarządzający wymagał minimalnej oceny ESG na poziomie B w skali 7 poziomów (C-, C, C+, B, A-, A i A+, gdzie A+ odzwierciedla najlepszy wynik ESG) zgodnie z własną metodologią, aby zagwarantować, że praktyki zrównoważoności każdego emitenta spełniają minimalne wymagania ESG.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;W przypadku gdy jakakolwiek bezpośrednia inwestycja funduszu naruszyła którykolwiek z tych środków ochrony, zarządzający uznał, że nie można zapewnić, że nie doszło do znaczącej szkody i nie została uznana za inwestycję zrównoważoną.&lt;/p&gt;
+&lt;p&gt;Jeżeli program emerytalny inwestował w fundusze inwestycyjne stron trzecich, zarządzający stosował metodologię "nie wyrządzania znaczącej szkody" ujawnioną przez zarządzających stron trzecich.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>W jaki sposób uwzględniono wskaźniki głównych niekorzystnych skutków dla czynników zrównoważonego rozwoju?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Zarządzający uwzględnił obowiązkowe wskaźniki głównych niekorzystnych skutków w analizie zasady "nie wyrządzania znaczącej szkody" dla aktywów bazowych tego funduszu.&lt;/p&gt;
+&lt;p&gt;W tym celu zarządzający zdefiniował progi oparte na kryteriach ilościowych i jakościowych, które obejmowały:&lt;/p&gt;
+&lt;ul&gt;
+    &lt;li&gt;Progi absolutne: emitenci z istotnym udziałem w paliwach kopalnych, działalności wpływającej na obszary wrażliwe biologicznie, naruszający zasady Global Compact ONZ i Wytyczne OECD dla Przedsiębiorstw Wielonarodowych, nieposiadający procesów i mechanizmów monitorowania przestrzegania tych norm międzynarodowych i/lub narażeni na broń kontrowersyjną, zostali uznani za niezgodnych z zasadą "nie wyrządzania znaczącej szkody".&lt;/li&gt;
+    &lt;li&gt;Progi branżowe: emitenci znajdujący się w grupie o najgorszym wyniku w swojej branży pod względem emisji gazów cieplarnianych, emisji do wód, odpadów niebezpiecznych i/lub kwestii społecznych i pracowniczych, zostali uznani za niezgodnych z zasadą "nie wyrządzania znaczącej szkody".&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Czy inwestycje zrównoważone były zgodne z Wytycznymi OECD dla Przedsiębiorstw Wielonarodowych i Zasadami Przewodnimi ONZ dotyczącymi przedsiębiorstw i praw człowieka? Szczegóły:</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Poszanowanie praw człowieka stanowi integralną część wartości zarządzającego oraz minimalny standard działania w celu prowadzenia swojej działalności w sposób zgodny z prawem.&lt;/p&gt;
+&lt;p&gt;W tym kontekście działania zarządzającego opierają się na zasadach określonych w Wytycznych OECD dla Przedsiębiorstw Wielonarodowych oraz dziesięciu zasadach Global Compact ONZ, między innymi. To zaangażowanie odzwierciedla się zarówno w politykach korporacyjnych Grupy Santander, jak i w politykach własnych zarządzającego dostępnych na odpowiednich stronach internetowych i stanowi część wewnętrznego procesu integracji ryzyk zrównoważonego rozwoju zarządzającego.&lt;/p&gt;
+&lt;p&gt;Zarządzający regularnie monitorował, czy bezpośrednie inwestycje gotówkowe naruszają któreś z tych międzynarodowych wytycznych, a w przypadku naruszenia, były one oceniane i zarządzane zgodnie z ich wagą, co mogło prowadzić na przykład do działań zaangażowania.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="obr-content"&gt;
+&lt;p&gt;Taksonomia UE określa zasadę "nie wyrządzania znaczącej szkody", zgodnie z którą inwestycje zgodne z taksonomią nie powinny wyrządzać znaczącej szkody celom taksonomii UE i obejmuje szczególne kryteria unijne.&lt;/p&gt;
+&lt;p&gt;Zasada "nie wyrządzania znaczącej szkody" ma zastosowanie wyłącznie do inwestycji bazowych produktu finansowego, które uwzględniają kryteria UE dotyczące środowiskowo zrównoważonych działań gospodarczych. Inwestycje bazowe pozostałej części produktu finansowego nie uwzględniają tych kryteriów UE.&lt;/p&gt;
+&lt;p class="italic"&gt;Każda inna inwestycja zrównoważona również nie powinna wyrządzać znaczącej szkody żadnemu celowi środowiskowemu lub społecznemu.&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>W jaki sposób ten produkt finansowy uwzględnia główne niekorzystne skutki dla czynników zrównoważonego rozwoju?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Fundusz uwzględnił główne niekorzystne skutki dla czynników zrównoważonego rozwoju podczas podejmowania decyzji inwestycyjnych. Zarządzający stale monitorował wyniki wskaźników z Tabeli 1 oraz dwóch opcjonalnych wskaźników z Tabel 2 i 3 Załącznika I RTS, aby ocenić negatywne skutki, jakie inwestycje realizowane przez ten fundusz mogą powodować w środowisku zewnętrznym.
+&lt;/p&gt;
+&lt;p&gt;
+Podczas okresu odniesienia zarządzający zidentyfikował te skutki na dwóch poziomach:
+&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;
+Na podstawie wyników względnych każdego emitenta, w celu identyfikacji
+emitentów z najgorszymi wynikami w każdym wskaźniku PIAS. Emitenci z najgorszymi wynikami w odniesieniu do swojego sektora dla wszystkich wskaźników obowiązkowych byli oceniani i zarządzani zgodnie z istotnością wpływu i jego powtarzalnością, co mogło prowadzić do działań zaangażowania.
+&lt;/li&gt;
+&lt;li&gt;Na podstawie porównania wskaźników PIAS funduszu z wskaźnikami indeksu odniesienia (benchmark). Kiedy wyniki funduszu były gorsze niż wyniki benchmarku, zarządzający analizował wagę wpływu, jego powtarzalność w czasie, prawdopodobieństwo sukcesu działań zaangażowania, ekspozycję portfela oraz rodzaj wskaźnika PIAS, aby wdrożyć działania łagodzące. Podczas okresu odniesienia działania te były priorytetowe dla wskaźników związanych z emisjami gazów cieplarnianych i/lub naruszeniami Global Compact ONZ. Zarządzający łagodził również te negatywne skutki, dostosowując pozycje najbardziej przyczyniające się do najgorszych wyników PIAS w porównaniu z benchmarkiem, ograniczając zwiększenie pozycji lub w ostateczności poprzez dezinwestycję.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+Dane potrzebne do obliczenia wskaźników PIAS były dostarczane przez zewnętrznych dostawców danych. Przeprowadzano regularną analizę jakości i pokrycia danych we współpracy z emitentami i dostawcami danych, aby rozwiązać ograniczenia w dostępności i jakości danych wskaźników.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jakie były główne inwestycje tego produktu finansowego?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Lista zawiera inwestycje, które stanowiły &lt;strong&gt;większość inwestycji&lt;/strong&gt; produktu finansowego w okresie odniesienia, tj.: {{ref_period}}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Główne inwestycje Programu Emerytalnego dokonane w okresie odniesienia to:&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;table&gt;
+&lt;colgroup&gt;
+&lt;col class="col1"/&gt;
+&lt;col class="col2"/&gt;
+&lt;col class="col3"/&gt;
+&lt;col class="col4"/&gt;
+&lt;/colgroup&gt;
+&lt;thead&gt;
+&lt;tr&gt;
+&lt;th&gt;Najważniejsze inwestycje&lt;/th&gt;
+&lt;th&gt;Sektor&lt;/th&gt;
+&lt;th style="text-align: center;"&gt;% aktywów&lt;/th&gt;
+&lt;th style="text-align: center;"&gt;Kraj&lt;/th&gt;
+&lt;/tr&gt;
+&lt;/thead&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;SPAIN (KINGDOM OF) 0 31/01/27 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;11,61%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;BONOS Y OBLIG DEL EST 0.8 30/07/25 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;10,61%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;BONOS Y OBLIG DEL ESTADO 0 31/01/26 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;10,28%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;SPAIN (KINGDOM OF) 2.8 31/05/26 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;8,29%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;SPAIN (KINGDOM OF) 0 31/05/25 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;7,77%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;BONOS Y OBLIG DEL ESTADO 1.25 31/10/30&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;5,02%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;BONOS Y OBLIG DEL EST 0.7 30/04/32 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;5,01%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;BONOS Y OBLIG DEL EST 2.55 10/32 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;4,12%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;BONOS Y OBLIG DEL ESTADO 0.5 30/04/30 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;3,45%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;SPAIN (KINGDOM OF) 3.55 31/10/33 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;3,17%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>&lt;table&gt;
+&lt;colgroup&gt;
+&lt;col class="col1"/&gt;
+&lt;col class="col2"/&gt;
+&lt;col class="col3"/&gt;
+&lt;col class="col4"/&gt;
+&lt;/colgroup&gt;
+&lt;thead&gt;
+&lt;tr&gt;
+&lt;th&gt;Najważniejsze inwestycje&lt;/th&gt;
+&lt;th&gt;Sektor&lt;/th&gt;
+&lt;th style="text-align: center;"&gt;% aktywów&lt;/th&gt;
+&lt;th style="text-align: center;"&gt;Kraj&lt;/th&gt;
+&lt;/tr&gt;
+&lt;/thead&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;FRANCE (REPUBLIC OF) 0 25/05/26 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;2,95%&lt;/td&gt;
+&lt;td class="country"&gt;FR&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;FRANCE (REPUBLIC OF) 1 25/05/27 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;2,71%&lt;/td&gt;
+&lt;td class="country"&gt;FR&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;BONOS Y OBLIG DEL ESTADO 3.8 30/07/42 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;2,44%&lt;/td&gt;
+&lt;td class="country"&gt;ES&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;FRANCE (REPUBLIC OF) 2.75 25/10/27 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;2,29%&lt;/td&gt;
+&lt;td class="country"&gt;FR&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;ITALY (REPUBLIC OF) 0.95 01/03/23 (EUR)&lt;/td&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent"&gt;1,78%&lt;/td&gt;
+&lt;td class="country"&gt;IT&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>W jakich sektorach gospodarczych dokonano inwestycji?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sektory gospodarcze, w które zainwestowano w okresie odniesienia, to:&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Procent inwestycji zrównoważonych został obliczony jako udział aktywów bazowych spełniających kryteria zrównoważoności w stosunku do całkowitego majątku funduszu. Zostały wzięte pod uwagę aktywa z cechami środowiskowymi lub społecznymi, które spełniały wymagania określone w taksonomii UE.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jakie są sektory gospodarcze, w które inwestowano?</t>
+  </si>
+  <si>
+    <t>Sektory gospodarcze, w które inwestowano w okresie odniesienia, to przedstawione poniżej.</t>
+  </si>
+  <si>
+    <t>&lt;div class="obr-content"&gt;Opis sektorów gospodarczych i ich wpływu na inwestycje.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg class="flowchart-lines"&gt;&lt;/svg&gt;
+&lt;div class="nodes"&gt;
+&lt;div class="node" id="n10000"&gt;Inwestycje&lt;/div&gt;
+&lt;div class="branch-horizontal"&gt;
+&lt;div class="node" id="n11000" data-parent="n10000"&gt;n.º 1 Dostosowane do cech środowiskowych lub społecznych&lt;/div&gt;
+&lt;div class="node" id="n12000" data-parent="n10000"&gt;n.º 2 Pozostałe&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="branch-horizontal"&gt;
+&lt;div class="node" id="n11100" data-parent="n11000"&gt;n.º 1A Zrównoważone&lt;/div&gt;
+&lt;div class="node" id="n11200" data-parent="n11000"&gt;n.º 1B Pozostałe cechy środowiskowe lub społeczne&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="sub-branch-horizontal"&gt;
+&lt;div class="node" id="n11110" data-parent="n11100"&gt;Inne środowiskowe&lt;/div&gt;
+&lt;div class="node" id="n11120" data-parent="n11100"&gt;Społeczne&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Inwestycje</t>
+  </si>
+  <si>
+    <t>n.º 1 Dostosowane do cech środowiskowych lub społecznych</t>
+  </si>
+  <si>
+    <t>n.º 2 Pozostałe</t>
+  </si>
+  <si>
+    <t>n.º 1A Zrównoważone</t>
+  </si>
+  <si>
+    <t>n.º 1B Pozostałe cechy środowiskowe lub społeczne</t>
+  </si>
+  <si>
+    <t>Inne środowiskowe</t>
+  </si>
+  <si>
+    <t>Społeczne</t>
+  </si>
+  <si>
+    <t>Jakie sektory gospodarcze były zaangażowane?</t>
+  </si>
+  <si>
+    <t>Sektory gospodarcze zaangażowane w inwestycje to następujące:</t>
+  </si>
+  <si>
+    <t>&lt;table&gt;
+&lt;colgroup&gt;
+&lt;col class="col1"/&gt;
+&lt;col class="col2"/&gt;
+&lt;/colgroup&gt;
+&lt;thead&gt;
+&lt;tr&gt;
+&lt;th&gt;Sektor gospodarczy&lt;/th&gt;
+&lt;th style="text-align: center;"&gt;Alokacja aktywów w %&lt;/th&gt;
+&lt;/tr&gt;
+&lt;/thead&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Administracja publiczna i obrona; Obowiązkowe ubezpieczenia społeczne&lt;/td&gt;
+&lt;td class="percent" style="text-align: center;"&gt;94,24%&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Działalność finansowa i ubezpieczeniowa&lt;/td&gt;
+&lt;td class="percent" style="text-align: center;"&gt;5,76%&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>W jakim stopniu zrównoważone inwestycje mające cel środowiskowy były zgodne z taksonomią UE?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Działania wspierające&lt;/strong&gt; bezpośrednio umożliwiają innym działaniom znaczące przyczynienie się do osiągnięcia celu środowiskowego.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Działania przejściowe&lt;/strong&gt; to działania, dla których nie istnieją jeszcze alternatywy o niskiej emisji dwutlenku węgla i które charakteryzują się poziomami emisji gazów cieplarnianych zgodnymi z najlepszymi wynikami w branży.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aktywności zgodne z taksonomią UE są przedstawione jako procent:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;Obrotu:&lt;/strong&gt; który odzwierciedla procent przychodów uzyskanych z działalności ekologicznej przedsiębiorstw, w które inwestuje fundusz.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Inwestycji w aktywa trwałe (CapEx):&lt;/strong&gt; które pokazują inwestycje ekologiczne realizowane przez przedsiębiorstwa, w które inwestuje fundusz, np. przejście na zieloną gospodarkę.&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Kosztów operacyjnych (OpEx):&lt;/strong&gt; które odzwierciedlają działalność operacyjną przedsiębiorstw, w które inwestuje fundusz, zgodną z celem środowiskowym.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Fundusz nie określił minimalnego procentu zgodności swoich inwestycji z taksonomią UE ani nie miał celu inwestycyjnego zgodnego z nią. W związku z tym dane te nie podlegają audytowi i są przedstawiane wyłącznie w celach informacyjnych. Poniższe wykresy przedstawiają zgodność funduszu z taksonomią UE w okresie odniesienia. Dane są przedstawiane wyłącznie informacyjnie, ponieważ nie odzwierciedlają zgodności z żadnym celem ani minimalnym zobowiązaniem inwestycyjnym.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;Czy produkt finansowy inwestował w działania związane z gazem kopalnym lub energią jądrową, które spełniały taksonomię UE&lt;sup&gt;1&lt;/sup&gt;?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;label&gt;
+&lt;input type="checkbox"/&gt;
+&lt;span&gt;Nie&lt;/span&gt;
+&lt;/label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;hr/&gt;
+&lt;p&gt;&lt;sup&gt;1&lt;/sup&gt;Działania związane z gazem kopalnym lub energią jądrową spełniają taksonomię UE tylko wtedy, gdy przyczyniają się do ograniczenia zmian klimatycznych ("łagodzenie zmian klimatycznych") i nie wyrządzają znaczącej szkody żadnemu celowi taksonomii UE. Pełne kryteria dotyczące działań gospodarczych związanych z gazem kopalnym i energią jądrową zgodnych z taksonomią UE określono w rozporządzeniu delegowanym Komisji (UE) 2022/1214.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;Jaki był udział inwestycji w działania przejściowe i wspierające?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Udział inwestycji w działania przejściowe wyniósł {{total_turnover_transition}} w obrotach, {{total_capex_transition}} w nakładach inwestycyjnych (CapEx) i {{total_opex_transition}} w kosztach operacyjnych (OpEx), a w działania wspierające {{total_turnover_enabling}} w obrotach, {{total_capex_enabling}} w CapEx i {{total_opex_enabling}} w OpEx w odniesieniu do całkowitego majątku funduszu w okresie odniesienia.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;Jaki procent inwestycji był zgodny z taksonomią UE w porównaniu z wcześniejszymi okresami odniesienia?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Fundusz nie określił minimalnego procentu zgodności swoich inwestycji z taksonomią UE. Niemniej jednak, zgodność inwestycji z taksonomią UE w porównaniu z okresem odniesienia wyniosła {{taxonomy_2022}}, {{taxonomy_2023}}, a w {{taxonomy_2024}} osiągnęła {{total_turnover_aligned}}.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jaki był udział inwestycji zrównoważonych z celem środowiskowym, które nie były zgodne z taksonomią UE?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Inwestycje zrównoważone z celem środowiskowym&lt;/strong&gt; to inwestycje, które &lt;strong&gt;nie uwzględniają kryteriów&lt;/strong&gt; środowiskowej zgodności działań gospodarczych z taksonomią UE, zgodnie z rozporządzeniem (UE) 2020/852.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Udział inwestycji zrównoważonych funduszu z celem środowiskowym, które nie były zgodne z taksonomią UE, wyniósł {{sust_invest_env}}% w okresie odniesienia.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jaki był udział inwestycji społecznie zrównoważonych?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Udział inwestycji społecznie zrównoważonych funduszu wyniósł {{sust_invest_soc}}% w okresie odniesienia.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jakie inwestycje zostały uwzględnione w kategorii "inne" i jaki był ich cel? Czy były stosowane minimalne zabezpieczenia środowiskowe lub społeczne?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Fundusz uwzględnił {{other_nones}}% majątku funduszu w okresie odniesienia w inwestycjach, które nie są zgodne z cechami środowiskowymi i społecznymi promowanymi przez fundusz. Odsetek ten obliczono jako średni udział majątku funduszu, uwzględniając inwestycje bazowe z ostatniego dnia roboczego każdego kwartału okresu odniesienia, zgodnie z definicją w sekcji "Główne inwestycje".&lt;/p&gt;
+&lt;p&gt;Inwestycje te nie wpłynęły negatywnie na osiągnięcie cech środowiskowych i społecznych promowanych przez fundusz, a ich celem było wspieranie efektywnego zarządzania portfelem, zapewnianie płynności oraz funkcja zabezpieczająca.&lt;/p&gt;
+&lt;p&gt;Minimalne zabezpieczenia środowiskowe i społeczne obejmowały:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Bezpośrednie aktywa inwestycyjne bez ratingu ESG z powodu braku danych dostawcy wykorzystywanego przez zarządzającego, które nie mogą być uznane za inwestycje zrównoważone. Te aktywa spełniały kryteria wykluczeń funduszu, zapewniając minimalne zabezpieczenia.&lt;/li&gt;
+&lt;li&gt;Fundusze inwestycyjne bez ratingu ESG z powodu braku danych, które nie mogą być klasyfikowane jako fundusze zgodne z art. 8 lub 9 Rozporządzenia (UE) 2019/2088. W procesie selekcji funduszy stosowano minimalne zabezpieczenia zgodne z procedurami zarządzającego.&lt;/li&gt;
+&lt;li&gt;Inne aktywa gotówkowe dopuszczalne zgodnie z polityką funduszu, dla których stosowano minimalne zabezpieczenia.&lt;/li&gt;
+&lt;li&gt;Płynność w depozytariuszu i inne rachunki bieżące wykorzystywane do zwykłej działalności funduszu (np. zabezpieczenia instrumentów pochodnych).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;W przypadku instrumentów finansowych pochodnych (oprócz kontraktów terminowych i opcji na akcje wykorzystywanych do odniesienia indeksu), nie stosowano powyższych procedur w zakresie promocji cech ESG, z wyjątkiem określonych sytuacji.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jakie działania podjęto, aby spełnić cechy środowiskowe lub społeczne w okresie odniesienia?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;W okresie odniesienia podjęto następujące działania, aby spełnić cechy środowiskowe i społeczne funduszu:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Zarządzający regularnie weryfikował, czy fundusz przestrzega następujących kryteriów wykluczenia dla aktywów inwestycyjnych:
+&lt;ul&gt;
+&lt;li&gt;Wykluczono emitentów z ekspozycją na sektory takie jak broń kontrowersyjna, paliwa kopalne niekonwencjonalne, wytwarzanie energii z węgla oraz górnictwo węglowe.&lt;/li&gt;
+&lt;li&gt;Wykluczono emitentów, w których zidentyfikowano kontrowersje uznane za krytyczne w zakresie środowiskowym, społecznym lub zarządzania.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;li&gt;Zarządzający regularnie monitorował minimalny średni rating ESG aktywów inwestycyjnych funduszu, który wynosił co najmniej A-, zgodnie z metodologią zarządzającego na siedmiostopniowej skali (C-, C, C+, B, A-, A, A+).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Dodatkowo, zarządzający uznawał za zgodne z cechami środowiskowymi i społecznymi funduszu następujące przypadki:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Emitenci bez ratingu ESG, ale posiadający inwestycje, które mogą być uznane za zrównoważone, takie jak zielone obligacje.&lt;/li&gt;
+&lt;li&gt;Fundusze inwestycyjne promujące cechy środowiskowe lub społeczne zgodnie z art. 8 lub 9 Rozporządzenia (UE) 2019/2088.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Wszystkie powyższe kryteria były integrowane w procesie inwestycyjnym i monitorowane przez zespół ds. zgodności zarządzającego. W przypadku naruszenia podejmowano działania naprawcze, takie jak komunikacja z zespołem SRI czy skierowanie sprawy do odpowiedniego komitetu.&lt;/p&gt;
+&lt;p&gt;Zarządzający prowadził również działania angażujące z emitentami oraz głosowania na walnych zgromadzeniach, aby wspierać cele środowiskowe i społeczne funduszu.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jak produkt finansowy zachowywał się w porównaniu z wyznaczonym indeksem odniesienia?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nie wyznaczono konkretnego indeksu jako punktu odniesienia do określenia, czy ten produkt finansowy spełnia promowane cechy środowiskowe lub społeczne.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Indeksy odniesienia&lt;/strong&gt; to wskaźniki stosowane do pomiaru, czy produkt finansowy osiąga promowane cechy środowiskowe lub społeczne.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;W jaki sposób indeks odniesienia różni się od ogólnego indeksu rynkowego?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nie dotyczy.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;Jak produkt finansowy zachowywał się w odniesieniu do wskaźników zrównoważoności w celu określenia zgodności indeksu odniesienia z promowanymi cechami środowiskowymi lub społecznymi?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="sub-qtext"&gt;Jak produkt finansowy zachowywał się w porównaniu z wyznaczonym indeksem odniesienia?&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="obr-content"&gt;
+&lt;p&gt;&lt;i&gt;Wykresy poniżej przedstawiają w zielonym kolorze procent inwestycji zgodnych z taksonomią UE. Ze względu na brak odpowiedniej metodologii do określania zgodności obligacji skarbowych z taksonomią, pierwszy wykres przedstawia zgodność z taksonomią dla wszystkich inwestycji funduszu, w tym obligacji skarbowych, podczas gdy drugi wykres pokazuje zgodność z taksonomią wyłącznie dla inwestycji innych niż obligacje skarbowe.&lt;/i&gt;&lt;/p&gt;
+&lt;!--Add graph image--&gt;
+&lt;div class="chart"&gt;
+&lt;img 
+src="graphs_plots\plot_orb_full.png"
+alt="Ajuste a la taxonomía de las inversiones." /&gt;
+&lt;/div&gt;
+&lt;p style="font-style: italic"&gt;*Na potrzeby tych wykresów "obligacje skarbowe" obejmują wszystkie ekspozycje skarbowe.&lt;/i&gt;&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -2336,11 +2923,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2CF707-1372-4610-A1C4-0399A26E6B10}">
   <dimension ref="A1:CG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="BE16" sqref="BE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19827,6 +20414,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20205,12 +20793,537 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6A6837-7230-4429-B7FC-980D5EFB5D43}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:CH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BI2" sqref="BI2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="60" width="21" customWidth="1"/>
+    <col min="61" max="61" width="74.7265625" customWidth="1"/>
+    <col min="62" max="86" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86" s="3" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20220,7 +21333,7 @@
   <dimension ref="A1:CI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20757,6 +21870,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002EA6A4DE027E6E4386DF60BFAE3B87E5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17b8f265623aebada2f4fbb4af048074">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee51a08e-cffb-442e-9a85-1980beacc2f8" xmlns:ns3="9f04ef3f-090d-46e3-96be-1fbea4829461" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76d895b679038352f9e7e02d8518f5a2" ns2:_="" ns3:_="">
     <xsd:import namespace="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
@@ -20963,41 +22096,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D26033-77B4-4FF0-A22A-B37DD9FF0884}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
-    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21020,9 +22122,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D26033-77B4-4FF0-A22A-B37DD9FF0884}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
+    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n740789\Documents\sfdr_report_generator\excel_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C62F9-CB1C-4C49-9F4E-10BA26425BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A657DC-EDBC-4FB9-A9B8-1DBDB106C58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="-16230" windowWidth="14400" windowHeight="16200" activeTab="2" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="1" r:id="rId1"/>
@@ -2253,9 +2253,6 @@
     <t>Sektory gospodarcze, w które inwestowano w okresie odniesienia, to przedstawione poniżej.</t>
   </si>
   <si>
-    <t>&lt;div class="obr-content"&gt;Opis sektorów gospodarczych i ich wpływu na inwestycje.&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>&lt;svg class="flowchart-lines"&gt;&lt;/svg&gt;
 &lt;div class="nodes"&gt;
 &lt;div class="node" id="n10000"&gt;Inwestycje&lt;/div&gt;
@@ -2453,6 +2450,9 @@
 &lt;/div&gt;
 &lt;p style="font-style: italic"&gt;*Na potrzeby tych wykresów "obligacje skarbowe" obejmują wszystkie ekspozycje skarbowe.&lt;/i&gt;&lt;/p&gt;
 &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class=\"obr-content\"&gt;\n&lt;p&gt;&lt;strong&gt;Opis kategorii inwestycji:&lt;/strong&gt; Kategorie inwestycji podzielone są na takie, które są zgodne z cechami środowiskowymi lub społecznymi, oraz pozostałe. Ta struktura pomaga określić stopień zrównoważoności inwestycji w okresie odniesienia.&lt;/p&gt;\n&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -20795,8 +20795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6A6837-7230-4429-B7FC-980D5EFB5D43}">
   <dimension ref="A1:CH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BI2" sqref="BI2"/>
+    <sheetView tabSelected="1" topLeftCell="AL2" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21188,139 +21188,139 @@
         <v>310</v>
       </c>
       <c r="AP2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BH2" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="BI2" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BM2" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BN2" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BO2" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="BO2" s="3" t="s">
+      <c r="BP2" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="BP2" s="3" t="s">
+      <c r="BQ2" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="BR2" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="BS2" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="BV2" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="BY2" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="BZ2" s="3" t="s">
+      <c r="CA2" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="CA2" s="3" t="s">
+      <c r="CB2" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="CB2" s="3" t="s">
+      <c r="CC2" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="CC2" s="3" t="s">
+      <c r="CD2" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="CE2" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="CD2" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="CF2" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CG2" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -21870,26 +21870,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002EA6A4DE027E6E4386DF60BFAE3B87E5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17b8f265623aebada2f4fbb4af048074">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee51a08e-cffb-442e-9a85-1980beacc2f8" xmlns:ns3="9f04ef3f-090d-46e3-96be-1fbea4829461" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76d895b679038352f9e7e02d8518f5a2" ns2:_="" ns3:_="">
     <xsd:import namespace="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
@@ -22096,10 +22076,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D26033-77B4-4FF0-A22A-B37DD9FF0884}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
+    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22122,20 +22133,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D26033-77B4-4FF0-A22A-B37DD9FF0884}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
-    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n740789\Documents\sfdr_report_generator\excel_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406EC2C6-5B43-4C03-88FF-2AF16D57F616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E13BA6-857B-4EBC-8758-4F83602FABC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10960" activeTab="3" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
+    <workbookView xWindow="-13740" yWindow="-16350" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="1" r:id="rId1"/>
@@ -3585,7 +3585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3613,14 +3613,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3631,13 +3628,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3994,29 +3987,29 @@
     <col min="1" max="103" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="11" t="s">
@@ -4055,22 +4048,22 @@
       <c r="T1" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AA1" s="11" t="s">
@@ -4082,37 +4075,37 @@
       <c r="AC1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AE1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AG1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AI1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AK1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AL1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AM1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AN1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AO1" s="11" t="s">
@@ -4121,7 +4114,7 @@
       <c r="AP1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AR1" s="11" t="s">
@@ -4130,7 +4123,7 @@
       <c r="AS1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AT1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AU1" s="11" t="s">
@@ -4139,7 +4132,7 @@
       <c r="AV1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="AW1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AX1" s="11" t="s">
@@ -4148,7 +4141,7 @@
       <c r="AY1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BA1" s="11" t="s">
@@ -4190,7 +4183,7 @@
       <c r="BM1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="BN1" s="19" t="s">
+      <c r="BN1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BO1" s="11" t="s">
@@ -4205,7 +4198,7 @@
       <c r="BR1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="BS1" s="19" t="s">
+      <c r="BS1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BT1" s="11" t="s">
@@ -4235,13 +4228,13 @@
       <c r="CB1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="CC1" s="19" t="s">
+      <c r="CC1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="CD1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="CE1" s="19" t="s">
+      <c r="CE1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="CF1" s="11" t="s">
@@ -4250,31 +4243,31 @@
       <c r="CG1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="CH1" s="19" t="s">
+      <c r="CH1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="CI1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="CJ1" s="19" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="CK1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="CL1" s="19" t="s">
+      <c r="CL1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="CM1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="CN1" s="19" t="s">
+      <c r="CN1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="CO1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="CP1" s="19" t="s">
+      <c r="CP1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="CQ1" s="11" t="s">
@@ -4283,25 +4276,25 @@
       <c r="CR1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="CS1" s="19" t="s">
+      <c r="CS1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="CT1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="CU1" s="19" t="s">
+      <c r="CU1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="CV1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="CW1" s="19" t="s">
+      <c r="CW1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="CX1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="CY1" s="19" t="s">
+      <c r="CY1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -9631,311 +9624,311 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="13" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:103" s="2" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AF2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AH2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AI2" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AK2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AL2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AM2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AN2" s="13" t="s">
+      <c r="AN2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AO2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AP2" s="13" t="s">
+      <c r="AP2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AR2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AS2" s="13" t="s">
+      <c r="AS2" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="AT2" s="13" t="s">
+      <c r="AT2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AU2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AV2" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AW2" s="13" t="s">
+      <c r="AW2" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AX2" s="13" t="s">
+      <c r="AX2" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="AY2" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="BA2" s="13" t="s">
+      <c r="BA2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="BB2" s="13" t="s">
+      <c r="BB2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="BC2" s="13" t="s">
+      <c r="BC2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BD2" s="13" t="s">
+      <c r="BD2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BE2" s="13" t="s">
+      <c r="BE2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BF2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BG2" s="13" t="s">
+      <c r="BG2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BH2" s="13" t="s">
+      <c r="BH2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BI2" s="13" t="s">
+      <c r="BI2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BJ2" s="13" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BK2" s="13" t="s">
+      <c r="BK2" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="BL2" s="13" t="s">
+      <c r="BL2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BM2" s="13" t="s">
+      <c r="BM2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="BN2" s="13" t="s">
+      <c r="BN2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BO2" s="13" t="s">
+      <c r="BO2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="BP2" s="13" t="s">
+      <c r="BP2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="BQ2" s="13" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="BR2" s="13" t="s">
+      <c r="BR2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BS2" s="13" t="s">
+      <c r="BS2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="BT2" s="13" t="s">
+      <c r="BT2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="BU2" s="13" t="s">
+      <c r="BU2" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="BV2" s="13" t="s">
+      <c r="BV2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="BW2" s="13" t="s">
+      <c r="BW2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="BX2" s="13" t="s">
+      <c r="BX2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="BY2" s="13" t="s">
+      <c r="BY2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="BZ2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="CA2" s="13" t="s">
+      <c r="CA2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="CB2" s="13" t="s">
+      <c r="CB2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="CC2" s="13" t="s">
+      <c r="CC2" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="CD2" s="13" t="s">
+      <c r="CD2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="CE2" s="13" t="s">
+      <c r="CE2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="CF2" s="13" t="s">
+      <c r="CF2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="CG2" s="13" t="s">
+      <c r="CG2" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="CH2" s="13" t="s">
+      <c r="CH2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="CI2" s="13" t="s">
+      <c r="CI2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="CJ2" s="13" t="s">
+      <c r="CJ2" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="CK2" s="13" t="s">
+      <c r="CK2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="CL2" s="13" t="s">
+      <c r="CL2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="CM2" s="13" t="s">
+      <c r="CM2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="CN2" s="13" t="s">
+      <c r="CN2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="CO2" s="13" t="s">
+      <c r="CO2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="CP2" s="13" t="s">
+      <c r="CP2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="CQ2" s="13" t="s">
+      <c r="CQ2" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="CR2" s="13" t="s">
+      <c r="CR2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="CS2" s="13" t="s">
+      <c r="CS2" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="CT2" s="13" t="s">
+      <c r="CT2" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="CU2" s="13" t="s">
+      <c r="CU2" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="CV2" s="13" t="s">
+      <c r="CV2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="CW2" s="13" t="s">
+      <c r="CW2" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="CX2" s="13" t="s">
+      <c r="CX2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="CY2" s="13" t="s">
+      <c r="CY2" s="2" t="s">
         <v>370</v>
       </c>
     </row>
@@ -10144,10 +10137,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF83BCF-3DAB-4382-89FD-168493B9C498}">
   <dimension ref="A1:CY3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BO1" sqref="BO1"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R3"/>
+      <selection pane="bottomLeft" activeCell="BY1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10156,313 +10149,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:103" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AR1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AS1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AT1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AU1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AW1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="AX1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BA1" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BB1" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BC1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BD1" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BE1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BF1" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BG1" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BH1" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BI1" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BJ1" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="BK1" s="15" t="s">
+      <c r="BK1" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="BL1" s="15" t="s">
+      <c r="BL1" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="BM1" s="15" t="s">
+      <c r="BM1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="BN1" s="15" t="s">
+      <c r="BN1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="BO1" s="15" t="s">
+      <c r="BO1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="BP1" s="15" t="s">
+      <c r="BP1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="BQ1" s="15" t="s">
+      <c r="BQ1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="BR1" s="15" t="s">
+      <c r="BR1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="BS1" s="15" t="s">
+      <c r="BS1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="BT1" s="15" t="s">
+      <c r="BT1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="BU1" s="15" t="s">
+      <c r="BU1" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="BV1" s="15" t="s">
+      <c r="BV1" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="BW1" s="15" t="s">
+      <c r="BW1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BX1" s="15" t="s">
+      <c r="BX1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="BY1" s="15" t="s">
+      <c r="BY1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="BZ1" s="15" t="s">
+      <c r="BZ1" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="CA1" s="15" t="s">
+      <c r="CA1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="CB1" s="15" t="s">
+      <c r="CB1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="CC1" s="15" t="s">
+      <c r="CC1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="CD1" s="15" t="s">
+      <c r="CD1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="CE1" s="15" t="s">
+      <c r="CE1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="CF1" s="15" t="s">
+      <c r="CF1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="CG1" s="15" t="s">
+      <c r="CG1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="CH1" s="15" t="s">
+      <c r="CH1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="CI1" s="15" t="s">
+      <c r="CI1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="CJ1" s="15" t="s">
+      <c r="CJ1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="CK1" s="15" t="s">
+      <c r="CK1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="CL1" s="15" t="s">
+      <c r="CL1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="CM1" s="15" t="s">
+      <c r="CM1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="CN1" s="15" t="s">
+      <c r="CN1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="CO1" s="15" t="s">
+      <c r="CO1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="CP1" s="15" t="s">
+      <c r="CP1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="CQ1" s="15" t="s">
+      <c r="CQ1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="CR1" s="15" t="s">
+      <c r="CR1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="CS1" s="15" t="s">
+      <c r="CS1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="CT1" s="15" t="s">
+      <c r="CT1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="CU1" s="15" t="s">
+      <c r="CU1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="CV1" s="15" t="s">
+      <c r="CV1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="CW1" s="15" t="s">
+      <c r="CW1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="CX1" s="15" t="s">
+      <c r="CX1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="CY1" s="15" t="s">
+      <c r="CY1" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10479,7 +10472,7 @@
       <c r="D2" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -10509,31 +10502,31 @@
       <c r="N2" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="18" t="s">
         <v>388</v>
       </c>
       <c r="X2" s="2" t="s">
@@ -10788,7 +10781,7 @@
       <c r="D3" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -10818,31 +10811,31 @@
       <c r="N3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="18" t="s">
         <v>388</v>
       </c>
       <c r="X3" s="2" t="s">
@@ -11093,8 +11086,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F6EF4D-CF5F-40A8-8775-A1A29C91F1C4}">
   <dimension ref="A1:DA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="BU1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="CA1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11104,29 +11099,29 @@
     <col min="31" max="105" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="12" t="s">
@@ -11144,13 +11139,13 @@
       <c r="M1" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="1" t="s">
         <v>325</v>
       </c>
       <c r="Q1" s="12" t="s">
@@ -11162,13 +11157,13 @@
       <c r="S1" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="1" t="s">
         <v>329</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="1" t="s">
         <v>334</v>
       </c>
       <c r="W1" s="12" t="s">
@@ -11177,19 +11172,19 @@
       <c r="X1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Z1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AB1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AD1" s="12" t="s">
@@ -11198,7 +11193,7 @@
       <c r="AE1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AG1" s="12" t="s">
@@ -11207,13 +11202,13 @@
       <c r="AH1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AI1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AJ1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AK1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL1" s="12" t="s">
@@ -11222,7 +11217,7 @@
       <c r="AM1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AN1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AO1" s="12" t="s">
@@ -11231,7 +11226,7 @@
       <c r="AP1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AR1" s="12" t="s">
@@ -11270,7 +11265,7 @@
       <c r="BC1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="BD1" s="19" t="s">
+      <c r="BD1" s="1" t="s">
         <v>176</v>
       </c>
       <c r="BE1" s="12" t="s">
@@ -11288,7 +11283,7 @@
       <c r="BI1" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="BJ1" s="19" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>182</v>
       </c>
       <c r="BK1" s="12" t="s">
@@ -11306,13 +11301,13 @@
       <c r="BO1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="BP1" s="19" t="s">
+      <c r="BP1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BQ1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="19" t="s">
+      <c r="BR1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BS1" s="12" t="s">
@@ -11321,31 +11316,31 @@
       <c r="BT1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="BU1" s="19" t="s">
+      <c r="BU1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BV1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="BW1" s="19" t="s">
+      <c r="BW1" s="1" t="s">
         <v>210</v>
       </c>
       <c r="BX1" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="BY1" s="19" t="s">
+      <c r="BY1" s="1" t="s">
         <v>212</v>
       </c>
       <c r="BZ1" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="CA1" s="19" t="s">
+      <c r="CA1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="CB1" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="CC1" s="19" t="s">
+      <c r="CC1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="CD1" s="12" t="s">
@@ -11354,70 +11349,70 @@
       <c r="CE1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="CF1" s="19" t="s">
+      <c r="CF1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="CG1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="CH1" s="19" t="s">
+      <c r="CH1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="CI1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="CJ1" s="19" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="CK1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="CL1" s="19" t="s">
+      <c r="CL1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CM1" s="19" t="s">
+      <c r="CM1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CN1" s="19" t="s">
+      <c r="CN1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="CO1" s="19" t="s">
+      <c r="CO1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CP1" s="19" t="s">
+      <c r="CP1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CQ1" s="19" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CR1" s="19" t="s">
+      <c r="CR1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="CS1" s="19" t="s">
+      <c r="CS1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="CT1" s="19" t="s">
+      <c r="CT1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="CU1" s="19" t="s">
+      <c r="CU1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CV1" s="19" t="s">
+      <c r="CV1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="CW1" s="19" t="s">
+      <c r="CW1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="CX1" s="19" t="s">
+      <c r="CX1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CY1" s="19" t="s">
+      <c r="CY1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CZ1" s="19" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="DA1" s="19" t="s">
+      <c r="DA1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -11434,7 +11429,7 @@
       <c r="D2" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -11464,7 +11459,7 @@
       <c r="N2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="19" t="s">
         <v>551</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -11748,7 +11743,7 @@
       <c r="D3" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -11778,7 +11773,7 @@
       <c r="N3" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="19" t="s">
         <v>551</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -12055,17 +12050,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002EA6A4DE027E6E4386DF60BFAE3B87E5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17b8f265623aebada2f4fbb4af048074">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee51a08e-cffb-442e-9a85-1980beacc2f8" xmlns:ns3="9f04ef3f-090d-46e3-96be-1fbea4829461" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76d895b679038352f9e7e02d8518f5a2" ns2:_="" ns3:_="">
     <xsd:import namespace="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
@@ -12272,6 +12256,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12282,23 +12277,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5FDC5C-D626-4B87-97B5-B79DFC26F2FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D26033-77B4-4FF0-A22A-B37DD9FF0884}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12317,6 +12295,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5FDC5C-D626-4B87-97B5-B79DFC26F2FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}">
   <ds:schemaRefs>

--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n740789\Documents\sfdr_report_generator\excel_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E13BA6-857B-4EBC-8758-4F83602FABC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A139D95-3A97-41FC-93D6-9241852F9990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13740" yWindow="-16350" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
+    <workbookView xWindow="15360" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="561">
   <si>
     <t>macro_narrative</t>
   </si>
@@ -2185,9 +2185,6 @@
     <t>What was the share of investments made in transitional and enabling activities?</t>
   </si>
   <si>
-    <t>The proportion of investments made in transition activities has been {{total_turnover_enabling}} in turnover, in {{total_capex_enabling}} CapEx and in {{total_opex_enabling}} OpEx and in activities facilitating {{total_turnover}} in turnover}, {{total_capex_transition}} in CapEx and {{TOTAL_opex_TRANSION}} in OpEx over the reference period.</t>
-  </si>
-  <si>
     <t>How did the percentage of investments that were aligned with the EU Taxonomy compare with previous reference periods?</t>
   </si>
   <si>
@@ -2213,9 +2210,6 @@
   </si>
   <si>
     <t>How did this financial product perform compared to the reference benchmark?</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>&lt;b&gt;Reference benchmarks &lt;/b&gt; are indexes to measure whether the financial product attains the environmental or social characteristics that they promote.</t>
@@ -2313,9 +2307,6 @@
   </si>
   <si>
     <t>em atividades económicas que não são qualificadas como sustentáveis do ponto de vista ambiental ao abrigo da taxonomia da UE</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Promoveu características ambientais/ sociais (A/S)&lt;/b&gt;e, apesar de não ter como objetivo a realização de um investimento sustentável, consagrou uma percentagem mínima de &lt;span id="sfdr_last_rep_inv_sust_inv"&gt;&lt;/span&gt;% a investimentos sustentáveis</t>
   </si>
   <si>
     <t>com um objetivo ambiental em atividades económicas qualificadas como sustentáveis do ponto de vista ambiental ao abrigo da taxonomia da UE</t>
@@ -2700,19 +2691,6 @@
     <t xml:space="preserve"> The Sub-Fund does not have a minimum percentage of alignment of its investments with the EU Taxonomy. However, the percentage of investments aligned with the EU Taxonomy compared to the previous reference periods has been  {{taxonomy_2022}} {{taxonomy_2023}} and {{total_turnover_aligned}} in 2024.</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;The financial product had a  {{other_nones}}% share of investments which are neither aligned with the environmental or social characteristics, nor are qualified as sustainable investments. This percentage was calculated as the average percentage of the Sub-Fund considering the underlying investments from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/p&gt;
-&lt;p style="margin-top: -10px;"&gt;                   
-These investments did not alter the achievement of the environmental or social characteristics promoted by the Sub-Fund, and their purpose was investment, contributing to efficient portfolio management, providing liquidity and hedging.&lt;/p&gt;
-&lt;p style="margin-top: -10px;"&gt; The Investment Manager has established minimum environmental or social safeguards so as not to cause significant damage, such as consideration of the principal adverse impacts, or the exclusion of activities that are not aligned with the environmental and/or social characteristics of the Fund. The assets that could be considered were the following:&lt;/p&gt;
-&lt;ul&gt;
-                    &lt;li&gt;Direct cash investment assets that did not have an ESG rating/rating due to the lack of supplier data used by the Investment Manager and which cannot be considered sustainable investments in accordance with the criterion defined in the previous section (i.e., green, social bonds, etc.).&lt;/li&gt;
-                    &lt;li&gt;Investment funds that did not have an ESG rating/rating due to lack of data and that cannot be classified as an investment Sub-Fund art. 8 or 9 according to SFDR.&lt;/li&gt;
-                    &lt;li&gt;Other cash assets other than those mentioned above. (i.e., ETC, etc.) that are permitted by the Sub-Fund's policy and do not harm its ESG profile.&lt;/li&gt;
-                    &lt;li&gt;Other cash assets other than those mentioned above. (i.e., ETC, etc.) that are permitted by the Sub-Fund's policy and do not harm its ESG profile.&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
     <t>&lt;p&gt;
   During the reference period, the following actions have been taken
   to meet the environmental and social characteristics of the
@@ -3147,9 +3125,6 @@
 </t>
   </si>
   <si>
-    <t>&lt;p&gt;N/A&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;The Sub-Fund has promoted environmental and social characteristics by evaluating its underlying investments against environmental, social, and governance (ESG) criteria using a proprietary ESG methodology and investing in issuers that exhibit sound ESG practices and comply with the exclusion factors described in the Sub-Fund’s investment strategy.&lt;/p&gt;
 &lt;p&gt;In this sense, financial, environmental, social, and good governance elements have been used to obtain a more complete view of the assets in which the Sub-Fund invested during the reference period, having evaluated a combination of ESG factors that included but were not limited to:&lt;/p&gt;
 &lt;ul&gt;
@@ -3418,15 +3393,6 @@
     <t>Promoveu características (A/S), mas &lt;b&gt;não realizou quaisquer investimento sustentáveis&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt; O desempenho dos indicadores de sustentabilidade do Fundo ao longo do período de referência é abaixo descrito&lt;/p&gt;
-&lt;ul&gt; 
-&lt;li&gt; Indicador de exclusões: o Fundo não realizou qualquer investimento em setores não permitidos pela respetiva política de investimento. Ou seja, o Fundo excluiu, entre outros, emitentes cujo negócio esteja principalmente orientado para atividades relacionadas com armamento controverso e convencional, tabaco, bem como combustíveis fósseis, produção de eletricidade a partir de carvão e extração de carvão. Adicionalmente, no caso das obrigações governamentais, o Fundo teve 0% de exposição a países com fraco desempenho em termos de direitos políticos e liberdades sociais, considerando o indicador Democracy Index e o estudo Freedom in the World.. &lt;/li&gt;
-&lt;li&gt;Indicador de controvérsias: o Fundo teve 0% de exposição a empresas que estiveram envolvidas em controvérsias consideradas críticas.&lt;/li&gt;
-&lt;li&gt;Classificação (rating) média ASG do Fundo: a classificação ASG média dos ativos que compõem a carteira de investimento do Fundo, classificados de acordo com a metodologia interna da Sociedade Gestora, foi de {{esg_score_2024}} numa escala de 7 níveis (C-, C, C+, B, A-, A e A+, em que A+ reflete o melhor desempenho ASG). Este valor foi calculado como a média de rating ASG dos produtos/ativos que compõem a carteira com rating ASG, considerando os dados do último dia útil de cada trimestre do período de referência, tal como definido na secção Principais Investimentos.&lt;/li&gt;
-&lt;li&gt;Percentagem de ativos do Fundo alinhados com as características ambientais e sociais promovidas foi de {{es_aligned}}.&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>...e em relação a períodos anteriores?</t>
   </si>
   <si>
@@ -3460,6 +3426,36 @@
   </si>
   <si>
     <t>Realizou &lt;b&gt;investimentos sustentáveis com um objetivo social:&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Promoveu características ambientais/ sociais (A/S)&lt;/b&gt; e, apesar de não ter como objetivo a realização de um investimento sustentável, consagrou uma percentagem mínima de &lt;span id="sfdr_last_rep_inv_sust_inv"&gt;&lt;/span&gt;% a investimentos sustentáveis</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; O desempenho dos indicadores de sustentabilidade do Fundo ao longo do período de referência é abaixo descrito&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt; Indicador de exclusões: o Fundo não realizou qualquer investimento em setores não permitidos pela respetiva política de investimento. Ou seja, o Fundo excluiu, entre outros, emitentes cujo negócio esteja principalmente orientado para atividades relacionadas com armamento controverso e convencional, tabaco, bem como combustíveis fósseis, produção de eletricidade a partir de carvão e extração de carvão. Adicionalmente, no caso das obrigações governamentais, o Fundo teve 0% de exposição a países com fraco desempenho em termos de direitos políticos e liberdades sociais, considerando o indicador Democracy Index e o estudo Freedom in the World.. &lt;/li&gt;
+&lt;li&gt;Indicador de controvérsias: o Fundo teve 0% de exposição a empresas que estiveram envolvidas em controvérsias consideradas críticas.&lt;/li&gt;
+&lt;li&gt;Classificação (rating) média ASG do Fundo: a classificação ASG média dos ativos que compõem a carteira de investimento do Fundo, classificados de acordo com a metodologia interna da Sociedade Gestora, foi de {{esg_score_2024}} numa escala de 7 níveis (C-, C, C+, B, A-, A e A+, em que A+ reflete o melhor desempenho ASG). Este valor foi calculado como a média de rating ASG dos produtos/ativos que compõem a carteira com rating ASG, considerando os dados do último dia útil de cada trimestre do período de referência, tal como definido na secção Principais Investimentos.&lt;/li&gt;
+&lt;li&gt;Percentagem de ativos do Fundo alinhados com as características ambientais e sociais promovidas foi de {{es_aligned}}%.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>The proportion of investments made in transition activities has been {{total_turnover_enabling}} in turnover, in {{total_capex_enabling}} CapEx and in {{total_opex_enabling}} OpEx and in activities facilitating {{total_turnover}} in turnover, {{total_capex_transition}} in CapEx and {{total_opex_transition}} in OpEx over the reference period.</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;The financial product had a  {{other_nones}}% share of investments which are neither aligned with the environmental or social characteristics, nor are qualified as sustainable investments. This percentage was calculated as the average percentage of the Sub-Fund considering the underlying investments from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/p&gt;
+&lt;p style="margin-top: -10px;"&gt;                   
+These investments did not alter the achievement of the environmental or social characteristics promoted by the Sub-Fund, and their purpose was investment, contributing to efficient portfolio management, providing liquidity and hedging.&lt;/p&gt;
+&lt;p style="margin-top: -10px;"&gt; The Investment Manager has established minimum environmental or social safeguards so as not to cause significant damage, such as consideration of the principal adverse impacts, or the exclusion of activities that are not aligned with the environmental and/or social characteristics of the Fund. The assets that could be considered were the following:&lt;/p&gt;
+&lt;ul&gt;
+                    &lt;li&gt;Direct cash investment assets that did not have an ESG rating/rating due to the lack of supplier data used by the Investment Manager and which cannot be considered sustainable investments in accordance with the criterion defined in the previous section (i.e., green, social bonds, etc.).&lt;/li&gt;
+                    &lt;li&gt;Investment funds that did not have an ESG rating/rating due to lack of data and that cannot be classified as an investment Sub-Fund art. 8 or 9 according to SFDR.&lt;/li&gt;
+                    &lt;li&gt;Other cash assets other than those mentioned above. (i.e., ETC, etc.) that are permitted by the Sub-Fund's policy and do not harm its ESG profile.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -3976,10 +3972,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2CF707-1372-4610-A1C4-0399A26E6B10}">
   <dimension ref="A1:CY18"/>
   <sheetViews>
-    <sheetView topLeftCell="CL1" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="BZ1" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="CN2" sqref="CN2"/>
+      <selection pane="bottomLeft" activeCell="CC1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4333,7 +4329,7 @@
         <v>232</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>211</v>
@@ -4351,7 +4347,7 @@
         <v>339</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>331</v>
@@ -4366,7 +4362,7 @@
         <v>335</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>145</v>
@@ -4375,7 +4371,7 @@
         <v>76</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>233</v>
@@ -4399,7 +4395,7 @@
         <v>237</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>238</v>
@@ -4528,7 +4524,7 @@
         <v>214</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="BZ2" s="2" t="s">
         <v>291</v>
@@ -4582,7 +4578,7 @@
         <v>312</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="CR2" s="2" t="s">
         <v>313</v>
@@ -4644,7 +4640,7 @@
         <v>232</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>211</v>
@@ -4662,7 +4658,7 @@
         <v>339</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>331</v>
@@ -4955,7 +4951,7 @@
         <v>232</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>211</v>
@@ -4973,7 +4969,7 @@
         <v>339</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>331</v>
@@ -5266,7 +5262,7 @@
         <v>232</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>211</v>
@@ -5284,7 +5280,7 @@
         <v>339</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>331</v>
@@ -5577,7 +5573,7 @@
         <v>232</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>211</v>
@@ -5595,7 +5591,7 @@
         <v>339</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>331</v>
@@ -5888,7 +5884,7 @@
         <v>232</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>211</v>
@@ -5906,7 +5902,7 @@
         <v>339</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>331</v>
@@ -6199,7 +6195,7 @@
         <v>232</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>211</v>
@@ -6217,7 +6213,7 @@
         <v>339</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>331</v>
@@ -6510,7 +6506,7 @@
         <v>232</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>211</v>
@@ -6528,7 +6524,7 @@
         <v>339</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>331</v>
@@ -6821,7 +6817,7 @@
         <v>232</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>211</v>
@@ -6839,7 +6835,7 @@
         <v>339</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>331</v>
@@ -7132,7 +7128,7 @@
         <v>232</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>211</v>
@@ -7150,7 +7146,7 @@
         <v>339</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>331</v>
@@ -7443,7 +7439,7 @@
         <v>232</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>211</v>
@@ -7461,7 +7457,7 @@
         <v>339</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>331</v>
@@ -7754,7 +7750,7 @@
         <v>232</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>211</v>
@@ -7772,7 +7768,7 @@
         <v>339</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>331</v>
@@ -8065,7 +8061,7 @@
         <v>232</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>211</v>
@@ -8083,7 +8079,7 @@
         <v>339</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>331</v>
@@ -8376,7 +8372,7 @@
         <v>232</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>211</v>
@@ -8394,7 +8390,7 @@
         <v>339</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>331</v>
@@ -8687,7 +8683,7 @@
         <v>232</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>211</v>
@@ -8705,7 +8701,7 @@
         <v>339</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>331</v>
@@ -8998,7 +8994,7 @@
         <v>232</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>211</v>
@@ -9016,7 +9012,7 @@
         <v>339</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>331</v>
@@ -9288,9 +9284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6A6837-7230-4429-B7FC-980D5EFB5D43}">
   <dimension ref="A1:CY17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="BZ1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CA1" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="CC1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10137,10 +10133,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF83BCF-3DAB-4382-89FD-168493B9C498}">
   <dimension ref="A1:CY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BO1" sqref="BO1"/>
-      <selection pane="bottomLeft" activeCell="BY1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="CL2" sqref="CL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10503,7 +10499,7 @@
         <v>215</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="P2" s="18" t="s">
         <v>382</v>
@@ -10512,7 +10508,7 @@
         <v>383</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="S2" s="18" t="s">
         <v>384</v>
@@ -10536,7 +10532,7 @@
         <v>389</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>390</v>
@@ -10548,58 +10544,58 @@
         <v>392</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>393</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>394</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>395</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>396</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM2" s="2" t="s">
         <v>397</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>398</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>399</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>400</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AV2" s="2" t="s">
         <v>401</v>
@@ -10614,7 +10610,7 @@
         <v>404</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>405</v>
@@ -10657,16 +10653,16 @@
       </c>
       <c r="BN2" s="2"/>
       <c r="BO2" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="BP2" s="2" t="s">
         <v>418</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BS2" s="2" t="s">
         <v>419</v>
@@ -10699,73 +10695,73 @@
         <v>426</v>
       </c>
       <c r="CC2" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="CD2" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="CD2" s="2" t="s">
+      <c r="CE2" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="CF2" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="CE2" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="CF2" s="2" t="s">
+      <c r="CG2" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="CG2" s="2" t="s">
+      <c r="CH2" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="CH2" s="2" t="s">
+      <c r="CI2" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="CI2" s="2" t="s">
+      <c r="CJ2" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="CJ2" s="2" t="s">
+      <c r="CK2" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CL2" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM2" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="CL2" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CN2" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CO2" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="CN2" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CP2" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CR2" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CS2" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="CT2" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CU2" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="CV2" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="CS2" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="CT2" s="2" t="s">
+      <c r="CW2" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="CX2" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="CU2" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="CY2" s="2" t="s">
-        <v>437</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:103" ht="171" customHeight="1" x14ac:dyDescent="0.35">
@@ -10812,7 +10808,7 @@
         <v>215</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>382</v>
@@ -10821,7 +10817,7 @@
         <v>383</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="S3" s="18" t="s">
         <v>384</v>
@@ -10845,7 +10841,7 @@
         <v>389</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>390</v>
@@ -10857,58 +10853,58 @@
         <v>392</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>393</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>394</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>395</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>396</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM3" s="2" t="s">
         <v>397</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>398</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AR3" s="2" t="s">
         <v>399</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AT3" s="2" t="s">
         <v>400</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AV3" s="2" t="s">
         <v>401</v>
@@ -10923,7 +10919,7 @@
         <v>404</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="BA3" s="2" t="s">
         <v>405</v>
@@ -10966,16 +10962,16 @@
       </c>
       <c r="BN3" s="2"/>
       <c r="BO3" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="BP3" s="2" t="s">
         <v>418</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BS3" s="2" t="s">
         <v>419</v>
@@ -11008,73 +11004,73 @@
         <v>426</v>
       </c>
       <c r="CC3" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="CD3" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="CF3" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="CE3" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CI3" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CK3" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CL3" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM3" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="CL3" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="CO3" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="CN3" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="CO3" s="2" t="s">
+      <c r="CP3" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="CQ3" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="CP3" s="2" t="s">
+      <c r="CR3" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="CQ3" s="2" t="s">
+      <c r="CS3" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="CT3" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="CR3" s="2" t="s">
+      <c r="CU3" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="CV3" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="CS3" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="CT3" s="2" t="s">
+      <c r="CW3" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="CX3" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="CU3" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="CV3" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="CW3" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="CX3" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="CY3" s="2" t="s">
-        <v>437</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -11086,17 +11082,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F6EF4D-CF5F-40A8-8775-A1A29C91F1C4}">
   <dimension ref="A1:DA3"/>
   <sheetViews>
-    <sheetView topLeftCell="BU1" workbookViewId="0">
+    <sheetView topLeftCell="BY1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="CA1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="CE1" sqref="CE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="29" width="19.36328125" customWidth="1"/>
     <col min="30" max="30" width="42.54296875" customWidth="1"/>
-    <col min="31" max="105" width="19.36328125" customWidth="1"/>
+    <col min="31" max="82" width="19.36328125" customWidth="1"/>
+    <col min="83" max="83" width="63.54296875" customWidth="1"/>
+    <col min="84" max="105" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -11424,16 +11422,16 @@
         <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>141</v>
@@ -11442,292 +11440,292 @@
         <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="O2" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>145</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AO2" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="AU2" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="AW2" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="BC2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="BI2" s="2" t="s">
         <v>411</v>
       </c>
       <c r="BJ2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="BM2" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="BR2" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="BV2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BY2" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="CG2" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="BR2" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS2" s="2" t="s">
+      <c r="CH2" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="CN2" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="BT2" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CO2" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="CL2" s="2" t="s">
+      <c r="CP2" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CR2" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="CN2" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CS2" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="CP2" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CT2" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CU2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="CS2" s="2" t="s">
+      <c r="CV2" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="CT2" s="2" t="s">
+      <c r="CW2" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="CX2" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="CU2" s="2" t="s">
+      <c r="CY2" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="CV2" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="DA2" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:105" s="2" customFormat="1" ht="197" customHeight="1" x14ac:dyDescent="0.35">
@@ -11738,16 +11736,16 @@
         <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>141</v>
@@ -11756,292 +11754,292 @@
         <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="O3" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>145</v>
       </c>
       <c r="Y3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AO3" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AU3" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AM3" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AW3" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="AO3" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="AU3" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="AW3" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="BC3" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="BB3" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="BI3" s="2" t="s">
         <v>411</v>
       </c>
       <c r="BJ3" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="BM3" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="BR3" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="BV3" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BW3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BY3" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BZ3" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="CG3" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="BR3" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="CM3" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="CN3" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="BT3" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="BU3" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="BV3" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="BW3" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="BX3" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="BY3" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="BZ3" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="CA3" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="CB3" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="CC3" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="CD3" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="CE3" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="CF3" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="CG3" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="CH3" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="CI3" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="CJ3" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CO3" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CP3" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="CQ3" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CR3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="CN3" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="CO3" s="2" t="s">
+      <c r="CS3" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="CP3" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="CQ3" s="2" t="s">
+      <c r="CT3" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="CR3" s="2" t="s">
+      <c r="CU3" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="CS3" s="2" t="s">
+      <c r="CV3" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="CT3" s="2" t="s">
+      <c r="CW3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="CX3" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="CU3" s="2" t="s">
+      <c r="CY3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="CZ3" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="CV3" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="CW3" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="CX3" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="CY3" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="CZ3" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="DA3" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n740789\Documents\sfdr_report_generator\excel_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A139D95-3A97-41FC-93D6-9241852F9990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F08E87-EF0F-4C49-BDF8-AB4940DE8B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
+    <workbookView xWindow="-13980" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="559">
   <si>
     <t>macro_narrative</t>
   </si>
@@ -1781,15 +1781,6 @@
     <t>¿Cuál ha sido la proporción de las inversiones realizadas en actividades de transición y facilitadoras?</t>
   </si>
   <si>
-    <t xml:space="preserve"> La proporción de las inversiones realizadas en actividades de transición ha sido de {{total_turnover_enabling}} en volumen de negocios, en {{total_capex_enabling}} CapEx y en {{total_opex_enabling}} OpEx y en actividades facilitadoras de {{total_turnover_transition}} en volumen de negocios, {{total_capex_transition}} en CapEx y {{total_opex_transition}} en OpEx sobre el patrimonio total del Fondo a lo largo del periodo de referencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La proporción de las inversiones realizadas en actividades de transición ha sido de {{SHR_TRANS_ACTIVIT_TO}}% y en actividades facilitadoras de {{SHR_ENABL_ACTIVIT_TO}}% sobre el patrimonio total del Plan de Previsión a lo largo del periodo de referencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La proporción de las inversiones realizadas en actividades de transición ha sido de {{SHR_TRANS_ACTIVIT_TO}}% y en actividades facilitadoras de {{SHR_ENABL_ACTIVIT_TO}}% sobre el patrimonio total del Fondo a lo largo del periodo de referencia.</t>
-  </si>
-  <si>
     <t>¿Qué porcentaje de inversiones se han ajustado a la taxonomía de la UE en comparación con los períodos de referencia anteriores?</t>
   </si>
   <si>
@@ -1997,9 +1988,6 @@
   </si>
   <si>
     <t>Jaki był udział inwestycji w działania przejściowe i wspierające?</t>
-  </si>
-  <si>
-    <t>Udział inwestycji w działania przejściowe wyniósł {{total_turnover_transition}} w obrotach, {{total_capex_transition}} w nakładach inwestycyjnych (CapEx) i {{total_opex_transition}} w kosztach operacyjnych (OpEx), a w działania wspierające {{total_turnover_enabling}} w obrotach, {{total_capex_enabling}} w CapEx i {{total_opex_enabling}} w OpEx w odniesieniu do całkowitego majątku funduszu w okresie odniesienia.</t>
   </si>
   <si>
     <t>Jaki procent inwestycji był zgodny z taksonomią UE w porównaniu z wcześniejszymi okresami odniesienia?</t>
@@ -2421,9 +2409,6 @@
   </si>
   <si>
     <t>Qual foi a percentagem dos investimentos em atividades de transição e capacitantes?</t>
-  </si>
-  <si>
-    <t>A proporção de investimentos realizados em atividades de transição foi  {{total_turnover_enabling}} em volume de negócios,  {{total_capex_enabling}} em CapEx e {{total_opex_enabling}} em OpEx e em atividades que facilitams {{total_turnover_transition}} em volume de negócios, {{total_capex_transition}} em CapEx e {{total_opex_transition}} em OpEx sobre o capital próprio total do Fundo durante o período de referência.</t>
   </si>
   <si>
     <t>Qual foi a percentagem de investimentos sustentáveis com um objetivo ambiental não alinhados com a taxonomia da UE?</t>
@@ -3440,9 +3425,6 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>The proportion of investments made in transition activities has been {{total_turnover_enabling}} in turnover, in {{total_capex_enabling}} CapEx and in {{total_opex_enabling}} OpEx and in activities facilitating {{total_turnover}} in turnover, {{total_capex_transition}} in CapEx and {{total_opex_transition}} in OpEx over the reference period.</t>
-  </si>
-  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -3456,6 +3438,18 @@
                     &lt;li&gt;Other cash assets other than those mentioned above. (i.e., ETC, etc.) that are permitted by the Sub-Fund's policy and do not harm its ESG profile.&lt;/li&gt;
 &lt;/ul&gt;
 </t>
+  </si>
+  <si>
+    <t>The proportion of investments made in transition activities has been {{total_turnover_enabling}}% in turnover, in {{total_capex_enabling}}% CapEx and in {{total_opex_enabling}}% OpEx and in activities facilitating {{total_turnover}}% in turnover, {{total_capex_transition}}% in CapEx and {{total_opex_transition}}% in OpEx over the reference period.</t>
+  </si>
+  <si>
+    <t>A proporção de investimentos realizados em atividades de transição foi  {{total_turnover_enabling}}% em volume de negócios,  {{total_capex_enabling}}% em CapEx e {{total_opex_enabling}}% em OpEx e em atividades que facilitams {{total_turnover_transition}}% em volume de negócios, {{total_capex_transition}}% em CapEx e {{total_opex_transition}}% em OpEx sobre o capital próprio total do Fundo durante o período de referência.</t>
+  </si>
+  <si>
+    <t>Udział inwestycji w działania przejściowe wyniósł {{total_turnover_transition}}% w obrotach, {{total_capex_transition}}% w nakładach inwestycyjnych (CapEx) i {{total_opex_transition}}% w kosztach operacyjnych (OpEx), a w działania wspierające {{total_turnover_enabling}}% w obrotach, {{total_capex_enabling}}% w CapEx i {{total_opex_enabling}}% w OpEx w odniesieniu do całkowitego majątku funduszu w okresie odniesienia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La proporción de las inversiones realizadas en actividades de transición ha sido de {{total_turnover_enabling}}% en volumen de negocios, en {{total_capex_enabling}}% CapEx y en {{total_opex_enabling}}% OpEx y en actividades facilitadoras de {{total_turnover_transition}}% en volumen de negocios, {{total_capex_transition}}% en CapEx y {{total_opex_transition}}% en OpEx sobre el patrimonio total del Fondo a lo largo del periodo de referencia.</t>
   </si>
 </sst>
 </file>
@@ -3972,10 +3966,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2CF707-1372-4610-A1C4-0399A26E6B10}">
   <dimension ref="A1:CY18"/>
   <sheetViews>
-    <sheetView topLeftCell="BZ1" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="CC1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="CD17" sqref="CD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4018,40 +4012,40 @@
         <v>9</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N1" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>328</v>
-      </c>
       <c r="T1" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>10</v>
@@ -4320,7 +4314,7 @@
         <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>231</v>
@@ -4329,7 +4323,7 @@
         <v>232</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>211</v>
@@ -4338,31 +4332,31 @@
         <v>215</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>145</v>
@@ -4371,7 +4365,7 @@
         <v>76</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>233</v>
@@ -4395,7 +4389,7 @@
         <v>237</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>238</v>
@@ -4524,40 +4518,40 @@
         <v>214</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="BZ2" s="2" t="s">
         <v>291</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="CC2" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="CD2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="CD2" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="CE2" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CF2" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="CI2" s="2" t="s">
         <v>97</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="CK2" s="2" t="s">
         <v>98</v>
@@ -4575,34 +4569,34 @@
         <v>258</v>
       </c>
       <c r="CP2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="CQ2" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CU2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW2" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX2" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
@@ -4631,7 +4625,7 @@
         <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>231</v>
@@ -4640,7 +4634,7 @@
         <v>232</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>211</v>
@@ -4649,31 +4643,31 @@
         <v>215</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>145</v>
@@ -4841,25 +4835,25 @@
         <v>291</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="CB3" s="2" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>298</v>
+        <v>558</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="CF3" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH3" s="2" t="s">
         <v>144</v>
@@ -4868,7 +4862,7 @@
         <v>97</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="CK3" s="2" t="s">
         <v>98</v>
@@ -4886,34 +4880,34 @@
         <v>258</v>
       </c>
       <c r="CP3" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ3" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS3" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT3" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU3" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV3" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW3" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX3" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY3" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
@@ -4942,7 +4936,7 @@
         <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>231</v>
@@ -4951,7 +4945,7 @@
         <v>232</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>211</v>
@@ -4960,31 +4954,31 @@
         <v>215</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V4" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>145</v>
@@ -5152,25 +5146,25 @@
         <v>291</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="CC4" s="2" t="s">
-        <v>298</v>
+        <v>558</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="CF4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH4" s="2" t="s">
         <v>144</v>
@@ -5179,7 +5173,7 @@
         <v>97</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="CK4" s="2" t="s">
         <v>98</v>
@@ -5197,34 +5191,34 @@
         <v>258</v>
       </c>
       <c r="CP4" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ4" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV4" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT4" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV4" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW4" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX4" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY4" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
@@ -5253,7 +5247,7 @@
         <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>231</v>
@@ -5262,7 +5256,7 @@
         <v>232</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>211</v>
@@ -5271,31 +5265,31 @@
         <v>215</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T5" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V5" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>145</v>
@@ -5463,25 +5457,25 @@
         <v>291</v>
       </c>
       <c r="CA5" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="CB5" s="2" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="CC5" s="2" t="s">
-        <v>298</v>
+        <v>558</v>
       </c>
       <c r="CD5" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CE5" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="CE5" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="CF5" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH5" s="2" t="s">
         <v>144</v>
@@ -5490,7 +5484,7 @@
         <v>97</v>
       </c>
       <c r="CJ5" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="CK5" s="2" t="s">
         <v>98</v>
@@ -5508,34 +5502,34 @@
         <v>258</v>
       </c>
       <c r="CP5" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ5" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR5" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV5" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS5" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT5" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU5" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV5" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW5" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX5" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY5" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
@@ -5564,7 +5558,7 @@
         <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>231</v>
@@ -5573,7 +5567,7 @@
         <v>232</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>211</v>
@@ -5582,31 +5576,31 @@
         <v>215</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T6" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>145</v>
@@ -5774,25 +5768,25 @@
         <v>291</v>
       </c>
       <c r="CA6" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="CB6" s="2" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="CC6" s="2" t="s">
-        <v>299</v>
+        <v>558</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="CE6" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="CF6" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG6" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH6" s="2" t="s">
         <v>143</v>
@@ -5801,7 +5795,7 @@
         <v>97</v>
       </c>
       <c r="CJ6" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="CK6" s="2" t="s">
         <v>266</v>
@@ -5819,34 +5813,34 @@
         <v>113</v>
       </c>
       <c r="CP6" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ6" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR6" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS6" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU6" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV6" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS6" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT6" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU6" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV6" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW6" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX6" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY6" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
@@ -5875,7 +5869,7 @@
         <v>75</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>231</v>
@@ -5884,7 +5878,7 @@
         <v>232</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>211</v>
@@ -5893,31 +5887,31 @@
         <v>215</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T7" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>145</v>
@@ -6085,25 +6079,25 @@
         <v>291</v>
       </c>
       <c r="CA7" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="CB7" s="2" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="CC7" s="2" t="s">
-        <v>299</v>
+        <v>558</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="CE7" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="CF7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG7" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH7" s="2" t="s">
         <v>143</v>
@@ -6112,7 +6106,7 @@
         <v>97</v>
       </c>
       <c r="CJ7" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="CK7" s="2" t="s">
         <v>98</v>
@@ -6130,34 +6124,34 @@
         <v>113</v>
       </c>
       <c r="CP7" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ7" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR7" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV7" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS7" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT7" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU7" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV7" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW7" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX7" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY7" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
@@ -6186,7 +6180,7 @@
         <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>231</v>
@@ -6195,7 +6189,7 @@
         <v>232</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>211</v>
@@ -6204,31 +6198,31 @@
         <v>215</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T8" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V8" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>145</v>
@@ -6396,25 +6390,25 @@
         <v>291</v>
       </c>
       <c r="CA8" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="CB8" s="2" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="CC8" s="2" t="s">
-        <v>299</v>
+        <v>558</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="CE8" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="CF8" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG8" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH8" s="2" t="s">
         <v>143</v>
@@ -6423,7 +6417,7 @@
         <v>97</v>
       </c>
       <c r="CJ8" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="CK8" s="2" t="s">
         <v>98</v>
@@ -6441,34 +6435,34 @@
         <v>113</v>
       </c>
       <c r="CP8" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ8" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR8" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS8" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT8" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU8" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV8" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS8" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT8" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU8" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV8" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW8" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX8" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY8" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
@@ -6497,7 +6491,7 @@
         <v>75</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>231</v>
@@ -6506,7 +6500,7 @@
         <v>232</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>211</v>
@@ -6515,31 +6509,31 @@
         <v>215</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T9" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V9" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>145</v>
@@ -6707,25 +6701,25 @@
         <v>291</v>
       </c>
       <c r="CA9" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="CB9" s="2" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="CC9" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="CD9" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CE9" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="CD9" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CE9" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="CF9" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG9" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH9" s="2" t="s">
         <v>143</v>
@@ -6734,7 +6728,7 @@
         <v>97</v>
       </c>
       <c r="CJ9" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="CK9" s="2" t="s">
         <v>98</v>
@@ -6752,34 +6746,34 @@
         <v>113</v>
       </c>
       <c r="CP9" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ9" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR9" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS9" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU9" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV9" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT9" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV9" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW9" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX9" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY9" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
@@ -6808,7 +6802,7 @@
         <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>231</v>
@@ -6817,7 +6811,7 @@
         <v>232</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>211</v>
@@ -6826,31 +6820,31 @@
         <v>215</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V10" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>145</v>
@@ -7018,25 +7012,25 @@
         <v>291</v>
       </c>
       <c r="CA10" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="CB10" s="2" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="CC10" s="2" t="s">
-        <v>299</v>
+        <v>558</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="CE10" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="CF10" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG10" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH10" s="2" t="s">
         <v>143</v>
@@ -7045,7 +7039,7 @@
         <v>97</v>
       </c>
       <c r="CJ10" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="CK10" s="2" t="s">
         <v>98</v>
@@ -7063,34 +7057,34 @@
         <v>113</v>
       </c>
       <c r="CP10" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ10" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR10" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV10" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS10" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT10" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU10" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV10" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW10" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX10" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY10" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:103" ht="409.5" x14ac:dyDescent="0.35">
@@ -7119,7 +7113,7 @@
         <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>231</v>
@@ -7128,7 +7122,7 @@
         <v>232</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>211</v>
@@ -7137,31 +7131,31 @@
         <v>215</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T11" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V11" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>145</v>
@@ -7329,25 +7323,25 @@
         <v>291</v>
       </c>
       <c r="CA11" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="CB11" s="2" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="CC11" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="CD11" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CE11" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="CD11" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CE11" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="CF11" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG11" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH11" s="2" t="s">
         <v>143</v>
@@ -7356,7 +7350,7 @@
         <v>97</v>
       </c>
       <c r="CJ11" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="CK11" s="2" t="s">
         <v>98</v>
@@ -7374,34 +7368,34 @@
         <v>113</v>
       </c>
       <c r="CP11" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ11" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR11" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS11" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT11" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU11" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV11" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS11" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT11" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU11" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV11" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW11" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX11" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY11" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:103" ht="409.5" x14ac:dyDescent="0.35">
@@ -7430,7 +7424,7 @@
         <v>75</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>231</v>
@@ -7439,7 +7433,7 @@
         <v>232</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>211</v>
@@ -7448,31 +7442,31 @@
         <v>215</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T12" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U12" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V12" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>145</v>
@@ -7646,19 +7640,19 @@
         <v>296</v>
       </c>
       <c r="CC12" s="2" t="s">
-        <v>298</v>
+        <v>558</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="CE12" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="CF12" s="2" t="s">
         <v>280</v>
       </c>
       <c r="CG12" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH12" s="2" t="s">
         <v>144</v>
@@ -7667,7 +7661,7 @@
         <v>97</v>
       </c>
       <c r="CJ12" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="CK12" s="2" t="s">
         <v>266</v>
@@ -7685,34 +7679,34 @@
         <v>258</v>
       </c>
       <c r="CP12" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ12" s="2" t="s">
         <v>284</v>
       </c>
       <c r="CR12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT12" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV12" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS12" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT12" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU12" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV12" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW12" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX12" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY12" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:103" ht="409.5" x14ac:dyDescent="0.35">
@@ -7741,7 +7735,7 @@
         <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>231</v>
@@ -7750,7 +7744,7 @@
         <v>232</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>211</v>
@@ -7759,31 +7753,31 @@
         <v>215</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T13" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V13" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>145</v>
@@ -7957,19 +7951,19 @@
         <v>296</v>
       </c>
       <c r="CC13" s="2" t="s">
-        <v>298</v>
+        <v>558</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="CE13" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="CF13" s="2" t="s">
         <v>280</v>
       </c>
       <c r="CG13" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH13" s="2" t="s">
         <v>144</v>
@@ -7978,7 +7972,7 @@
         <v>97</v>
       </c>
       <c r="CJ13" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="CK13" s="2" t="s">
         <v>266</v>
@@ -7996,34 +7990,34 @@
         <v>258</v>
       </c>
       <c r="CP13" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ13" s="2" t="s">
         <v>284</v>
       </c>
       <c r="CR13" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS13" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU13" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV13" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS13" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT13" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU13" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV13" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW13" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX13" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY13" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:103" ht="409.5" x14ac:dyDescent="0.35">
@@ -8052,7 +8046,7 @@
         <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>231</v>
@@ -8061,7 +8055,7 @@
         <v>232</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>211</v>
@@ -8070,31 +8064,31 @@
         <v>215</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T14" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U14" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V14" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>145</v>
@@ -8268,19 +8262,19 @@
         <v>296</v>
       </c>
       <c r="CC14" s="2" t="s">
-        <v>298</v>
+        <v>558</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="CE14" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="CF14" s="2" t="s">
         <v>280</v>
       </c>
       <c r="CG14" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH14" s="2" t="s">
         <v>144</v>
@@ -8289,7 +8283,7 @@
         <v>97</v>
       </c>
       <c r="CJ14" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="CK14" s="2" t="s">
         <v>266</v>
@@ -8307,34 +8301,34 @@
         <v>258</v>
       </c>
       <c r="CP14" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ14" s="2" t="s">
         <v>284</v>
       </c>
       <c r="CR14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS14" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT14" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU14" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV14" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS14" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT14" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU14" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV14" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW14" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX14" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY14" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:103" ht="174" customHeight="1" x14ac:dyDescent="0.35">
@@ -8363,7 +8357,7 @@
         <v>75</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>231</v>
@@ -8372,7 +8366,7 @@
         <v>232</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>211</v>
@@ -8381,31 +8375,31 @@
         <v>215</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T15" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U15" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V15" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>145</v>
@@ -8579,19 +8573,19 @@
         <v>296</v>
       </c>
       <c r="CC15" s="2" t="s">
-        <v>298</v>
+        <v>558</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="CE15" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="CF15" s="2" t="s">
         <v>280</v>
       </c>
       <c r="CG15" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH15" s="2" t="s">
         <v>144</v>
@@ -8600,7 +8594,7 @@
         <v>97</v>
       </c>
       <c r="CJ15" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="CK15" s="2" t="s">
         <v>266</v>
@@ -8618,34 +8612,34 @@
         <v>258</v>
       </c>
       <c r="CP15" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ15" s="2" t="s">
         <v>284</v>
       </c>
       <c r="CR15" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV15" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS15" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT15" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU15" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV15" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW15" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX15" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY15" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:103" ht="170" customHeight="1" x14ac:dyDescent="0.35">
@@ -8674,7 +8668,7 @@
         <v>75</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>231</v>
@@ -8683,7 +8677,7 @@
         <v>232</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>211</v>
@@ -8692,31 +8686,31 @@
         <v>215</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T16" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V16" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>145</v>
@@ -8890,28 +8884,28 @@
         <v>296</v>
       </c>
       <c r="CC16" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="CD16" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="CD16" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="CE16" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CF16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG16" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH16" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="CI16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="CJ16" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="CK16" s="2" t="s">
         <v>98</v>
@@ -8929,34 +8923,34 @@
         <v>258</v>
       </c>
       <c r="CP16" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ16" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS16" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT16" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU16" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV16" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS16" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT16" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU16" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV16" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW16" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX16" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY16" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:103" ht="170" customHeight="1" x14ac:dyDescent="0.35">
@@ -8985,7 +8979,7 @@
         <v>75</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>231</v>
@@ -8994,7 +8988,7 @@
         <v>232</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>211</v>
@@ -9003,31 +8997,31 @@
         <v>215</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T17" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U17" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="U17" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="V17" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>145</v>
@@ -9201,28 +9195,28 @@
         <v>296</v>
       </c>
       <c r="CC17" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="CD17" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="CD17" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="CE17" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CF17" s="2" t="s">
         <v>96</v>
       </c>
       <c r="CG17" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="CH17" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="CI17" s="2" t="s">
         <v>97</v>
       </c>
       <c r="CJ17" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="CK17" s="2" t="s">
         <v>98</v>
@@ -9240,34 +9234,34 @@
         <v>258</v>
       </c>
       <c r="CP17" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="CQ17" s="2" t="s">
         <v>200</v>
       </c>
       <c r="CR17" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="CS17" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT17" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="CU17" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CV17" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CS17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT17" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="CU17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV17" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="CW17" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="CX17" s="2" t="s">
         <v>113</v>
       </c>
       <c r="CY17" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:103" x14ac:dyDescent="0.35">
@@ -9286,7 +9280,7 @@
   <sheetViews>
     <sheetView topLeftCell="BZ1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CC1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="CC2" sqref="CC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9344,40 +9338,40 @@
         <v>9</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N1" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>328</v>
-      </c>
       <c r="T1" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>10</v>
@@ -9643,16 +9637,16 @@
         <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>216</v>
@@ -9661,31 +9655,31 @@
         <v>217</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>145</v>
@@ -9694,34 +9688,34 @@
         <v>148</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>207</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>149</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>150</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>151</v>
@@ -9745,16 +9739,16 @@
         <v>156</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>157</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>158</v>
@@ -9829,10 +9823,10 @@
         <v>209</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BU2" s="2" t="s">
         <v>216</v>
@@ -9853,25 +9847,25 @@
         <v>293</v>
       </c>
       <c r="CA2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="CE2" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="CF2" s="2" t="s">
         <v>165</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="CH2" s="2" t="s">
         <v>166</v>
@@ -9880,7 +9874,7 @@
         <v>167</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CK2" s="2" t="s">
         <v>168</v>
@@ -9901,31 +9895,31 @@
         <v>173</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="CV2" s="2" t="s">
         <v>172</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="CX2" s="2" t="s">
         <v>172</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:103" x14ac:dyDescent="0.35">
@@ -10133,10 +10127,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF83BCF-3DAB-4382-89FD-168493B9C498}">
   <dimension ref="A1:CY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
+    <sheetView topLeftCell="BY1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BO1" sqref="BO1"/>
-      <selection pane="bottomLeft" activeCell="CL2" sqref="CL2"/>
+      <selection pane="bottomLeft" activeCell="CC2" sqref="CC2:CC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10179,40 +10173,40 @@
         <v>9</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N1" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="S1" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="Q1" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>328</v>
-      </c>
       <c r="T1" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="U1" s="17" t="s">
-        <v>332</v>
-      </c>
       <c r="V1" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="X1" s="17" t="s">
         <v>10</v>
@@ -10463,16 +10457,16 @@
         <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>141</v>
@@ -10481,287 +10475,287 @@
         <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>215</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P2" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="U2" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="S2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>384</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>388</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>145</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AO2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="BN2" s="2"/>
       <c r="BO2" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="BV2" s="2" t="s">
         <v>215</v>
       </c>
       <c r="BW2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="CA2" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="CD2" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CE2" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="CF2" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CG2" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CH2" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="CC2" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="CD2" s="2" t="s">
+      <c r="CI2" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="CE2" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="CF2" s="2" t="s">
+      <c r="CJ2" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="CG2" s="2" t="s">
+      <c r="CK2" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="CH2" s="2" t="s">
+      <c r="CL2" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="CM2" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="CI2" s="2" t="s">
+      <c r="CN2" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="CO2" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="CJ2" s="2" t="s">
+      <c r="CP2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CR2" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="CL2" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CS2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="CT2" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="CN2" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CU2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="CV2" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="CP2" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CW2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="CX2" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="CR2" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="CT2" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="CY2" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:103" ht="171" customHeight="1" x14ac:dyDescent="0.35">
@@ -10772,16 +10766,16 @@
         <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>141</v>
@@ -10790,287 +10784,287 @@
         <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>215</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P3" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="U3" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="V3" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="R3" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="S3" s="18" t="s">
+      <c r="W3" s="18" t="s">
         <v>384</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>388</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>145</v>
       </c>
       <c r="Y3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AO3" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AO3" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="AV3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="AZ3" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="BN3" s="2"/>
       <c r="BO3" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BT3" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="BU3" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="BV3" s="2" t="s">
         <v>215</v>
       </c>
       <c r="BW3" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="CA3" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="CD3" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="CF3" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="CA3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="CC3" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CI3" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="CE3" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CK3" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CL3" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="CM3" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="CO3" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CP3" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="CQ3" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CR3" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="CL3" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CS3" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="CT3" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="CN3" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="CO3" s="2" t="s">
+      <c r="CU3" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="CV3" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="CP3" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="CQ3" s="2" t="s">
+      <c r="CW3" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="CX3" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="CR3" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="CS3" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="CT3" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="CU3" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="CV3" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="CW3" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="CX3" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="CY3" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -11085,7 +11079,7 @@
     <sheetView topLeftCell="BY1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="CE1" sqref="CE1"/>
+      <selection pane="bottomLeft" activeCell="CE2" sqref="CE2:CE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11132,40 +11126,40 @@
         <v>9</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>328</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="U1" s="12" t="s">
-        <v>332</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>10</v>
@@ -11422,16 +11416,16 @@
         <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>141</v>
@@ -11440,292 +11434,292 @@
         <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="O2" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>145</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="BS2" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="BU2" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="AR2" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AU2" s="2" t="s">
+      <c r="BV2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="CA2" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="CG2" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="CH2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="CN2" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="BR2" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="CI2" s="2" t="s">
+      <c r="CO2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="CJ2" s="2" t="s">
+      <c r="CP2" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CR2" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="CL2" s="2" t="s">
+      <c r="CS2" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CT2" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="CN2" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CU2" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="CP2" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CV2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CW2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="CX2" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="CS2" s="2" t="s">
+      <c r="CY2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="CT2" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="DA2" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:105" s="2" customFormat="1" ht="197" customHeight="1" x14ac:dyDescent="0.35">
@@ -11736,16 +11730,16 @@
         <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>141</v>
@@ -11754,292 +11748,292 @@
         <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="O3" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>145</v>
       </c>
       <c r="Y3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AU3" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="AK3" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AW3" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="AM3" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="BS3" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="AP3" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="BU3" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="AR3" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BV3" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="CA3" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AV3" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="CG3" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="AX3" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="CH3" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="CM3" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="CN3" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="BR3" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="BS3" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="BT3" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="BU3" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="BV3" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="BW3" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="BX3" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="BY3" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="BZ3" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="CA3" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="CB3" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="CC3" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="CD3" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="CE3" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="CF3" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="CG3" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="CH3" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CO3" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CP3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="CQ3" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CR3" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CS3" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CT3" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="CN3" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CO3" s="2" t="s">
+      <c r="CU3" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="CP3" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="CQ3" s="2" t="s">
+      <c r="CV3" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="CR3" s="2" t="s">
+      <c r="CW3" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="CX3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="CS3" s="2" t="s">
+      <c r="CY3" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="CZ3" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="CT3" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="CU3" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="CV3" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="CW3" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="CX3" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="CY3" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="CZ3" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="DA3" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -12048,6 +12042,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002EA6A4DE027E6E4386DF60BFAE3B87E5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17b8f265623aebada2f4fbb4af048074">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee51a08e-cffb-442e-9a85-1980beacc2f8" xmlns:ns3="9f04ef3f-090d-46e3-96be-1fbea4829461" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76d895b679038352f9e7e02d8518f5a2" ns2:_="" ns3:_="">
     <xsd:import namespace="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
@@ -12254,41 +12268,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D26033-77B4-4FF0-A22A-B37DD9FF0884}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
-    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12311,9 +12294,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D26033-77B4-4FF0-A22A-B37DD9FF0884}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
+    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santandernet.sharepoint.com/sites/ESGTEAM552/Shared Documents/Archivos/Archivos Red/Fondos éticos/09. REGULACIÓN/04_SFDR/Info_Periódica/Revisión_generación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{04296667-9EFD-44F9-BBA6-B3E6F222A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B62E6E8-5FDF-4898-B44B-DEE73D892B3B}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{04296667-9EFD-44F9-BBA6-B3E6F222A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B5C0767-54BC-431C-9179-2ED51B9F2B85}"/>
   <bookViews>
-    <workbookView xWindow="-15435" yWindow="-16425" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="3" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="1" r:id="rId1"/>
@@ -2798,7 +2798,7 @@
 &lt;li&gt;Indicador de exclusões: manteve-se em 0%.&lt;/li&gt;
 &lt;li&gt;Indicador de controvérsia: manteve-se em 0%.&lt;/li&gt;
 &lt;li&gt;Classificação/Rating ASG média mínima do Fundo: este indicador foi de {{esg_score_2022}} {{esg_score_2023}} em 2023, e {{esg_score_2024}} neste período de referência.&lt;/li&gt;
-&lt;li&gt;A percentagem média dos ativos subjacentes do Fundo alinhados com as caraterísticas ambientais e sociais promovidas foi, pelo menos, de 51%.&lt;/li&gt;
+&lt;li&gt;A percentagem média dos ativos subjacentes do Fundo alinhados com as caraterísticas ambientais e sociais promovidas foi, pelo menos, de 51% nos períodos de referência reportados.&lt;/li&gt;
 &lt;/ul&gt;
 </t>
   </si>
@@ -2876,6 +2876,9 @@
   </si>
   <si>
     <t>A lista inclui os investimentos que constituem os &lt;b&gt;maiores investimentos&lt;/b&gt; efetuados pelo produto financeiro durante o período de referência, a saber: {{ref_period}}</t>
+  </si>
+  <si>
+    <t>Os principais investimentos do Fundo durante o período de referência são::</t>
   </si>
   <si>
     <t>&lt;table&gt;
@@ -2988,9 +2991,6 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>Os principais investimentos do Fundo durante o período de referência são::</t>
-  </si>
-  <si>
     <t>&lt;table&gt;
 &lt;colgroup&gt;
 &lt;col class="col1"/&gt;
@@ -3305,7 +3305,8 @@
   &lt;p&gt;Os critérios ASG acima referidos, juntamente com o cumprimento dos compromissos mínimos do Fundo, foram integrados no processo de investimento e monitorizados regularmente pela equipa de Compliance da Sociedade Gestora e, em caso de incumprimento, foram tomadas as medidas corretivas necessárias (por exemplo, relatório para a equipa de gestão, comunicação com a equipa de ISR, envio ao comité competente, de entre outras).  &lt;/p&gt;
   &lt;p&gt;Adicionalmente, o desempenho ASG dos emitentes foi sujeito a um acompanhamento sistemático e contínuo pela equipa de ISR da Sociedade Gestora, incluindo o acompanhamento contínuo de potenciais discrepâncias, identificadas pelos gestores de carteiras, entre o conhecimento do emitente e os dados considerados no modelo disponibilizado pelos fornecedores.
   &lt;/p&gt;
-  &lt;p&gt;Por último, a Sociedade Gestora levou a cabo atividades de engagement para emitentes privados e atividades de voto nos casos em que o tipo de ativo o permite (ações). Estas atividades foram alinhadas com as características sociais e ambientais do Fundo e com as Políticas de Engagement e de Voto aplicáveis da Sociedade Gestora, disponíveis em https://www.santanderassetmanagement.pt/documentos/politicas 
+  &lt;p&gt;Por último, a Sociedade Gestora levou a cabo atividades de engagement para emitentes privados e atividades de voto nos casos em que o tipo de ativo o permite (ações). Estas atividades foram alinhadas com as características sociais e ambientais do Fundo e com as Políticas de Engagement e de Voto aplicáveis da Sociedade Gestora, disponíveis em:  &lt;/p&gt;
+  &lt;p&gt; https://www.santanderassetmanagement.pt/documentos/politicas 
   &lt;/p&gt;
 &lt;/ul&gt;</t>
   </si>
@@ -3384,7 +3385,7 @@
 &lt;li&gt;Indicador de exclusões: manteve-se em 0%.&lt;/li&gt;
 &lt;li&gt;Indicador de controvérsia: manteve-se em 0%.&lt;/li&gt;
 &lt;li&gt;Classificação/Rating ASG média mínima do Fundo de Pensões: este indicador foi de {{esg_score_2022}} {{esg_score_2023}} em 2023, e {{esg_score_2024}} neste período de referência.&lt;/li&gt;
-&lt;li&gt;A percentagem média dos ativos subjacentes do Fundo de Pensões alinhados com as caraterísticas ambientais e sociais promovidas foi, pelo menos, de 51%.&lt;/li&gt;
+&lt;li&gt;A percentagem média dos ativos subjacentes do Fundo de Pensões alinhados com as caraterísticas ambientais e sociais promovidas foi, pelo menos, de 51% nos períodos de referência reportados.&lt;/li&gt;
 &lt;/ul&gt;
 </t>
   </si>
@@ -3473,11 +3474,17 @@
 &lt;p&gt;Neste caso, a Sociedade Gestora estabeleceu procedimentos para verificar se esses instrumentos não alteram a concretização das caraterísticas ambientais ou sociais promovidas pelo Fundo de Pensões, e esses instrumentos podem ser utilizados para efeitos de cobertura e gestão eficiente da carteira do Fundo de Pensões de Investimento como elemento de diversificação e gestão.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>art8_feeder_noprev_pt</t>
+  </si>
+  <si>
+    <t>Não aplicável, porque não existe um período de referência anterior</t>
+  </si>
+  <si>
     <t>&lt;p&gt;
-Durante o período de referência, foram tomadas as seguintes medidas para cumprir com as características ambientais e sociais do Fundo de Pensões:
+Durante o período de referência, foram tomadas as seguintes medidas para cumprir com as características ambientais e sociais do Fundo:
 &lt;/p&gt;
 &lt;ul&gt;
-  &lt;li&gt;A Sociedade Gestora verificou periodicamente se o Fundo de Pensões cumpre as seguintes exclusões:
+  &lt;li&gt;A Sociedade Gestora verificou periodicamente se o Fundo cumpre as seguintes exclusões:
     &lt;ul&gt;
       &lt;li&gt;Foram excluídos os emitentes com exposição (medida em termos de volume de negócios) relacionada com armas controversas e/ou com exposição significativa a combustíveis fósseis não convencionais e/ou atividades de produção de energia a partir carvão e/ou da extração de carvão.
       &lt;/li&gt;
@@ -3493,26 +3500,20 @@
   &lt;/li&gt;
   &lt;li&gt; A Sociedade Gestora monitorizou periodicamente se o critério de classificação (rating) média mínima ASG dos emitentes dos ativos da carteira (incluindo investimentos diretos ou em Organismos de Investimento Coletivo com rating disponível) tem sido pelo menos A-, de acordo com a metodologia da Sociedade Gestora numa escala de 7 níveis (C-, C, C+, B, A-, A e A+, em que A+ reflete o melhor desempenho ASG).
   &lt;/li&gt;
-  &lt;p&gt;Para além disso, a Sociedade Gestora também considerou que os seguintes casos também cumpriam as características ambientais e sociais do Fundo de Pensões, tendo sido considerados como tal:
+  &lt;p&gt;Para além disso, a Sociedade Gestora também considerou que os seguintes casos também cumpriam as características ambientais e sociais do Fundo, tendo sido considerados como tal:
   &lt;/p&gt;
   &lt;ul&gt;
-    &lt;li&gt;Emitentes sem classificação/rating ASG ou que não cumpriam os indicadores ASG definidos na estratégia de investimento, mas que tinham investimentos que pudessem ser considerados investimentos sustentáveis, e, em concreto, emissões que foram qualificadas como obrigações verdes, sociais ou sustentáveis, poderiam fazer parte do universo de ativos que promovem as caraterísticas ASG do Fundo de Pensões, após validação prévia da Sociedade Gestora, de acordo com a sua metodologia de análise própria.
+    &lt;li&gt;Emitentes sem classificação/rating ASG ou que não cumpriam os indicadores ASG definidos na estratégia de investimento, mas que tinham investimentos que pudessem ser considerados investimentos sustentáveis, e, em concreto, emissões que foram qualificadas como obrigações verdes, sociais ou sustentáveis, poderiam fazer parte do universo de ativos que promovem as caraterísticas ASG do Fundo, após validação prévia da Sociedade Gestora, de acordo com a sua metodologia de análise própria.
     &lt;/li&gt;
     &lt;li&gt;OICs que embora não tenham classificação/rating ASG atribuída pela Sociedade Gestora, são OICs que promovem características ASG [OICs considerados Artigo 8º do Regulamento (UE) 2019/2088) e/ou que tenham como objetivo investimentos sustentáveis (Artigo 9º do Regulamento (UE) 2019/2088)].
     &lt;/li&gt;
   &lt;/ul&gt;
-  &lt;p&gt;Os critérios ASG acima referidos, juntamente com o cumprimento dos compromissos mínimos do Fundo de Pensões, foram integrados no processo de investimento e monitorizados regularmente pela equipa de Compliance da Sociedade Gestora e, em caso de incumprimento, foram tomadas as medidas corretivas necessárias (por exemplo, relatório para a equipa de gestão, comunicação com a equipa de ISR, envio ao comité competente, de entre outras).  &lt;/p&gt;
+  &lt;p&gt;Os critérios ASG acima referidos, juntamente com o cumprimento dos compromissos mínimos do Fundo, foram integrados no processo de investimento e monitorizados regularmente pela equipa de Compliance da Sociedade Gestora e, em caso de incumprimento, foram tomadas as medidas corretivas necessárias (por exemplo, relatório para a equipa de gestão, comunicação com a equipa de ISR, envio ao comité competente, de entre outras).  &lt;/p&gt;
   &lt;p&gt;Adicionalmente, o desempenho ASG dos emitentes foi sujeito a um acompanhamento sistemático e contínuo pela equipa de ISR da Sociedade Gestora, incluindo o acompanhamento contínuo de potenciais discrepâncias, identificadas pelos gestores de carteiras, entre o conhecimento do emitente e os dados considerados no modelo disponibilizado pelos fornecedores.
   &lt;/p&gt;
-  &lt;p&gt;Por último, a Sociedade Gestora levou a cabo atividades de engagement para emitentes privados e atividades de voto nos casos em que o tipo de ativo o permite (ações). Estas atividades foram alinhadas com as características sociais e ambientais do Fundo de Pensões e com as Políticas de Engagement e de Voto aplicáveis da Sociedade Gestora, disponíveis em https://www.santanderassetmanagement.pt/documentos/politicas 
+  &lt;p&gt;Por último, a Sociedade Gestora levou a cabo atividades de engagement para emitentes privados e atividades de voto nos casos em que o tipo de ativo o permite (ações). Estas atividades foram alinhadas com as características sociais e ambientais do Fundo e com as Políticas de Engagement e de Voto aplicáveis da Sociedade Gestora, disponíveis em https://www.santanderassetmanagement.pt/santander-pensoes/informacao-corporativa-santander-pensoes
   &lt;/p&gt;
 &lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>art8_feeder_noprev_pt</t>
-  </si>
-  <si>
-    <t>Não aplicável, porque não existe um período de referência anterior</t>
   </si>
 </sst>
 </file>
@@ -11285,9 +11286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F6EF4D-CF5F-40A8-8775-A1A29C91F1C4}">
   <dimension ref="A1:DA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CQ5" sqref="CQ5"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="CK3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CP5" sqref="CP5"/>
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -11753,10 +11754,10 @@
       <c r="AS2" s="12" t="s">
         <v>506</v>
       </c>
+      <c r="AT2" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="AU2" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="AV2" s="2" t="s">
         <v>508</v>
       </c>
       <c r="AW2" s="2" t="s">
@@ -12067,11 +12068,11 @@
       <c r="AS3" s="12" t="s">
         <v>561</v>
       </c>
+      <c r="AT3" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="AU3" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>562</v>
+        <v>508</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>509</v>
@@ -12381,12 +12382,11 @@
       <c r="AS4" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="AT4" s="2"/>
+      <c r="AT4" s="2" t="s">
+        <v>571</v>
+      </c>
       <c r="AU4" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>571</v>
+        <v>508</v>
       </c>
       <c r="AW4" s="2" t="s">
         <v>509</v>
@@ -12524,7 +12524,7 @@
         <v>550</v>
       </c>
       <c r="CP4" s="2" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="CQ4" s="12" t="s">
         <v>552</v>
@@ -12565,7 +12565,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>469</v>
@@ -12655,7 +12655,7 @@
         <v>492</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG5" s="12" t="s">
         <v>494</v>
@@ -12696,11 +12696,11 @@
       <c r="AS5" s="12" t="s">
         <v>561</v>
       </c>
+      <c r="AT5" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="AU5" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>562</v>
+        <v>508</v>
       </c>
       <c r="AW5" s="2" t="s">
         <v>509</v>
@@ -12811,7 +12811,7 @@
         <v>541</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="CH5" s="12" t="s">
         <v>543</v>
@@ -12838,7 +12838,7 @@
         <v>550</v>
       </c>
       <c r="CP5" s="2" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
       <c r="CQ5" s="12" t="s">
         <v>552</v>
@@ -12881,6 +12881,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
+    <Comment xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002EA6A4DE027E6E4386DF60BFAE3B87E5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3abf4d3fcc761b62f1df79a5388292c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee51a08e-cffb-442e-9a85-1980beacc2f8" xmlns:ns3="9f04ef3f-090d-46e3-96be-1fbea4829461" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="352dc0540605a416d022d0321880f487" ns2:_="" ns3:_="">
     <xsd:import namespace="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
@@ -13095,18 +13107,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
-    <Comment xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13117,11 +13117,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9745F6CE-11AD-4547-BE02-8622392B4837}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5FDC5C-D626-4B87-97B5-B79DFC26F2FE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5FDC5C-D626-4B87-97B5-B79DFC26F2FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9745F6CE-11AD-4547-BE02-8622392B4837}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santandernet.sharepoint.com/sites/ESGTEAM552/Shared Documents/Archivos/Archivos Red/Fondos éticos/09. REGULACIÓN/04_SFDR/Info_Periódica/Revisión_generación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{04296667-9EFD-44F9-BBA6-B3E6F222A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B5C0767-54BC-431C-9179-2ED51B9F2B85}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{04296667-9EFD-44F9-BBA6-B3E6F222A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD612AF-039B-477E-BC96-BC113E05058D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="3" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
@@ -2869,7 +2869,8 @@
 &lt;li&gt; Com base na comparação do desempenho dos indicadores PIAS dos Fundos com os de um índice de referência (benchmark) em termos ASG. Quando o desempenho do Fundo foi pior do que o índice de referência, a Sociedade Gestora analisou a gravidade do impacto, a sua recorrência ao longo do tempo, a probabilidade de sucesso através de ações de engagement, a exposição da carteira e a tipologia do indicador de PIAS para implementar ações de mitigação. Durante o período de referência, estas ações de mitigação foram priorizadas para os indicadores relacionados com as emissões de gases com efeito de estufa e /ou violações do Pacto Global das Nações Unidas. Adicionalmente, a Sociedade Gestora também atenuou esses impactos, ajustando as posições que mais contribuíam para o indicador PIAS com pior desempenho face ao seu índice de referência ASG, limitando o aumento da posição ou, em última análise, desinvestindo.&lt;/li&gt;
 &lt;/ul&gt;
 &lt;p&gt;Os dados necessários para o cálculo dos indicadores de PIAS foram proporcionados por fornecedores de dados externos. Foram realizadas análises periódicas, com a colaboração com emitentes e fornecedores de dados ASG, da cobertura e qualidade dos mesmos, para ultrapassar as limitações na disponibilidade e qualidade dos dados indicadores.&lt;/p&gt;
-&lt;p&gt;A 31 de dezembro de 2024, o desempenho dos indicadores PIAS para este Fundo é o seguinte:&lt;/p&gt;</t>
+&lt;p&gt;A 31 de dezembro de 2024, o desempenho dos indicadores PIAS para este Fundo é o seguinte:&lt;/p&gt;
+&lt;div class="table-body" id="q02_t1"&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Quais foram os principais investimentos deste produto financeiro?</t>
@@ -3422,7 +3423,8 @@
 &lt;li&gt; Com base na comparação do desempenho dos indicadores PIAS dos Fundo de Pensõess com os de um índice de referência (benchmark) em termos ASG. Quando o desempenho do Fundo de Pensões foi pior do que o índice de referência, a Sociedade Gestora analisou a gravidade do impacto, a sua recorrência ao longo do tempo, a probabilidade de sucesso através de ações de engagement, a exposição da carteira e a tipologia do indicador de PIAS para implementar ações de mitigação. Durante o período de referência, estas ações de mitigação foram priorizadas para os indicadores relacionados com as emissões de gases com efeito de estufa e /ou violações do Pacto Global das Nações Unidas. Adicionalmente, a Sociedade Gestora também atenuou esses impactos, ajustando as posições que mais contribuíam para o indicador PIAS com pior desempenho face ao seu índice de referência ASG, limitando o aumento da posição ou, em última análise, desinvestindo.&lt;/li&gt;
 &lt;/ul&gt;
 &lt;p&gt;Os dados necessários para o cálculo dos indicadores de PIAS foram proporcionados por fornecedores de dados externos. Foram realizadas análises periódicas, com a colaboração com emitentes e fornecedores de dados ASG, da cobertura e qualidade dos mesmos, para ultrapassar as limitações na disponibilidade e qualidade dos dados indicadores.&lt;/p&gt;
-&lt;p&gt;A 31 de dezembro de 2024, o desempenho dos indicadores PIAS para este Fundo de Pensões é o seguinte:&lt;/p&gt;</t>
+&lt;p&gt;A 31 de dezembro de 2024, o desempenho dos indicadores PIAS para este Fundo de Pensões é o seguinte:&lt;/p&gt;
+&lt;div class="table-body" id="q02_t1"&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Os principais investimentos do Fundo de Pensões durante o período de referência são:</t>
@@ -3511,7 +3513,8 @@
   &lt;p&gt;Os critérios ASG acima referidos, juntamente com o cumprimento dos compromissos mínimos do Fundo, foram integrados no processo de investimento e monitorizados regularmente pela equipa de Compliance da Sociedade Gestora e, em caso de incumprimento, foram tomadas as medidas corretivas necessárias (por exemplo, relatório para a equipa de gestão, comunicação com a equipa de ISR, envio ao comité competente, de entre outras).  &lt;/p&gt;
   &lt;p&gt;Adicionalmente, o desempenho ASG dos emitentes foi sujeito a um acompanhamento sistemático e contínuo pela equipa de ISR da Sociedade Gestora, incluindo o acompanhamento contínuo de potenciais discrepâncias, identificadas pelos gestores de carteiras, entre o conhecimento do emitente e os dados considerados no modelo disponibilizado pelos fornecedores.
   &lt;/p&gt;
-  &lt;p&gt;Por último, a Sociedade Gestora levou a cabo atividades de engagement para emitentes privados e atividades de voto nos casos em que o tipo de ativo o permite (ações). Estas atividades foram alinhadas com as características sociais e ambientais do Fundo e com as Políticas de Engagement e de Voto aplicáveis da Sociedade Gestora, disponíveis em https://www.santanderassetmanagement.pt/santander-pensoes/informacao-corporativa-santander-pensoes
+  &lt;p&gt;Por último, a Sociedade Gestora levou a cabo atividades de engagement para emitentes privados e atividades de voto nos casos em que o tipo de ativo o permite (ações). Estas atividades foram alinhadas com as características sociais e ambientais do Fundo e com as Políticas de Engagement e de Voto aplicáveis da Sociedade Gestora, disponíveis em:  &lt;/p&gt;
+  &lt;p&gt; https://www.santanderassetmanagement.pt/santander-pensoes/informacao-corporativa-santander-pensoes
   &lt;/p&gt;
 &lt;/ul&gt;</t>
   </si>
@@ -11287,8 +11290,8 @@
   <dimension ref="A1:DA5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="CK3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CP5" sqref="CP5"/>
+      <pane ySplit="1" topLeftCell="AM2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ6" sqref="AQ6"/>
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -12881,18 +12884,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
-    <Comment xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002EA6A4DE027E6E4386DF60BFAE3B87E5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3abf4d3fcc761b62f1df79a5388292c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee51a08e-cffb-442e-9a85-1980beacc2f8" xmlns:ns3="9f04ef3f-090d-46e3-96be-1fbea4829461" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="352dc0540605a416d022d0321880f487" ns2:_="" ns3:_="">
     <xsd:import namespace="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
@@ -13107,7 +13098,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13116,14 +13107,26 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
+    <Comment xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5FDC5C-D626-4B87-97B5-B79DFC26F2FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9745F6CE-11AD-4547-BE02-8622392B4837}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9745F6CE-11AD-4547-BE02-8622392B4837}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5FDC5C-D626-4B87-97B5-B79DFC26F2FE}"/>
 </file>
--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santandernet.sharepoint.com/sites/ESGTEAM552/Shared Documents/Archivos/Archivos Red/Fondos éticos/09. REGULACIÓN/04_SFDR/Info_Periódica/Revisión_generación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{04296667-9EFD-44F9-BBA6-B3E6F222A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD612AF-039B-477E-BC96-BC113E05058D}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{04296667-9EFD-44F9-BBA6-B3E6F222A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3602844D-3BF0-46D0-8716-BE8A9BAB7086}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="3" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
@@ -3476,17 +3476,11 @@
 &lt;p&gt;Neste caso, a Sociedade Gestora estabeleceu procedimentos para verificar se esses instrumentos não alteram a concretização das caraterísticas ambientais ou sociais promovidas pelo Fundo de Pensões, e esses instrumentos podem ser utilizados para efeitos de cobertura e gestão eficiente da carteira do Fundo de Pensões de Investimento como elemento de diversificação e gestão.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>art8_feeder_noprev_pt</t>
-  </si>
-  <si>
-    <t>Não aplicável, porque não existe um período de referência anterior</t>
-  </si>
-  <si>
     <t>&lt;p&gt;
-Durante o período de referência, foram tomadas as seguintes medidas para cumprir com as características ambientais e sociais do Fundo:
+Durante o período de referência, foram tomadas as seguintes medidas para cumprir com as características ambientais e sociais do  Fundo de Pensões:
 &lt;/p&gt;
 &lt;ul&gt;
-  &lt;li&gt;A Sociedade Gestora verificou periodicamente se o Fundo cumpre as seguintes exclusões:
+  &lt;li&gt;A Sociedade Gestora verificou periodicamente se o  Fundo de Pensões cumpre as seguintes exclusões:
     &lt;ul&gt;
       &lt;li&gt;Foram excluídos os emitentes com exposição (medida em termos de volume de negócios) relacionada com armas controversas e/ou com exposição significativa a combustíveis fósseis não convencionais e/ou atividades de produção de energia a partir carvão e/ou da extração de carvão.
       &lt;/li&gt;
@@ -3517,6 +3511,12 @@
   &lt;p&gt; https://www.santanderassetmanagement.pt/santander-pensoes/informacao-corporativa-santander-pensoes
   &lt;/p&gt;
 &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>art8_feeder_noprev_pt</t>
+  </si>
+  <si>
+    <t>Não aplicável, porque não existe um período de referência anterior</t>
   </si>
 </sst>
 </file>
@@ -11290,8 +11290,8 @@
   <dimension ref="A1:DA5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="AM2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ6" sqref="AQ6"/>
+      <pane ySplit="1" topLeftCell="CE3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CP4" sqref="CP4"/>
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -12527,7 +12527,7 @@
         <v>550</v>
       </c>
       <c r="CP4" s="2" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="CQ4" s="12" t="s">
         <v>552</v>
@@ -12568,7 +12568,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>469</v>
@@ -12658,7 +12658,7 @@
         <v>492</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG5" s="12" t="s">
         <v>494</v>
@@ -12814,7 +12814,7 @@
         <v>541</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CH5" s="12" t="s">
         <v>543</v>
@@ -12841,7 +12841,7 @@
         <v>550</v>
       </c>
       <c r="CP5" s="2" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="CQ5" s="12" t="s">
         <v>552</v>
@@ -12884,6 +12884,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
+    <Comment xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002EA6A4DE027E6E4386DF60BFAE3B87E5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3abf4d3fcc761b62f1df79a5388292c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee51a08e-cffb-442e-9a85-1980beacc2f8" xmlns:ns3="9f04ef3f-090d-46e3-96be-1fbea4829461" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="352dc0540605a416d022d0321880f487" ns2:_="" ns3:_="">
     <xsd:import namespace="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
@@ -13098,29 +13119,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f04ef3f-090d-46e3-96be-1fbea4829461" xsi:nil="true"/>
-    <Comment xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9745F6CE-11AD-4547-BE02-8622392B4837}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5FDC5C-D626-4B87-97B5-B79DFC26F2FE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13128,5 +13128,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5FDC5C-D626-4B87-97B5-B79DFC26F2FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9745F6CE-11AD-4547-BE02-8622392B4837}"/>
 </file>
--- a/excel_books/narratives_tables.xlsx
+++ b/excel_books/narratives_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santandernet.sharepoint.com/sites/ESGTEAM552/Shared Documents/Archivos/Archivos Red/Fondos éticos/09. REGULACIÓN/04_SFDR/Info_Periódica/Revisión_generación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{04296667-9EFD-44F9-BBA6-B3E6F222A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3602844D-3BF0-46D0-8716-BE8A9BAB7086}"/>
+  <xr:revisionPtr revIDLastSave="932" documentId="8_{04296667-9EFD-44F9-BBA6-B3E6F222A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5974F55-05C1-4661-89C4-F9B4055DE2A0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="3" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
+    <workbookView xWindow="-15435" yWindow="-16425" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{876AE5F7-9A61-4241-A259-03591D994349}"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="678">
   <si>
     <t>macro_narrative</t>
   </si>
@@ -1617,177 +1617,10 @@
     <t>&lt;b&gt;Identyfikator podmiotu prawnego:&lt;/b&gt; Kod LEI &lt;span id="lei_code"&gt;&lt;/span&gt;</t>
   </si>
   <si>
-    <t>Charakterystyki środowiskowe lub społeczne</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Inwestycja zrównoważona&lt;/b&gt; oznacza inwestycję w działalność gospodarczą, która przyczynia się do osiągnięcia celu środowiskowego lub społecznego, pod warunkiem że inwestycja nie wyrządza znaczącej szkody żadnemu celowi środowiskowemu lub społecznemu, a przedsiębiorstwa, w które inwestuje, stosują dobre praktyki w zakresie zarządzania.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Taksonomia UE&lt;/b&gt; to system klasyfikacji przewidziany w rozporządzeniu (UE) 2020/852, który ustanawia listę &lt;b&gt;działalności gospodarczych środowiskowo zrównoważonych&lt;/b&gt;. Rozporządzenie to nie zawiera listy działalności gospodarczych społecznie zrównoważonych. Inwestycje zrównoważone mające na celu ochronę środowiska mogą być zgodne lub niezgodne z taksonomią.</t>
-  </si>
-  <si>
-    <t>Czy ten produkt finansowy miał na celu inwestycję zrównoważoną?</t>
-  </si>
-  <si>
     <t>Tak</t>
   </si>
   <si>
     <t>Nie</t>
-  </si>
-  <si>
-    <t>Dokonał inwestycji zrównoważonych w celu środowiskowym:</t>
-  </si>
-  <si>
-    <t>w działalności gospodarczej uważanej za środowiskowo zrównoważoną zgodnie z taksonomią UE</t>
-  </si>
-  <si>
-    <t>w działalności gospodarczej nieuważanej za środowiskowo zrównoważoną zgodnie z taksonomią UE</t>
-  </si>
-  <si>
-    <t>Dokonał inwestycji zrównoważonych w celu społecznym:</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Promował cechy środowiskowe lub społeczne&lt;/b&gt;, choć nie miał na celu inwestycji zrównoważonej, osiągnął jednak &lt;span id="sfdr_last_rep_inv_sust_inv"&gt;&lt;/span&gt;% udziału w inwestycjach zrównoważonych</t>
-  </si>
-  <si>
-    <t>z celem środowiskowym w działalności gospodarczej uważanej za środowiskowo zrównoważoną zgodnie z taksonomią UE</t>
-  </si>
-  <si>
-    <t>z celem środowiskowym w działalności gospodarczej nieuważanej za środowiskowo zrównoważoną zgodnie z taksonomią UE</t>
-  </si>
-  <si>
-    <t>z celem społecznym</t>
-  </si>
-  <si>
-    <t>Promował cechy środowiskowe lub społeczne, &lt;b&gt;ale nie dokonał żadnej inwestycji zrównoważonej&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>W jakim stopniu osiągnięto cechy środowiskowe lub społeczne promowane przez ten produkt finansowy?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Fundusz promował cechy środowiskowe i społeczne, oceniając swoje inwestycje na podstawie kryteriów środowiskowych, społecznych i ładu korporacyjnego (ESG) za pomocą własnej metodologii ESG oraz inwestując w emitentów, którzy wykazują solidne praktyki ESG i spełniają kryteria wykluczenia opisane w strategii inwestycyjnej zawartej w załączniku dotyczącym zrównoważonego rozwoju w informacji przedumownej tego funduszu.&lt;/p&gt;
-&lt;p&gt;W tym kontekście zastosowano elementy finansowe, środowiskowe, społeczne i dotyczące ładu korporacyjnego, aby uzyskać pełniejszy obraz aktywów bazowych, w które fundusz inwestował w okresie odniesienia, oceniając kombinację czynników ESG, które obejmowały, ale nie ograniczały się do:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Czynniki środowiskowe, poprzez ocenę wyników ilościowych i jakościowych emitentów w zakresie takich zagadnień jak emisje gazów cieplarnianych, wyczerpywanie zasobów, zanieczyszczenia i zarządzanie wodą.&lt;/li&gt;
-&lt;li&gt;Czynniki społeczne, obejmujące zagadnienia związane z miejscem pracy, przestrzeganiem standardów pracy, zarządzaniem talentami, relacjami z lokalnymi społecznościami, prywatnością i bezpieczeństwem danych oraz prawami człowieka.&lt;/li&gt;
-&lt;li&gt;Czynniki dotyczące ładu korporacyjnego, takie jak jakość zarządzania emitenta, jego kultura i etyka, skuteczność systemów ładu korporacyjnego w minimalizowaniu ryzyka niewłaściwego zarządzania oraz zdolność do przewidywania ryzyk operacyjnych i prawnych mogących skutkować naruszeniem. Uwzględniono również czynniki związane ze składem i strukturą rady nadzorczej emitenta.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Ocena tych czynników dla każdego emitenta opierała się na sektorowej istotności zdefiniowanej przez zarządzającego jako część swojej metodologii ESG. Dodatkowo, przypadki kontrowersji były oceniane, uwzględniając ich wpływ na społeczeństwo, środowisko oraz interesariuszy, i były uwzględniane w metodologii ESG zarządzającego.&lt;/p&gt;
-&lt;p&gt;Zarządzający promował także cechy środowiskowe i społeczne poprzez działania angażujące, indywidualnie lub w ramach inicjatyw współpracy, mające na celu promowanie lepszych praktyk ESG zgodnie ze swoją polityką zaangażowania.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Wskaźniki &lt;b&gt;zrównoważonego rozwoju&lt;/b&gt; mierzą, w jakim stopniu osiągane są cechy środowiskowe lub społeczne promowane przez produkt finansowy.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Główne niekorzystne skutki&lt;/b&gt; to najistotniejsze negatywne skutki decyzji inwestycyjnych dla czynników zrównoważonego rozwoju związanych z kwestiami środowiskowymi, społecznymi, pracowniczymi, przestrzeganiem praw człowieka oraz walką z korupcją i łapownictwem.</t>
-  </si>
-  <si>
-    <t>Jak zachowywały się wskaźniki zrównoważonego rozwoju?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Poniżej opisano zachowanie wskaźników zrównoważonego rozwoju funduszu w okresie odniesienia:&lt;/p&gt;
-&lt;ul&gt; 
-&lt;li&gt;&lt;b&gt;Wskaźnik wykluczeń:&lt;/b&gt; Fundusz nie dokonał żadnych inwestycji w sektory niedozwolone przez politykę inwestycyjną, zgodnie z wewnętrznymi procedurami zarządzającego. To znaczy, że fundusz nie miał ekspozycji na aktywa inwestycyjne bezpośrednio gotówkowe emitentów ani instrumenty pochodne finansowe (futures i opcje na akcje) używane przez fundusz do odniesienia indeksu, w których emitent bazowy tych pochodnych był głównie zaangażowany w działalność związaną z kontrowersyjnym uzbrojeniem, niekonwencjonalnymi paliwami kopalnymi i wytwarzaniem energii elektrycznej z węgla oraz górnictwem węgla.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;Wskaźnik kontrowersji:&lt;/b&gt; Fundusz miał ekspozycję 0% na aktywa inwestycyjne bezpośrednio gotówkowe emitentów, jak również na instrumenty pochodne finansowe (futures i opcje na akcje) używane przez fundusz do odniesienia indeksu, w których emitent bazowy tych pochodnych był zaangażowany w kontrowersje uznawane za krytyczne.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;Minimalna średnia ocena ESG funduszu:&lt;/b&gt; Średnia ocena ESG emitentów aktywów w gotówkowej inwestycyjnej bezpośredniej oraz emitentów bazowych futures i opcji na akcje używanych przez fundusz do odniesienia indeksu według wewnętrznej metodologii zarządzającego wyniosła {{esg_score_2024}} w skali 7 poziomów (C-, C, C+, B, A-, A i A+, gdzie A+ odzwierciedla najlepszy wynik ESG). Wartość tę obliczono jako średnią ocenę ESG, biorąc pod uwagę dane z ostatniego dnia roboczego każdego kwartału w okresie odniesienia.&lt;/li&gt;
-&lt;li&gt;Średni procent aktywów bazowych funduszu zgodnych z cechami środowiskowymi i społecznymi promowanymi wyniósł &lt;b&gt;{{es_aligned}}%&lt;/b&gt; w okresie odniesienia.&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Jak wskaźniki te zachowywały się w porównaniu z wcześniejszymi okresami?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; W porównaniu z poprzednim okresem odniesienia wyniki wskaźników zrównoważonego rozwoju były następujące:&lt;/p&gt;
-&lt;ul&gt; 
-&lt;li&gt;Wskaźnik wykluczeń: Utrzymał się na poziomie 0%. &lt;/li&gt;
-&lt;li&gt;Wskaźnik kontrowersji: Utrzymał się na poziomie 0%. &lt;/li&gt;
-&lt;li&gt;Minimalna średnia ocena ESG funduszu: W {{YEAR_PREV}} wskaźnik wyniósł {{esg_score_2023}}, a w {{YEAR}} osiągnął {{esg_score_2024}}. &lt;/li&gt;
-&lt;li&gt;Średni procent aktywów bazowych funduszu zgodnych z cechami środowiskowymi i społecznymi promowanymi wyniósł co najmniej 51% w obu okresach odniesienia.&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jakie były cele inwestycji zrównoważonych, które częściowo realizował produkt finansowy, i w jaki sposób te inwestycje przyczyniły się do osiągnięcia tych celów?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-Cele inwestycji zrównoważonych tego funduszu osiągnięto poprzez inwestowanie w emitentów, którzy przyczynili się przynajmniej do jednego z celów określonych w Załączniku do Zrównoważonego Rozwoju w informacji przedumownej tego funduszu. W praktyce aktywa bazowe uznane za inwestycje zrównoważone to te emitenci, którzy spełnili przynajmniej jeden z poniższych kryteriów:
-&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;
-Emitenci, których działalność jest zgodna z trajektorią dekarbonizacji wynikającą z Porozumienia Paryskiego lub jest obecnie neutralna pod względem emisji CO2. Emitenci spełniający to kryterium przyczynili się do osiągnięcia celów środowiskowo zrównoważonych, takich jak łagodzenie zmian klimatycznych, pomagając w stabilizacji koncentracji gazów cieplarnianych w atmosferze i/lub adaptacji do zmian klimatycznych poprzez inwestowanie w rozwiązania adaptacyjne, które znacznie zmniejszają ryzyko negatywnych skutków klimatycznych.
-&lt;/li&gt;
-&lt;li&gt;
-Emitenci, których działalność generuje co najmniej 20% przychodów zgodnych z celami łagodzenia i/lub adaptacji klimatycznej wynikającymi z Taksonomii UE. Na dzień sporządzenia niniejszego dokumentu emitenci spełniający to kryterium przyczynili się do celów środowiskowych związanych z łagodzeniem zmian klimatycznych i/lub adaptacją do tych zmian.
-&lt;/li&gt;
-&lt;li&gt;
-Emitenci generujący co najmniej 20% przychodów z produktów i/lub usług, które mają mierzalny wpływ środowiskowy (np. zrównoważone praktyki rolnicze, technologie zapobiegania zanieczyszczeniom, alternatywne źródła energii). Emitenci spełniający to kryterium przyczynili się do osiągnięcia celów środowiskowo zrównoważonych, takich jak zapobieganie i kontrola zanieczyszczeń, ochrona i odtwarzanie bioróżnorodności oraz ekosystemów, a także zrównoważone wykorzystanie i ochrona zasobów wodnych i morskich.
-&lt;/li&gt;
-&lt;li&gt;
-Emitenci generujący co najmniej 20% przychodów z produktów i/lub usług, które mają mierzalny wpływ społeczny (np. rozwiązania edukacyjne, poprawa łączności, rozwiązania w zakresie leczenia chorób). Emitenci spełniający to kryterium przyczynili się do osiągnięcia celów społecznie zrównoważonych, takich jak zapewnienie odpowiednich standardów życia i dobrostanu konsumentów, przyczyniając się do tworzenia produktów i usług zaspokajających ludzkie potrzeby.
-&lt;/li&gt; 
-&lt;li&gt;
-Emitenci, których praktyki korporacyjne demonstrują ich intencję przyczynienia się do celów środowiskowych i/lub społecznie zrównoważonych funduszu poprzez ich wiodącą ocenę wyników zrównoważoności opartą na metodologii ESG zarządzającego.
-&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Gdy fundusz inwestował w fundusze inwestycyjne stron trzecich, zarządzający wykorzystywał dane i metodologie zrównoważonych inwestycji ujawnione przez zarządzających stron trzecich.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>W jaki sposób inwestycje zrównoważone, które częściowo realizował produkt finansowy, nie powodowały znaczącej szkody dla żadnego celu zrównoważonego rozwoju środowiskowego lub społecznego?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Aby zapewnić, że pozytywny wkład w cel zrównoważonego rozwoju środowiskowego lub społecznego nie spowodował znaczącej szkody dla innych celów zrównoważonych w okresie odniesienia, zarządzający zastosował następujące środki ochrony oparte na swojej wewnętrznej metodologii, aby wykazać, że istnieje zamiar nie wyrządzania takiej szkody:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Uwzględnienie obowiązkowych wskaźników głównych niekorzystnych skutków dla zrównoważonego rozwoju (PIAS) wymienionych w załączniku I rozporządzenia delegowanego (UE) 2022/1288/97, które uzupełnia rozporządzenie (UE) 2019/2088, jak opisano w kolejnym pytaniu.&lt;/li&gt;
-&lt;li&gt;Działalność w kontrowersyjnych sektorach: poprzez analizę i wykluczenie emitentów z istotnym udziałem w działalności kontrowersyjnej w sektorach takich jak paliwa kopalne, broń kontrowersyjna, tytoń oraz emitentów narażonych na poważne kontrowersje.&lt;/li&gt;
-&lt;li&gt;Neutralny wynik zrównoważoności: zarządzający wymagał minimalnej oceny ESG na poziomie B w skali 7 poziomów (C-, C, C+, B, A-, A i A+, gdzie A+ odzwierciedla najlepszy wynik ESG) zgodnie z własną metodologią, aby zagwarantować, że praktyki zrównoważoności każdego emitenta spełniają minimalne wymagania ESG.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;W przypadku gdy jakakolwiek bezpośrednia inwestycja funduszu naruszyła którykolwiek z tych środków ochrony, zarządzający uznał, że nie można zapewnić, że nie doszło do znaczącej szkody i nie została uznana za inwestycję zrównoważoną.&lt;/p&gt;
-&lt;p&gt;Jeżeli program emerytalny inwestował w fundusze inwestycyjne stron trzecich, zarządzający stosował metodologię "nie wyrządzania znaczącej szkody" ujawnioną przez zarządzających stron trzecich.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>W jaki sposób uwzględniono wskaźniki głównych niekorzystnych skutków dla czynników zrównoważonego rozwoju?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Zarządzający uwzględnił obowiązkowe wskaźniki głównych niekorzystnych skutków w analizie zasady "nie wyrządzania znaczącej szkody" dla aktywów bazowych tego funduszu.&lt;/p&gt;
-&lt;p&gt;W tym celu zarządzający zdefiniował progi oparte na kryteriach ilościowych i jakościowych, które obejmowały:&lt;/p&gt;
-&lt;ul&gt;
-    &lt;li&gt;Progi absolutne: emitenci z istotnym udziałem w paliwach kopalnych, działalności wpływającej na obszary wrażliwe biologicznie, naruszający zasady Global Compact ONZ i Wytyczne OECD dla Przedsiębiorstw Wielonarodowych, nieposiadający procesów i mechanizmów monitorowania przestrzegania tych norm międzynarodowych i/lub narażeni na broń kontrowersyjną, zostali uznani za niezgodnych z zasadą "nie wyrządzania znaczącej szkody".&lt;/li&gt;
-    &lt;li&gt;Progi branżowe: emitenci znajdujący się w grupie o najgorszym wyniku w swojej branży pod względem emisji gazów cieplarnianych, emisji do wód, odpadów niebezpiecznych i/lub kwestii społecznych i pracowniczych, zostali uznani za niezgodnych z zasadą "nie wyrządzania znaczącej szkody".&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Czy inwestycje zrównoważone były zgodne z Wytycznymi OECD dla Przedsiębiorstw Wielonarodowych i Zasadami Przewodnimi ONZ dotyczącymi przedsiębiorstw i praw człowieka? Szczegóły:</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Poszanowanie praw człowieka stanowi integralną część wartości zarządzającego oraz minimalny standard działania w celu prowadzenia swojej działalności w sposób zgodny z prawem.&lt;/p&gt;
-&lt;p&gt;W tym kontekście działania zarządzającego opierają się na zasadach określonych w Wytycznych OECD dla Przedsiębiorstw Wielonarodowych oraz dziesięciu zasadach Global Compact ONZ, między innymi. To zaangażowanie odzwierciedla się zarówno w politykach korporacyjnych Grupy Santander, jak i w politykach własnych zarządzającego dostępnych na odpowiednich stronach internetowych i stanowi część wewnętrznego procesu integracji ryzyk zrównoważonego rozwoju zarządzającego.&lt;/p&gt;
-&lt;p&gt;Zarządzający regularnie monitorował, czy bezpośrednie inwestycje gotówkowe naruszają któreś z tych międzynarodowych wytycznych, a w przypadku naruszenia, były one oceniane i zarządzane zgodnie z ich wagą, co mogło prowadzić na przykład do działań zaangażowania.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Taksonomia UE określa zasadę "nie wyrządzania znaczącej szkody", zgodnie z którą inwestycje zgodne z taksonomią nie powinny wyrządzać znaczącej szkody celom taksonomii UE i obejmuje szczególne kryteria unijne.&lt;/p&gt;
-&lt;p&gt;Zasada "nie wyrządzania znaczącej szkody" ma zastosowanie wyłącznie do inwestycji bazowych produktu finansowego, które uwzględniają kryteria UE dotyczące środowiskowo zrównoważonych działań gospodarczych. Inwestycje bazowe pozostałej części produktu finansowego nie uwzględniają tych kryteriów UE.&lt;/p&gt;
-&lt;p&gt;&lt;i&gt;Każda inna inwestycja zrównoważona również nie powinna wyrządzać znaczącej szkody żadnemu celowi środowiskowemu lub społecznemu.&lt;/i&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>W jaki sposób ten produkt finansowy uwzględnia główne niekorzystne skutki dla czynników zrównoważonego rozwoju?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Fundusz uwzględnił główne niekorzystne skutki dla czynników zrównoważonego rozwoju podczas podejmowania decyzji inwestycyjnych. Zarządzający stale monitorował wyniki wskaźników z Tabeli 1 oraz dwóch opcjonalnych wskaźników z Tabel 2 i 3 Załącznika I RTS, aby ocenić negatywne skutki, jakie inwestycje realizowane przez ten fundusz mogą powodować w środowisku zewnętrznym.&lt;/p&gt;
-&lt;p&gt;Podczas okresu odniesienia zarządzający zidentyfikował te skutki na dwóch poziomach:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Na podstawie wyników względnych każdego emitenta, w celu identyfikacji emitentów z najgorszymi wynikami w każdym wskaźniku PIAS. Emitenci z najgorszymi wynikami w odniesieniu do swojego sektora dla wszystkich wskaźników obowiązkowych byli oceniani i zarządzani zgodnie z istotnością wpływu i jego powtarzalnością, co mogło prowadzić do działań zaangażowania.&lt;/li&gt;
-&lt;li&gt;Na podstawie porównania wskaźników PIAS funduszu z wskaźnikami indeksu odniesienia (benchmark). Kiedy wyniki funduszu były gorsze niż wyniki benchmarku, zarządzający analizował wagę wpływu, jego powtarzalność w czasie, prawdopodobieństwo sukcesu działań zaangażowania, ekspozycję portfela oraz rodzaj wskaźnika PIAS, aby wdrożyć działania łagodzące. Podczas okresu odniesienia działania te były priorytetowe dla wskaźników związanych z emisjami gazów cieplarnianych i/lub naruszeniami Global Compact ONZ. Zarządzający łagodził również te negatywne skutki, dostosowując pozycje najbardziej przyczyniające się do najgorszych wyników PIAS w porównaniu z benchmarkiem, ograniczając zwiększenie pozycji lub w ostateczności poprzez dezinwestycję.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Dane potrzebne do obliczenia wskaźników PIAS były dostarczane przez zewnętrznych dostawców danych. Przeprowadzano regularną analizę jakości i pokrycia danych we współpracy z emitentami i dostawcami danych, aby rozwiązać ograniczenia w dostępności i jakości danych wskaźników.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Jakie były główne inwestycje tego produktu finansowego?</t>
-  </si>
-  <si>
-    <t>Lista zawiera inwestycje, które stanowiły &lt;b&gt;większość inwestycji&lt;/b&gt; produktu finansowego w okresie odniesienia, tj.: {{ref_period}}</t>
-  </si>
-  <si>
-    <t>Główne inwestycje Programu Emerytalnego dokonane w okresie odniesienia to:</t>
   </si>
   <si>
     <t>&lt;table&gt;
@@ -1870,27 +1703,9 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>Jaki byl udzial inwestycji zwiazanych ze zrownowazonym rozwojem?</t>
-  </si>
-  <si>
-    <t>Proporcja inwestycji związanych ze zrównoważonym rozwojem wynosi co najmniej 51% majątku Planu Emerytalnego zgodnie z kryteriami ESG zawartymi w załączniku dotyczącym Zrównoważonego Rozwoju oraz informacjami przedkontraktowymi tego Planu Emerytalnego.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Alokacja aktywow&lt;/b&gt; ukazuje udzial inestycji w poszczegolne aktywa</t>
-  </si>
-  <si>
-    <t>Jak przedstawiala sie alokacja aktywow?</t>
-  </si>
-  <si>
-    <t>Sektory gospodarcze, w które inwestowano w okresie odniesienia, to przedstawione poniżej.</t>
-  </si>
-  <si>
     <t>Inwestycje</t>
   </si>
   <si>
-    <t>#1 zgodne z aspektami środowiskowymi / społecznymi</t>
-  </si>
-  <si>
     <t>#2 inne</t>
   </si>
   <si>
@@ -1906,12 +1721,6 @@
     <t>społeczne</t>
   </si>
   <si>
-    <t>Kategoria &lt;b&gt;»#1 zgodne z aspektami środowiskowymi/społecznymi«&lt;/b&gt; obejmuje inwestycje dokonane w ramach produktu finansowego w celu uwzględnienia aspektów środowiskowych lub społecznych promowanych w ramach tego produktu finansowego.</t>
-  </si>
-  <si>
-    <t>Kategoria &lt;b&gt;»#2 inne«&lt;/b&gt; obejmuje pozostałe inwestycje dokonane w ramach produktu finansowego, które nie są zgodne z aspektami środowiskowymi lub społecznymi ani nie kwalifikują się jako zrównoważone inwestycje.</t>
-  </si>
-  <si>
     <t>Kategoria »&lt;b&gt;#1 zgodne z aspektami środowiskowymi/społecznymi&lt;/b&gt;« obejmuje:</t>
   </si>
   <si>
@@ -1919,12 +1728,6 @@
   </si>
   <si>
     <t>– podkategorię »&lt;b&gt;#1B inne aspekty środowiskowe lub społeczne&lt;/b&gt;« obejmującą inwestycje zgodne z aspektami środowiskowymi lub społecznymi, które nie kwalifikują się jako zrównoważone inwestycje.</t>
-  </si>
-  <si>
-    <t>Jakie sektory gospodarcze były zaangażowane?</t>
-  </si>
-  <si>
-    <t>Sektory gospodarcze zaangażowane w inwestycje to następujące:</t>
   </si>
   <si>
     <t>&lt;table&gt;
@@ -1951,122 +1754,7 @@
 &lt;/table&gt;</t>
   </si>
   <si>
-    <t>W jakim stopniu zrównoważone inwestycje mające cel środowiskowy były zgodne z taksonomią UE?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Aby zapewnić zgodność z unijną systematyką dotyczącą zrównoważonego rozwoju, kryteria dotyczące &lt;b&gt;gazu ziemnego&lt;/b&gt; obejmują ograniczenia emisji i przejście na energię pochodzącą w całości ze źródeł odnawialnych lub paliwa niskoemisyjne do końca 2035 r. W przypadku &lt;b&gt;energii jądrowej&lt;/b&gt; kryteria te obejmują kompleksowe zasady w zakresie bezpieczeństwa i gospodarowania odpadami. Działalność wspomagająca bezpośrednio wspomaga inne&lt;/p&gt;
-&lt;p&gt;&lt;b&gt;Działania wspierające&lt;/b&gt; bezpośrednio umożliwiają innym działaniom znaczące przyczynienie się do osiągnięcia celu środowiskowego.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Aktywności zgodne z taksonomią UE są przedstawione jako procent:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;Obrotu:&lt;/b&gt; który odzwierciedla procent przychodów uzyskanych z działalności ekologicznej przedsiębiorstw, w które inwestuje fundusz.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;Inwestycji w aktywa trwałe (CapEx):&lt;/b&gt; które pokazują inwestycje ekologiczne realizowane przez przedsiębiorstwa, w które inwestuje fundusz, np. przejście na zieloną gospodarkę.&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;Kosztów operacyjnych (OpEx):&lt;/b&gt; które odzwierciedlają działalność operacyjną przedsiębiorstw, w które inwestuje fundusz, zgodną z celem środowiskowym.&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Fundusz nie określił minimalnego procentu zgodności swoich inwestycji z taksonomią UE ani nie miał celu inwestycyjnego zgodnego z nią. W związku z tym dane te nie podlegają audytowi i są przedstawiane wyłącznie w celach informacyjnych. Poniższe wykresy przedstawiają zgodność funduszu z taksonomią UE w okresie odniesienia. Dane są przedstawiane wyłącznie informacyjnie, ponieważ nie odzwierciedlają zgodności z żadnym celem ani minimalnym zobowiązaniem inwestycyjnym.</t>
-  </si>
-  <si>
-    <t>Czy produkt finansowy inwestował w działania związane z gazem kopalnym lub energią jądrową, które spełniały taksonomię UE&lt;sup&gt;1&lt;/sup&gt;?</t>
-  </si>
-  <si>
     <t>w gaz ziemny</t>
-  </si>
-  <si>
-    <t>w energię jądrową</t>
-  </si>
-  <si>
-    <t>Wykresy poniżej przedstawiają w zielonym kolorze procent inwestycji zgodnych z taksonomią UE. Ze względu na brak odpowiedniej metodologii do określania zgodności obligacji skarbowych z taksonomią, pierwszy wykres przedstawia zgodność z taksonomią dla wszystkich inwestycji funduszu, w tym obligacji skarbowych, podczas gdy drugi wykres pokazuje zgodność z taksonomią wyłącznie dla inwestycji innych niż obligacje skarbowe.</t>
-  </si>
-  <si>
-    <t>*Na potrzeby tych wykresów "obligacje skarbowe" obejmują wszystkie ekspozycje skarbowe.</t>
-  </si>
-  <si>
-    <t>&lt;sup&gt;1&lt;/sup&gt;Działania związane z gazem kopalnym lub energią jądrową spełniają taksonomię UE tylko wtedy, gdy przyczyniają się do ograniczenia zmian klimatycznych ("łagodzenie zmian klimatycznych") i nie wyrządzają znaczącej szkody żadnemu celowi taksonomii UE. Pełne kryteria dotyczące działań gospodarczych związanych z gazem kopalnym i energią jądrową zgodnych z taksonomią UE określono w rozporządzeniu delegowanym Komisji (UE) 2022/1214.</t>
-  </si>
-  <si>
-    <t>Jaki był udział inwestycji w działania przejściowe i wspierające?</t>
-  </si>
-  <si>
-    <t>Udział inwestycji w działania przejściowe wyniósł {{total_turnover_transition}}% w obrotach, {{total_capex_transition}}% w nakładach inwestycyjnych (CapEx) i {{total_opex_transition}}% w kosztach operacyjnych (OpEx), a w działania wspierające {{total_turnover_enabling}}% w obrotach, {{total_capex_enabling}}% w CapEx i {{total_opex_enabling}}% w OpEx w odniesieniu do całkowitego majątku funduszu w okresie odniesienia.</t>
-  </si>
-  <si>
-    <t>Jaki procent inwestycji był zgodny z taksonomią UE w porównaniu z wcześniejszymi okresami odniesienia?</t>
-  </si>
-  <si>
-    <t>Fundusz nie określił minimalnego procentu zgodności swoich inwestycji z taksonomią UE. Niemniej jednak, zgodność inwestycji z taksonomią UE w porównaniu z okresem odniesienia wyniosła {{taxonomy_2022}}, {{taxonomy_2023}}, a w {{taxonomy_2024}} osiągnęła {{total_turnover_aligned}}.</t>
-  </si>
-  <si>
-    <t>Jaki był udział inwestycji zrównoważonych z celem środowiskowym, które nie były zgodne z taksonomią UE?</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Inwestycje zrównoważone z celem środowiskowym&lt;/b&gt; to inwestycje, które &lt;b&gt;nie uwzględniają kryteriów&lt;/b&gt; środowiskowej zgodności działań gospodarczych z taksonomią UE, zgodnie z rozporządzeniem (UE) 2020/852.</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Udział inwestycji zrównoważonych funduszu z celem środowiskowym, które nie były zgodne z taksonomią UE, wyniósł {{sust_invest_env}}% w okresie odniesienia.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Jaki był udział inwestycji społecznie zrównoważonych?</t>
-  </si>
-  <si>
-    <t>Udział inwestycji społecznie zrównoważonych funduszu wyniósł {{sust_invest_soc}}% w okresie odniesienia.</t>
-  </si>
-  <si>
-    <t>Jakie inwestycje zostały uwzględnione w kategorii "inne" i jaki był ich cel? Czy były stosowane minimalne zabezpieczenia środowiskowe lub społeczne?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Fundusz uwzględnił {{other_nones}}% majątku funduszu w okresie odniesienia w inwestycjach, które nie są zgodne z cechami środowiskowymi i społecznymi promowanymi przez fundusz. Odsetek ten obliczono jako średni udział majątku funduszu, uwzględniając inwestycje bazowe z ostatniego dnia roboczego każdego kwartału okresu odniesienia, zgodnie z definicją w sekcji "Główne inwestycje".&lt;/p&gt;
-&lt;p&gt;Inwestycje te nie wpłynęły negatywnie na osiągnięcie cech środowiskowych i społecznych promowanych przez fundusz, a ich celem było wspieranie efektywnego zarządzania portfelem, zapewnianie płynności oraz funkcja zabezpieczająca.&lt;/p&gt;
-&lt;p&gt;Minimalne zabezpieczenia środowiskowe i społeczne obejmowały:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Bezpośrednie aktywa inwestycyjne bez ratingu ESG z powodu braku danych dostawcy wykorzystywanego przez zarządzającego, które nie mogą być uznane za inwestycje zrównoważone. Te aktywa spełniały kryteria wykluczeń funduszu, zapewniając minimalne zabezpieczenia.&lt;/li&gt;
-&lt;li&gt;Fundusze inwestycyjne bez ratingu ESG z powodu braku danych, które nie mogą być klasyfikowane jako fundusze zgodne z art. 8 lub 9 Rozporządzenia (UE) 2019/2088. W procesie selekcji funduszy stosowano minimalne zabezpieczenia zgodne z procedurami zarządzającego.&lt;/li&gt;
-&lt;li&gt;Inne aktywa gotówkowe dopuszczalne zgodnie z polityką funduszu, dla których stosowano minimalne zabezpieczenia.&lt;/li&gt;
-&lt;li&gt;Płynność w depozytariuszu i inne rachunki bieżące wykorzystywane do zwykłej działalności funduszu (np. zabezpieczenia instrumentów pochodnych).&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;W przypadku instrumentów finansowych pochodnych (oprócz kontraktów terminowych i opcji na akcje wykorzystywanych do odniesienia indeksu), nie stosowano powyższych procedur w zakresie promocji cech ESG, z wyjątkiem określonych sytuacji.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Jakie działania podjęto, aby spełnić cechy środowiskowe lub społeczne w okresie odniesienia?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;W okresie odniesienia podjęto następujące działania, aby spełnić cechy środowiskowe i społeczne funduszu:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Zarządzający regularnie weryfikował, czy fundusz przestrzega następujących kryteriów wykluczenia dla aktywów inwestycyjnych:
-&lt;ul&gt;
-&lt;li&gt;Wykluczono emitentów z ekspozycją na sektory takie jak broń kontrowersyjna, paliwa kopalne niekonwencjonalne, wytwarzanie energii z węgla oraz górnictwo węglowe.&lt;/li&gt;
-&lt;li&gt;Wykluczono emitentów, w których zidentyfikowano kontrowersje uznane za krytyczne w zakresie środowiskowym, społecznym lub zarządzania.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;/li&gt;
-&lt;li&gt;Zarządzający regularnie monitorował minimalny średni rating ESG aktywów inwestycyjnych funduszu, który wynosił co najmniej A-, zgodnie z metodologią zarządzającego na siedmiostopniowej skali (C-, C, C+, B, A-, A, A+).&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Dodatkowo, zarządzający uznawał za zgodne z cechami środowiskowymi i społecznymi funduszu następujące przypadki:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Emitenci bez ratingu ESG, ale posiadający inwestycje, które mogą być uznane za zrównoważone, takie jak zielone obligacje.&lt;/li&gt;
-&lt;li&gt;Fundusze inwestycyjne promujące cechy środowiskowe lub społeczne zgodnie z art. 8 lub 9 Rozporządzenia (UE) 2019/2088.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Wszystkie powyższe kryteria były integrowane w procesie inwestycyjnym i monitorowane przez zespół ds. zgodności zarządzającego. W przypadku naruszenia podejmowano działania naprawcze, takie jak komunikacja z zespołem SRI czy skierowanie sprawy do odpowiedniego komitetu.&lt;/p&gt;
-&lt;p&gt;Zarządzający prowadził również działania angażujące z emitentami oraz głosowania na walnych zgromadzeniach, aby wspierać cele środowiskowe i społeczne funduszu.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Jak produkt finansowy zachowywał się w porównaniu z wyznaczonym indeksem odniesienia?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nie wyznaczono konkretnego indeksu jako punktu odniesienia do określenia, czy ten produkt finansowy spełnia promowane cechy środowiskowe lub społeczne.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Indeksy odniesienia&lt;/b&gt; to wskaźniki stosowane do pomiaru, czy produkt finansowy osiąga promowane cechy środowiskowe lub społeczne.</t>
-  </si>
-  <si>
-    <t>W jaki sposób indeks odniesienia różni się od ogólnego indeksu rynkowego?</t>
-  </si>
-  <si>
-    <t>Nie dotyczy.</t>
-  </si>
-  <si>
-    <t>Jak produkt finansowy zachowywał się w odniesieniu do wskaźników zrównoważoności w celu określenia zgodności indeksu odniesienia z promowanymi cechami środowiskowymi lub społecznymi?</t>
   </si>
   <si>
     <t>Periodic disclosure for the financial products referred to in Article 8, paragraphs 1, 2, and 2a of Regulation (EU) 2019/2088 and Article 6, first paragraph, of Regulation (UE) 2020/852</t>
@@ -2142,91 +1830,10 @@
     <t>How did the sustainability indicators perform?</t>
   </si>
   <si>
-    <t>&lt;p&gt;The performance of the Sub-Fund’s sustainability indicators throughout the reference period is described below:&lt;/p&gt;
-&lt;ul&gt; 
-&lt;li&gt; Exclusions indicator: the Sub-Fund did not contain any investments in sectors not permitted by the Sub-Fund's investment policy. That is to say, the Sub-Fund had 0% exposure to companies with more than 25% revenues derived from coal mining, coal power generation and companies whose business is mainly focused on controversial weapons. In addition to this, for the case of public fixed income, the Sub-Fund had 0% exposure to countries with poor performance in terms of political rights and social freedoms based on the Democracy Index indicator and Freedom in the World study.&lt;/li&gt;
-&lt;li&gt;Controversy indicator: the Sub-Fund had 0% exposure to companies that were involved in controversies considered critical.&lt;/li&gt;
-&lt;li&gt;Average ESG rating of the Sub-Fund: the average ESG rating of the assets rated in the Sub-Fund according to the Investment Manager’s internal methodology was {{esg_score_2024}} on a 7-level scale (C-, C, C+, B, A-, A and A+, where A+ reflects the best ESG performance). This value was calculated as the average ESG rating of the underlying assets of portfolio with ESG rating considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/li&gt;
-&lt;li&gt;Percentage of assets in the Sub-Fund aligned with the environmental and social characteristics promoted was &lt;b&gt;{{es_aligned}}%. &lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>… And compared to previous periods?</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt; The performance of the above-mentioned indicators has not changed in comparison with the previous reference period. Specifically:&lt;/p&gt;
-&lt;ul&gt; 
-&lt;li&gt;Exclusions indicator: it has remained 0% as reported in the previous reference period. &lt;/li&gt;
-&lt;li&gt;Controversy indicator: it has remained 0% as reported in the previous reference period.&lt;/li&gt;
-&lt;li&gt;Average ESG rating of the Sub-Fund: In {{YEAR_PREV}} it was {{esg_score_2023}} and in {{YEAR}} it has been {{esg_score_2024}}.&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
     <t>What were the objectives of the sustainable investments that the financial product partially made and how did the sustainable investment contribute to such objective?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  The sustainable investment objectives of this Sub-Fund were attained by
-  investing in issuers that contributed to at least one of objectives defined in
-  the pre-contractual disclosure of this Sub-Fund. In practice, the issuers that
-  have been accounted as part of the sustainable investment percentage reported,
-  have met at least one of the following criteria:
-&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;
-    Issuers whose activities are aligned with the decarbonization path of the
-    Paris Agreement or are currently net zero. Issuers that qualified under this
-    criterion contributed to attain environmentally sustainable objectives such
-    as climate change mitigation by helping to stabilize greenhouse gas
-    concentrations in the atmosphere under the Paris Agreement and/ or
-    adaptation to climate change by investing in adaptation solutions that
-    substantially reduce or prevent the risk of adverse climate effects.
-  &lt;/li&gt;
-  &lt;li&gt;
-    Issuers whose practices have at least 20% of their revenues aligned with the
-    mitigation and/or adaptation objectives in accordance with the EU Taxonomy.
-    As of the date of this report, the contribution to sustainable objectives of
-    the issuers that qualify under this criterion were considered to contribute
-    to the environmental objectives of climate change mitigation and/or
-    adaptation as described above.
-  &lt;/li&gt;
-  &lt;li&gt;
-    Issuers that generate at least 20% in terms of turnover from products and/or
-    services that generate a measurable environmental impact (i.e., a company
-    that develops sustainable agriculture practices, pollution prevention
-    technologies, or alternative energy, among others). Issuers that qualified
-    under this criterion have been considered as contributors to environmentally
-    sustainable objectives such as pollution prevention and control, protection
-    and recovery of biodiversity and ecosystems and sustainable use and
-    protection of water and marine resources.
-  &lt;/li&gt;
-  &lt;li&gt;
-    Issuers that generate at least 20% in terms of turnover from products and/or
-    services that generate a measurable social impact (i.e., a company that
-    develops education solutions, connectivity enhancement and improvements or
-    disease treatment solutions, among others). Issuers that fell under this
-    criterion contributed to social sustainable objective such as adequate
-    living standards and consumer welfare by contributing to the creation of
-    products and services that meet human needs.
-  &lt;/li&gt;
-  &lt;li&gt;
-    Issuers whose corporate practices demonstrated an intention to contribute to
-    the Sub-Fund’s environmental and/or social sustainable objectives through
-    its leading sustainability performance based on the ESG score of the
-    Investment Manager.
-  &lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;
-  Investments made by the Sub-Fund in green bonds, social bonds, and sustainable
-  bonds were also considered as contributors to the environmental or social
-  sustainability objectives of the Sub-Fund by financing green, social or
-  sustainable projects in accordance with reference standards such as those
-  developed by the International Capital Market Association (“ICMA”). When the
-  Sub-Fund invested in other UCITS/UCI, the Investment Manager used the
-  sustainable investment data and methods disclosed by the asset manager of the
-  invested funds.
-&lt;/p&gt;</t>
   </si>
   <si>
     <t>How did the sustainable investments that the financial product partially made not cause significant harm to any environmental or social sustainable investment objective?</t>
@@ -2245,14 +1852,6 @@
     <t>How were the indicators for adverse impacts on sustainability factors taken into account?</t>
   </si>
   <si>
-    <t>&lt;p&gt;The Investment Manager has taken into account all the mandatory principal adverse impact indicators (PAIS) in the analysis of the principle of not causing significant harm (DNSH).&lt;/p&gt;
-&lt;p&gt;For doing so, the Investment Manager has defined relevant thresholds based on quantitative and qualitative technical criteria. The thresholds have been:&lt;/p&gt;
-&lt;ul&gt;
-    &lt;li&gt;Absolute thresholds: Issuers with significant exposure to fossil fuels, activities affecting biodiversity-sensitive areas, violating UN Global Compact principles and Organisation for Economic Cooperation and Development (OECD) Guidelines for Multinational Enterprises, lacking processes and compliance mechanisms to monitor compliance with those international standards, and/or exposed to controversial weapons were considered not compliant with the DNSH principle.&lt;/li&gt;
-    &lt;li&gt;Industry-level thresholds: Issuers that are within the worst performing threshold of their industry in terms of greenhouse gas emissions, water, waste and/or social and employee matters were considered not compliant with the DNSH principle.&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>Were sustainable investments aligned with the OECD Guidelines for Multinational Enterprises and the UN Guiding Principles on Business and Human Rights? Details:</t>
   </si>
   <si>
@@ -2269,21 +1868,10 @@
     <t>How did this financial product consider principal adverse impacts on sustainability factors?</t>
   </si>
   <si>
-    <t>&lt;p&gt;The Sub-Fund has taken into account the principal adverse impacts on sustainability factors when making investment decisions. To this end, the Investment Manager has monitored the indicators in Table 1 and two of the optional indicators in Tables 2 and 3 of the RTS, to assess the adverse impacts that investments made by this Sub-Fund may cause.&lt;/p&gt;
-&lt;p&gt;During the reference period, the Investment Manager has identified these impacts at two levels:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Based on each issuer’s relative industry performance to identify those companies with the worst performance in each PAIS indicator. In this sense, issuers with worse performance compared to their sector for all mandatory PAIS indicators have been evaluated by the SRI team according to the relevance of the impact and recurrence over time, and may have derived, for example, in engagement actions.&lt;/li&gt;
-&lt;li&gt; Based on the comparison of the Sub-Funds’ PAIS indicators performance with those of a reference index (benchmark). When the performance of the Sub-Fund has been worse than the benchmark, the Investment Manager has analysed the severity of the impact, recurrence over time, likelihood of success through engagement actions, portfolio exposure, and PAIS indicator typology to implement engagement actions. During the reference period, these engagement actions have been prioritised for indicators related to Greenhouse Gas Emissions as well as for issuers in risk of breaching the UN Global Compact principles. Additionally, the Investment Manager has also mitigated those impacts by adjusting the positions that contribute most to the PAIS indicator with worse performance against its benchmark, limiting the position increase or ultimately divesting.&lt;/li&gt;&lt;/ul&gt;
-&lt;p&gt;The data required for the consideration of the PAI indicators have been provided by external data providers. A regular analysis of data coverage and quality has been carried out, in collaboration with data issuers and providers, to address the limitations on the availability and quality of data in the indicators.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>What were the top investments of this financial product?</t>
   </si>
   <si>
     <t xml:space="preserve"> The list includes the investments constituting  &lt;b&gt;the greatest proportion of investments &lt;/b&gt;of the financial product during the reference period which is: {{ref_period}}</t>
-  </si>
-  <si>
-    <t>The top investments below are presented as an average of the quarters stated in the reference period.</t>
   </si>
   <si>
     <t>&lt;table&gt;
@@ -2399,28 +1987,10 @@
     <t>What was the proportion of sustainability-related investments?</t>
   </si>
   <si>
-    <t>The proportion of investments related to sustainability is at least 51% as described below.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Asset allocation &lt;/b&gt;describes the share of investments in specific assets.</t>
   </si>
   <si>
     <t>What was the asset allocation?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;The Sub-Fund has complied with the allocation of assets provided in the pre-contractual information. Specifically:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;The Sub-Fund has met the minimum of 51% of the Sub-Fund’s that promote environmental and social characteristics by meeting the above-described ESG investment strategy. Throughout the reference period, this percentage has been {{es_aligned}}% calculated as the average percentage of assets that promoted the characteristics of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section
-&lt;/li&gt;
-&lt;li&gt;The Sub-Fund has met the minimum commitment of 10% in sustainable investments. Throughout the reference period, the average percentage of sustainable investments of this Sub-Fund has been {{sust_invest}}%, broken down into:
-&lt;ul&gt;
-&lt;li&gt;{{sust_invest_soc}}% corresponding to socially sustainable investments.&lt;/li&gt;
-&lt;li&gt;{{sust_invest_env}} % corresponding to environmental investments other than Taxonomy.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;The above percentages have been calculated as the average percentage of sustainable investments of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section. Please note that, for the sake of clarity, the percentages related to Sustainable Investments (#1A) and other E/S characteristics (#1B) are calculated based on the total investments and not only on those aligned with E/S characteristics.
-&lt;/p&gt;</t>
   </si>
   <si>
     <t>Investments</t>
@@ -2500,9 +2070,6 @@
 &lt;p&gt;- &lt;b&gt;Operational expenditure &lt;/b&gt; (OpEx) reflecting the green operational activities of investee companies.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>The Sub-Fund does not have a minimum percentage of alignment of its investments with the EU Taxonomy. The following charts show the alignment of the portfolio with the EU Taxonomy as the average percentage of the Sub-Fund considering the underlying investments from the last business day of each quarter of the reference period as defined in the Top Investments section.</t>
-  </si>
-  <si>
     <t>Did the financial product invest in fossil gas and/or nuclear energy related activities that comply with the EU Taxonomy &lt;sup&gt;1&lt;/sup&gt;?</t>
   </si>
   <si>
@@ -2524,15 +2091,9 @@
     <t>What was the share of investments made in transitional and enabling activities?</t>
   </si>
   <si>
-    <t>The proportion of investments made in transition activities has been {{total_turnover_enabling}}% in turnover, in {{total_capex_enabling}}% CapEx and in {{total_opex_enabling}}% OpEx and in activities facilitating {{total_turnover}}% in turnover, {{total_capex_transition}}% in CapEx and {{total_opex_transition}}% in OpEx over the reference period.</t>
-  </si>
-  <si>
     <t>How did the percentage of investments that were aligned with the EU Taxonomy compare with previous reference periods?</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Sub-Fund does not have a minimum percentage of alignment of its investments with the EU Taxonomy. However, the percentage of investments aligned with the EU Taxonomy compared to the previous reference periods has been  {{taxonomy_2022}} {{taxonomy_2023}} and {{total_turnover_aligned}} in 2024.</t>
-  </si>
-  <si>
     <t>What was the share of sustainable investments with an environmental objective not aligned with the EU taxonomy?</t>
   </si>
   <si>
@@ -2545,135 +2106,10 @@
     <t>What was the share of socially sustainable investments?</t>
   </si>
   <si>
-    <t xml:space="preserve">The financial product had a share of investments with a social objective of  {{sust_invest_soc}}%. </t>
-  </si>
-  <si>
     <t>What investments were included under “other”, what was their purpose and were there any minimum environmental or social safeguards?</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;The financial product had a  {{other_nones}}% share of investments which are neither aligned with the environmental or social characteristics, nor are qualified as sustainable investments. This percentage was calculated as the average percentage of the Sub-Fund considering the underlying investments from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/p&gt;
-&lt;p style="margin-top: -10px;"&gt;                   
-These investments did not alter the achievement of the environmental or social characteristics promoted by the Sub-Fund, and their purpose was investment, contributing to efficient portfolio management, providing liquidity and hedging.&lt;/p&gt;
-&lt;p style="margin-top: -10px;"&gt; The Investment Manager has established minimum environmental or social safeguards so as not to cause significant damage, such as consideration of the principal adverse impacts, or the exclusion of activities that are not aligned with the environmental and/or social characteristics of the Fund. The assets that could be considered were the following:&lt;/p&gt;
-&lt;ul&gt;
-                    &lt;li&gt;Direct cash investment assets that did not have an ESG rating/rating due to the lack of supplier data used by the Investment Manager and which cannot be considered sustainable investments in accordance with the criterion defined in the previous section (i.e., green, social bonds, etc.).&lt;/li&gt;
-                    &lt;li&gt;Investment funds that did not have an ESG rating/rating due to lack of data and that cannot be classified as an investment Sub-Fund art. 8 or 9 according to SFDR.&lt;/li&gt;
-                    &lt;li&gt;Other cash assets other than those mentioned above. (i.e., ETC, etc.) that are permitted by the Sub-Fund's policy and do not harm its ESG profile.&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
     <t>What actions have been taken to meet the environmental and/or social characteristics during the reference period?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;
-  During the reference period, the following actions have been taken
-  to meet the environmental and social characteristics of the
-  Sub-Fund:
-&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;
-    The Investment Manager has periodically reviewed that the Sub-Fund
-    complies with the following exclusions
-    &lt;ul&gt;
-      &lt;li&gt;
-        Issuers that had any business activities (measured in terms of
-        turnover) related to controversial weapons, and/or a
-        significant revenue derived from non-conventional fossil fuels
-        and/or coal-mining power generation activities have been
-        excluded.
-      &lt;/li&gt;
-      &lt;li&gt;
-        Issuers involved in controversies considered critical, have
-        been excluded from the Sub-Fund’s investment universe.
-      &lt;/li&gt;
-    &lt;/ul&gt;
-  &lt;/li&gt;
-  &lt;li&gt;
-    Public fixed income issuers were assessed to exclude those that
-    were low performers in relation to political rights and social
-    freedom. For doing so, the Investment Manager based its analysis
-    on either of the following two indicators:
-    &lt;ul&gt;
-      &lt;li&gt;
-        Democracy Index: Indicator that determines the range of
-        democracy in 167 countries based on measurements such as the
-        electoral process and pluralism, civil liberties, governance,
-        political participation and political culture. On a scale of 1
-        to 10 points, countries below 6 points and corresponding to
-        hybrid and authoritative regimes were excluded.
-      &lt;/li&gt;
-      &lt;li&gt;
-        Freedom in the World study: Indicator measuring the degree of
-        democracy and political freedom in all countries and in the
-        most important disputed territories worldwide on a scale of 3
-        levels (“non-free”, “partially free” and “free”), having
-        excluded countries classified as “non-free”.
-      &lt;/li&gt;
-    &lt;/ul&gt;
-  &lt;/li&gt;
-  &lt;li&gt;
-    The Investment Manager has periodically monitored that the average
-    minimum ESG rating/rating criterion of issuers of the direct cash
-    investment portfolio assets and the rated IIC has been met, in
-    accordance with the Investment Manager’s own methodology in
-    analysing those underlying assets, as at least A- on a 7-level
-    scale (C-, C, C+, B, A-, A and A+, where A+ reflects the best ESG
-    performance)..
-  &lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;
-  Investments that complied with the criteria explained above were
-  considered to be promoting environmental and social characteristics.
-  In addition to this, the Investment Manager also considered that the
-  following cases also complied with the environmental and social
-  characteristics of the Sub-Fund, and they were accounted as such:
-&lt;/p&gt;
-&lt;ul&gt;
-  &lt;li&gt;
-    Issuers that did not have an ESG rating or that did not meet the
-    ESG indicators set out in the investment strategy, but that had
-    investments that may be considered sustainable investments, and in
-    particular issuances that were classified as green, social or
-    sustainable bonds, after prior validation by the Investment
-    Manager, in accordance with its own analysis methodology.
-  &lt;/li&gt;
-  &lt;li&gt;
-    In the case of IIC, those that, although were not assigned an ESG
-    rating by the Manager are IICs that promote ESG characteristics.
-    IIC considered Art. 8 Regulation (EU) 2019/2088 and/or targeting
-    sustainable investments (Art. 9 in accordance with Regulation (EU)
-    2019/2088).
-  &lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;
-  The above ESG criteria along with the compliance of the minimum
-  commitments of the Sub-Fund were integrated into the investment
-  process and monitored on a regular basis by the Investment Manager’s
-  Compliance team, and in the event of any non-compliance, the
-  necessary corrective actions were taken (for instance, report to the
-  management team, communication with the SRI team, referral to the
-  relevant committee, among others).
-&lt;/p&gt;
-&lt;p&gt;
-  In addition, the ESG performance of issuers has been subject to
-  systematic and continuous monitoring by the Investment Manager’s SRI
-  team including continuous monitoring of potential discrepancies
-  identified by portfolio managers between the knowledge of the issuer
-  and the data considered within the model provided by suppliers.
-&lt;/p&gt;
-&lt;p&gt;
-  At last, the Investment Manager has carried out engagement
-  activities for private issuers and voting activities in cases where
-  the type of asset allows it (shares). These activities were aligned
-  with the social and environmental characteristics of the Sub-fund
-  and with the Investment Manager’s applicable Engagement and Voting
-  Policies available at
-  https://www.santanderassetmanagement.lu/document-library/policies.
-  Further examples of the engagement and voting activities can be
-  found in the Management Company’s Stewardship Report available at:
-  https://www.santanderassetmanagement.com/sustainability.
-&lt;/p&gt;</t>
   </si>
   <si>
     <t>How did this financial product perform compared to the reference benchmark?</t>
@@ -3518,12 +2954,1137 @@
   <si>
     <t>Não aplicável, porque não existe um período de referência anterior</t>
   </si>
+  <si>
+    <t>art8_fi_noprev_pol</t>
+  </si>
+  <si>
+    <t>Okresowe informacje o produktach finansowych zgodnie z artykułem 8, ustępy 1, 2 i 2 bis rozporządzenia (UE) 2019/2088 oraz artykułem 6, ustęp 1 rozporządzenia (UE) 2020/853</t>
+  </si>
+  <si>
+    <t>Nie dotyczy. Nie został wyznaczony żaden indeks jako wskaźnik referencyjny dla celów osiągnięcia aspektów środowiskowych lub społecznych promowanych przez ten produkt finansowy</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wartości wskaźników zrównoważonego rozwoju Subfunduszu Bazowego w okresie referencyjnym opisano poniżej:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Wyłączenia: Subfundusz Bazowy nie obejmował żadnych inwestycji w sektorach niedozwolonych przez jego politykę inwestycyjną. Oznacza to, że Subfundusz Bazowy miał 0% ekspozycji na spółki generujące ponad 25% swoich przychodów z wydobycia węgla lub wytwarzania energii z węgla oraz spółki, których działalność koncentruje się głównie na kontrowersyjnych rodzajach broni. Ponadto, w przypadku publicznych instrumentów o stałym dochodzie, Subfundusz Bazowy miał 0% ekspozycji na kraje o niskich wynikach oceny w zakresie praw politycznych i swobód społecznych w oparciu o wskaźnik demokracji (ang. Democracy Index) oraz raport Freedom in the World.&lt;/li&gt;
+&lt;li&gt;Wskaźnik kontrowersji: Subfundusz Bazowy miał 0% ekspozycji na spółki, które były zaangażowane w kontrowersje uznane za krytyczne. Oznacza to ekspozycję na zdarzenia, które znacząco wpływają na środowisko i/lub społeczeństwo lub stwarzają poważne ryzyko biznesowe dla firmy, odzwierciedlając dużą powtarzalność incydentów, wyjątkowo słabe zarządzanie ryzykiem ESG oraz wyraźną niechęć firmy do zajęcia się problematycznymi kwestiami.&lt;/li&gt;
+&lt;li&gt;Średnia ocena ESG Subfunduszu Bazowego: średnia ocena ESG emitentów aktywów ocenianych zgodnie z wewnętrzną metodyką Spółki Zarządzającej wynosiła {{esg_score_2024}} w 7-stopniowej skali (C-, C, C+, B, A-, A i A+, gdzie A+ odzwierciedla najlepsze wyniki ESG). Wartość ta została obliczona jako średnia ocena ESG aktywów bazowych portfela z oceną ESG, biorąc pod uwagę dane z ostatniego dnia roboczego każdego kwartału okresu referencyjnego, zgodnie z informacjami podanymi w sekcji Największe Inwestycje. Rating ESG każdego instrumentu bazowego został obliczony w oparciu o charakterystykę ESG opisaną w odpowiedzi na poprzednie pytanie i z uwzględnieniem istotności sektorowej określonej przez Zarządzającego Inwestycjami.&lt;/li&gt;
+&lt;li&gt;Odsetek aktywów w Subfunduszu Bazowym zgodnych z promowanymi aspektami środowiskowymi i społecznymi wynosił {{es_aligned}}%.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Wyniki wyżej wymienionych wskaźników nie zmieniły się w porównaniu z poprzednim okresem odniesienia:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Wyłączenia: utrzymały się na poziomie 0%, podobnie jak w poprzednim okresie odniesienia. &lt;/li&gt;
+&lt;li&gt;Wskaźnik kontrowersji: utrzymał się na poziomie 0%, podobnie jak w poprzednim okresie odniesienia. &lt;/li&gt;
+&lt;li&gt;Średnia ocena ESG Subfunduszu Bazowego: wskaźnik ten wyniósł {{esg_score_2023}} w 2023 r. i {{esg_score_2024}} w raportowanym okresie referencyjnym. &lt;/li&gt;
+&lt;li&gt;Procent aktywów Subfunduszu zgodny z promowanymi cechami środowiskowymi i społecznymi pozostał na poziomie co najmniej 51% w porównaniu do poprzednich okresów.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Cele zrównoważonego inwestowania Subfunduszu Bazowego zostały osiągnięte poprzez inwestowanie w aktywa emitentów, którzy przyczynili się do realizacji co najmniej jednego z celów określonych w informacjach przekazanych przed zawarciem umowy z Subfunduszem Bazowym. W praktyce emitenci, którzy zostali uwzględnieni w raportowanym odsetku zrównoważonych inwestycji, spełniali co najmniej jedno z poniższych kryteriów:
+&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;
+Emitenci, których działalność jest zgodna ze ścieżką dekarbonizacji określoną w porozumieniu paryskim, lub która osiągnęła już poziom zerowych emisji netto. Emitenci, którzy zakwalifikowali się do tego kryterium, przyczynili się do osiągnięcia celów zrównoważonych środowiskowo, takich jak łagodzenie zmian klimatycznych poprzez pomoc w ustabilizowaniu stężenia gazów cieplarnianych w atmosferze zgodnie z porozumieniem paryskim i/lub adaptacja do zmian klimatycznych poprzez inwestowanie w rozwiązania adaptacyjne, które zmniejszają w znacznym stopniu lub zapobiegają wystąpieniu ryzyka niekorzystnych skutków klimatycznych.
+&lt;/li&gt;
+&lt;li&gt;
+Emitenci, których przychody z działalności są w co najmniej 20% zgodne z celami łagodzenia i/lub adaptacji do zmian klimatycznych zgodnie z Taksonomia UE. Na dzień sporządzenia niniejszego raportu uznano, że wkład w realizację zrównoważonych celów emitentów, którzy kwalifikują się do tego kryterium, przyczynia się do realizacji celów środowiskowych w zakresie łagodzenia i/lub adaptacji do zmian klimatu, jak opisano powyżej.&lt;/li&gt;
+&lt;li&gt;
+Emitenci, którzy generują co najmniej 20% obrotów z produktów i/lub usług, które mają wymierny wpływ na środowisko (tj. m.in. spółki opracowujące zrównoważone praktyki rolnicze, technologie zapobiegania zanieczyszczeniom lub alternatywne źródła energii). Emitenci, którzy zakwalifikowali się do tego kryterium, zostali uznani za przyczyniających się do realizacji celów zrównoważonych środowiskowo, takich jak zapobieganie zanieczyszczeniom i kontrola zanieczyszczeń, ochrona i odbudowa różnorodności biologicznej i ekosystemów oraz zrównoważona eksploatacja i ochrona zasobów wodnych i morskich.&lt;/li&gt;
+&lt;li&gt;
+Emitenci, którzy generują co najmniej 20% obrotów z produktów i/lub usług, które mają wymierny wpływ społeczny (tj. m.in. firmy opracowujące rozwiązania edukacyjne, zwiększające i poprawiające łączność lub oferujące rozwiązania w zakresie leczenia chorób). Emitenci, którzy spełnili to kryterium, przyczynili się do osiągnięcia zrównoważonego celu społecznego, takiego jak odpowiedni standard życia i dobrostan konsumentów, poprzez wkład w tworzenie produktów i usług, które zaspokajają potrzeby ludzi.
+&lt;/li&gt; 
+&lt;li&gt;
+Emitenci, których praktyki korporacyjne świadczą o dążeniu do przyczynienia się do realizacji zrównoważonych celów środowiskowych i/lub społecznych poprzez osiąganie doskonałych wyników w ocenie ESG przeprowadzanej przez Spółkę Zarządzającą.
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Inwestycje dokonywane przez Subfundusz Bazowy w obligacje zielone, obligacje społeczne i obligacje zrównoważone zostały również uznane za wnoszące wkład w realizację celów zrównoważonego rozwoju środowiskowego lub społecznego Subfunduszu poprzez finansowanie zielonych, społecznych lub zrównoważonych projektów zgodnie ze standardami referencyjnymi, takimi jak zasady opracowane przez Międzynarodowe Stowarzyszenie Rynków Kapitałowych ("ICMA")..&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aby zagwarantować, że pozytywny wkład w realizację celu społecznego i/lub środowiskowego nie zaszkodził znacząco innym celom, Spółka Zarządzająca określiła szereg zabezpieczeń w oparciu o swoją wewnętrzną metodykę, w celu wykazania, że istnieje zamiar niewyrządzania takiej szkody. Zabezpieczenia te obejmują:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Uwzględnianie głównych wskaźników niekorzystnych skutków zawartych w załączniku I do rozporządzenia delegowanego (UE) 2022/1288 uzupełniającego rozporządzenie (UE) 2019/2088 w sprawie ujawniania informacji (SFDR) („RTS” skrót z języka angielskiego). Informacje te znajdują się na stronie internetowej: https://www.santanderassetmanagement.lu.&lt;/li&gt;
+&lt;li&gt;Działalność w kontrowersyjnych sektorach: Poprzez wyłączenie działalności uznawanej za kontrowersyjną w celu zapewnienia minimalnej ekspozycji wśród zrównoważonych inwestycji. Analizowane i wyłączane są istotne ekspozycje na wrażliwe sektory, takie jak m.in. paliwa kopalne, kontrowersyjne typy broni, a także inwestycje narażone na poważne kontrowersje.&lt;/li&gt;
+&lt;li&gt;Neutralne wyniki zrównoważone: Minimalna ocena ESG (B) była wymagana zgodnie z wewnętrzną metodyką Spółki Zarządzającej w 7-stopniowej skali (C-, C, C+, B, A-, A i A+, gdzie A+ odzwierciedla najlepsze wyniki ESG), w celu zapewnienia, że praktyki zrównoważonego rozwoju każdego emitenta spełniają minimalne wymogi ESG.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Jeśli dana inwestycja nie spełnia któregokolwiek z tych zabezpieczeń, Spółka Zarządzająca uznaje, że nie jest możliwe zapewnienie, iż nie wystąpią znaczące szkody i nie zostanie ona uznana za zrównoważoną inwestycję.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Spółka Zarządzająca uwzględniła wszystkie obowiązkowe główne niekorzystne skutki dla czynników zrównoważonego rozwoju (PAI) w analizie zgodności z zasadą niepowodowania znaczących szkód (DNSH). W tym celu, Spółka Zarządzająca zdefiniowała odpowiednie progi w oparciu o ilościowe i jakościowe kryteria techniczne. Progi te to:&lt;/p&gt;
+&lt;ul&gt;
+    &lt;li&gt;Progi bezwzględne: Za niezgodnych z zasadą DNSH uznano emitentów, którzy mają ekspozycję na paliwa kopalne, prowadzą działalność wpływającą na obszary wrażliwe pod względem bioróżnorodności, naruszają zasady UN Global Compact i Wytyczne Organizacji Współpracy Gospodarczej i Rozwoju (OECD) dla przedsiębiorstw wielonarodowych, nie posiadają procesów i mechanizmów służących monitorowaniu zgodności z tymi międzynarodowymi standardami i/lub są zaangażowani w działalność związaną z kontrowersyjnymi rodzajami broni.&lt;/li&gt;
+    &lt;li&gt;Progi sektorowe: Przyjmuje się, że emitenci, którzy mieszczą się w zakresie najgorszych wyników w swojej branży pod względem emisji gazów cieplarnianych, wody, odpadów i/lub kwestii społecznych i pracowniczych, nie spełniają wymogów zasady DNSH.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Przestrzeganie dobrych praktyk biznesowych i poszanowanie praw człowieka jest integralnym składnikiem wartości Spółki Zarządzającej i minimalnym standardem działania pozwalającym na prowadzenie działalności w sposób zgodny z prawem.&lt;/p&gt;
+&lt;p&gt;W tym zakresie działalność Spółki Zarządzającej opiera się na zasadach wynikających m.in. z Wytycznych OECD dla Przedsiębiorstw Wielonarodowych oraz na dziesięciu zasadach UN Global Compact. Zobowiązanie to znajduje odzwierciedlenie zarówno w politykach korporacyjnych Grupy Santander, jak i w politykach Spółki Zarządzającej, a także jest częścią procedury integracji ryzyka zrównoważonego rozwoju w Spółce Zarządzającej.&lt;/p&gt;
+&lt;p&gt;Spółka Zarządzająca regularnie monitorowała, czy inwestycje nie naruszały którejkolwiek z międzynarodowych wytycznych, a w przypadku niezgodności, były one poddawane ocenie i podejmowano decyzje w zależności od wagi niezgodności, które to decyzje mogły prowadzić, między innymi, do działań angażujących.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subfundusz Bazowy przy podejmowaniu decyzji inwestycyjnych brał pod uwagę główne niekorzystne skutki dla czynników zrównoważonego rozwoju (PAI). W tym celu monitorowano wskaźniki obowiązkowe z Tabeli 1 oraz dwa opcjonalne wskaźniki z Tabel 2 i 3 z Załącznika nr 1 do Regulacyjnych Standardów Technicznych (RTS) do rozporządzenia SFDR celem dokonania oceny zewnętrznych niekorzystnych skutków, jakie mogłyby wywołać inwestycje tego Subfunduszu.&lt;/p&gt;
+&lt;p&gt;W okresie referencyjnym Spółka Zarządzająca identyfikowała te wpływy na dwóch poziomach:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Na podstawie wyników każdego emitenta względem branży, identyfikując w ten sposób spółki o najsłabszych wynikach w zakresie każdego wskaźnika PAI. Następnie, emitenci z gorszymi wynikami w porównaniu z ich sektorem w odniesieniu do wszystkich obowiązkowych wskaźników PAI byli oceniani przez Zespół SRI pod kątem istotności wpływu i powtarzalności w czasie, a w razie potrzeby podejmowane były, przykładowo, działania angażujące.&lt;/li&gt;
+&lt;li&gt;Na podstawie porównania wyników wskaźników PAI subfunduszy z wynikami indeksu referencyjnego (benchmarku). Gdy wyniki Subfunduszu Bazowego były gorsze niż benchmark, Spółka Zarządzająca analizowała istotność wpływu, powtarzalność w czasie, prawdopodobieństwo uzyskania pozytywnych wyników poprzez działania angażujące, ekspozycję portfela i typologię wskaźników PAI w celu wdrożenia działań angażujących. W okresie referencyjnym priorytetem tych działań były wskaźniki związane z emisją gazów cieplarnianych, a także emitenci, w przypadku których istnieje ryzyko naruszenia zasad UN Global Compact. Ponadto Spółka Zarządzająca łagodziła również te skutki, dostosowując pozycje, które w największym stopniu przyczyniają się do słabszych wartości wskaźnika PAI w porównaniu z jego benchmarkiem, ograniczając wzrost pozycji lub ostatecznie dokonując dezinwestycji.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Dane wymagane do analizy wskaźników PAI zostały dostarczone przez zewnętrznych dostawców danych. Przeprowadzano regularną analizę zakresu i jakości danych, we współpracy z emitentami i dostawcami danych, w celu wyeliminowania ograniczeń w dostępności i jakości danych we wskaźnikach.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Główne inwestycje w tabeli poniżej zostały wyliczone jako średnia z wartości na koniec każdego kwartału okresu referencyjnego. </t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Subfundusz przestrzegał alokacji aktywów podanej w informacjach udzielonych przed zawarciem umowy: &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt; Subfundusz spełnił kryterium minimalnego poziomu 51% aktywów, które promują aspekty środowiskowe i społeczne poprzez realizację wyżej opisanej strategii inwestycyjnej ESG. W całym okresie referencyjnym udział ten wynosił {{es_aligned}}% obliczony jako średni odsetek aktywów, które promowały charakterystykę Subfunduszu, biorąc pod uwagę dane z ostatniego dnia roboczego każdego kwartału okresu referencyjnego, zgodnie z definicją podaną w sekcji Największe inwestycje.&lt;/li&gt;
+&lt;li&gt;Subfundusz spełnił kryterium minimalnego zaangażowania w zrównoważone inwestycje na poziomie 10%. W całym okresie referencyjnym średni odsetek zrównoważonych inwestycji tego Subfunduszu wynosił {{sust_invest}}%, w tym:
+&lt;ul&gt;
+&lt;li&gt;{{sust_invest_soc}}% odpowiadających zrównoważonym społecznie inwestycjom.&lt;/li&gt;
+&lt;li&gt;{{sust_invest_env}}% odpowiadających inwestycjom środowiskowym innym niż zawarte w Taksonomii UE.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Powyższe wartości procentowe zostały obliczone jako średni odsetek zrównoważonych inwestycji Subfunduszu, biorąc pod uwagę dane z ostatniego dnia roboczego każdego kwartału okresu referencyjnego, jak wskazano w sekcji Największe inwestycje. &lt;/p&gt;
+&lt;p&gt;Należy pamiętać, że dla zachowania przejrzystości wartości procentowe związane ze zrównoważonymi inwestycjami (#1A) i innymi aspektami E/S (#1B) są obliczane na podstawie całkowitych inwestycji, a nie tylko tych zgodnych z aspektami E/S. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subfundusz nie ustalił minimalnego procentowego stopnia dostosowania swoich inwestycji do Taksonomii UE. &lt;/p&gt;
+&lt;p&gt;Poniższe wykresy przedstawiają dostosowanie portfela do Taksonomii UE jako średni procent aktywów Subfunduszu Bazowego biorąc pod uwagę inwestycje z ostatniego dnia roboczego każdego kwartału okresu referencyjnego, jak wskazano w sekcji Największe inwestycje.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Udział inwestycji o celu środowiskowym Subfunduszu niezgodnych z Taksonomią UE wyniósł {{sust_invest_env}}%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Udział inwestycji o celu społecznym Subfunduszu wyniósł {{sust_invest_soc}}%.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Produkt finansowy miał {{other_nones}}% udziału w inwestycjach, które nie są zgodne z aspektami środowiskowymi ani społecznymi oraz nie kwalifikują się jako inwestycje zrównoważone. Udział ten został obliczony jako średni odsetek aktywów Subfunduszu biorąc pod uwagę inwestycje bazowe według stanu na ostatni dzień roboczy każdego kwartału okresu referencyjnego, jak wskazano w sekcji Największe inwestycje.&lt;/p&gt;
+&lt;p&gt;Inwestycje te nie wpłynęły na osiągnięcie aspektów środowiskowych ani społecznych promowanych przez Subfundusz, a ich celem były inwestycje, przyczyniające się do efektywnego zarządzania portfelem, zapewniające płynność i zabezpieczenie. &lt;/p&gt;
+&lt;p&gt;Spółka Zarządzająca ustanawia minimalne zabezpieczenia środowiskowe lub społeczne, aby nie spowodować znacznych szkód, takie jak uwzględnienie głównych niekorzystnych zdarzeń lub wykluczenie działań niezgodnych z aspektem środowiskowym i/lub społecznym Subfunduszu Bazowego. Aktywa brane pod uwagę, to:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Bezpośrednie inwestycje w aktywa pieniężne, które nie posiadały ratingu/oceny ESG ze względu na brak danych od dostawców wykorzystywanych przez Spółkę Zarządzającą i które nie mogą zostać uznane za inwestycje zrównoważone (tj. obligacje zielone, społeczne, itp.).&lt;/li&gt;
+&lt;li&gt;Fundusze inwestycyjne, które nie posiadały ratingu/oceny ESG ze względu na brak danych i które nie mogą być zakwalifikowane jako fundusz inwestycyjny zgodnie z art. 8 lub 9 SFDR.&lt;/li&gt;
+&lt;li&gt;Inne aktywa pieniężne niż wymienione powyżej (np. ETC, itp.), które są dozwolone w ramach polityki Subfunduszu i nie wpływają negatywnie na jego profil ESG.&lt;/li&gt;
+&lt;li&gt;Płynność u depozytariusza i inne rachunki bieżące wykorzystywane w standardowej działalności Funduszu (tj. gwarancje instrumentów pochodnych, itp.).&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subfundusz promował aspekty środowiskowe i społeczne oceniając swoje inwestycje pod kątem kryteriów środowiskowych, społecznych i ładu korporacyjnego (ESG) przy użyciu własnej metodyki ESG oraz inwestując w aktywa emitentów, którzy stosują właściwe praktyki ESG i nie naruszają kryteriów wyłączeń wyszczególnionych w strategii inwestycyjnej Subfunduszu. W tym celu wykorzystano elementy analizy finansowej, środowiskowej, społecznej i dobrych praktyk zarządzania, aby uzyskać pełniejszy I bardziej kompleksowy obraz aktywów będących przedmiotem inwestycji, biorąc pod uwagę m.in. następujące aspekty ESG (Środowisko, Społeczeństwo i Ład korporacyjny):&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Analizowane czynniki środowiskowe obejmowały ocenę ilościowych i jakościowych wyników emitenta w zakresie zagadnień środowiskowych, takich jak emisja gazów cieplarnianych, wyczerpywanie się zasobów, zanieczyszczenie czy gospodarka wodna.&lt;/li&gt;
+&lt;li&gt;Czynniki społeczne obejmowały kwestie związane ze społeczeństwem, począwszy od zagadnień związanych z miejscem pracy, standardami pracy czy zarządzaniem talentami, po relacje ze społecznościami lokalnymi, ochronę prywatności i bezpieczeństwo danych i prawa człowieka.&lt;/li&gt;
+&lt;li&gt;Analizowane czynniki związane z ładem korporacyjnym obejmowały jakość zarządzania emitenta, jego kulturę organizacyjną i standardy etyczne, efektywność systemów zarządzania pod kątem zminimalizowania ryzyka niewłaściwego zarządzania oraz zdolność do przewidywania ryzyk operacyjnych i prawnych, które mogłyby potencjalnie prowadzić do niezgodności z wymaganiami. Analiza obejmowała również czynniki związane ze składem i strukturą organów spółki.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Ocena tych czynników opierała się na istotności sektorowej zdefiniowanej przez Spółkę Zarządzającą w ramach jej metodyki ESG. Oprócz tego kontrowersyjne przypadki zostały również ocenione pod kątem wagi ich wpływu na społeczeństwo, środowisko i interesy interesariuszy, a następnie ocenione i włączone do metodyki ESG Spółki Zarządzającej.&lt;/p&gt;
+&lt;p&gt;Spółka Zarządzająca promowała również aspekty środowiskowe i społeczne poprzez aktywne angażowanie się w relacje z emitentami, indywidualnie lub w ramach wspólnych inicjatyw, w celu promowania najlepszych praktyk ESG, zgodnie z definicją zawartą w polityce zaangażowania.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wartości wskaźników zrównoważonego rozwoju Subfunduszu w okresie referencyjnym opisano poniżej:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Wyłączenia: Subfundusz nie obejmował żadnych inwestycji w sektorach niedozwolonych przez jego politykę inwestycyjną. Oznacza to, że Subfundusz miał 0% ekspozycji na spółki generujące ponad 25% swoich przychodów z wydobycia węgla lub wytwarzania energii z węgla oraz spółki, których działalność koncentruje się głównie na kontrowersyjnych rodzajach broni. Ponadto, w przypadku publicznych instrumentów o stałym dochodzie, Subfundusz miał 0% ekspozycji na kraje o niskich wynikach oceny w zakresie praw politycznych i swobód społecznych w oparciu o wskaźnik demokracji (ang. Democracy Index) oraz raport Freedom in the World.&lt;/li&gt;
+&lt;li&gt;Wskaźnik kontrowersji: Subfundusz miał 0% ekspozycji na spółki, które były zaangażowane w kontrowersje uznane za krytyczne. Oznacza to ekspozycję na zdarzenia, które znacząco wpływają na środowisko i/lub społeczeństwo lub stwarzają poważne ryzyko biznesowe dla firmy, odzwierciedlając dużą powtarzalność incydentów, wyjątkowo słabe zarządzanie ryzykiem ESG oraz wyraźną niechęć firmy do zajęcia się problematycznymi kwestiami.&lt;/li&gt;
+&lt;li&gt;Średnia ocena ESG Subfunduszu: średnia ocena ESG emitentów aktywów ocenianych zgodnie z wewnętrzną metodyką Spółki Zarządzającej wynosiła {{esg_score_2024}} w 7-stopniowej skali (C-, C, C+, B, A-, A i A+, gdzie A+ odzwierciedla najlepsze wyniki ESG). Wartość ta została obliczona jako średnia ocena ESG aktywów bazowych portfela z oceną ESG, biorąc pod uwagę dane z ostatniego dnia roboczego każdego kwartału okresu referencyjnego, zgodnie z informacjami podanymi w sekcji Największe Inwestycje. Rating ESG każdego instrumentu bazowego został obliczony w oparciu o charakterystykę ESG opisaną w odpowiedzi na poprzednie pytanie i z uwzględnieniem istotności sektorowej określonej przez Zarządzającego Inwestycjami.&lt;/li&gt;
+&lt;li&gt;Odsetek aktywów w Subfunduszu zgodnych z promowanymi aspektami środowiskowymi i społecznymi wynosił {{es_aligned}}%.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nie dotyczy.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Cele zrównoważonego inwestowania Subfunduszu zostały osiągnięte poprzez inwestowanie w aktywa emitentów, którzy przyczynili się do realizacji co najmniej jednego z celów określonych w informacjach przekazanych przed zawarciem umowy z Subfunduszem. W praktyce emitenci, którzy zostali uwzględnieni w raportowanym odsetku zrównoważonych inwestycji, spełniali co najmniej jedno z poniższych kryteriów:
+&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;
+Emitenci, których działalność jest zgodna ze ścieżką dekarbonizacji określoną w porozumieniu paryskim, lub która osiągnęła już poziom zerowych emisji netto. Emitenci, którzy zakwalifikowali się do tego kryterium, przyczynili się do osiągnięcia celów zrównoważonych środowiskowo, takich jak łagodzenie zmian klimatycznych poprzez pomoc w ustabilizowaniu stężenia gazów cieplarnianych w atmosferze zgodnie z porozumieniem paryskim i/lub adaptacja do zmian klimatycznych poprzez inwestowanie w rozwiązania adaptacyjne, które zmniejszają w znacznym stopniu lub zapobiegają wystąpieniu ryzyka niekorzystnych skutków klimatycznych.
+&lt;/li&gt;
+&lt;li&gt;
+Emitenci, których przychody z działalności są w co najmniej 20% zgodne z celami łagodzenia i/lub adaptacji do zmian klimatycznych zgodnie z Taksonomia UE. Na dzień sporządzenia niniejszego raportu uznano, że wkład w realizację zrównoważonych celów emitentów, którzy kwalifikują się do tego kryterium, przyczynia się do realizacji celów środowiskowych w zakresie łagodzenia i/lub adaptacji do zmian klimatu, jak opisano powyżej.&lt;/li&gt;
+&lt;li&gt;
+Emitenci, którzy generują co najmniej 20% obrotów z produktów i/lub usług, które mają wymierny wpływ na środowisko (tj. m.in. spółki opracowujące zrównoważone praktyki rolnicze, technologie zapobiegania zanieczyszczeniom lub alternatywne źródła energii). Emitenci, którzy zakwalifikowali się do tego kryterium, zostali uznani za przyczyniających się do realizacji celów zrównoważonych środowiskowo, takich jak zapobieganie zanieczyszczeniom i kontrola zanieczyszczeń, ochrona i odbudowa różnorodności biologicznej i ekosystemów oraz zrównoważona eksploatacja i ochrona zasobów wodnych i morskich.&lt;/li&gt;
+&lt;li&gt;
+Emitenci, którzy generują co najmniej 20% obrotów z produktów i/lub usług, które mają wymierny wpływ społeczny (tj. m.in. firmy opracowujące rozwiązania edukacyjne, zwiększające i poprawiające łączność lub oferujące rozwiązania w zakresie leczenia chorób). Emitenci, którzy spełnili to kryterium, przyczynili się do osiągnięcia zrównoważonego celu społecznego, takiego jak odpowiedni standard życia i dobrostan konsumentów, poprzez wkład w tworzenie produktów i usług, które zaspokajają potrzeby ludzi.
+&lt;/li&gt; 
+&lt;li&gt;
+Emitenci, których praktyki korporacyjne świadczą o dążeniu do przyczynienia się do realizacji zrównoważonych celów środowiskowych i/lub społecznych poprzez osiąganie doskonałych wyników w ocenie ESG przeprowadzanej przez Spółkę Zarządzającą.
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Inwestycje dokonywane przez Subfundusz Bazowy w obligacje zielone, obligacje społeczne i obligacje zrównoważone zostały również uznane za wnoszące wkład w realizację celów zrównoważonego rozwoju środowiskowego lub społecznego Subfunduszu poprzez finansowanie zielonych, społecznych lub zrównoważonych projektów zgodnie ze standardami referencyjnymi, takimi jak zasady opracowane przez Międzynarodowe Stowarzyszenie Rynków Kapitałowych ("ICMA")..&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subfundusz przy podejmowaniu decyzji inwestycyjnych brał pod uwagę główne niekorzystne skutki dla czynników zrównoważonego rozwoju (PAI). W tym celu monitorowano wskaźniki obowiązkowe z Tabeli 1 oraz dwa opcjonalne wskaźniki z Tabel 2 i 3 z Załącznika nr 1 do Regulacyjnych Standardów Technicznych (RTS) do rozporządzenia SFDR celem dokonania oceny zewnętrznych niekorzystnych skutków, jakie mogłyby wywołać inwestycje tego Subfunduszu.&lt;/p&gt;
+&lt;p&gt;W okresie referencyjnym Spółka Zarządzająca identyfikowała te wpływy na dwóch poziomach:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Na podstawie wyników każdego emitenta względem branży, identyfikując w ten sposób spółki o najsłabszych wynikach w zakresie każdego wskaźnika PAI. Następnie, emitenci z gorszymi wynikami w porównaniu z ich sektorem w odniesieniu do wszystkich obowiązkowych wskaźników PAI byli oceniani przez Zespół SRI pod kątem istotności wpływu i powtarzalności w czasie, a w razie potrzeby podejmowane były, przykładowo, działania angażujące.&lt;/li&gt;
+&lt;li&gt;Na podstawie porównania wyników wskaźników PAI subfunduszy z wynikami indeksu referencyjnego (benchmarku). Gdy wyniki Subfunduszu Bazowego były gorsze niż benchmark, Spółka Zarządzająca analizowała istotność wpływu, powtarzalność w czasie, prawdopodobieństwo uzyskania pozytywnych wyników poprzez działania angażujące, ekspozycję portfela i typologię wskaźników PAI w celu wdrożenia działań angażujących. W okresie referencyjnym priorytetem tych działań były wskaźniki związane z emisją gazów cieplarnianych, a także emitenci, w przypadku których istnieje ryzyko naruszenia zasad UN Global Compact. Ponadto Spółka Zarządzająca łagodziła również te skutki, dostosowując pozycje, które w największym stopniu przyczyniają się do słabszych wartości wskaźnika PAI w porównaniu z jego benchmarkiem, ograniczając wzrost pozycji lub ostatecznie dokonując dezinwestycji.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Dane wymagane do analizy wskaźników PAI zostały dostarczone przez zewnętrznych dostawców danych. Przeprowadzano regularną analizę zakresu i jakości danych, we współpracy z emitentami i dostawcami danych, w celu wyeliminowania ograniczeń w dostępności i jakości danych we wskaźnikach.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subfundusz nie ustalił minimalnego procentowego stopnia dostosowania swoich inwestycji do Taksonomii UE. &lt;/p&gt;
+&lt;p&gt;Poniższe wykresy przedstawiają dostosowanie portfela do Taksonomii UE jako średni procent aktywów Subfunduszu biorąc pod uwagę inwestycje z ostatniego dnia roboczego każdego kwartału okresu referencyjnego, jak wskazano w sekcji Największe inwestycje.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Nie dotyczy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Produkt finansowy miał {{other_nones}}% udziału w inwestycjach, które nie są zgodne z aspektami środowiskowymi ani społecznymi oraz nie kwalifikują się jako inwestycje zrównoważone. Udział ten został obliczony jako średni odsetek aktywów Subfunduszu biorąc pod uwagę inwestycje bazowe według stanu na ostatni dzień roboczy każdego kwartału okresu referencyjnego, jak wskazano w sekcji Największe inwestycje.&lt;/p&gt;
+&lt;p&gt;Inwestycje te nie wpłynęły na osiągnięcie aspektów środowiskowych ani społecznych promowanych przez Subfundusz, a ich celem były inwestycje, przyczyniające się do efektywnego zarządzania portfelem, zapewniające płynność i zabezpieczenie. &lt;/p&gt;
+&lt;p&gt;Spółka Zarządzająca ustanawia minimalne zabezpieczenia środowiskowe lub społeczne, aby nie spowodować znacznych szkód, takie jak uwzględnienie głównych niekorzystnych zdarzeń lub wykluczenie działań niezgodnych z aspektem środowiskowym i/lub społecznym Subfunduszu. Aktywa brane pod uwagę, to:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Bezpośrednie inwestycje w aktywa pieniężne, które nie posiadały ratingu/oceny ESG ze względu na brak danych od dostawców wykorzystywanych przez Spółkę Zarządzającą i które nie mogą zostać uznane za inwestycje zrównoważone (tj. obligacje zielone, społeczne, itp.).&lt;/li&gt;
+&lt;li&gt;Fundusze inwestycyjne, które nie posiadały ratingu/oceny ESG ze względu na brak danych i które nie mogą być zakwalifikowane jako fundusz inwestycyjny zgodnie z art. 8 lub 9 SFDR.&lt;/li&gt;
+&lt;li&gt;Inne aktywa pieniężne niż wymienione powyżej (np. ETC, itp.), które są dozwolone w ramach polityki Subfunduszu i nie wpływają negatywnie na jego profil ESG.&lt;/li&gt;
+&lt;li&gt;Płynność u depozytariusza i inne rachunki bieżące wykorzystywane w standardowej działalności Funduszu (tj. gwarancje instrumentów pochodnych, itp.).&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+W okresie odniesienia podjęto następujące działania w celu osiągnięcia zgodności z aspektami środowiskowymi i społecznymi Subfunduszu:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Spółka Zarządzająca okresowo weryfikowała zgodność Subfunduszu Bazowego z następującymi wyłączeniami:
+    &lt;ul&gt;
+      &lt;li&gt;Emitenci, którzy prowadzili jakąkolwiek działalność gospodarczą (mierzoną obrotami) związaną z kontrowersyjnymi rodzajami broni i/lub osiągali znaczące przychody z niekonwencjonalnych paliw kopalnych i/lub działalności związanej z wytwarzaniem energii z węgla, zostali wykluczeni.
+      &lt;/li&gt;
+      &lt;li&gt; Emitenci zaangażowani w kontrowersje uznane za krytyczne zostali wykluczeni z uniwersum inwestycyjnego Subfunduszu.
+      &lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+  &lt;li&gt;Publiczni emitenci instrumentów o stałym dochodzie zostali poddani ocenie w celu wyłączenia tych, którzy osiągają słabe wyniki w ocenie praw politycznych i swobód społecznych. W tym celu Spółka Zarządzająca przeprowadziła analizę w oparciu o jeden z następujących dwóch wskaźników: &lt;ul&gt;
+      &lt;li&gt;Wskaźnik demokracji (ang. Democracy Index): określa stopień demokracji w 167 krajach na podstawie takich wskaźników jak proces wyborczy i pluralizm, wolności obywatelskie, sposób rządzenia, partycypacja polityczna i kultura polityczna. W skali od 1 do 10 punktów, wyłączane są kraje poniżej 6 punktów i odpowiadające reżimom hybrydowym i autorytarnym.   &lt;/li&gt;
+      &lt;li&gt;Raport "Freedom in the World": mierzy stopień demokracji i wolności politycznej we wszystkich krajach i na najważniejszych terytoriach spornych na świecie w skali 3 poziomów ("bez wolności", "częściowo wolny" i "wolny"), wyłącza się kraje sklasyfikowane jako "bez wolności".
+      &lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+  &lt;li&gt; Spółka Zarządzająca okresowo monitorowała, czy spełnione zostało kryterium średniej minimalnej oceny ESG /emitentów bezpośrednich aktywów portfela inwestycji gotówkowych i ocenianych instytucji zbiorowego inwestowania , zgodnie z wewnętrzną metodyką analizy Spółki Zarządzającej, zakładające poziom co najmniej A- w 7-stopniowej skali (C-, C, C+, B, A-, A i A+, gdzie A+ odzwierciedla najlepsze wyniki ESG).
+  &lt;/li&gt;
+  &lt;p&gt;Inwestycje, które spełniały kryteria wskazane powyżej, były uznawane za promujące aspekty środowiskowe i społeczne. Oprócz tego, Spółka Zarządzająca uznała również za zgodne z aspektami środowiskowymi i społecznymi Subfunduszu Bazowego i uwzględniła jako takie następujące inwestycje:
+  &lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Emitenci, którzy nie posiadali ratingu ESG lub nie spełniali wskaźników ESG określonych w strategii inwestycyjnej, ale posiadali inwestycje, które można uznać za zrównoważone, w szczególności emisje, które zostały sklasyfikowane jako zielone, społeczne lub zrównoważone obligacje, po uprzedniej walidacji przeprowadzonej przez Spółkę Zarządzającą w oparciu o własną metodykę analizy. 
+    &lt;/li&gt;
+    &lt;li&gt;W przypadku instytucji zbiorowego inwestowania, te które nie uzyskały ratingu ESG od Spółki Zarządzającej, a które są instytucjami zbiorowego inwestowania promującymi aspekty ESG (instytucje uwzględnione w Art. 8 rozporządzenia (UE) 2019/2088 i/lub ukierunkowane na zrównoważone inwestycje (Art. 9 zgodnie z rozporządzeniem (UE) 2019/2088).
+    &lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Powyższe kryteria ESG wraz ze zgodnością z minimalnymi zobowiązaniami Subfunduszu Bazowego zostały włączone do procesu inwestycyjnego i były regularnie monitorowane przez zespół ds. zapewnienia zgodności (Compliance) Spółki Zarządzającej, a w przypadku jakiejkolwiek niezgodności podejmowano niezbędne działania naprawcze (na przykład raport do zespołu zarządzającego, komunikacja z zespołem SRI, skierowanie do odpowiedniego komitetu).  &lt;/p&gt;
+  &lt;p&gt;Ponadto wyniki emitentów w zakresie ESG podlegały systematycznemu i ciągłemu monitorowaniu przez zespół SRI Spółki Zarządzającej, w tym nieustannemu monitorowaniu potencjalnych rozbieżności zidentyfikowanych przez Zarządzających inwestycjami pomiędzy wiedzą o emitencie a danymi zawartymi w modelu dostarczonym przez dostawców.
+  &lt;/p&gt;
+  &lt;p&gt;Spółka Zarządzająca podejmowała również działania angażujące wobec prywatnych emitentów oraz działania związane z prawem głosu w przypadkach, gdy pozwalał na to rodzaj aktywów (akcje). Działania te były zgodne z aspektami społecznymi i środowiskowymi Subfunduszu Bazowego oraz z obowiązującą Polityką Zaangażowania i Wykonywania Prawa Głosu Spółki Zarządzającej, która jest dostępna pod adresem https://www.santanderassetmanagement.lu/document-library/policies. Inne przykłady działań związanych z zaangażowaniem i wykonywaniem prawa głosu można znaleźć w Raporcie Spółki Zarządzającej dostępnym pod adresem: &lt;/p&gt;
+  &lt;p&gt; https://www.santanderassetmanagement.com/sustainability.
+  &lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+W okresie odniesienia podjęto następujące działania w celu osiągnięcia zgodności z aspektami środowiskowymi i społecznymi Subfunduszu:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Spółka Zarządzająca okresowo weryfikowała zgodność Subfunduszu Bazowego z następującymi wyłączeniami:
+    &lt;ul&gt;
+      &lt;li&gt;Emitenci, którzy prowadzili jakąkolwiek działalność gospodarczą (mierzoną obrotami) związaną z kontrowersyjnymi rodzajami broni i/lub osiągali znaczące przychody z niekonwencjonalnych paliw kopalnych i/lub działalności związanej z wytwarzaniem energii z węgla, zostali wykluczeni.
+      &lt;/li&gt;
+      &lt;li&gt; Emitenci zaangażowani w kontrowersje uznane za krytyczne zostali wykluczeni z uniwersum inwestycyjnego Subfunduszu.
+      &lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+  &lt;li&gt;Publiczni emitenci instrumentów o stałym dochodzie zostali poddani ocenie w celu wyłączenia tych, którzy osiągają słabe wyniki w ocenie praw politycznych i swobód społecznych. W tym celu Spółka Zarządzająca przeprowadziła analizę w oparciu o jeden z następujących dwóch wskaźników: &lt;ul&gt;
+      &lt;li&gt;Wskaźnik demokracji (ang. Democracy Index): określa stopień demokracji w 167 krajach na podstawie takich wskaźników jak proces wyborczy i pluralizm, wolności obywatelskie, sposób rządzenia, partycypacja polityczna i kultura polityczna. W skali od 1 do 10 punktów, wyłączane są kraje poniżej 6 punktów i odpowiadające reżimom hybrydowym i autorytarnym.   &lt;/li&gt;
+      &lt;li&gt;Raport "Freedom in the World": mierzy stopień demokracji i wolności politycznej we wszystkich krajach i na najważniejszych terytoriach spornych na świecie w skali 3 poziomów ("bez wolności", "częściowo wolny" i "wolny"), wyłącza się kraje sklasyfikowane jako "bez wolności".
+      &lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+  &lt;li&gt; Spółka Zarządzająca okresowo monitorowała, czy spełnione zostało kryterium średniej minimalnej oceny ESG /emitentów bezpośrednich aktywów portfela inwestycji gotówkowych i ocenianych instytucji zbiorowego inwestowania , zgodnie z wewnętrzną metodyką analizy Spółki Zarządzającej, zakładające poziom co najmniej A- w 7-stopniowej skali (C-, C, C+, B, A-, A i A+, gdzie A+ odzwierciedla najlepsze wyniki ESG).
+  &lt;/li&gt;
+  &lt;p&gt;Inwestycje, które spełniały kryteria wskazane powyżej, były uznawane za promujące aspekty środowiskowe i społeczne. Oprócz tego, Spółka Zarządzająca uznała również za zgodne z aspektami środowiskowymi i społecznymi Subfunduszu Bazowego i uwzględniła jako takie następujące inwestycje:
+  &lt;/p&gt;
+  &lt;ul&gt;
+    &lt;li&gt;Emitenci, którzy nie posiadali ratingu ESG lub nie spełniali wskaźników ESG określonych w strategii inwestycyjnej, ale posiadali inwestycje, które można uznać za zrównoważone, w szczególności emisje, które zostały sklasyfikowane jako zielone, społeczne lub zrównoważone obligacje, po uprzedniej walidacji przeprowadzonej przez Spółkę Zarządzającą w oparciu o własną metodykę analizy. 
+    &lt;/li&gt;
+    &lt;li&gt;W przypadku instytucji zbiorowego inwestowania, te które nie uzyskały ratingu ESG od Spółki Zarządzającej, a które są instytucjami zbiorowego inwestowania promującymi aspekty ESG (instytucje uwzględnione w Art. 8 rozporządzenia (UE) 2019/2088 i/lub ukierunkowane na zrównoważone inwestycje (Art. 9 zgodnie z rozporządzeniem (UE) 2019/2088).
+    &lt;/li&gt;
+  &lt;/ul&gt;
+  &lt;p&gt;Powyższe kryteria ESG wraz ze zgodnością z minimalnymi zobowiązaniami Subfunduszu Bazowego zostały włączone do procesu inwestycyjnego i były regularnie monitorowane przez zespół ds. zapewnienia zgodności (Compliance) Spółki Zarządzającej, a w przypadku jakiejkolwiek niezgodności podejmowano niezbędne działania naprawcze (na przykład raport do zespołu zarządzającego, komunikacja z zespołem SRI, skierowanie do odpowiedniego komitetu).  &lt;/p&gt;
+  &lt;p&gt;Ponadto wyniki emitentów w zakresie ESG podlegały systematycznemu i ciągłemu monitorowaniu przez zespół SRI Spółki Zarządzającej, w tym nieustannemu monitorowaniu potencjalnych rozbieżności zidentyfikowanych przez Zarządzających inwestycjami pomiędzy wiedzą o emitencie a danymi zawartymi w modelu dostarczonym przez dostawców.
+  &lt;/p&gt;
+  &lt;p&gt;Spółka Zarządzająca podejmowała również działania angażujące wobec prywatnych emitentów oraz działania związane z prawem głosu w przypadkach, gdy pozwalał na to rodzaj aktywów (akcje). Działania te były zgodne z aspektami społecznymi i środowiskowymi Subfunduszu oraz z obowiązującą Polityką Zaangażowania i Wykonywania Prawa Głosu Spółki Zarządzającej, która jest dostępna pod adresem: &lt;/p&gt;
+  &lt;p&gt; https://www.santanderassetmanagement.lu/document-library/policies
+  &lt;/p&gt;
+  &lt;p&gt;Inne przykłady działań związanych z zaangażowaniem i wykonywaniem prawa głosu można znaleźć w Raporcie Spółki Zarządzającej dostępnym pod adresem: &lt;/p&gt;
+  &lt;p&gt; https://www.santanderassetmanagement.com/sustainability
+  &lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>art8_feeder_pol_euroequity</t>
+  </si>
+  <si>
+    <t>art8_pol</t>
+  </si>
+  <si>
+    <t>art8_feeder_pol_futurewealth</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Produkt {{product_name}} może lokować do 100% swoich Aktywów w tytuły uczestnictwa subfunduszu bazowego Santander AM Euro Equity wydzielonego w ramach Santander SICAV (dalej: „Subfundusz Bazowy”), w związku z czym niektóre dalsze informacje dotyczą Subfunduszu Bazowego, co każdorazowo zaznaczono.&lt;/p&gt;
+&lt;p&gt;Ilekroć poniżej jest mowa o:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Subfunduszu Bazowym – rozumie się przez to Santander AM Euro Equity wydzielony w ramach Santander SICAV.&lt;/li&gt;
+&lt;li&gt;Spółce Zarządzającej – rozumie się przez to Santander Asset Management Luxemburg.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Subfundusz Bazowy promował aspekty środowiskowe i społeczne oceniając swoje inwestycje pod kątem kryteriów środowiskowych, społecznych i ładu korporacyjnego (ESG) przy użyciu własnej metodyki ESG oraz inwestując w aktywa emitentów, którzy stosują właściwe praktyki ESG i nie naruszają kryteriów wyłączeń wyszczególnionych w strategii inwestycyjnej Subfunduszu Bazowego. W tym celu wykorzystano elementy analizy finansowej, środowiskowej, społecznej i dobrych praktyk zarządzania, aby uzyskać pełniejszy I bardziej kompleksowy obraz aktywów będących przedmiotem inwestycji, biorąc pod uwagę m.in. następujące aspekty ESG (Środowisko, Społeczeństwo i Ład korporacyjny):&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Analizowane czynniki środowiskowe obejmowały ocenę ilościowych i jakościowych wyników emitenta w zakresie zagadnień środowiskowych, takich jak emisja gazów cieplarnianych, wyczerpywanie się zasobów, zanieczyszczenie czy gospodarka wodna.&lt;/li&gt;
+&lt;li&gt;Czynniki społeczne obejmowały kwestie związane ze społeczeństwem, począwszy od zagadnień związanych z miejscem pracy, standardami pracy czy zarządzaniem talentami, po relacje ze społecznościami lokalnymi, ochronę prywatności i bezpieczeństwo danych i prawa człowieka.&lt;/li&gt;
+&lt;li&gt;Analizowane czynniki związane z ładem korporacyjnym obejmowały jakość zarządzania emitenta, jego kulturę organizacyjną i standardy etyczne, efektywność systemów zarządzania pod kątem zminimalizowania ryzyka niewłaściwego zarządzania oraz zdolność do przewidywania ryzyk operacyjnych i prawnych, które mogłyby potencjalnie prowadzić do niezgodności z wymaganiami. Analiza obejmowała również czynniki związane ze składem i strukturą organów spółki.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Ocena tych czynników opierała się na istotności sektorowej zdefiniowanej przez Spółkę Zarządzającą w ramach jej metodyki ESG. Oprócz tego kontrowersyjne przypadki zostały również ocenione pod kątem wagi ich wpływu na społeczeństwo, środowisko i interesy interesariuszy, a następnie ocenione i włączone do metodyki ESG Spółki Zarządzającej.&lt;/p&gt;
+&lt;p&gt;Spółka Zarządzająca promowała również aspekty środowiskowe i społeczne poprzez aktywne angażowanie się w relacje z emitentami, indywidualnie lub w ramach wspólnych inicjatyw, w celu promowania najlepszych praktyk ESG, zgodnie z definicją zawartą w polityce zaangażowania.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Produkt {{product_name}} może lokować do 100% swoich Aktywów w tytuły uczestnictwa subfunduszu bazowego Santander Future Wealth wydzielonego w ramach Santander SICAV (dalej: „Subfundusz Bazowy”), w związku z czym niektóre dalsze informacje dotyczą Subfunduszu Bazowego, co każdorazowo zaznaczono.&lt;/p&gt;
+&lt;p&gt;Ilekroć poniżej jest mowa o:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Subfunduszu Bazowym – rozumie się przez to Santander Future Wealth wydzielony w ramach Santander SICAV.&lt;/li&gt;
+&lt;li&gt;Spółce Zarządzającej – rozumie się przez to Santander Asset Management Luxemburg.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Subfundusz Bazowy promował aspekty środowiskowe i społeczne oceniając swoje inwestycje pod kątem kryteriów środowiskowych, społecznych i ładu korporacyjnego (ESG) przy użyciu własnej metodyki ESG oraz inwestując w aktywa emitentów, którzy stosują właściwe praktyki ESG i nie naruszają kryteriów wyłączeń wyszczególnionych w strategii inwestycyjnej Subfunduszu Bazowego. W tym celu wykorzystano elementy analizy finansowej, środowiskowej, społecznej i dobrych praktyk zarządzania, aby uzyskać pełniejszy I bardziej kompleksowy obraz aktywów będących przedmiotem inwestycji, biorąc pod uwagę m.in. następujące aspekty ESG (Środowisko, Społeczeństwo i Ład korporacyjny):&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Analizowane czynniki środowiskowe obejmowały ocenę ilościowych i jakościowych wyników emitenta w zakresie zagadnień środowiskowych, takich jak emisja gazów cieplarnianych, wyczerpywanie się zasobów, zanieczyszczenie czy gospodarka wodna.&lt;/li&gt;
+&lt;li&gt;Czynniki społeczne obejmowały kwestie związane ze społeczeństwem, począwszy od zagadnień związanych z miejscem pracy, standardami pracy czy zarządzaniem talentami, po relacje ze społecznościami lokalnymi, ochronę prywatności i bezpieczeństwo danych i prawa człowieka.&lt;/li&gt;
+&lt;li&gt;Analizowane czynniki związane z ładem korporacyjnym obejmowały jakość zarządzania emitenta, jego kulturę organizacyjną i standardy etyczne, efektywność systemów zarządzania pod kątem zminimalizowania ryzyka niewłaściwego zarządzania oraz zdolność do przewidywania ryzyk operacyjnych i prawnych, które mogłyby potencjalnie prowadzić do niezgodności z wymaganiami. Analiza obejmowała również czynniki związane ze składem i strukturą organów spółki.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Ocena tych czynników opierała się na istotności sektorowej zdefiniowanej przez Spółkę Zarządzającą w ramach jej metodyki ESG. Oprócz tego kontrowersyjne przypadki zostały również ocenione pod kątem wagi ich wpływu na społeczeństwo, środowisko i interesy interesariuszy, a następnie ocenione i włączone do metodyki ESG Spółki Zarządzającej.&lt;/p&gt;
+&lt;p&gt;Spółka Zarządzająca promowała również aspekty środowiskowe i społeczne poprzez aktywne angażowanie się w relacje z emitentami, indywidualnie lub w ramach wspólnych inicjatyw, w celu promowania najlepszych praktyk ESG, zgodnie z definicją zawartą w polityce zaangażowania.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>art8_fi_10_eng</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The performance of the Sub-Fund’s sustainability indicators throughout the reference period is described below:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt; Exclusions indicator: the Sub-Fund did not contain any investments in sectors not permitted by the Sub-Fund's investment policy. That is to say, the Sub-Fund had 0% exposure to companies with more than 25% revenues derived from coal mining, coal power generation and companies whose business is mainly focused on controversial weapons. In addition to this, for the case of public fixed income, the Sub-Fund had 0% exposure to countries with poor performance in terms of political rights and social freedoms based on the Democracy Index indicator and Freedom in the World study.&lt;/li&gt;
+&lt;li&gt;Controversy indicator: the Sub-Fund had 0% exposure to companies that were involved in controversies considered critical. That is to say, exposure to events significantly that impact the environment and/or society or presents serious business risks to the company, reflecting a high recurrence of incidents, extremely poor management of ESG risks, and a clear unwillingness by the company to address these issues.&lt;/li&gt;
+&lt;li&gt;Average ESG rating of the Sub-Fund: the average ESG rating of the assets rated in the Sub-Fund according to the Investment Manager’s internal methodology was {{esg_score_2024}} on a 7-level scale (C-, C, C+, B, A-, A and A+, where A+ reflects the best ESG performance). This value was calculated as the average ESG rating of the underlying assets of portfolio with ESG rating considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section. Each underlying’s ESG Rating has been calculated based on the ESG characteristics described in the previous question and considering the sectorial materiality defined by the Investment Manager.&lt;/li&gt;
+&lt;li&gt;Percentage of assets in the Sub-Fund aligned with the environmental and social characteristics promoted was {{es_aligned}}%. &lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;The performance of the above-mentioned indicators has not changed in comparison with the previous reference period. Specifically:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Exclusions indicator: it has remained 0% as previously reported. &lt;/li&gt;
+&lt;li&gt;Controversy indicator: it has remained 0% as previously reported.&lt;/li&gt;
+&lt;li&gt;Average ESG rating of the Sub-Fund: this indicator has been {{esg_sore_2022}} {{esg_score_2023}} in 2023, and {{esg_score_2024}} in this reported reference period.&lt;/li&gt;
+&lt;li&gt;Percentage of assets in the Sub-Fund aligned with the environmental and social characteristics promoted has remained at least 51% compared to previous periods.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The sustainable investment objectives of this Sub-Fund were attained by investing in issuers that contributed to at least one of objectives defined in the pre-contractual disclosure of this Sub-Fund. In practice, the issuers that have been accounted as part of the sustainable investment percentage reported, have met at least one of the following criteria:&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Issuers whose activities are aligned with the decarbonization path of the Paris Agreement or are currently net zero. Issuers that qualified under this criterion contributed to attain environmentally sustainable objectives such as climate change mitigation by helping to stabilize greenhouse gas concentrations in the atmosphere under the Paris Agreement and/ or adaptation to climate change by investing in adaptation solutions that substantially reduce or prevent the risk of adverse climate effects.  &lt;/li&gt;
+ &lt;li&gt;Issuers whose practices have at least 20% of their revenues aligned with the mitigation and/or adaptation objectives in accordance with the EU Taxonomy. As of the date of this report, the contribution to sustainable objectives of the issuers that qualify under this criterion were considered to contribute to the environmental objectives of climate change mitigation and/or adaptation as described above. &lt;/li&gt;
+  &lt;li&gt;Issuers that generate at least 20% in terms of turnover from products and/or services that generate a measurable environmental impact (i.e., a company that develops sustainable agriculture practices, pollution prevention technologies, or alternative energy, among others). Issuers that qualified under this criterion have been considered as contributors to environmentally sustainable objectives such as pollution prevention and control, protection and recovery of biodiversity and ecosystems and sustainable use and protection of water and marine resources.  &lt;/li&gt;
+  &lt;li&gt;Issuers that generate at least 20% in terms of turnover from products and/or services that generate a measurable social impact (i.e., a company that develops education solutions, connectivity enhancement and improvements or disease treatment solutions, among others). Issuers that fell under this criterion contributed to social sustainable objective such as adequate living standards and consumer welfare by contributing to the creation of products and services that meet human needs.
+  &lt;/li&gt;
+  &lt;li&gt;Issuers whose corporate practices demonstrated an intention to contribute to the Sub-Fund’s environmental and/or social sustainable objectives through its leading sustainability performance based on the ESG score of the Investment Manager.
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;
+Investments made by the Sub-Fund in green bonds, social bonds, and sustainable bonds were also considered as contributors to the environmental or social sustainability objectives of the Sub-Fund by financing green, social or sustainable projects in accordance with reference standards such as those developed by the International Capital Market Association (“ICMA”).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Investment Manager has taken into account all the mandatory principal adverse impact indicators (PAIS) in the analysis of the principle of not causing significant harm (DNSH).&lt;/p&gt;
+&lt;p&gt;For doing so, the Investment Manager has defined relevant thresholds based on quantitative and qualitative technical criteria. The thresholds have been:&lt;/p&gt;
+&lt;ul&gt;
+    &lt;li&gt;Absolute thresholds: Issuers with any exposure to fossil fuels, activities affecting biodiversity-sensitive areas, violating UN Global Compact principles and Organisation for Economic Cooperation and Development (OECD) Guidelines for Multinational Enterprises, lacking processes and compliance mechanisms to monitor compliance with those international standards, and/or exposed to controversial weapons were considered not compliant with the DNSH principle.&lt;/li&gt;
+    &lt;li&gt;Industry-level thresholds: Issuers that are within the worst performing threshold of their industry in terms of greenhouse gas emissions, water, waste and/or social and employee matters were considered not compliant with the DNSH principle.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Sub-Fund has taken into account the principal adverse impacts on sustainability factors when making investment decisions. To this end, the Investment Manager has monitored the indicators in Table 1 and two of the optional indicators in Tables 2 and 3 of the RTS, to assess the adverse impacts that investments made by this Sub-Fund may cause.&lt;/p&gt;
+&lt;p&gt;During the reference period, the Investment Manager has identified these impacts at two levels:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Based on each issuer’s relative industry performance to identify those companies with the worst performance in each PAIS indicator. In this sense, issuers with worse performance compared to their sector for all mandatory PAIS indicators have been evaluated by the SRI team according to the relevance of the impact and recurrence over time, and may have derived, for example, in engagement actions.&lt;/li&gt;
+&lt;li&gt;Based on the comparison of the Sub-Funds’ PAIS indicators performance with those of a reference index (benchmark). When the performance of the Sub-Fund has been worse than the benchmark, the Investment Manager has analysed the severity of the impact, recurrence over time, likelihood of success through engagement actions, portfolio exposure, and PAIS indicator typology to implement engagement actions. During the reference period, these engagement actions have been prioritised for indicators related to Greenhouse Gas Emissions as well as for issuers in risk of breaching the UN Global Compact principles. Additionally, the Investment Manager has also mitigated those impacts by adjusting the positions that contribute most to the PAIS indicator with worse performance against its benchmark, limiting the position increase or ultimately divesting.&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;The data required for the consideration of the PAI indicators have been provided by external data providers. A regular analysis of data coverage and quality has been carried out, in collaboration with data issuers and providers, to address the limitations on the availability and quality of data in the indicators.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>The top investments in the table below have been presented as an average of the quarters stated in the reference period.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Sub-Fund has complied with the allocation of assets provided in the pre-contractual information. Specifically:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;The Sub-Fund has met the minimum of 51% of the Sub-Fund’s that promote environmental and social characteristics by meeting the above-described ESG investment strategy. Throughout the reference period, this percentage has been {{es_aligned}}% calculated as the average percentage of assets that promoted the characteristics of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section.
+&lt;/li&gt;
+&lt;li&gt;The Sub-Fund has met the minimum commitment of 10% in sustainable investments. Throughout the reference period, the average percentage of sustainable investments of this Sub-Fund has been {{sust_invest}}%, broken down into:
+&lt;ul&gt;
+&lt;li&gt;{{sust_invest_soc}}% corresponding to socially sustainable investments.&lt;/li&gt;
+&lt;li&gt;{{sust_invest_env}} % corresponding to environmental investments other than Taxonomy.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The above percentages have been calculated as the average percentage of sustainable investments of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/p&gt;
+&lt;p&gt; Please note that, for the sake of clarity, the percentages related to Sustainable Investments (#1A) and other E/S characteristics (#1B) are calculated based on the total investments and not only on those aligned with E/S characteristics.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Sub-Fund does not have a minimum percentage of alignment of its investments with the EU Taxonomy.&lt;/p&gt;
+&lt;p&gt; The following charts show the alignment of the portfolio with the EU Taxonomy as the average percentage of the Sub-Fund considering the underlying investments from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The financial product had a share of investments with a social objective of {{sust_invest_soc}}%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;The financial product had a {{other_nones}}% share of investments which are neither aligned with the environmental or social characteristics, nor are qualified as sustainable investments. This percentage was calculated as the average percentage of the Sub-Fund considering the underlying investments from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/p&gt;
+&lt;p style="margin-top: -10px;"&gt;                   
+These investments did not alter the achievement of the environmental or social characteristics promoted by the Sub-Fund, and their purpose was investment, contributing to efficient portfolio management, providing liquidity and hedging.&lt;/p&gt;
+&lt;p style="margin-top: -10px;"&gt; The Investment Manager has established minimum environmental or social safeguards so as not to cause significant damage, such as consideration of the principal adverse impacts, or the exclusion of activities that are not aligned with the environmental and/or social characteristics of the Fund. The assets that could be considered were the following:&lt;/p&gt;
+&lt;ul&gt;
+                    &lt;li&gt;Direct cash investment assets that did not have an ESG rating due to the lack of supplier data used by the Investment Manager and which cannot be considered sustainable investments in accordance with the criterion defined in the previous section (i.e., green, social bonds, etc.).&lt;/li&gt;
+                    &lt;li&gt;Investment funds that did not have an ESG rating/rating due to lack of data and that cannot be classified as an investment Sub-Fund art. 8 or 9 according to SFDR.&lt;/li&gt;
+                    &lt;li&gt;Other cash assets other than those mentioned above. (i.e., ETC, etc.) that are permitted by the Sub-Fund's policy and do not harm its ESG profile.&lt;/li&gt;
+&lt;li&gt;Liquidity at the depositary and other current accounts used for the ordinary operation of the Sub-Fund (i.e., derivative guarantees, etc.).&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>The Sub-Fund does not have a minimum percentage of alignment of its investments with the EU Taxonomy. However, the percentage of investments aligned with the EU Taxonomy compared to the previous reference periods has been {{taxonomy_2022}} {{taxonomy_2023}} and {{total_turnover_aligned}}% in 2024.</t>
+  </si>
+  <si>
+    <t>art9</t>
+  </si>
+  <si>
+    <t>art9_prosperity</t>
+  </si>
+  <si>
+    <t>Periodic disclosure for the financial products referred to in Article 9, paragraphs 1, to 4aof Regulation (EU) 2019/2088 and Article 5, first paragraph, of Regulation (UE) 2020/852</t>
+  </si>
+  <si>
+    <t>To what extent was the sustainable investment objective of this financial product met?</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Sustainability indicators &lt;/b&gt; measure how the sustainable objetvices of this financial product are attained.</t>
+  </si>
+  <si>
+    <t>How did the sustainable investments not cause significant harm to any sustainable investment objective?</t>
+  </si>
+  <si>
+    <t>#1 Sustainable</t>
+  </si>
+  <si>
+    <t>#2 Not Sustainable</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;#1 Sustainable &lt;/b&gt;covers sustainable investments with environmental or social objectives</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;#2 Not Sustainable &lt;/b&gt;includes investents which do not qualify as sustainable investments</t>
+  </si>
+  <si>
+    <t>What investments were included under “not sustainable”, what was their purpose and were there any minimum environmental or social safeguards?</t>
+  </si>
+  <si>
+    <t>What actions have been taken to attaing the sustainable investment objective during the reference period?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Sub-Fund complied with its social sustainable investment objective by only investing in companies whose activities are grouped around three themes: Health &amp; Wellness, Education &amp; Financial Inclusion, and Food &amp; Nutrition. These three major societal challenges in which the Sub-Fund has invested have been mainly focused on the following UN Sustainable Development Goals (SDGs): No Poverty, Good health and Wellbeing, Quality education, Gender equality, Decent work and economic growth, and Reduced inequalities.&lt;/p&gt;
+&lt;p&gt;Specifically, the Sub-Fund has met its objective by investing in companies that improve our society by obtaining at least 30% of their revenues from activities related to the above-mentioned SDGs. These companies also qualify as social sustainable investment as they did not cause any significant harm to any other sustainable objective and followed good governance practices.&lt;/p&gt;
+&lt;p&gt;The remaining investments that did not qualify as social sustainable investments have not altered the achievement of the Sub-Fund’s objective, and their purpose was to provide liquidity to the portfolio and hedging for the efficient management of interest rate, currency, and credit risks. The Sub-Fund complied with its social sustainable investment objective by only investing in companies whose activities are grouped around three themes: Health &amp; Wellness, Education &amp; Financial Inclusion, and Food &amp; Nutrition. These three major societal challenges in which the Sub-Fund has invested have been mainly focused on the following UN Sustainable Development Goals (SDGs): No Poverty, Good health and Wellbeing, Quality education, Gender equality, Decent work and economic growth, and Reduced inequalities.&lt;/p&gt;
+&lt;p&gt;Specifically, the Sub-Fund has met its objective by investing in companies that improve our society by obtaining at least 30% of their revenues from activities related to the above-mentioned SDGs. These companies also qualify as social sustainable investment as they did not cause any significant harm to any other sustainable objective and followed good governance practices.&lt;/p&gt;
+&lt;p&gt;The remaining investments that did not qualify as social sustainable investments have not altered the achievement of the Sub-Fund’s objective, and their purpose was to provide liquidity to the portfolio and hedging for the efficient management of interest rate, currency, and credit risks.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The performance of the Sub-Fund’s sustainability indicators throughout the reference period is described below:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt; Exclusions indicator: the Sub-Fund did not contain any investments in sectors not permitted by the Sub-Fund's investment policy. That is to say, the Sub-Fund had 0% exposure to issuers whose activity is related to controversial weapons, armament, tobacco, coal mining, coal-based power generation and fossil fuels based on turnover data.&lt;/li&gt;
+&lt;li&gt;Controversy indicator: the Sub-Fund had 0% exposure to companies that were involved in controversies considered critical. That is to say, exposure to events significantly that impact the environment and/or society or presents serious business risks to the company, reflecting a high recurrence of incidents, extremely poor management of ESG risks, and a clear unwillingness by the company to address these issues.&lt;/li&gt;
+&lt;li&gt;Percentage of revenues aligned with the Sub-Fund themes indicator: the Sub-Fund has invested in companies that have had at least 30% of its revenues related to the SDGs based on the information provided by the Investment Manager’s ESG data provider based on the analysis of issuers’ operations, products, services, policies, and practices and their net contribution – positive and adverse – to addressing the Sub-Funds social themes or that, according to the Investment Manager’s assessment, have provided a relevant contribution to solve the above described societal challenges, that could be reinforced by the Investment Manager’s engagement with the relevant companies.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;The performance of the above-mentioned indicators has not changed in comparison with the previous reference period. Specifically:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Exclusions indicator: it has remained 0% as previously reported. &lt;/li&gt;
+&lt;li&gt;Controversy indicator: it has remained 0% as previously reported.&lt;/li&gt;
+&lt;li&gt;Percentage of revenues aligned with the Sub-Fund themes indicator: it has remained 30% as reported in the previous reference period.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;To ensure that the positive contribution to the social objective of the Sub-Fund did not cause significantly harm to other sustainable objectives throughout the reference period, the Investment Manager applied the following safeguards based on its internal methodology with the aim of demonstrating that there is an intention not to cause such harm:&lt;/p&gt;                
+&lt;ul&gt;
+&lt;li&gt;Consideration of the principal adverse impact indicators (PAIS) listed in Annex I to Delegated Regulation (EU) 2022/1288 implementing Regulation (EU) 2019/2088 on Disclosure (SFDR) (‘RTS’) as described in the following question.&lt;/li&gt;
+&lt;li&gt;Activity in controversial sectors: any exposures to controversial activities have been analysed and excluded in sectors such as fossil fuels production, controversial weapons, tobacco production, among others, as well as investments exposed to severe controversies.&lt;/li&gt;
+&lt;li&gt;Neutral sustainable performance: A minimum ESG rating (B) according to the Investment Manager’s internal methodology on a 7-level scale (C-, C, C+, B, A-, A and A+, where A+ reflects the best ESG performance) has been required to ensure that each issuer’s sustainability practices meet minimum ESG requirements. This ESG rating combines quantitative and qualitative criteria in a positive and/or negative sense in order to obtain a clear and complete view of each asset in its overall performance in the ESG area, generating an ESG rating within each type of issuer.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;If an investment has failed to comply with any of these safeguards, the Investment Manager has considered that it is not possible to guarantee that there is no significant harm, and it has not been considered a sustainable investment.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Investment Manager has taken into account all the mandatory principal adverse impact indicators (PAIS) in the analysis of the principle of not causing significant harm (DNSH).&lt;/p&gt;
+&lt;p&gt;For doing so, the Investment Manager has defined relevant thresholds based on quantitative and qualitative technical criteria. The thresholds have been:&lt;/p&gt;
+&lt;ul&gt;
+    &lt;li&gt;Absolute thresholds: Issuers with any exposure to fossil fuels production, activities affecting biodiversity-sensitive areas, violating UN Global Compact principles and Organisation for Economic Cooperation and Development (OECD) Guidelines for Multinational Enterprises, lacking processes and compliance mechanisms to monitor compliance with those international standards, and/or exposed to controversial weapons were considered not compliant with the DNSH principle.&lt;/li&gt;
+    &lt;li&gt;Industry-level thresholds: Issuers that are within the worst performing threshold of their industry in terms of greenhouse gas emissions, water, waste and/or social and employee matters were considered not compliant with the DNSH principle.li&gt;
+&lt;/ul&gt;
+&lt;p&gt;If any of the thresholds was not met, the Investment Manager considered that the investment is causing an adverse impact and the DNSH principle is not ensured. Therefore, the issuer was not considered as a sustainable investment.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Sub-Fund has complied with the allocation of assets provided in the pre-contractual information.&lt;/p&gt;
+&lt;p&gt;Specifically, it meets the minimum of 70% sustainable investment, which fully corresponds to socially sustainable investments. The percentage of socially sustainable investment of this Sub-Fund is {{sust_invest_soc}}% of the total of the Sub-Fund. &lt;/p&gt;
+&lt;p&gt;This percentage has been calculated as the average percentage of sustainable investments of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>The Sub-Fund did not make any sustainable investments with an environmental objective.</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Sub-Fund had an average {{other_nones}}% share of investments which did not qualify as sustainable investments throughout the reference period. These investments included in “#2 Not sustainable” have not altered the achievement of the Sub-Fund’s sustainable investment objective, and their purpose is to provide liquidity to the portfolio and hedging for the efficient management of interest rate, currency, and credit risks.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+During the reference period, the following actions have been taken to attain the sustainable investment objective of the Sub-Fund:
+&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;The Investment Manager has defined the socially sustainable investable universe of the Sub-Fund by periodically selecting companies whose business intend to generate positive social outcomes and contribute to the Sub-Fund’s themes: Health &amp; Wellness, Education &amp; Financial Inclusion, and Food &amp; Nutrition. In this sense, the Investment Manager has reviewed that each eligible company have had at least 30% of its revenues related to the SDGs associated with the Sub-Fund themes, or that according to the Investment Manager’s assessment, provide a relevant contribution to solve the Sub-Funds’ themes.&lt;/li&gt;
+  &lt;li&gt;The Investment Manager has periodically reviewed that the Sub-Fund complies with the following exclusions:
+    &lt;ul&gt;
+      &lt;li&gt;Issuers that had any business activities (measured in terms of turnover) related to controversial weapons, armament, tobacco, coal mining, coal-based power generation and fossil fuels have been excluded.   &lt;/li&gt;
+      &lt;li&gt;Issuers involved in controversies considered critical, have been excluded from the Sub-Fund’s investment universe.&lt;/li&gt;
+      &lt;li&gt;Issuers whose activities may have caused significant adverse impacts on sustainability factors according to the Investment Manager’s methodology that have not been mitigated by applying engagement actions have been excluded.&lt;/li&gt;
+      &lt;li&gt;Issuers that have a poor governance performance in accordance with the Investment Manager’s ESG score methodology have been excluded to guarantee adequate governance practices.&lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+ &lt;/ul&gt;
+&lt;p&gt;The above ESG criteria along with the compliance of the minimum commitments of the Sub-Fund were integrated into the investment process and monitored on a regular basis by the Investment Manager’s Compliance team, and in the event of any non-compliance, the necessary corrective actions were taken (for instance, report to the management team, communication with the SRI team, referral to the relevant committee, among others).
+&lt;/p&gt;
+&lt;p&gt;In addition, the ESG performance of issuers has been subject to systematic and continuous monitoring by the Investment Manager’s SRI team including continuous monitoring of potential discrepancies identified by portfolio managers between the knowledge of the issuer and the data considered within the model provided by suppliers.
+&lt;/p&gt;
+&lt;p&gt;The Investment Manager has carried out engagement activities for private issuers and voting activities in cases where the type of asset allows it (shares). These activities were aligned with the sustainable objective of the Sub-fund and with the Investment Manager’s applicable Engagement and Voting Policies available at: &lt;/p&gt;
+&lt;p&gt;  https://www.santanderassetmanagement.lu/document-library/policies &lt;/p&gt;
+&lt;p&gt;Further examples of the engagement and voting activities can be found in the Management Company’s Stewardship Report available at:  &lt;/p&gt;
+&lt;p&gt;https://www.santanderassetmanagement.com/sustainability.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Reference benchmarks &lt;/b&gt; are indexes to measure whether the financial product attains the sustainable investment objective.</t>
+  </si>
+  <si>
+    <t>How did this financial product perform with regard to the sustainability indicators to determine the alignment of the reference benchmark with the sustainable investment objective?</t>
+  </si>
+  <si>
+    <t>art9_prosperity_feeder_pol</t>
+  </si>
+  <si>
+    <t>Sustainable Investment Objective</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Zrównoważona inwestycja &lt;/b&gt; oznacza inwestycję w działalność gospodarczą, która przyczynia się do realizacji celu środowiskowego lub społecznego, o ile taka inwestycja nie wyrządza poważnych szkód względem żadnego celu środowiskowego lub społecznego, a spółki, w które dokonano inwestycji, stosują dobre praktyki w zakresie zarządzania.</t>
+  </si>
+  <si>
+    <t>Aspekty środowiskowe lub społeczne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy niniejszy produkt finansowy służy celowi dotyczącemu zrównoważonych inwestycji? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w działalność gospodarczą, która zgodnie z unijną systematyką dotyczącą zrównoważonego rozwoju kwalifikuje się jako zrównoważona środowiskowo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w działalność gospodarczą, która zgodnie z unijną systematyką dotyczącą zrównoważonego rozwoju nie kwalifikuje się jako zrównoważona środowiskowo </t>
+  </si>
+  <si>
+    <t>W ramach produktu dokonano &lt;b&gt;zrównoważonych inwestycji o celu środowiskowym: ___% &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>W ramach produktu dokonano &lt;b&gt;zrównoważonych inwestycji o celu społecznym: ___%&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkt &lt;b&gt;promował aspekty środowiskowe/ społeczne &lt;/b&gt;i chociaż jego celem nie była zrównoważona inwestycja, miał  &lt;span id="sfdr_last_rep_inv_sust_inv"&gt;&lt;/span&gt;% udziału w zrównoważonych inwestycjach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">służących celowi środowiskowemu i dokonywanych w działalność gospodarczą, która zgodnie z unijną systematyką dotyczącą zrównoważonego rozwoju kwalifikuje się jako zrównoważona środowiskowo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">służących celowi środowiskowemu i dokonywanych w działalność gospodarczą, która zgodnie z unijną systematyką dotyczącą zrównoważonego rozwoju nie kwalifikuje się jako zrównoważona środowiskowo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">służących celowi społecznemu </t>
+  </si>
+  <si>
+    <t>Produkt promował aspekty środowiskowe/ społeczne, ale &lt;b&gt;nie miał udziału w zrównoważonych inwestycjach &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W jakim stopniu uwzględniono aspekty środowiskowe lub społeczne promowane w ramach tego produktu finansowego? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wskaźniki zrównoważonego rozwoju&lt;/b&gt;stosuje się do pomiaru stopnia osiągnięcia zrównoważonych celów, którym służy ten produkt finansowy. </t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Wskaźniki zrównoważonego rozwoju&lt;/b&gt;stosuje się do pomiaru stopnia osiągnięcia uwzględnienia aspektów środowiskoych lub społecznych promowanych w ramach produktu finansowego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Główne niekorzystne skutki&lt;/b&gt; to najpoważniejsze niekorzystne skutki decyzji inwestycyjnych dla czynników zrównoważonego rozwoju, takich jak kwestie środowiskowe, społeczne i pracownicze, kwestie dotyczące poszanowania praw człowieka oraz przeciwdziałania korupcji i przekupstwu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakie osiągnięto wartości wskaźników zrównoważonego rozwoju? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">… a w porównaniu z poprzednimi okresami? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakie były cele dotyczące zrównoważonych inwestycji, które miały być częściowo zrealizowane w ramach produktu finansowego i w jaki sposób zrównoważona inwestycja przyczyniła się do osiągnięcia tych celów? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W jaki sposób zrównoważone inwestycje, które zostały częściowo zrealizowane w ramach produktu finansowego nie wyrządziły poważnych szkód względem jakiegokolwiek środowiskowego lub społecznego celu dotyczącego zrównoważonych inwestycji? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W jaki sposób uwzględniono wskaźniki dotyczące niekorzystnych skutków dla czynników zrównoważonego rozwoju? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czy zrównoważone inwestycje były zgodne z wytycznymi OECD dla przedsiębiorstw wielonarodowych i wytycznymi ONZ dotyczącymi biznesu i praw człowieka? Dodatkowe informacje: </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Unijna systematyka dotycząca zrównoważonego rozwoju określa zasadę “nie czyń poważnych szkód” (‘Do no significant harm’ – DNSH), zgodnie z którą inwestycje zgodne z systematyką nie powinny wyrządzać poważnych szkód względem celów unijnej systematyki dotyczącej zrównoważonego rozwoju, a towarzyszą jej konkretne kryteria unijne. &lt;/p&gt;
+&lt;p&gt;Zasada “nie czyń poważnych szkód» stosowana jest wyłącznie w odniesieniu do tych inwestycji w ramach produktu finansowego, które uwzględniają unijne kryteria dotyczące zrównoważonej środowiskowo działalności gospodarczej. Inwestycje w ramach pozostałej części tego produktu finansowego nie uwzględniają unijnych kryteriów dotyczących zrównoważonej środowiskowo działalności gospodarczej.  &lt;/p&gt;
+&lt;p&gt;&lt;i&gt;Wszelkie inne zrównoważone inwestycje nie mogą również wyrządzać poważnych szkód względem celów środowiskowych lub społecznych.&lt;/i&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Czy w ramach tego produktu finansowego wzięto pod uwagę główne niekorzystne skutki dla czynników zrównoważonego rozwoju?</t>
+  </si>
+  <si>
+    <t>Jakie główne inwestycje obejmuje ten produkt finansowy?</t>
+  </si>
+  <si>
+    <t>Wykaz zawiera inwestycje stanowiące &lt;b&gt;największą część inwestycji&lt;/b&gt;w ramach tego produktu finansowego w okresie odniesienia od  {{ref_period}}</t>
+  </si>
+  <si>
+    <t>Jaki był udział inwestycji związanych ze zrównoważonym rozwojem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Alokacja aktywów &lt;/b&gt;ukazuje udział inwestycji w poszczególne aktywa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jak przedstawiała się alokacja aktywów? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 zgodne z aspektami środowiskowymi/ społecznymi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kategoria &lt;b&gt;»#1 zgodne z aspektami środowiskowymi/społecznymi«&lt;/b&gt; obejmuje inwestycje dokonane w ramach produktu finansowego w celu uwzględnienia aspektów środowiskowych lub społecznych promowanych w ramach tego produktu finansowego. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kategoria &lt;b&gt;»#2 inne«&lt;/b&gt; obejmuje pozostałe inwestycje dokonane w ramach produktu finansowego, które nie są zgodne z aspektami środowiskowymi lub społecznymi ani nie kwalifikują się jako zrównoważone inwestycje. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W których sektorach gospodarki dokonano inwestycji? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W jakim stopniu zrównoważone inwestycje służące realizacji celu środowiskowego były dostosowane do unijnej systematyki dotyczącej zrównoważonego rozwoju? </t>
+  </si>
+  <si>
+    <t>Jakie wyniki uzyskano w ramach tego produktu finansowego w porównaniu ze wskaźnikiem referencyjnym?</t>
+  </si>
+  <si>
+    <t>W jaki sposób wyznaczony wskaźnik referencyjny różni się od ogólnego indeksu rynkowego?</t>
+  </si>
+  <si>
+    <t>Jakie wyniki uzyskano w ramach tego produktu finansowego por wzlędem wskaźników zrównoważonego rozwoju służących do ustalenia stopnia dostowania danego wskaźnika referncyjnego do promowanych aspektów środowiskowych lub społecznych?</t>
+  </si>
+  <si>
+    <t>Jakie wyniki uzyskano w ramach tego produktu finansowego porównaniu ze wskaźnikiem referencyjnym?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Wskaźniki referencyjne&lt;/b&gt; to indeksy stosowane do pomiaru, czy w ramach produktu finansowego uwzględnia się aspekty środowiskowe lub społeczne promowane przez ten produkt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakie działania podjęto w celu uwzględnienia aspektów środowiskowych lub społecznych w okresie odniesienia? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakie inwestycje uwzględniono w kategorii „inne", czemu służyły takie inwestycje i czy w ich ramach zapewniono jakiekolwiek minimalne zabezpieczenia środowiskowe lub społeczne? </t>
+  </si>
+  <si>
+    <t>Jaki był udział zrównoważonych inwestycji służących celowi społecznemu?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jak w porównaniu z poprzednimi okresami odniesienia kształtował się odsetek inwestycji zgodnych z unijną systematyką dotyczącą zrównoważonego rozwoju?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaki był udział zrównoważonych inwestycji służących celowi środowiskowemu, które nie są zgodne z unijną systematyką dotyczącą zrównoważonego rozwoju? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaki był udział inwestycji w działalność na rzecz przejścia i działalność wspomagającą? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;sup&gt;1&lt;/sup&gt;Działalność związana z gazem kopalnianym i/lub energią jądrową będzie zgodna z unijną systematyką tylko wtedy, gdy przyczyni się do ograniczenia zmian klimatycznych ("łagodzenie zmian klimatycznych") i nie zaszkodzi znacząco żadnemu celowi unijnej systematyki - patrz wyjaśnienie na lewym marginesie. Pełne kryteria dotyczące działalności gospodarczej związanej z gazem kopalnianym i energią jądrową, która jest zgodna z unijną systematyką, zostały określone w rozporządzeniu delegowanym Komisji (UE) 2022/1214. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dla celów niniejszych wykresów „obligacje skarbowe” obejmują całe zaangażowanie w dług państwowy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na dwóch wykresach poniżej przedstawiono na zielono minimalny odsetek inwestycji zgodnych z unijną systematyką dotyczącą zrównoważonego rozwoju. Ponieważ brak jest odpowiednich metod umożliwiających określenie zgodności obligacji skarbowych* z systematyką, na pierwszym wykresie przedstawiono zgodność z systematyką w odniesieniu do wszystkich inwestycji w ramach produktu finansowego, w tym obligacji skarbowych, natomiast na drugim wykresie przedstawiono zgodność z systematyką wyłącznie w odniesieniu do inwestycji w ramach produktu finansowego innych niż obligacje skarbowe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w energię jądrową </t>
+  </si>
+  <si>
+    <t>Czy w ramach produktu finansowego inwestowano w działalność związaną z gazem ziemnym lub energią jądrową, która jest zgodna z unijną systematyką dotyczącą zrównoważonego rozwoju&lt;sup&gt;1&lt;/sup&gt;?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Działalność zgodna z systematyką jest wyrażona jako udział:  &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;obrotu&lt;/b&gt;, który odzwierciedla udział przychodów z działalności ekologicznej spółek, w które dokonano inwestycji; &lt;/li&gt;
+&lt;li&gt;&lt;b&gt;nakładów inwestycyjnych&lt;/b&gt; (CapEx), które ukazują zielone inwestycje dokonane przez spółki, w które dokonano inwestycji, np. w celu przejścia na zieloną gospodarkę;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;wydatków operacyjnych&lt;/b&gt; (OpEx), które odzwierciedlają ekologiczną działalność operacyjną spółek, w które dokonano inwestycji. &lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aby zapewnić zgodność z unijną systematyką dotyczącą zrównoważonego rozwoju, kryteria dotyczące &lt;b&gt;gazu ziemnego&lt;/b&gt; obejmują ograniczenia emisji i przejście na energię ze źródeł odnawialnych lub paliwa niskoemisyjne do końca 2035 r. W przypadku &lt;b&gt;energii jądrowej&lt;/b&gt;  kryteria te obejmują kompleksowe zasady w zakresie bezpieczeństwa i gospodarowania odpadami. &lt;/p&gt;
+&lt;p&gt;&lt;b&gt;Działalność wspomagająca&lt;/b&gt; bezpośrednio wspomaga inne rodzaje działalności we wnoszeniu istotnego wkładu w realizację celu środowiskowego.  &lt;/p&gt;
+&lt;p&gt;&lt;b&gt;Działalność na rzecz przejścia&lt;/b&gt; jest to działalność, dla której alternatywne niskoemisyjne rozwiązania nie są jeszcze dostępne i która między innymi wytwarza emisje gazów cieplarnianych na poziomie odpowiadającym najlepszym wynikom.   &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Cel dotyczący zrównoważonych inwestycji</t>
+  </si>
+  <si>
+    <t>W jakim stopniu osiągnięto cel dotyczący zrównoważonych inwestycji, którem służy ten produkt finansowy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W jaki sposób zrównoważone inwestycje nie wyrządziły poważnych szkód względem jakiegokolwiek celu dotyczącego zrównoważonych inwestycji? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inwestycje </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 zrównoważone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #2 niezrównoważone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Środowiskowe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zgodne z systematyką unijną </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;#1 Zrównoważone&lt;/b&gt; inwestycje obejmują zrównoważone inwestycje z celami środowiskowymi lub społecznymi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;#2 Niezrównoważone&lt;/b&gt; inwestycje obejmują inwestycje, które nie kwalifikują się jako zrównoważone inwestycje </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaki był udział zrównoważonych inwestycji służących celowi społecznemu? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakie działania podjęto, aby osiągnąć cel dotyczący zrównoważonych inwestycji w okresie odniesienia? </t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Referencyjne wskaźniki &lt;/b&gt; to indeksy stosowane do pomiaru stopnia, w jakim produkt finansowy przuczynia się do osiągnięcia celu dotyczącego zrównoważonych inwestycji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nie dotyczy. </t>
+  </si>
+  <si>
+    <t>Jakie wyniki uzysano w ramach tego produktu finansowego w porównaniu z ogólnym indeksem rynkowym?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakie wyniki uzyskano w ramach tego produktu finansowego pod wzlędem wskaźników zrównoważonego rozwoju na potrzeby ustalenia stopnia dostosowania danego wskaźnika referncyjnego do danego celu dotyzącego zrównoważonych inwestycji?
+</t>
+  </si>
+  <si>
+    <t>art9 pol</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Produkt (Subfundusz Santander Prestiż Prosperity) może lokować do 100% swoich Aktywów w tytuły uczestnictwa subfunduszu bazowego Santander Prosperity wydzielonego w ramach Santander SICAV (dalej: „Subfundusz Bazowy”), w związku z czym niektóre dalsze informacje dotyczą Subfunduszu Bazowego co każdorazowo zaznaczono.&lt;/p&gt;
+&lt;p&gt;Ilekroć poniżej jest mowa o:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Subfunduszu Bazowym – rozumie się przez to Santander Prosperity wydzielony w ramach Santander SICAV,&lt;/li&gt;
+&lt;li&gt;Spółce Zarządzającej – rozumie się przez to Santander Asset Management Luxemburg.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Subfundusz Bazowy realizował swój cel zrównoważonych inwestycji społecznych, inwestując wyłącznie w spółki, których działalność ukierunkowana jest na trzy obszary tematyczne: Ochrona zdrowia i well-being, Edukacja i przeciwdziałanie finansowemu wykluczeniu oraz Żywność i odżywianie. Te trzy główne wyzwania społeczne, w które Subfundusz inwestował, koncentrowały się przede wszystkim na następujących Celach Zrównoważonego Rozwoju ONZ (SDGs): Koniec z ubóstwem, Dobre zdrowie i jakość życia, Dobra jakość edukacji, Równość płci, Wzrost gospodarczy i godna praca i Mniej nierówności.&lt;/p&gt;
+&lt;p&gt;Subfundusz Bazowy osiągał swoje cele, inwestując w spółki, które wnoszą pozytywny wkład w nasze społeczeństwo, uzyskując co najmniej 30% swoich przychodów z działalności związanej z wyżej wymienionymi celami zrównoważonego rozwoju. Spółki te kwalifikują się również jako zrównoważone inwestycje społeczne, ponieważ nie spowodowały żadnych znaczących szkód dla innego zrównoważonego celu i przestrzegały dobrych praktyk zarządzania.&lt;/p&gt;
+&lt;p&gt;Pozostałe inwestycje, które nie kwalifikowały się jako zrównoważone inwestycje społeczne, nie wpłynęły na osiągnięcie celu Subfunduszu, a ich celem było zapewnienie płynności portfela i zabezpieczenie skutecznego zarządzania ryzykiem stopy procentowej, ryzykiem walutowym i ryzykiem kredytowym. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Aby zagwarantować, że pozytywny wkład w realizację celu społecznego Subfunduszu Bazowego nie zaszkodził znacząco innym celom zrównoważonego rozwoju w okresie odniesienia, Spółka Zarządzająca określiła szereg zabezpieczeń w oparciu o swoją wewnętrzną metodykę, w celu wykazania, że istnieje zamiar niewyrządzania takiej szkody. Zabezpieczenia te obejmują:&lt;/p&gt;                
+&lt;ul&gt;
+&lt;li&gt;Uwzględnianie głównych wskaźników niekorzystnych skutków (PAI) zawartych w załączniku I do rozporządzenia delegowanego (UE) 2022/1288 uzupełniającego rozporządzenie (UE) 2019/2088 w sprawie ujawniania informacji (SFDR) („RTS”), jak opisano w odpowiedzi na kolejne pytanie.&lt;/li&gt;
+&lt;li&gt;Działalność w kontrowersyjnych sektorach: Ekspozycje na kontrowersyjne rodzaje działalności zostały przeanalizowane i wyłączone w sektorach takich jak produkcja paliw kopalnych, kontrowersyjne rodzaje broni, produkcja wyrobów tytoniowych, a także inwestycje budzące poważne kontrowersje.&lt;/li&gt;
+&lt;li&gt;Neutralne wyniki zrównoważone: Minimalna ocena ESG (B) była wymagana zgodnie z wewnętrzną metodyką Spółki Zarządzającej w 7-stopniowej skali (C-, C, C+, B, A-, A i A+, gdzie A+ odzwierciedla najlepsze wyniki ESG), w celu zapewnienia, że praktyki zrównoważonego rozwoju każdego emitenta spełniają minimalne wymogi ESG. Ocena ESG łączy kryteria ilościowe i jakościowe w wymiarze pozytywnym i/lub negatywnym w celu uzyskania przejrzystego i pełnego obrazu wyników każdego aktywa w obszarze ESG i generuje rating ESG w dla każdego typu emitenta.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Jeśli dana inwestycja nie spełnia któregokolwiek z tych zabezpieczeń, Spółka Zarządzająca uznaje, że nie jest możliwe zapewnienie, iż nie wystąpią znaczące szkody i nie zostanie ona uznana za zrównoważoną inwestycję.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Przestrzeganie dobrych praktyk biznesowych i poszanowanie praw człowieka jest integralnym składnikiem wartości Spółki Zarządzającej i minimalnym standardem działania pozwalającym na prowadzenie działalności w sposób zgodny z prawem. &lt;/p&gt;
+&lt;p&gt;W tym zakresie, działalność Spółki Zarządzającej opiera się na zasadach wynikających m.in. z Wytycznych OECD dla Przedsiębiorstw Wielonarodowych oraz na dziesięciu zasadach UN Global Compact. Zobowiązanie to znajduje odzwierciedlenie zarówno w politykach korporacyjnych Grupy Santander, jak i w politykach Spółki Zarządzającej, a także jest częścią procedury integracji ryzyka zrównoważonego rozwoju w Spółce Zarządzającej.&lt;/p&gt;
+&lt;p&gt;Spółka Zarządzająca regularnie monitorowała, czy inwestycje nie naruszały którejkolwiek z międzynarodowych wytycznych. W okresie referencyjnym Subfundusz Bazowy nie inwestował w żadnego emitenta naruszającego wymienione międzynarodowe standardy.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subfundusz Bazowy przy podejmowaniu decyzji inwestycyjnych brał pod uwagę główne niekorzystne skutki dla czynników zrównoważonego rozwoju (PAI). W tym celu monitorowano wskaźniki obowiązkowe z Tabeli 1 oraz dwa opcjonalne wskaźniki z Tabel 2 i 3 z Załącznika nr 1 do Regulacyjnych Standardów Technicznych (RTS) do rozporządzenia SFDR celem dokonania oceny zewnętrznych niekorzystnych skutków, jakie mogłyby wywołać inwestycje tego Subfunduszu.&lt;/p&gt;
+&lt;p&gt;W okresie referencyjnym Spółka Zarządzająca identyfikowała te wpływy na dwóch poziomach:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Na podstawie wyników każdego emitenta względem branży, identyfikując w ten sposób spółki o najsłabszych wynikach w zakresie każdego wskaźnika PAI. Następnie, emitenci z gorszymi wynikami w porównaniu z ich sektorem w odniesieniu do wszystkich obowiązkowych wskaźników PAI byli wykluczani z Subfunduszu Bazowego.&lt;/li&gt;
+&lt;li&gt;Na podstawie porównania wyników wskaźników PAI subfunduszy z wynikami indeksu referencyjnego (benchmarku). Gdy wyniki danego subfunduszu były gorsze niż benchmark, Spółka Zarządzająca analizowała istotność wpływu, powtarzalność w czasie, prawdopodobieństwo uzyskania pozytywnych wyników poprzez działania angażujące, ekspozycję portfela i typologię wskaźników PAI w celu wdrożenia działań angażujących. W okresie referencyjnym priorytetem tych działań były wskaźniki związane z emisją gazów cieplarnianych. Ponadto Spółka Zarządzająca łagodziła również te skutki, dostosowując pozycje, które w największym stopniu przyczyniają się do słabszych wartości wskaźnika PAI w porównaniu z jego benchmarkiem, ograniczając wzrost pozycji lub ostatecznie dokonując dezinwestycji.&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;Dane wymagane do analizy wskaźników PAI zostały dostarczone przez zewnętrznych dostawców danych. Przeprowadzono regularną analizę zakresu i jakości danych, we współpracy z emitentami i dostawcami danych, w celu wyeliminowania ograniczeń w dostępności i jakości danych we wskaźnikach.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subfundusz przestrzegał alokacji aktywów podanej w informacjach udzielonych przed zawarciem umowy.&lt;/p&gt;
+&lt;p&gt;Subfundusz spełnia kryterium minimalnego poziomu 70% zrównoważonych inwestycji, co w pełni odpowiada inwestycjom zrównoważonym społecznie. Odsetek społecznie zrównoważonych inwestycji tego Subfunduszu wynosi {{sust_invest_soc}}% ogółu aktywów Subfunduszu.  &lt;/p&gt;
+&lt;p&gt;Odsetek ten został obliczony jako średni udział zrównoważonych inwestycji Subfunduszu, biorąc pod uwagę dane z ostatniego dnia roboczego każdego kwartału okresu referencyjnego, jak wskazano w sekcji Największe inwestycje.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Subfundusz nie ustalił minimalnego procentowego stopnia dostosowania swoich inwestycji do Taksonomii UE. Poniższe wykresy przedstawiają dostosowanie portfela do Taksonomii UE jako średni procent aktywów Subfunduszu biorąc pod uwagę inwestycje z ostatniego dnia roboczego każdego kwartału okresu referencyjnego, jak wskazano w sekcji Największe inwestycje.</t>
+  </si>
+  <si>
+    <t>Subfundusz nie dokonał żadnych zrównoważonych inwestycji o celu środowiskowym.</t>
+  </si>
+  <si>
+    <t>Udział inwestycji o celu społecznym Subfunduszu wyniósł {{sust_invest_soc}}%</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Subfundusz miał średnio {{other_nones}}% udziału inwestycji, które nie kwalifikowały się jako zrównoważone inwestycje w całym okresie odniesienia. Inwestycje te ujęte w pozycji "#2 Niezrównoważone" nie wpłynęły na osiągnięcie celu zrównoważonego inwestowania Subfunduszu, a ich celem jest zapewnienie płynności portfela i zabezpieczenie skutecznego zarządzania ryzykiem stopy procentowej, walutowym i kredytowym.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+W okresie odniesienia podjęto następujące działania, aby zapewnić realizację zrównoważonego celu inwestycyjnego Subfunduszu:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Spółka Zarządzająca określiła społecznie zrównoważone uniwersum inwestycyjne Subfunduszu Bazowego poprzez okresową selekcję spółek, których działalność biznesowa ma na celu generowanie pozytywnych społecznych efektów i które wnoszą wkład w obszary tematyczne Subfunduszu Bazowego: Zdrowie i well-being, Edukacja i przeciwdziałanie wykluczeniu finansowemu oraz Żywność i odżywianie. W tym celu, Zarządzający sprawdził, czy każda kwalifikująca się spółka posiada co najmniej 30% przychodów związanych z celami zrównoważonego rozwoju dotyczącymi obszarów tematycznych Subfunduszu Bazowego, lub czy zgodnie z oceną Zarządzającego wnosi istotny wkład w rozwiązywanie wyzwań z obszarów tematycznych Subfunduszu Bazowego.&lt;/li&gt;
+  &lt;li&gt;Spółka Zarządzająca okresowo weryfikowała zgodność Subfunduszu Bazowego z następującymi wyłączeniami:
+    &lt;ul&gt;
+      &lt;li&gt;Emitenci, którzy prowadzili jakąkolwiek działalność gospodarczą (mierzoną obrotami) związaną z kontrowersyjnymi rodzajami broni, uzbrojeniem, wydobyciem węgla oraz wytwarzaniem energii z węgla i gazu ziemnego, zostali wykluczeni. &lt;/li&gt;
+      &lt;li&gt;Emitenci zaangażowani w kontrowersje uznane za krytyczne zostali wykluczeni z uniwersum inwestycyjnego Subfunduszu Bazowego.&lt;/li&gt;
+      &lt;li&gt;Emitenci, których działalność mogła mieć znaczący negatywny wpływ na czynniki zrównoważonego rozwoju według metodyki Spółki Zarządzającej, które nie zostały ograniczone poprzez podjęte działania angażujące, zostali wykluczeni.&lt;/li&gt;
+      &lt;li&gt;Emitenci o słabych wynikach w zakresie ładu korporacyjnego według metodyki oceny ESG Spółki Zarządzającej zostali wykluczeni, aby zagwarantować odpowiednie praktyki w zakresie zarządzania.&lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+ &lt;/ul&gt;
+&lt;p&gt;Powyższe kryteria ESG wraz ze zgodnością z minimalnymi zobowiązaniami Subfunduszu Bazowego zostały włączone do procesu inwestycyjnego i były regularnie monitorowane przez zespół ds. zapewnienia zgodności (Compliance) Spółki Zarządzającej, a w przypadku jakiejkolwiek niezgodności podejmowano niezbędne działania naprawcze (na przykład raport do zespołu zarządzającego, komunikacja z zespołem SRI, skierowanie do odpowiedniego komitetu).
+&lt;/p&gt;
+&lt;p&gt;Ponadto wyniki emitentów w zakresie ESG podlegały systematycznemu i ciągłemu monitorowaniu przez zespół SRI Spółki Zarządzającej, w tym nieustannemu monitorowaniu potencjalnych rozbieżności zidentyfikowanych przez Zarządzających portfelem pomiędzy wiedzą o emitencie a danymi zawartymi w modelu dostarczonym przez dostawców.
+&lt;/p&gt;
+&lt;p&gt;Spółka Zarządzająca podejmowała również działania angażujące wobec prywatnych emitentów oraz działania związane z prawem głosu w przypadkach, gdy pozwalał na to rodzaj aktywów (akcje). Działania te były zgodne ze zrównoważonym celem Subfunduszu Bazowego oraz z obowiązującą Polityką Zaangażowania i Wykonywania Prawa Głosu Spółki Zarządzającej, która jest dostępna pod adresem: &lt;/p&gt;
+&lt;p&gt;  https://www.santanderassetmanagement.lu/document-library/policies &lt;/p&gt;
+&lt;p&gt;Inne przykłady działań związanych z zaangażowaniem i wykonywaniem prawa głosu można znaleźć w Raporcie SRI Spółki Zarządzającej dostępnym pod adresem:  &lt;/p&gt;
+&lt;p&gt;https://www.santanderassetmanagement.com/sustainability.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to zrównoważone inwestycje służące celowi środowiskowemu, które &lt;b&gt;nie uwzględniają kryteriów &lt;/b&gt; zrównoważonej środowiskowo działalności gospodarczej na podstawie rozporządzenia (UE) 2020/852. </t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Unijna systematyka dotycząca zrównoważonego rozwoju &lt;/b&gt;jest to system klasyfikacji określony w rozporządzeniu (UE) 2020/852, ustanawiający wykaz &lt;b&gt;zrównoważonej środowiskowo działalności gospodarczej&lt;/b&gt;. Rozporządzenie to nie zawiera wykazu 
+zrównoważonej społecznie działalności gospodarczej. Zrównoważone inwestycje, które służą celowi środowiskowemu, mogą być zgodne lub niezgodne z systematyką.</t>
+  </si>
+  <si>
+    <t>Subfundusz nie określił minimalnego odsetka swoich inwestycji zgodnych z Taksonomią UE. Mimo to odsetek inwestycji zgodnych z Taksonomią UE w porównaniu z poprzednimi okresami referencyjnymi wyniósł {{taxonomy_2022}}  {{taxonomy_2023}} i {{total_turnover_aligned}}% w 2024 r.</t>
+  </si>
+  <si>
+    <t>Subfundusz nie określił minimalnego odsetka swoich inwestycji zgodnych z Taksonomią UE. Mimo to odsetek inwestycji zgodnych z Taksonomią UE w porównaniu z poprzednimi okresami referencyjnymi wyniósł {{taxonomy_2023}} w 2023 r. i {{total_turnover_aligned}}% w 2024 r.</t>
+  </si>
+  <si>
+    <t>The proportion of investments made in transition activities has been {{total_turnover_enabling}}% in turnover, in {{total_capex_enabling}}% CapEx and in {{total_opex_enabling}}% OpEx and in activities facilitating {{total_turnover_transition}}% in turnover, {{total_capex_transition}}% in CapEx and {{total_opex_transition}}% in OpEx over the reference period.</t>
+  </si>
+  <si>
+    <t>Udział inwestycji Subfunduszu dokonanych w działania na rzecz przejścia wyniósł {{total_turnover_enabling}}% obrotu, {{total_capex_enabling}}% CapEx i {{total_opex_enabling}}% OpEx, a w działalność wspomagającą {{total_turnover_transition}}% obrotu, {{total_capex_transition}}% CapEx i {{total_opex_transition}}% OpEx w okresie referencyjnym.</t>
+  </si>
+  <si>
+    <t>Udział inwestycji Subfunduszu dokonanych w okresie referencyjnym w działania na rzecz przejścia wyniósł {{total_turnover_enabling}}% obrotu, {{total_capex_enabling}}% CapEx i {{total_opex_enabling}}% OpEx, a w działalność wspomagającą {{total_turnover_transition}}% obrotu, {{total_capex_transition}}% CapEx i {{total_opex_transition}}% OpEx.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Wyniki wyżej wymienionych wskaźników nie zmieniły się w porównaniu z poprzednim okresem odniesienia:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Wyłączenia: utrzymały się na poziomie 0%, podobnie jak w poprzednim okresie odniesienia.&lt;/li&gt;
+&lt;li&gt;Wskaźnik kontrowersji: utrzymał się na poziomie 0%, podobnie jak w poprzednim okresie odniesienia.&lt;/li&gt;
+&lt;li&gt;Odsetek przychodów dostosowanych do tematyki Subfunduszu Bazowego: pozostał na poziomie 30%, tak jak w poprzednim okresie odniesienia.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Spółka Zarządzająca uwzględniła wszystkie obowiązkowe główne niekorzystne wskaźniki wpływu (PAI) w analizie zgodności z zasadą niepowodowania znaczących szkód (DNSH).&lt;/p&gt;
+&lt;p&gt;W tym celu Spółka Zarządzająca zdefiniowała odpowiednie progi w oparciu o ilościowe i jakościowe kryteria techniczne. Progi te to:&lt;/p&gt;
+&lt;ul&gt;
+    &lt;li&gt;Progi bezwzględne: Za niezgodnych z zasadą DNSH uznano emitentów, którzy mają znaczną ekspozycję na paliwa kopalne, prowadzą działalność wpływającą na obszary wrażliwe pod względem bioróżnorodności, naruszają zasady UN Global Compact i Wytyczne Organizacji Współpracy Gospodarczej i Rozwoju (OECD) dla przedsiębiorstw wielonarodowych, nie posiadają procesów i mechanizmów służących monitorowaniu zgodności z tymi międzynarodowymi standardami i/lub są zaangażowani w działalność związaną z kontrowersyjnymi rodzajami broni.&lt;/li&gt;
+    &lt;li&gt;Progi sektorowe: Przyjmuje się, że emitenci, którzy mieszczą się w zakresie najgorszych wyników w swojej branży pod względem emisji gazów cieplarnianych, wody, odpadów i/lub kwestii społecznych i pracowniczych, nie spełniają wymogów zasady DNSH.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>Informacje ujawniane okresowo dla produktów finansowych, o których mowa w art. 9 ust. 1–4a rozporządzenia (UE) 2019/2088 i w art. 5 akapit pierwszy rozporządzenia (UE) 2020/852</t>
+  </si>
+  <si>
+    <t>Społeczne</t>
+  </si>
+  <si>
+    <t>Inne</t>
+  </si>
+  <si>
+    <t>Jakie inwestycje uwzględniono w kategorii #2 „Niezrównoważone", czemu służyły takie inwestycje i czy w ich ramach
+zapewniono jakiekolwiek minimalne zabezpieczenia środowiskowe lub społeczne?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wartości wskaźników zrównoważonego rozwoju Subfunduszu Bazowego w okresie referencyjnym opisano poniżej:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt; Wyłączenia: Subfundusz Bazowy nie obejmował żadnych inwestycji w sektorach niedozwolonych przez jego politykę inwestycyjną. Oznacza to, że Subfundusz Bazowy miał 0% ekspozycji na emitentów, których działalność jest związana z kontrowersyjnymi rodzajami broni, uzbrojeniem, wyrobami tytoniowymi, wydobyciem węgla, energetyką węglową i paliwami kopalnymi, w oparciu o dane dotyczące obrotów.&lt;/li&gt;
+&lt;li&gt;Wskaźnik kontrowersji: Subfundusz Bazowy miał 0% ekspozycji na spółki, które były zaangażowane w kontrowersje uznane za krytyczne. Oznacza to ekspozycję na zdarzenia, które znacząco wpływają na środowisko i/lub społeczeństwo lub stwarzają poważne ryzyko biznesowe dla firmy, odzwierciedlając dużą powtarzalność incydentów, wyjątkowo słabe zarządzanie ryzykiem ESG oraz wyraźną niechęć firmy do zajęcia się problematycznymi kwestiami.&lt;/li&gt;
+&lt;li&gt;Procent przychodów dostosowanych do wskaźnika obszarów tematycznych Subfunduszu Bazowego: Subfundusz Bazowy inwestował w spółki, których co najmniej 30% przychodów było związanych z celami zrównoważonego rozwoju w oparciu o informacje dostarczone przez dostawcę danych ESG Spółki Zarządzającej na podstawie analizy operacji, produktów, usług, polityk i praktyk emitentów oraz ich wkładu netto - pozytywnego i negatywnego - w aspekty społeczne Subfunduszu Bazowego lub które, zgodnie z oceną Spółki Zarządzającej, wnosiły istotny wkład w rozwiązywanie wymienionych powyżej wyzwań społecznych, który mógł zostać zwiększony poprzez działania angażujące podejmowane przez Spółkę Zarządzającą wobec odpowiednich spółek.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>esg_fi_eng</t>
+  </si>
+  <si>
+    <t>esg_latam</t>
+  </si>
+  <si>
+    <t>art8_fi_eng</t>
+  </si>
+  <si>
+    <t>art8_nopai_eng</t>
+  </si>
+  <si>
+    <t>art8_nopai_noprev_eng</t>
+  </si>
+  <si>
+    <t>art8_noprev_eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;The performance of the above-mentioned indicators has not changed in comparison with the previous reference period. Specifically:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Exclusions indicator: it has remained 0% as previously reported. &lt;/li&gt;
+&lt;li&gt;Controversy indicator: it has remained 0% as previously reported.&lt;/li&gt;
+&lt;li&gt;Average ESG rating of the Sub-Fund: this indicator has been {{esg_sore_2022}} {{esg_score_2023}} in 2023, and {{esg_score_2024}} in this reported reference period.&lt;/li&gt;
+&lt;li&gt;ESG Rating at the issuer level: the ESG Rating of issuers included in the Sub-Fund has remained above the 20th percentile in its relative rating with respect to sector and region. &lt;/li&gt;
+&lt;li&gt;Percentage of assets in the Sub-Fund aligned with the environmental and social characteristics promoted has remained at least 70% compared to previous periods.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Sub-Fund has complied with the allocation of assets provided in the pre-contractual information. Specifically:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;The Sub-Fund has met the minimum of 70% of the Sub-Fund’s that promote environmental and social characteristics by meeting the above-described ESG investment strategy. Throughout the reference period, this percentage has been {{es_aligned}}% calculated as the average percentage of assets that promoted the characteristics of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section.
+&lt;/li&gt;
+&lt;li&gt;The Sub-Fund has met the minimum commitment of 10% in sustainable investments. Throughout the reference period, the average percentage of sustainable investments of this Sub-Fund has been {{sust_invest}}%, broken down into:
+&lt;ul&gt;
+&lt;li&gt;{{sust_invest_soc}}% corresponding to socially sustainable investments.&lt;/li&gt;
+&lt;li&gt;{{sust_invest_env}} % corresponding to environmental investments other than Taxonomy.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The above percentages have been calculated as the average percentage of sustainable investments of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/p&gt;
+&lt;p&gt; Please note that, for the sake of clarity, the percentages related to Sustainable Investments (#1A) and other E/S characteristics (#1B) are calculated based on the total investments and not only on those aligned with E/S characteristics.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+During the reference period, the following actions have been taken to meet the environmental and social characteristics of the Sub-Fund:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;The Investment Manager has periodically reviewed that the Sub-Fund complies with the following exclusions:
+    &lt;ul&gt;
+      &lt;li&gt;Issuers that had any business activities (measured in terms of turnover) related to controversial weapons, tobacco production and/or a significant revenue derived from non-conventional fossil fuels, coal-mining power generation and/or conventional weapons activities have been excluded.     &lt;/li&gt;
+      &lt;li&gt;Issuers involved in controversies considered critical, have been excluded from the Sub-Fund’s investment universe.
+      &lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+  &lt;li&gt;The Investment Manager has periodically monitored that the average minimum ESG rating/rating criterion of issuers of the direct cash investment portfolio assets and the rated IIC has been met, in accordance with the Investment Manager’s own methodology in analysing those underlying assets, as at least A- on a 7-level scale (C-, C, C+, B, A-, A and A+, where A+ reflects the best ESG performance).
+  &lt;/li&gt;
+  &lt;li&gt;The Investment Manager has periodically monitored that the underlyings of the Sub-Fund have an ESG Rating above the 20th percentile in its relative rating with respect to sector and region.
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Investments that complied with the criteria explained above were considered to be promoting environmental and social characteristics. In addition to this, the Investment Manager also considered that the following cases also complied with the environmental and social characteristics of the Sub-Fund, and they were accounted as such:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Issuers that did not have an ESG rating or that did not meet the ESG indicators set out in the investment strategy, but that had investments that may be considered sustainable investments, and in particular issuances that were classified as green, social or sustainable bonds, after prior validation by the Investment Manager, in accordance with its own analysis methodology.
+  &lt;/li&gt;
+  &lt;li&gt;In the case of IIC, those that, although were not assigned an ESG rating by the Manager are IICs that promote ESG characteristics. (IIC considered Art. 8 Regulation (EU) 2019/2088 and/or targeting sustainable investments (Art. 9 in accordance with Regulation (EU) 2019/2088).
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The above ESG criteria along with the compliance of the minimum commitments of the Sub-Fund were integrated into the investment process and monitored on a regular basis by the Investment Manager’s Compliance team, and in the event of any non-compliance, the necessary corrective actions were taken (for instance, report to the management team, communication with the SRI team, referral to the relevant committee, among others).
+&lt;/p&gt;
+&lt;p&gt;In addition, the ESG performance of issuers has been subject to systematic and continuous monitoring by the Investment Manager’s SRI team including continuous monitoring of potential discrepancies identified by portfolio managers between the knowledge of the issuer and the data considered within the model provided by suppliers.
+&lt;/p&gt;
+&lt;p&gt;At last, the Investment Manager has carried out engagement activities for private issuers and voting activities in cases where the type of asset allows it (shares). These activities were aligned with the social and environmental characteristics of the Sub-fund and with the Investment Manager’s applicable Engagement and Voting Policies available at: &lt;/p&gt;
+&lt;p&gt;  https://www.santanderassetmanagement.lu/document-library/policies &lt;/p&gt;
+&lt;p&gt;Further examples of the engagement and voting activities can be found in the Management Company’s Stewardship Report available at:  &lt;/p&gt;
+&lt;p&gt;https://www.santanderassetmanagement.com/sustainability
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The performance of the Sub-Fund’s sustainability indicators throughout the reference period is described below:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt; Exclusions indicator: the Sub-Fund did not contain any investments in sectors not permitted by the Sub-Fund's investment policy. That is to say, the Sub-Fund had 0% exposure to companies with more than 25% revenues derived from coal mining, more than 25% revenues derived from coal power generation, more than 30% revenues derived from unconventional fossil fuels, more than 15% revenues derived from conventional weapons, 0% revenues derived from controversial weapons and/or 0% revenues derived from tobacco production.&lt;/li&gt;
+&lt;li&gt;Controversy indicator: the Sub-Fund had 0% exposure to companies that were involved in controversies considered critical. That is to say, exposure to events significantly that impact the environment and/or society or presents serious business risks to the company, reflecting a high recurrence of incidents, extremely poor management of ESG risks, and a clear unwillingness by the company to address these issues.&lt;/li&gt;
+&lt;li&gt;Average ESG rating of the Sub-Fund: the average ESG rating of the assets rated in the Sub-Fund according to the Investment Manager’s internal methodology was {{esg_score_2024}} on a 7-level scale (C-, C, C+, B, A-, A and A+, where A+ reflects the best ESG performance). This value was calculated as the average ESG rating of the underlying assets of portfolio with ESG rating considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section. Each underlying’s ESG Rating has been calculated based on the ESG characteristics described in the previous question and considering the sectorial materiality defined by the Investment Manager.&lt;/li&gt;
+&lt;li&gt;ESG Rating at the issuer level: based on the above-mentioned methodology, the ESG Rating of each issuer has been periodically monitored and those issuers with the best ESG rating were selected (above the 20th percentile in its relative rating with respect to sector and region.&lt;/li&gt;
+&lt;li&gt;Percentage of assets in the Sub-Fund aligned with the environmental and social characteristics promoted was {{es_aligned}}%. &lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The performance of the Sub-Fund’s sustainability indicators throughout the reference period is described below:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt; Exclusions indicator: the Sub-Fund did not contain any investments in sectors not permitted by the Sub-Fund's investment policy. That is to say, the Sub-Fund had 0% exposure to companies with more than 25% revenues derived from coal mining production, more than 25% revenues derived from coal power generation production, more than 30% revenues derived from unconventional fossil fuels, more than 15% revenues derived from conventional weapons production, 0% revenues derived from controversial weapons, 0% revenues derived from tobacco production and/or 15% revenues derived from tobacco participation. In addition to this, for the case of public fixed income, the Sub-Fund had 0% exposure to countries with poor performance in terms of political rights and social freedoms based on the Democracy Index indicator and Freedom in the World study.&lt;/li&gt;
+&lt;li&gt;Controversy indicator: the Sub-Fund had 0% exposure to companies that were involved in controversies considered critical. That is to say, exposure to events significantly that impact the environment and/or society or presents serious business risks to the company, reflecting a high recurrence of incidents, extremely poor management of ESG risks, and a clear unwillingness by the company to address these issues.&lt;/li&gt;
+&lt;li&gt;Average ESG rating of the Sub-Fund: the average ESG rating of the assets rated in the Sub-Fund according to the Investment Manager’s internal methodology was {{esg_score_2024}} on a 7-level scale (C-, C, C+, B, A-, A and A+, where A+ reflects the best ESG performance). This value was calculated as the average ESG rating of the underlying assets of portfolio with ESG rating considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section. Each underlying’s ESG Rating has been calculated based on the ESG characteristics described in the previous question and considering the sectorial materiality defined by the Investment Manager.&lt;/li&gt;
+&lt;li&gt;ESG Rating at the issuer level: based on the above-mentioned methodology, the ESG Rating of each issuer has been periodically monitored and those issuers with the best ESG rating were selected (better than the benchmark, J.P. Morgan CEMBI Broad Diversified Latin America IG Index, defined in the Sub-Fund’s prospectus).&lt;/li&gt;
+&lt;li&gt;Percentage of assets in the Sub-Fund aligned with the environmental and social characteristics promoted was {{es_aligned}}%. &lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;The performance of the above-mentioned indicators has not changed in comparison with the previous reference period. Specifically:&lt;/p&gt;
+&lt;ul&gt; 
+&lt;li&gt;Exclusions indicator: it has remained 0% as previously reported. &lt;/li&gt;
+&lt;li&gt;Controversy indicator: it has remained 0% as previously reported.&lt;/li&gt;
+&lt;li&gt;Average ESG rating of the Sub-Fund: this indicator has been {{esg_sore_2022}} {{esg_score_2023}} in 2023, and {{esg_score_2024}} in this reported reference period.&lt;/li&gt;
+&lt;li&gt;ESG Rating at the issuer level: the ESG Rating of issuers included in the Sub-Fund has remained better than the defined benchmark. &lt;/li&gt;
+&lt;li&gt;Percentage of assets in the Sub-Fund aligned with the environmental and social characteristics promoted has remained at least 75% compared to previous periods.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Sub-Fund has complied with the allocation of assets provided in the pre-contractual information. Specifically:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;The Sub-Fund has met the minimum of 75% of the Sub-Fund’s that promote environmental and social characteristics by meeting the above-described ESG investment strategy. Throughout the reference period, this percentage has been {{es_aligned}}% calculated as the average percentage of assets that promoted the characteristics of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section.
+&lt;/li&gt;
+&lt;li&gt;The Sub-Fund has met the minimum commitment of 5% in sustainable investments. Throughout the reference period, the average percentage of sustainable investments of this Sub-Fund has been {{sust_invest}}%, broken down into:
+&lt;ul&gt;
+&lt;li&gt;{{sust_invest_soc}}% corresponding to socially sustainable investments.&lt;/li&gt;
+&lt;li&gt;{{sust_invest_env}} % corresponding to environmental investments other than Taxonomy.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The above percentages have been calculated as the average percentage of sustainable investments of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/p&gt;
+&lt;p&gt; Please note that, for the sake of clarity, the percentages related to Sustainable Investments (#1A) and other E/S characteristics (#1B) are calculated based on the total investments and not only on those aligned with E/S characteristics.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+During the reference period, the following actions have been taken to meet the environmental and social characteristics of the Sub-Fund:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;The Investment Manager has periodically reviewed that the Sub-Fund complies with the following exclusions:
+    &lt;ul&gt;
+      &lt;li&gt;Issuers that had any business activities (measured in terms of turnover) related to controversial weapons, tobacco production and/or a significant revenue derived from non-conventional fossil fuels, coal-mining power generation and/or conventional weapons activities have been excluded.&lt;/li&gt;
+      &lt;li&gt;Issuers involved in controversies considered critical, have been excluded from the Sub-Fund’s investment universe.
+      &lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+  &lt;li&gt;Public fixed income issuers were assessed to exclude those that were low performers in relation to political rights and social freedom. For doing so, the Investment Manager based its analysis on either of the following two indicators:
+    &lt;ul&gt;
+      &lt;li&gt;Democracy Index: Indicator that determines the range of democracy in 167 countries based on measurements such as the electoral process and pluralism, civil liberties, governance, political participation and political culture. On a scale of 1 to 10 points, countries below 6 points and corresponding to hybrid and authoritative regimes were excluded.
+      &lt;/li&gt;
+      &lt;li&gt;Freedom in the World study: Indicator measuring the degree of democracy and political freedom in all countries and in the most important disputed territories worldwide on a scale of 3 levels (“non-free”, “partially free” and “free”), having excluded countries classified as “non-free”.
+      &lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+  &lt;li&gt;The Investment Manager has periodically monitored that the average minimum ESG rating/rating criterion of issuers of the direct cash investment portfolio assets and the rated IIC has been met, in accordance with the Investment Manager’s own methodology in analysing those underlying assets, as at least A- on a 7-level scale (C-, C, C+, B, A-, A and A+, where A+ reflects the best ESG performance).
+  &lt;/li&gt;
+  &lt;li&gt;The Investment Manager has periodically monitored that the underlyings of the Sub-Fund have an ESG Rating above the defined benchmark J.P. Morgan CEMBI Broad Diversified Latin America IG Index.
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Investments that complied with the criteria explained above were considered to be promoting environmental and social characteristics. In addition to this, the Investment Manager also considered that the following cases also complied with the environmental and social characteristics of the Sub-Fund, and they were accounted as such:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Issuers that did not have an ESG rating or that did not meet the ESG indicators set out in the investment strategy, but that had investments that may be considered sustainable investments, and in particular issuances that were classified as green, social or sustainable bonds, after prior validation by the Investment Manager, in accordance with its own analysis methodology.
+  &lt;/li&gt;
+  &lt;li&gt;In the case of IIC, those that, although were not assigned an ESG rating by the Manager are IICs that promote ESG characteristics. (IIC considered Art. 8 Regulation (EU) 2019/2088 and/or targeting sustainable investments (Art. 9 in accordance with Regulation (EU) 2019/2088).
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The above ESG criteria along with the compliance of the minimum commitments of the Sub-Fund were integrated into the investment process and monitored on a regular basis by the Investment Manager’s Compliance team, and in the event of any non-compliance, the necessary corrective actions were taken (for instance, report to the management team, communication with the SRI team, referral to the relevant committee, among others).
+&lt;/p&gt;
+&lt;p&gt;In addition, the ESG performance of issuers has been subject to systematic and continuous monitoring by the Investment Manager’s SRI team including continuous monitoring of potential discrepancies identified by portfolio managers between the knowledge of the issuer and the data considered within the model provided by suppliers.
+&lt;/p&gt;
+&lt;p&gt;At last, the Investment Manager has carried out engagement activities for private issuers and voting activities in cases where the type of asset allows it (shares). These activities were aligned with the social and environmental characteristics of the Sub-fund and with the Investment Manager’s applicable Engagement and Voting Policies available at: &lt;/p&gt;
+&lt;p&gt;  https://www.santanderassetmanagement.lu/document-library/policies &lt;/p&gt;
+&lt;p&gt;Further examples of the engagement and voting activities can be found in the Management Company’s Stewardship Report available at:  &lt;/p&gt;
+&lt;p&gt;https://www.santanderassetmanagement.com/sustainability
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+During the reference period, the following actions have been taken to meet the environmental and social characteristics of the Sub-Fund:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;The Investment Manager has periodically reviewed that the Sub-Fund complies with the following exclusions:
+    &lt;ul&gt;
+      &lt;li&gt;Issuers that had any business activities (measured in terms of turnover) related to controversial weapons, and/or a significant revenue derived from non-conventional fossil fuels and/or coal-mining power generation activities have been excluded.      &lt;/li&gt;
+      &lt;li&gt;Issuers involved in controversies considered critical, have been excluded from the Sub-Fund’s investment universe.
+      &lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+  &lt;li&gt;Public fixed income issuers were assessed to exclude those that were low performers in relation to political rights and social freedom. For doing so, the Investment Manager based its analysis on either of the following two indicators:
+    &lt;ul&gt;
+      &lt;li&gt;Democracy Index: Indicator that determines the range of democracy in 167 countries based on measurements such as the electoral process and pluralism, civil liberties, governance, political participation and political culture. On a scale of 1 to 10 points, countries below 6 points and corresponding to hybrid and authoritative regimes were excluded.
+      &lt;/li&gt;
+      &lt;li&gt;Freedom in the World study: Indicator measuring the degree of democracy and political freedom in all countries and in the most important disputed territories worldwide on a scale of 3 levels (“non-free”, “partially free” and “free”), having excluded countries classified as “non-free”.
+      &lt;/li&gt;
+    &lt;/ul&gt;
+  &lt;/li&gt;
+  &lt;li&gt;The Investment Manager has periodically monitored that the average minimum ESG rating/rating criterion of issuers of the direct cash investment portfolio assets and the rated IIC has been met, in accordance with the Investment Manager’s own methodology in analysing those underlying assets, as at least A- on a 7-level scale (C-, C, C+, B, A-, A and A+, where A+ reflects the best ESG performance).
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Investments that complied with the criteria explained above were considered to be promoting environmental and social characteristics. In addition to this, the Investment Manager also considered that the following cases also complied with the environmental and social characteristics of the Sub-Fund, and they were accounted as such:
+&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;Issuers that did not have an ESG rating or that did not meet the ESG indicators set out in the investment strategy, but that had investments that may be considered sustainable investments, and in particular issuances that were classified as green, social or sustainable bonds, after prior validation by the Investment Manager, in accordance with its own analysis methodology.
+  &lt;/li&gt;
+  &lt;li&gt;In the case of IIC, those that, although were not assigned an ESG rating by the Manager are IICs that promote ESG characteristics. (IIC considered Art. 8 Regulation (EU) 2019/2088 and/or targeting sustainable investments (Art. 9 in accordance with Regulation (EU) 2019/2088).
+  &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The above ESG criteria along with the compliance of the minimum commitments of the Sub-Fund were integrated into the investment process and monitored on a regular basis by the Investment Manager’s Compliance team, and in the event of any non-compliance, the necessary corrective actions were taken (for instance, report to the management team, communication with the SRI team, referral to the relevant committee, among others).
+&lt;/p&gt;
+&lt;p&gt;In addition, the ESG performance of issuers has been subject to systematic and continuous monitoring by the Investment Manager’s SRI team including continuous monitoring of potential discrepancies identified by portfolio managers between the knowledge of the issuer and the data considered within the model provided by suppliers.
+&lt;/p&gt;
+&lt;p&gt;At last, the Investment Manager has carried out engagement activities for private issuers and voting activities in cases where the type of asset allows it (shares). These activities were aligned with the social and environmental characteristics of the Sub-fund and with the Investment Manager’s applicable Engagement and Voting Policies available at: &lt;/p&gt;
+&lt;p&gt;  https://www.santanderassetmanagement.lu/document-library/policies &lt;/p&gt;
+&lt;p&gt;Further examples of the engagement and voting activities can be found in the Management Company’s Stewardship Report available at:  &lt;/p&gt;
+&lt;p&gt;https://www.santanderassetmanagement.com/sustainability
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Sub-Fund has complied with the allocation of assets provided in the pre-contractual information. Specifically:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;The Sub-Fund has met the minimum of 51% of the Sub-Fund’s that promote environmental and social characteristics by meeting the above-described ESG investment strategy. Throughout the reference period, this percentage has been {{es_aligned}}% calculated as the average percentage of assets that promoted the characteristics of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section.
+&lt;/li&gt;
+&lt;li&gt;The Sub-Fund has met the minimum commitment of 1% in sustainable investments. Throughout the reference period, the average percentage of sustainable investments of this Sub-Fund has been {{sust_invest}}%, broken down into:
+&lt;ul&gt;
+&lt;li&gt;{{sust_invest_soc}}% corresponding to socially sustainable investments.&lt;/li&gt;
+&lt;li&gt;{{sust_invest_env}} % corresponding to environmental investments other than Taxonomy.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;The above percentages have been calculated as the average percentage of sustainable investments of the Sub-Fund considering the data from the last business day of each quarter of the reference period as defined in the Top Investments section.&lt;/p&gt;
+&lt;p&gt; Please note that, for the sake of clarity, the percentages related to Sustainable Investments (#1A) and other E/S characteristics (#1B) are calculated based on the total investments and not only on those aligned with E/S characteristics.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The Sub-Fund did not consider principal adverse impacts on sustainability factors within its investment process. The Investment Manager considered that the investment strategy of the Sub-Fund did not allow for a full integration of the PAI indicators as it expects to hold the underlying bonds to maturity, limiting the potential mitigating actions derived. However, the Sub-Fund used the mandatory PAI indicators as part of the Do Not Significant Harm screen to demonstrate that an investment qualifies as Sustainable Investment as previously explained in this report.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It does not apply as there is no previous periodic report. </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;It does not apply as there is no previous periodic report. &lt;/p&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3570,8 +4131,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Santander Text"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3600,6 +4172,24 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3643,7 +4233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3703,6 +4293,39 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3718,6 +4341,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4041,63 +4668,63 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
-      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="25" width="30.85546875" style="13" customWidth="1"/>
-    <col min="26" max="26" width="30.85546875" customWidth="1"/>
-    <col min="27" max="29" width="30.85546875" style="13" customWidth="1"/>
-    <col min="30" max="30" width="30.85546875" customWidth="1"/>
-    <col min="31" max="31" width="30.85546875" style="13" customWidth="1"/>
-    <col min="32" max="32" width="30.85546875" customWidth="1"/>
-    <col min="33" max="33" width="30.85546875" style="13" customWidth="1"/>
-    <col min="34" max="34" width="30.85546875" customWidth="1"/>
-    <col min="35" max="35" width="30.85546875" style="13" customWidth="1"/>
-    <col min="36" max="36" width="30.85546875" customWidth="1"/>
-    <col min="37" max="37" width="30.85546875" style="13" customWidth="1"/>
-    <col min="38" max="38" width="30.85546875" customWidth="1"/>
-    <col min="39" max="39" width="30.85546875" style="13" customWidth="1"/>
-    <col min="40" max="40" width="30.85546875" customWidth="1"/>
-    <col min="41" max="42" width="30.85546875" style="13" customWidth="1"/>
-    <col min="43" max="43" width="30.85546875" customWidth="1"/>
-    <col min="44" max="45" width="30.85546875" style="13" customWidth="1"/>
-    <col min="46" max="47" width="30.85546875" customWidth="1"/>
-    <col min="48" max="48" width="30.85546875" style="13" customWidth="1"/>
-    <col min="49" max="49" width="30.85546875" customWidth="1"/>
-    <col min="50" max="51" width="30.85546875" style="13" customWidth="1"/>
-    <col min="52" max="52" width="30.85546875" customWidth="1"/>
-    <col min="53" max="70" width="30.85546875" style="13" customWidth="1"/>
-    <col min="71" max="71" width="30.85546875" customWidth="1"/>
-    <col min="72" max="80" width="30.85546875" style="13" customWidth="1"/>
-    <col min="81" max="81" width="30.85546875" customWidth="1"/>
-    <col min="82" max="82" width="30.85546875" style="13" customWidth="1"/>
-    <col min="83" max="83" width="30.85546875" customWidth="1"/>
-    <col min="84" max="85" width="30.85546875" style="13" customWidth="1"/>
-    <col min="86" max="86" width="30.85546875" customWidth="1"/>
-    <col min="87" max="87" width="30.85546875" style="13" customWidth="1"/>
-    <col min="88" max="88" width="30.85546875" customWidth="1"/>
-    <col min="89" max="89" width="30.85546875" style="13" customWidth="1"/>
-    <col min="90" max="90" width="30.85546875" customWidth="1"/>
-    <col min="91" max="91" width="30.85546875" style="13" customWidth="1"/>
-    <col min="92" max="92" width="30.85546875" customWidth="1"/>
-    <col min="93" max="93" width="30.85546875" style="13" customWidth="1"/>
-    <col min="94" max="94" width="30.85546875" customWidth="1"/>
-    <col min="95" max="96" width="30.85546875" style="13" customWidth="1"/>
-    <col min="97" max="97" width="30.85546875" customWidth="1"/>
-    <col min="98" max="98" width="30.85546875" style="13" customWidth="1"/>
-    <col min="99" max="99" width="30.85546875" customWidth="1"/>
-    <col min="100" max="100" width="30.85546875" style="13" customWidth="1"/>
-    <col min="101" max="101" width="30.85546875" customWidth="1"/>
-    <col min="102" max="102" width="30.85546875" style="13" customWidth="1"/>
-    <col min="103" max="103" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" customWidth="1"/>
+    <col min="3" max="25" width="30.81640625" style="13" customWidth="1"/>
+    <col min="26" max="26" width="30.81640625" customWidth="1"/>
+    <col min="27" max="29" width="30.81640625" style="13" customWidth="1"/>
+    <col min="30" max="30" width="30.81640625" customWidth="1"/>
+    <col min="31" max="31" width="30.81640625" style="13" customWidth="1"/>
+    <col min="32" max="32" width="30.81640625" customWidth="1"/>
+    <col min="33" max="33" width="30.81640625" style="13" customWidth="1"/>
+    <col min="34" max="34" width="30.81640625" customWidth="1"/>
+    <col min="35" max="35" width="30.81640625" style="13" customWidth="1"/>
+    <col min="36" max="36" width="30.81640625" customWidth="1"/>
+    <col min="37" max="37" width="30.81640625" style="13" customWidth="1"/>
+    <col min="38" max="38" width="30.81640625" customWidth="1"/>
+    <col min="39" max="39" width="30.81640625" style="13" customWidth="1"/>
+    <col min="40" max="40" width="30.81640625" customWidth="1"/>
+    <col min="41" max="42" width="30.81640625" style="13" customWidth="1"/>
+    <col min="43" max="43" width="30.81640625" customWidth="1"/>
+    <col min="44" max="45" width="30.81640625" style="13" customWidth="1"/>
+    <col min="46" max="47" width="30.81640625" customWidth="1"/>
+    <col min="48" max="48" width="30.81640625" style="13" customWidth="1"/>
+    <col min="49" max="49" width="30.81640625" customWidth="1"/>
+    <col min="50" max="51" width="30.81640625" style="13" customWidth="1"/>
+    <col min="52" max="52" width="30.81640625" customWidth="1"/>
+    <col min="53" max="70" width="30.81640625" style="13" customWidth="1"/>
+    <col min="71" max="71" width="30.81640625" customWidth="1"/>
+    <col min="72" max="80" width="30.81640625" style="13" customWidth="1"/>
+    <col min="81" max="81" width="30.81640625" customWidth="1"/>
+    <col min="82" max="82" width="30.81640625" style="13" customWidth="1"/>
+    <col min="83" max="83" width="30.81640625" customWidth="1"/>
+    <col min="84" max="85" width="30.81640625" style="13" customWidth="1"/>
+    <col min="86" max="86" width="30.81640625" customWidth="1"/>
+    <col min="87" max="87" width="30.81640625" style="13" customWidth="1"/>
+    <col min="88" max="88" width="30.81640625" customWidth="1"/>
+    <col min="89" max="89" width="30.81640625" style="13" customWidth="1"/>
+    <col min="90" max="90" width="30.81640625" customWidth="1"/>
+    <col min="91" max="91" width="30.81640625" style="13" customWidth="1"/>
+    <col min="92" max="92" width="30.81640625" customWidth="1"/>
+    <col min="93" max="93" width="30.81640625" style="13" customWidth="1"/>
+    <col min="94" max="94" width="30.81640625" customWidth="1"/>
+    <col min="95" max="96" width="30.81640625" style="13" customWidth="1"/>
+    <col min="97" max="97" width="30.81640625" customWidth="1"/>
+    <col min="98" max="98" width="30.81640625" style="13" customWidth="1"/>
+    <col min="99" max="99" width="30.81640625" customWidth="1"/>
+    <col min="100" max="100" width="30.81640625" style="13" customWidth="1"/>
+    <col min="101" max="101" width="30.81640625" customWidth="1"/>
+    <col min="102" max="102" width="30.81640625" style="13" customWidth="1"/>
+    <col min="103" max="103" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4408,7 +5035,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="2" customFormat="1" ht="409.5">
+    <row r="2" spans="1:103" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>103</v>
       </c>
@@ -4719,7 +5346,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="108" customHeight="1">
+    <row r="3" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>103</v>
       </c>
@@ -5030,7 +5657,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="108" customHeight="1">
+    <row r="4" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>103</v>
       </c>
@@ -5341,7 +5968,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="108" customHeight="1">
+    <row r="5" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>103</v>
       </c>
@@ -5652,7 +6279,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="108" customHeight="1">
+    <row r="6" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>103</v>
       </c>
@@ -5963,7 +6590,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:103" ht="108" customHeight="1">
+    <row r="7" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>103</v>
       </c>
@@ -6274,7 +6901,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:103" ht="108" customHeight="1">
+    <row r="8" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>103</v>
       </c>
@@ -6585,7 +7212,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:103" ht="108" customHeight="1">
+    <row r="9" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>103</v>
       </c>
@@ -6896,7 +7523,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:103" ht="108" customHeight="1">
+    <row r="10" spans="1:103" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>103</v>
       </c>
@@ -7207,7 +7834,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:103" ht="409.5">
+    <row r="11" spans="1:103" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>103</v>
       </c>
@@ -7518,7 +8145,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:103" ht="409.5">
+    <row r="12" spans="1:103" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>103</v>
       </c>
@@ -7829,7 +8456,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:103" ht="409.5">
+    <row r="13" spans="1:103" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>103</v>
       </c>
@@ -8140,7 +8767,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:103" ht="409.5">
+    <row r="14" spans="1:103" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>103</v>
       </c>
@@ -8451,7 +9078,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:103" ht="174" customHeight="1">
+    <row r="15" spans="1:103" ht="174" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>103</v>
       </c>
@@ -8762,7 +9389,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:103" ht="170.1" customHeight="1">
+    <row r="16" spans="1:103" ht="170.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>281</v>
       </c>
@@ -9073,7 +9700,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:103" ht="170.1" customHeight="1">
+    <row r="17" spans="1:103" ht="170.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>281</v>
       </c>
@@ -9384,7 +10011,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:103">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.35">
       <c r="CB18" s="12"/>
     </row>
   </sheetData>
@@ -9396,20 +10023,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6A6837-7230-4429-B7FC-980D5EFB5D43}">
-  <dimension ref="A1:CY17"/>
+  <dimension ref="A1:CY15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="CC1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="CD4" sqref="CD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="10" width="21" style="13" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="13" customWidth="1"/>
-    <col min="13" max="14" width="19.5703125" style="13" customWidth="1"/>
-    <col min="15" max="23" width="23.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="27.1796875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" style="13" customWidth="1"/>
+    <col min="13" max="14" width="19.54296875" style="13" customWidth="1"/>
+    <col min="15" max="23" width="23.1796875" style="13" customWidth="1"/>
     <col min="24" max="25" width="21" style="13" customWidth="1"/>
     <col min="26" max="26" width="21" customWidth="1"/>
     <col min="27" max="29" width="21" style="13" customWidth="1"/>
@@ -9435,22 +10062,22 @@
     <col min="53" max="65" width="21" style="13" customWidth="1"/>
     <col min="66" max="66" width="21" customWidth="1"/>
     <col min="67" max="68" width="21" style="13" customWidth="1"/>
-    <col min="69" max="70" width="25.85546875" style="13" customWidth="1"/>
-    <col min="71" max="71" width="25.85546875" customWidth="1"/>
-    <col min="72" max="73" width="25.85546875" style="13" customWidth="1"/>
+    <col min="69" max="70" width="25.81640625" style="13" customWidth="1"/>
+    <col min="71" max="71" width="25.81640625" customWidth="1"/>
+    <col min="72" max="73" width="25.81640625" style="13" customWidth="1"/>
     <col min="74" max="76" width="21" style="13" customWidth="1"/>
-    <col min="77" max="77" width="74.7109375" style="13" customWidth="1"/>
-    <col min="78" max="78" width="42.140625" style="13" customWidth="1"/>
-    <col min="79" max="79" width="42.7109375" style="13" customWidth="1"/>
+    <col min="77" max="77" width="74.7265625" style="13" customWidth="1"/>
+    <col min="78" max="78" width="42.1796875" style="13" customWidth="1"/>
+    <col min="79" max="79" width="42.7265625" style="13" customWidth="1"/>
     <col min="80" max="80" width="21" style="13" customWidth="1"/>
-    <col min="81" max="81" width="40.5703125" customWidth="1"/>
+    <col min="81" max="81" width="40.54296875" customWidth="1"/>
     <col min="82" max="82" width="21" style="13" customWidth="1"/>
     <col min="83" max="83" width="21" customWidth="1"/>
     <col min="84" max="85" width="21" style="13" customWidth="1"/>
     <col min="86" max="86" width="21" customWidth="1"/>
     <col min="87" max="87" width="21" style="13" customWidth="1"/>
     <col min="88" max="88" width="21" customWidth="1"/>
-    <col min="89" max="89" width="36.140625" style="13" customWidth="1"/>
+    <col min="89" max="89" width="36.1796875" style="13" customWidth="1"/>
     <col min="90" max="90" width="21" customWidth="1"/>
     <col min="91" max="91" width="21" style="13" customWidth="1"/>
     <col min="92" max="92" width="21" customWidth="1"/>
@@ -9466,7 +10093,7 @@
     <col min="103" max="103" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -9777,12 +10404,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="2" customFormat="1" ht="409.6" customHeight="1">
+    <row r="2" spans="1:103" s="2" customFormat="1" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>282</v>
+        <v>523</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>522</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>287</v>
@@ -9801,331 +10428,1181 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>295</v>
-      </c>
       <c r="O2" s="12" t="s">
-        <v>296</v>
+        <v>571</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>297</v>
+        <v>569</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>298</v>
+        <v>570</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>299</v>
+        <v>572</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>300</v>
+        <v>573</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>301</v>
+        <v>574</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>302</v>
+        <v>575</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>303</v>
+        <v>576</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>304</v>
+        <v>577</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>126</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>305</v>
+        <v>578</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>306</v>
+        <v>525</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>307</v>
+        <v>580</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>308</v>
+        <v>581</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>309</v>
+        <v>582</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>310</v>
+        <v>499</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>311</v>
+        <v>583</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>313</v>
+        <v>584</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>314</v>
+        <v>501</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>315</v>
+        <v>585</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>316</v>
+        <v>502</v>
       </c>
       <c r="AK2" s="12" t="s">
-        <v>317</v>
+        <v>586</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>318</v>
+        <v>503</v>
       </c>
       <c r="AM2" s="12" t="s">
-        <v>319</v>
+        <v>587</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>320</v>
+        <v>504</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>321</v>
+        <v>588</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>322</v>
+        <v>589</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>323</v>
+        <v>505</v>
       </c>
       <c r="AR2" s="12" t="s">
-        <v>324</v>
+        <v>590</v>
       </c>
       <c r="AS2" s="12" t="s">
-        <v>325</v>
+        <v>591</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>326</v>
+        <v>506</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>329</v>
+        <v>592</v>
       </c>
       <c r="AX2" s="12" t="s">
-        <v>330</v>
+        <v>593</v>
       </c>
       <c r="AY2" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>332</v>
+        <v>594</v>
+      </c>
+      <c r="AZ2" s="28" t="s">
+        <v>507</v>
       </c>
       <c r="BA2" s="12" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="BB2" s="12" t="s">
-        <v>334</v>
+        <v>595</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="BD2" s="12" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="BE2" s="12" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="BF2" s="12" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="BH2" s="12" t="s">
-        <v>340</v>
+        <v>596</v>
       </c>
       <c r="BI2" s="12" t="s">
-        <v>341</v>
+        <v>597</v>
       </c>
       <c r="BJ2" s="12" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="BK2" s="12" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="BL2" s="12" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>346</v>
+        <v>598</v>
       </c>
       <c r="BO2" s="12" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="BP2" s="12" t="s">
-        <v>348</v>
+        <v>599</v>
       </c>
       <c r="BQ2" s="12" t="s">
-        <v>349</v>
+        <v>617</v>
       </c>
       <c r="BR2" s="12" t="s">
-        <v>350</v>
+        <v>616</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>351</v>
+        <v>508</v>
       </c>
       <c r="BT2" s="12" t="s">
-        <v>352</v>
+        <v>615</v>
       </c>
       <c r="BU2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV2" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="BW2" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX2" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="BY2" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="BZ2" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="CA2" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="CB2" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="CD2" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="CF2" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="CG2" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="CI2" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="CK2" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="CM2" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="CO2" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="CP2" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="CQ2" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="CR2" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="CS2" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="CT2" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="CU2" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="CV2" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="CW2" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="CX2" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="CY2" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" s="2" customFormat="1" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AV3" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="AX3" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="AY3" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="AZ3" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="BA3" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="BB3" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BC3" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="BV2" s="12" t="s">
+      <c r="BD3" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="BW2" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="BX2" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="BY2" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="BZ2" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="CA2" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="CB2" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="CD2" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="CF2" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="CG2" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="CI2" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="CK2" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="CM2" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="CO2" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="CQ2" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="CR2" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="CT2" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="CV2" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="CX2" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>375</v>
+      <c r="BE3" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF3" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="BG3" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH3" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="BI3" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="BJ3" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="BK3" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="BL3" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="BM3" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="BO3" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP3" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="BQ3" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="BR3" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="BT3" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="BU3" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV3" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="BW3" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX3" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="BY3" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="BZ3" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="CA3" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="CB3" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="CD3" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="CF3" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="CG3" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="CI3" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="CK3" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="CM3" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="CN3" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="CO3" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="CP3" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="CQ3" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="CR3" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="CS3" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="CT3" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="CU3" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="CV3" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="CW3" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="CX3" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="CY3" s="23" t="s">
+        <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:103">
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+    <row r="4" spans="1:103" s="26" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="X4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC4" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE4" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF4" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG4" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AI4" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK4" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="AM4" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AR4" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AV4" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="AY4" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="AZ4" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="BA4" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="BB4" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="BC4" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="BD4" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="BE4" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF4" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="BG4" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH4" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="BI4" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="BJ4" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="BK4" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="BL4" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="BM4" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="BO4" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP4" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="BQ4" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="BR4" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="BS4" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="BT4" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="BU4" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV4" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="BW4" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX4" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="BY4" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="BZ4" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="CA4" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="CB4" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="CC4" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="CD4" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="CE4" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="CF4" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="CG4" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="CH4" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="CI4" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="CJ4" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="CK4" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="CL4" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="CM4" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="CN4" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="CO4" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="CP4" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="CQ4" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="CR4" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="CS4" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="CT4" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="CU4" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="CV4" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="CW4" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="CX4" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="CY4" s="27" t="s">
+        <v>498</v>
+      </c>
     </row>
-    <row r="4" spans="1:103">
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+    <row r="5" spans="1:103" s="23" customFormat="1" ht="102.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z5" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC5" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD5" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE5" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF5" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="AG5" s="29"/>
+      <c r="AI5" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="AJ5" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="AK5" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="AL5" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="AM5" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="AN5" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="AQ5" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="AR5" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="AT5" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AV5" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="AY5" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="AZ5" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="BA5" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="BB5" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="BC5" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="BD5" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="BE5" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="BF5" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="BG5" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="BH5" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="BI5" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="BJ5" s="29"/>
+      <c r="BK5" s="29"/>
+      <c r="BL5" s="29"/>
+      <c r="BM5" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="BO5" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP5" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="BQ5" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="BR5" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="BS5" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="BT5" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="BU5" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV5" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="BW5" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="BX5" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="BY5" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="BZ5" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="CA5" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="CB5" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="CC5" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="CD5" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="CE5" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="CF5" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="CG5" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="CH5" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="CI5" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="CJ5" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="CK5" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="CL5" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="CM5" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="CN5" s="28" t="s">
+        <v>644</v>
+      </c>
+      <c r="CO5" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="CP5" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="CQ5" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="CR5" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="CS5" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="CT5" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="CU5" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="CV5" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="CW5" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="CX5" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="CY5" s="23" t="s">
+        <v>631</v>
+      </c>
     </row>
-    <row r="5" spans="1:103">
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-    </row>
-    <row r="6" spans="1:103">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.35">
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -10138,7 +11615,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
     </row>
-    <row r="7" spans="1:103">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.35">
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10151,7 +11628,7 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
     </row>
-    <row r="8" spans="1:103">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.35">
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -10164,7 +11641,7 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
     </row>
-    <row r="9" spans="1:103">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.35">
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -10177,7 +11654,7 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:103">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.35">
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -10190,7 +11667,7 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
     </row>
-    <row r="11" spans="1:103">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.35">
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -10203,7 +11680,7 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
     </row>
-    <row r="12" spans="1:103">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.35">
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -10216,7 +11693,7 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="1:103">
+    <row r="13" spans="1:103" x14ac:dyDescent="0.35">
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -10229,7 +11706,7 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="1:103">
+    <row r="14" spans="1:103" x14ac:dyDescent="0.35">
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -10242,7 +11719,7 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="1:103">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.35">
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -10255,33 +11732,8 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
     </row>
-    <row r="16" spans="1:103">
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-    </row>
-    <row r="17" spans="13:23">
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10289,69 +11741,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF83BCF-3DAB-4382-89FD-168493B9C498}">
-  <dimension ref="A1:CY3"/>
+  <dimension ref="A1:CY9"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC2" sqref="BC2"/>
       <selection activeCell="BO1" sqref="BO1"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="25" width="31.42578125" style="13" customWidth="1"/>
-    <col min="26" max="26" width="31.42578125" customWidth="1"/>
-    <col min="27" max="29" width="31.42578125" style="13" customWidth="1"/>
-    <col min="30" max="30" width="31.42578125" customWidth="1"/>
-    <col min="31" max="31" width="31.42578125" style="13" customWidth="1"/>
-    <col min="32" max="32" width="31.42578125" customWidth="1"/>
-    <col min="33" max="33" width="31.42578125" style="13" customWidth="1"/>
-    <col min="34" max="34" width="31.42578125" customWidth="1"/>
-    <col min="35" max="35" width="31.42578125" style="13" customWidth="1"/>
-    <col min="36" max="36" width="31.42578125" customWidth="1"/>
-    <col min="37" max="37" width="31.42578125" style="13" customWidth="1"/>
-    <col min="38" max="38" width="31.42578125" customWidth="1"/>
-    <col min="39" max="39" width="31.42578125" style="13" customWidth="1"/>
-    <col min="40" max="40" width="31.42578125" customWidth="1"/>
-    <col min="41" max="42" width="31.42578125" style="13" customWidth="1"/>
-    <col min="43" max="43" width="31.42578125" customWidth="1"/>
-    <col min="44" max="45" width="31.42578125" style="13" customWidth="1"/>
-    <col min="46" max="47" width="31.42578125" customWidth="1"/>
-    <col min="48" max="48" width="31.42578125" style="13" customWidth="1"/>
-    <col min="49" max="49" width="31.42578125" customWidth="1"/>
-    <col min="50" max="51" width="31.42578125" style="13" customWidth="1"/>
-    <col min="52" max="52" width="31.42578125" customWidth="1"/>
-    <col min="53" max="65" width="31.42578125" style="13" customWidth="1"/>
-    <col min="66" max="66" width="31.42578125" customWidth="1"/>
-    <col min="67" max="70" width="31.42578125" style="13" customWidth="1"/>
-    <col min="71" max="71" width="31.42578125" customWidth="1"/>
-    <col min="72" max="80" width="31.42578125" style="13" customWidth="1"/>
-    <col min="81" max="81" width="31.42578125" customWidth="1"/>
-    <col min="82" max="82" width="31.42578125" style="13" customWidth="1"/>
-    <col min="83" max="83" width="31.42578125" customWidth="1"/>
-    <col min="84" max="85" width="31.42578125" style="13" customWidth="1"/>
-    <col min="86" max="86" width="31.42578125" customWidth="1"/>
-    <col min="87" max="87" width="31.42578125" style="13" customWidth="1"/>
-    <col min="88" max="88" width="31.42578125" customWidth="1"/>
-    <col min="89" max="89" width="31.42578125" style="13" customWidth="1"/>
-    <col min="90" max="90" width="31.42578125" customWidth="1"/>
-    <col min="91" max="91" width="31.42578125" style="13" customWidth="1"/>
-    <col min="92" max="92" width="31.42578125" customWidth="1"/>
-    <col min="93" max="93" width="31.42578125" style="13" customWidth="1"/>
-    <col min="94" max="94" width="31.42578125" customWidth="1"/>
-    <col min="95" max="96" width="31.42578125" style="13" customWidth="1"/>
-    <col min="97" max="97" width="31.42578125" customWidth="1"/>
-    <col min="98" max="98" width="31.42578125" style="13" customWidth="1"/>
-    <col min="99" max="99" width="31.42578125" customWidth="1"/>
-    <col min="100" max="100" width="31.42578125" style="13" customWidth="1"/>
-    <col min="101" max="101" width="31.42578125" customWidth="1"/>
-    <col min="102" max="102" width="31.42578125" style="13" customWidth="1"/>
-    <col min="103" max="103" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="25" width="31.453125" style="13" customWidth="1"/>
+    <col min="26" max="26" width="31.453125" customWidth="1"/>
+    <col min="27" max="29" width="31.453125" style="13" customWidth="1"/>
+    <col min="30" max="30" width="31.453125" customWidth="1"/>
+    <col min="31" max="31" width="31.453125" style="13" customWidth="1"/>
+    <col min="32" max="32" width="31.453125" customWidth="1"/>
+    <col min="33" max="33" width="31.453125" style="13" customWidth="1"/>
+    <col min="34" max="34" width="31.453125" customWidth="1"/>
+    <col min="35" max="35" width="31.453125" style="13" customWidth="1"/>
+    <col min="36" max="36" width="31.453125" customWidth="1"/>
+    <col min="37" max="37" width="31.453125" style="13" customWidth="1"/>
+    <col min="38" max="38" width="31.453125" customWidth="1"/>
+    <col min="39" max="39" width="31.453125" style="13" customWidth="1"/>
+    <col min="40" max="40" width="31.453125" customWidth="1"/>
+    <col min="41" max="42" width="31.453125" style="13" customWidth="1"/>
+    <col min="43" max="43" width="31.453125" customWidth="1"/>
+    <col min="44" max="45" width="31.453125" style="13" customWidth="1"/>
+    <col min="46" max="47" width="31.453125" customWidth="1"/>
+    <col min="48" max="48" width="31.453125" style="13" customWidth="1"/>
+    <col min="49" max="49" width="31.453125" customWidth="1"/>
+    <col min="50" max="51" width="31.453125" style="13" customWidth="1"/>
+    <col min="52" max="52" width="31.453125" customWidth="1"/>
+    <col min="53" max="65" width="31.453125" style="13" customWidth="1"/>
+    <col min="66" max="66" width="31.453125" customWidth="1"/>
+    <col min="67" max="70" width="31.453125" style="13" customWidth="1"/>
+    <col min="71" max="71" width="31.453125" customWidth="1"/>
+    <col min="72" max="80" width="31.453125" style="13" customWidth="1"/>
+    <col min="81" max="81" width="31.453125" customWidth="1"/>
+    <col min="82" max="82" width="31.453125" style="13" customWidth="1"/>
+    <col min="83" max="83" width="31.453125" customWidth="1"/>
+    <col min="84" max="85" width="31.453125" style="13" customWidth="1"/>
+    <col min="86" max="86" width="31.453125" customWidth="1"/>
+    <col min="87" max="87" width="31.453125" style="13" customWidth="1"/>
+    <col min="88" max="88" width="31.453125" customWidth="1"/>
+    <col min="89" max="89" width="31.453125" style="13" customWidth="1"/>
+    <col min="90" max="90" width="31.453125" customWidth="1"/>
+    <col min="91" max="91" width="31.453125" style="13" customWidth="1"/>
+    <col min="92" max="92" width="31.453125" customWidth="1"/>
+    <col min="93" max="93" width="31.453125" style="13" customWidth="1"/>
+    <col min="94" max="94" width="31.453125" customWidth="1"/>
+    <col min="95" max="96" width="31.453125" style="13" customWidth="1"/>
+    <col min="97" max="97" width="31.453125" customWidth="1"/>
+    <col min="98" max="98" width="31.453125" style="13" customWidth="1"/>
+    <col min="99" max="99" width="31.453125" customWidth="1"/>
+    <col min="100" max="100" width="31.453125" style="13" customWidth="1"/>
+    <col min="101" max="101" width="31.453125" customWidth="1"/>
+    <col min="102" max="102" width="31.453125" style="13" customWidth="1"/>
+    <col min="103" max="103" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -10662,24 +12114,24 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:103" ht="177.6" customHeight="1">
+    <row r="2" spans="1:103" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>104</v>
+      <c r="B2" s="30" t="s">
+        <v>527</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>107</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>109</v>
@@ -10688,307 +12140,305 @@
         <v>110</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>116</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>389</v>
+        <v>316</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>391</v>
+        <v>318</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>126</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>396</v>
+        <v>323</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>398</v>
+        <v>325</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>399</v>
+        <v>528</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>401</v>
+        <v>529</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>403</v>
+        <v>530</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>404</v>
+        <v>328</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>405</v>
+        <v>329</v>
       </c>
       <c r="AK2" s="12" t="s">
-        <v>406</v>
+        <v>330</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>407</v>
+        <v>531</v>
       </c>
       <c r="AM2" s="12" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>409</v>
+        <v>332</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>411</v>
+        <v>334</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>412</v>
+        <v>532</v>
       </c>
       <c r="AR2" s="12" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="AS2" s="12" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>415</v>
+        <v>533</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="AW2" s="2"/>
       <c r="AX2" s="12" t="s">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="AY2" s="12" t="s">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>421</v>
+        <v>534</v>
       </c>
       <c r="BA2" s="12" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="BB2" s="12" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>424</v>
+        <v>343</v>
       </c>
       <c r="BD2" s="12" t="s">
-        <v>425</v>
+        <v>344</v>
       </c>
       <c r="BE2" s="12" t="s">
-        <v>426</v>
+        <v>345</v>
       </c>
       <c r="BF2" s="12" t="s">
-        <v>427</v>
+        <v>346</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="BH2" s="12" t="s">
-        <v>429</v>
+        <v>348</v>
       </c>
       <c r="BI2" s="12" t="s">
-        <v>430</v>
+        <v>349</v>
       </c>
       <c r="BJ2" s="12" t="s">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="BK2" s="12" t="s">
-        <v>432</v>
+        <v>351</v>
       </c>
       <c r="BL2" s="12" t="s">
-        <v>433</v>
+        <v>352</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>434</v>
+        <v>353</v>
       </c>
       <c r="BN2" s="2"/>
       <c r="BO2" s="12" t="s">
-        <v>435</v>
+        <v>354</v>
       </c>
       <c r="BP2" s="12" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
       <c r="BQ2" s="12" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
       <c r="BR2" s="12" t="s">
-        <v>438</v>
+        <v>357</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>439</v>
+        <v>535</v>
       </c>
       <c r="BT2" s="12" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="BU2" s="12" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="BV2" s="12" t="s">
         <v>116</v>
       </c>
       <c r="BW2" s="12" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="BX2" s="12" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="BY2" s="12" t="s">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="CA2" s="12" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>447</v>
+        <v>649</v>
       </c>
       <c r="CD2" s="12" t="s">
-        <v>448</v>
+        <v>365</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>449</v>
+        <v>538</v>
       </c>
       <c r="CF2" s="12" t="s">
-        <v>450</v>
+        <v>366</v>
       </c>
       <c r="CG2" s="12" t="s">
-        <v>451</v>
+        <v>367</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>452</v>
+        <v>368</v>
       </c>
       <c r="CI2" s="12" t="s">
-        <v>453</v>
+        <v>369</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>454</v>
+        <v>536</v>
       </c>
       <c r="CK2" s="12" t="s">
-        <v>455</v>
+        <v>370</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>456</v>
+        <v>537</v>
       </c>
       <c r="CM2" s="12" t="s">
-        <v>457</v>
+        <v>371</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>458</v>
+        <v>673</v>
       </c>
       <c r="CO2" s="12" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="CQ2" s="12" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="CR2" s="12" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="CT2" s="12" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="CV2" s="12" t="s">
-        <v>464</v>
+        <v>377</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="CX2" s="12" t="s">
-        <v>465</v>
+        <v>378</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="171" customHeight="1">
+    <row r="3" spans="1:103" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>282</v>
+        <v>539</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>540</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>377</v>
+        <v>541</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>109</v>
@@ -10997,287 +12447,2109 @@
         <v>110</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>380</v>
+        <v>565</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>116</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>389</v>
+        <v>316</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>391</v>
+        <v>318</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="X3" s="12" t="s">
         <v>126</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>394</v>
+        <v>542</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>395</v>
+        <v>553</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>396</v>
+        <v>543</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>398</v>
+        <v>325</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>399</v>
+        <v>554</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>403</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
       <c r="AI3" s="12" t="s">
-        <v>404</v>
+        <v>544</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>405</v>
+        <v>556</v>
       </c>
       <c r="AK3" s="12" t="s">
-        <v>406</v>
+        <v>330</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>407</v>
+        <v>557</v>
       </c>
       <c r="AM3" s="12" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>409</v>
+        <v>332</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="AP3" s="12" t="s">
-        <v>411</v>
+        <v>334</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>412</v>
+        <v>532</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="AS3" s="12" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>415</v>
+        <v>533</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
       <c r="AV3" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="AW3" s="2"/>
       <c r="AX3" s="12" t="s">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="AY3" s="12" t="s">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>421</v>
+        <v>558</v>
       </c>
       <c r="BA3" s="12" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="BB3" s="12" t="s">
-        <v>423</v>
+        <v>545</v>
       </c>
       <c r="BC3" s="12" t="s">
-        <v>424</v>
+        <v>546</v>
       </c>
       <c r="BD3" s="12" t="s">
-        <v>425</v>
+        <v>547</v>
       </c>
       <c r="BE3" s="12" t="s">
-        <v>426</v>
+        <v>347</v>
       </c>
       <c r="BF3" s="12" t="s">
-        <v>427</v>
+        <v>548</v>
       </c>
       <c r="BG3" s="12" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="BH3" s="12" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="BI3" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="BJ3" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="BK3" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="BL3" s="12" t="s">
-        <v>433</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
       <c r="BM3" s="12" t="s">
-        <v>434</v>
+        <v>353</v>
       </c>
       <c r="BN3" s="2"/>
       <c r="BO3" s="12" t="s">
-        <v>435</v>
+        <v>354</v>
       </c>
       <c r="BP3" s="12" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
       <c r="BQ3" s="12" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
       <c r="BR3" s="12" t="s">
-        <v>438</v>
+        <v>357</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>439</v>
+        <v>535</v>
       </c>
       <c r="BT3" s="12" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="BU3" s="12" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="BV3" s="12" t="s">
         <v>116</v>
       </c>
       <c r="BW3" s="12" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="BX3" s="12" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="BY3" s="12" t="s">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="BZ3" s="12" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="CA3" s="12" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="CB3" s="12" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>447</v>
+        <v>649</v>
       </c>
       <c r="CD3" s="12" t="s">
-        <v>448</v>
+        <v>365</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>449</v>
+        <v>538</v>
       </c>
       <c r="CF3" s="12" t="s">
-        <v>450</v>
+        <v>366</v>
       </c>
       <c r="CG3" s="12" t="s">
-        <v>451</v>
+        <v>367</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>452</v>
+        <v>559</v>
       </c>
       <c r="CI3" s="12" t="s">
-        <v>453</v>
+        <v>369</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>454</v>
+        <v>536</v>
       </c>
       <c r="CK3" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="CL3" s="2" t="s">
-        <v>456</v>
+        <v>551</v>
+      </c>
+      <c r="CL3" s="33" t="s">
+        <v>560</v>
       </c>
       <c r="CM3" s="12" t="s">
-        <v>457</v>
+        <v>552</v>
       </c>
       <c r="CN3" s="2" t="s">
-        <v>458</v>
+        <v>561</v>
       </c>
       <c r="CO3" s="12" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="CP3" s="2" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="CQ3" s="12" t="s">
-        <v>461</v>
+        <v>562</v>
       </c>
       <c r="CR3" s="12" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="CS3" s="2" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="CT3" s="12" t="s">
-        <v>463</v>
+        <v>563</v>
       </c>
       <c r="CU3" s="2" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="CV3" s="12" t="s">
-        <v>464</v>
+        <v>377</v>
       </c>
       <c r="CW3" s="2" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="CX3" s="12" t="s">
-        <v>465</v>
+        <v>378</v>
       </c>
       <c r="CY3" s="2" t="s">
-        <v>460</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY4" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="BA4" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB4" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="BC4" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD4" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="BE4" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="BF4" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG4" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="BH4" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI4" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="BJ4" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="BK4" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="BL4" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="BM4" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="BO4" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="BP4" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="BQ4" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR4" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="BS4" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="BT4" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="BU4" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW4" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="BX4" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="BY4" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="BZ4" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="CA4" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="CB4" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="CC4" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="CD4" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CE4" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="CF4" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CG4" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="CH4" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="CI4" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="CJ4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="CK4" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="CL4" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="CM4" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="CN4" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="CO4" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="CP4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CQ4" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="CR4" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="CS4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CT4" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="CU4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CV4" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="CW4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CX4" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="CY4" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:103" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI5" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV5" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY5" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="BA5" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB5" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="BC5" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD5" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="BE5" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="BF5" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG5" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="BH5" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI5" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="BJ5" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="BK5" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="BL5" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="BM5" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="BO5" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="BP5" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="BQ5" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR5" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="BT5" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="BU5" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW5" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="BX5" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="BY5" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="BZ5" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="CA5" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="CB5" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="CC5" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="CD5" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CE5" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="CF5" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CG5" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="CH5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="CI5" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="CJ5" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="CK5" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="CL5" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="CM5" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="CN5" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="CO5" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="CP5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CQ5" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="CR5" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="CS5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CT5" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="CU5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CV5" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="CW5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CX5" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="CY5" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI6" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK6" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM6" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO6" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP6" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS6" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV6" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY6" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="BA6" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB6" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="BC6" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD6" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="BE6" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="BF6" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG6" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="BH6" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI6" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="BJ6" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="BK6" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="BL6" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="BM6" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="BP6" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="BQ6" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR6" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="BS6" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="BT6" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="BU6" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW6" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="BX6" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="BY6" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="BZ6" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="CA6" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="CB6" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="CC6" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="CD6" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CE6" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="CF6" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CG6" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="CH6" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="CI6" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="CJ6" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="CK6" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="CL6" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="CM6" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="CN6" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="CO6" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="CP6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CQ6" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="CR6" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="CS6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CT6" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="CU6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CV6" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="CW6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CX6" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="CY6" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI7" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO7" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP7" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS7" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV7" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY7" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="BA7" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB7" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="BC7" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD7" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="BE7" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="BF7" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG7" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="BH7" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI7" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="BJ7" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="BK7" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="BL7" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="BM7" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="BO7" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="BP7" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="BQ7" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR7" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="BS7" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="BT7" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="BU7" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW7" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="BX7" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="BY7" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="BZ7" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="CA7" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="CB7" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="CC7" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="CD7" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CE7" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="CF7" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CG7" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="CH7" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="CI7" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="CJ7" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="CK7" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="CL7" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="CM7" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="CN7" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="CO7" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="CP7" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CQ7" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="CR7" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="CS7" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CT7" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="CU7" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CV7" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="CW7" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CX7" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="CY7" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO8" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP8" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS8" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV8" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY8" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="BA8" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB8" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="BC8" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD8" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="BE8" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="BF8" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG8" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="BH8" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI8" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="BJ8" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="BK8" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="BL8" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="BM8" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="BO8" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="BP8" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="BQ8" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR8" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="BS8" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="BT8" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="BU8" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW8" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="BX8" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="BY8" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="BZ8" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="CA8" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="CB8" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="CC8" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="CD8" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CE8" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="CF8" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CG8" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="CH8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="CI8" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="CJ8" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="CK8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="CL8" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="CM8" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="CN8" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="CO8" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="CP8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CQ8" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="CR8" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="CS8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CT8" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="CU8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CV8" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="CW8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CX8" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="CY8" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AI9" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK9" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM9" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO9" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AR9" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS9" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV9" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY9" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="BA9" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB9" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="BC9" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD9" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="BE9" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="BF9" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG9" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="BH9" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI9" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="BJ9" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="BK9" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="BL9" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="BM9" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="BP9" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="BQ9" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR9" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="BS9" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="BT9" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="BU9" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="BV9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW9" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="BX9" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="BY9" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="BZ9" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="CA9" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="CB9" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="CC9" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="CD9" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CE9" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="CF9" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CG9" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="CH9" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="CI9" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="CJ9" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="CK9" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="CL9" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="CM9" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="CN9" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="CO9" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="CP9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CQ9" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="CR9" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="CS9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CT9" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="CU9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CV9" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="CW9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CX9" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="CY9" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -11289,22 +14561,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F6EF4D-CF5F-40A8-8775-A1A29C91F1C4}">
   <dimension ref="A1:DA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="CE3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CP4" sqref="CP4"/>
+    <sheetView topLeftCell="BZ1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="CP3" sqref="CP3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="29" width="19.42578125" customWidth="1"/>
-    <col min="30" max="30" width="42.5703125" customWidth="1"/>
-    <col min="31" max="82" width="19.42578125" customWidth="1"/>
-    <col min="83" max="83" width="63.5703125" customWidth="1"/>
-    <col min="84" max="105" width="19.42578125" customWidth="1"/>
+    <col min="1" max="29" width="19.453125" customWidth="1"/>
+    <col min="30" max="30" width="42.54296875" customWidth="1"/>
+    <col min="31" max="82" width="19.453125" customWidth="1"/>
+    <col min="83" max="83" width="63.54296875" customWidth="1"/>
+    <col min="84" max="105" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="1" customFormat="1">
+    <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -11447,10 +14719,10 @@
         <v>46</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="AX1" s="21" t="s">
         <v>47</v>
@@ -11621,24 +14893,24 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:105" s="2" customFormat="1" ht="54.95" customHeight="1">
+    <row r="2" spans="1:105" s="2" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>107</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>109</v>
@@ -11647,312 +14919,312 @@
         <v>110</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>126</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="AK2" s="12" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="AM2" s="12" t="s">
-        <v>500</v>
+        <v>413</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>502</v>
+        <v>415</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="AR2" s="12" t="s">
-        <v>505</v>
+        <v>418</v>
       </c>
       <c r="AS2" s="12" t="s">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>507</v>
+        <v>420</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>508</v>
+        <v>421</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>509</v>
+        <v>422</v>
       </c>
       <c r="AX2" s="12" t="s">
-        <v>510</v>
+        <v>423</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>511</v>
+        <v>424</v>
       </c>
       <c r="AZ2" s="12" t="s">
-        <v>512</v>
+        <v>425</v>
       </c>
       <c r="BA2" s="12" t="s">
-        <v>513</v>
+        <v>426</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>514</v>
+        <v>427</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>515</v>
+        <v>428</v>
       </c>
       <c r="BD2" s="12" t="s">
-        <v>516</v>
+        <v>429</v>
       </c>
       <c r="BE2" s="12" t="s">
-        <v>517</v>
+        <v>430</v>
       </c>
       <c r="BF2" s="12" t="s">
-        <v>518</v>
+        <v>431</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>519</v>
+        <v>432</v>
       </c>
       <c r="BH2" s="12" t="s">
-        <v>520</v>
+        <v>433</v>
       </c>
       <c r="BI2" s="12" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="BJ2" s="12" t="s">
-        <v>521</v>
+        <v>434</v>
       </c>
       <c r="BK2" s="12" t="s">
-        <v>522</v>
+        <v>435</v>
       </c>
       <c r="BL2" s="12" t="s">
-        <v>523</v>
+        <v>436</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>524</v>
+        <v>437</v>
       </c>
       <c r="BN2" s="12" t="s">
-        <v>525</v>
+        <v>438</v>
       </c>
       <c r="BO2" s="12" t="s">
-        <v>526</v>
+        <v>439</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>527</v>
+        <v>440</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>528</v>
+        <v>441</v>
       </c>
       <c r="BR2" s="12" t="s">
-        <v>529</v>
+        <v>442</v>
       </c>
       <c r="BS2" s="12" t="s">
-        <v>530</v>
+        <v>443</v>
       </c>
       <c r="BT2" s="12" t="s">
-        <v>531</v>
+        <v>444</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>532</v>
+        <v>445</v>
       </c>
       <c r="BV2" s="12" t="s">
-        <v>533</v>
+        <v>446</v>
       </c>
       <c r="BW2" s="12" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="BX2" s="12" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="BY2" s="12" t="s">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>535</v>
+        <v>448</v>
       </c>
       <c r="CA2" s="12" t="s">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>537</v>
+        <v>450</v>
       </c>
       <c r="CC2" s="12" t="s">
-        <v>538</v>
+        <v>451</v>
       </c>
       <c r="CD2" s="12" t="s">
-        <v>539</v>
+        <v>452</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>540</v>
+        <v>453</v>
       </c>
       <c r="CF2" s="12" t="s">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>542</v>
+        <v>455</v>
       </c>
       <c r="CH2" s="12" t="s">
-        <v>543</v>
+        <v>456</v>
       </c>
       <c r="CI2" s="12" t="s">
-        <v>544</v>
+        <v>457</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>545</v>
+        <v>458</v>
       </c>
       <c r="CK2" s="12" t="s">
-        <v>546</v>
+        <v>459</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>547</v>
+        <v>460</v>
       </c>
       <c r="CM2" s="12" t="s">
-        <v>548</v>
+        <v>461</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>549</v>
+        <v>462</v>
       </c>
       <c r="CO2" s="12" t="s">
-        <v>550</v>
+        <v>463</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="CQ2" s="12" t="s">
-        <v>552</v>
+        <v>465</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>553</v>
+        <v>466</v>
       </c>
       <c r="CS2" s="12" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="CT2" s="12" t="s">
-        <v>555</v>
+        <v>468</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CV2" s="12" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CX2" s="12" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CZ2" s="12" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:105" s="2" customFormat="1" ht="54.95" customHeight="1">
+    <row r="3" spans="1:105" s="2" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>560</v>
+        <v>473</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>109</v>
@@ -11961,312 +15233,312 @@
         <v>110</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="X3" s="12" t="s">
         <v>126</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="AK3" s="12" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="AM3" s="12" t="s">
-        <v>500</v>
+        <v>413</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>502</v>
+        <v>415</v>
       </c>
       <c r="AP3" s="12" t="s">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>505</v>
+        <v>418</v>
       </c>
       <c r="AS3" s="12" t="s">
-        <v>561</v>
+        <v>474</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>562</v>
+        <v>475</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>508</v>
+        <v>421</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>509</v>
+        <v>422</v>
       </c>
       <c r="AX3" s="12" t="s">
-        <v>510</v>
+        <v>423</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>511</v>
+        <v>424</v>
       </c>
       <c r="AZ3" s="12" t="s">
-        <v>512</v>
+        <v>425</v>
       </c>
       <c r="BA3" s="12" t="s">
-        <v>513</v>
+        <v>426</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>563</v>
+        <v>476</v>
       </c>
       <c r="BC3" s="12" t="s">
-        <v>515</v>
+        <v>428</v>
       </c>
       <c r="BD3" s="12" t="s">
-        <v>516</v>
+        <v>429</v>
       </c>
       <c r="BE3" s="12" t="s">
-        <v>517</v>
+        <v>430</v>
       </c>
       <c r="BF3" s="12" t="s">
-        <v>518</v>
+        <v>431</v>
       </c>
       <c r="BG3" s="12" t="s">
-        <v>519</v>
+        <v>432</v>
       </c>
       <c r="BH3" s="12" t="s">
-        <v>520</v>
+        <v>433</v>
       </c>
       <c r="BI3" s="12" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="BJ3" s="12" t="s">
-        <v>521</v>
+        <v>434</v>
       </c>
       <c r="BK3" s="12" t="s">
-        <v>522</v>
+        <v>435</v>
       </c>
       <c r="BL3" s="12" t="s">
-        <v>523</v>
+        <v>436</v>
       </c>
       <c r="BM3" s="12" t="s">
-        <v>524</v>
+        <v>437</v>
       </c>
       <c r="BN3" s="12" t="s">
-        <v>525</v>
+        <v>438</v>
       </c>
       <c r="BO3" s="12" t="s">
-        <v>526</v>
+        <v>439</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>527</v>
+        <v>440</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>528</v>
+        <v>441</v>
       </c>
       <c r="BR3" s="12" t="s">
-        <v>529</v>
+        <v>442</v>
       </c>
       <c r="BS3" s="12" t="s">
-        <v>530</v>
+        <v>443</v>
       </c>
       <c r="BT3" s="12" t="s">
-        <v>531</v>
+        <v>444</v>
       </c>
       <c r="BU3" s="2" t="s">
-        <v>532</v>
+        <v>445</v>
       </c>
       <c r="BV3" s="12" t="s">
-        <v>533</v>
+        <v>446</v>
       </c>
       <c r="BW3" s="12" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="BX3" s="12" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="BY3" s="12" t="s">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="BZ3" s="12" t="s">
-        <v>535</v>
+        <v>448</v>
       </c>
       <c r="CA3" s="12" t="s">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="CB3" s="12" t="s">
-        <v>537</v>
+        <v>450</v>
       </c>
       <c r="CC3" s="12" t="s">
-        <v>538</v>
+        <v>451</v>
       </c>
       <c r="CD3" s="12" t="s">
-        <v>539</v>
+        <v>452</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>540</v>
+        <v>453</v>
       </c>
       <c r="CF3" s="12" t="s">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>542</v>
+        <v>455</v>
       </c>
       <c r="CH3" s="12" t="s">
-        <v>543</v>
+        <v>456</v>
       </c>
       <c r="CI3" s="12" t="s">
-        <v>544</v>
+        <v>457</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>545</v>
+        <v>458</v>
       </c>
       <c r="CK3" s="12" t="s">
-        <v>546</v>
+        <v>459</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>547</v>
+        <v>460</v>
       </c>
       <c r="CM3" s="12" t="s">
-        <v>548</v>
+        <v>461</v>
       </c>
       <c r="CN3" s="2" t="s">
-        <v>549</v>
+        <v>462</v>
       </c>
       <c r="CO3" s="12" t="s">
-        <v>550</v>
+        <v>463</v>
       </c>
       <c r="CP3" s="2" t="s">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="CQ3" s="12" t="s">
-        <v>552</v>
+        <v>465</v>
       </c>
       <c r="CR3" s="2" t="s">
-        <v>553</v>
+        <v>466</v>
       </c>
       <c r="CS3" s="12" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="CT3" s="12" t="s">
-        <v>555</v>
+        <v>468</v>
       </c>
       <c r="CU3" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CV3" s="12" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="CW3" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CX3" s="12" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="CY3" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CZ3" s="12" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="DA3" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:105" ht="54.95" customHeight="1">
+    <row r="4" spans="1:105" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>564</v>
+        <v>477</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>107</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>109</v>
@@ -12275,312 +15547,312 @@
         <v>110</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="X4" s="12" t="s">
         <v>126</v>
       </c>
       <c r="Y4" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="BA4" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="BB4" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="AA4" s="12" t="s">
+      <c r="BC4" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="BD4" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="BE4" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="BF4" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="BG4" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="BH4" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="BI4" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="BJ4" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="BK4" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="BL4" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BM4" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="BN4" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="BO4" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="BP4" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="BR4" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="BS4" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="BT4" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="BU4" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="BV4" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="BW4" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="BX4" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="BY4" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="BZ4" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="CA4" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="CB4" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="CC4" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="CD4" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="CE4" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="CF4" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="CG4" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="CH4" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="CI4" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="CJ4" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AE4" s="12" t="s">
+      <c r="CK4" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="CL4" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="CM4" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="CN4" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="AF4" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AI4" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="AK4" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO4" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="AP4" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="AR4" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="AZ4" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="BA4" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="BC4" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="BD4" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="BE4" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="BF4" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="BH4" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="BI4" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="BJ4" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="BK4" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="BL4" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="BM4" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="BN4" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="BO4" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="BP4" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="BQ4" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="BR4" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="BS4" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="BT4" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="BU4" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="BV4" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="BW4" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="BX4" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="BY4" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="BZ4" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="CA4" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="CB4" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="CC4" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="CD4" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="CE4" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="CF4" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="CG4" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="CH4" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="CI4" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="CJ4" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="CK4" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="CL4" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="CM4" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="CN4" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="CO4" s="12" t="s">
-        <v>550</v>
+        <v>463</v>
       </c>
       <c r="CP4" s="2" t="s">
-        <v>580</v>
+        <v>493</v>
       </c>
       <c r="CQ4" s="12" t="s">
-        <v>552</v>
+        <v>465</v>
       </c>
       <c r="CR4" s="2" t="s">
-        <v>553</v>
+        <v>466</v>
       </c>
       <c r="CS4" s="12" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="CT4" s="12" t="s">
-        <v>555</v>
+        <v>468</v>
       </c>
       <c r="CU4" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CV4" s="12" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="CW4" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CX4" s="12" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="CY4" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CZ4" s="12" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="DA4" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:105" s="2" customFormat="1" ht="54.95" customHeight="1">
+    <row r="5" spans="1:105" s="2" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>581</v>
+        <v>494</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>107</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>109</v>
@@ -12589,292 +15861,292 @@
         <v>110</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="X5" s="12" t="s">
         <v>126</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>582</v>
+        <v>495</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="AH5" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AI5" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AZ5" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="BA5" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="BC5" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="BD5" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="BE5" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="BF5" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="BG5" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="BH5" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="BI5" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="BJ5" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="BK5" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="BL5" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BM5" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="BN5" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="BO5" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="BR5" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="BS5" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="BT5" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="BU5" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BV5" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="BW5" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="BX5" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="BY5" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="BZ5" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="CA5" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="CB5" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="CC5" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="CD5" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="CE5" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="CF5" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="CG5" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="AI5" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="AK5" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="AM5" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="AO5" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="AP5" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="AR5" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="AS5" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="AX5" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="AZ5" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="BA5" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="BC5" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="BD5" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="BE5" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="BF5" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG5" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="BH5" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="BI5" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="BJ5" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="BK5" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="BL5" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="BM5" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="BN5" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="BO5" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="BP5" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="BQ5" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="BR5" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="BS5" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="BT5" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="BU5" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="BV5" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="BW5" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="BX5" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="BY5" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="BZ5" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="CA5" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="CB5" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="CC5" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="CD5" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="CE5" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="CF5" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="CG5" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="CH5" s="12" t="s">
-        <v>543</v>
+        <v>456</v>
       </c>
       <c r="CI5" s="12" t="s">
-        <v>544</v>
+        <v>457</v>
       </c>
       <c r="CJ5" s="2" t="s">
-        <v>545</v>
+        <v>458</v>
       </c>
       <c r="CK5" s="12" t="s">
-        <v>546</v>
+        <v>459</v>
       </c>
       <c r="CL5" s="2" t="s">
-        <v>547</v>
+        <v>460</v>
       </c>
       <c r="CM5" s="12" t="s">
-        <v>548</v>
+        <v>461</v>
       </c>
       <c r="CN5" s="2" t="s">
-        <v>549</v>
+        <v>462</v>
       </c>
       <c r="CO5" s="12" t="s">
-        <v>550</v>
+        <v>463</v>
       </c>
       <c r="CP5" s="2" t="s">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="CQ5" s="12" t="s">
-        <v>552</v>
+        <v>465</v>
       </c>
       <c r="CR5" s="2" t="s">
-        <v>553</v>
+        <v>466</v>
       </c>
       <c r="CS5" s="12" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="CT5" s="12" t="s">
-        <v>555</v>
+        <v>468</v>
       </c>
       <c r="CU5" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CV5" s="12" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="CW5" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CX5" s="12" t="s">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="CY5" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="CZ5" s="12" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="DA5" s="2" t="s">
-        <v>556</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -12884,6 +16156,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
@@ -12893,15 +16174,6 @@
     <Comment xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13120,13 +16392,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5FDC5C-D626-4B87-97B5-B79DFC26F2FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF03F5EE-765F-4A4C-B279-DCB1DCEB979E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5FDC5C-D626-4B87-97B5-B79DFC26F2FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9745F6CE-11AD-4547-BE02-8622392B4837}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9745F6CE-11AD-4547-BE02-8622392B4837}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
+    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>